--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-25.xlsx
@@ -679,7 +679,7 @@
         <v>6.2</v>
       </c>
       <c r="J2" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="K2" t="n">
         <v>5</v>
@@ -688,13 +688,13 @@
         <v>1.29</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>2.32</v>
+        <v>5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P2" t="n">
         <v>2.32</v>
@@ -703,76 +703,76 @@
         <v>1.63</v>
       </c>
       <c r="R2" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="S2" t="n">
-        <v>2.38</v>
+        <v>2.52</v>
       </c>
       <c r="T2" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="U2" t="n">
-        <v>2.06</v>
+        <v>2.18</v>
       </c>
       <c r="V2" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W2" t="n">
         <v>2.4</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="K3" t="n">
         <v>1000</v>
@@ -835,7 +835,7 @@
         <v>1.7</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="G5" t="n">
         <v>1.52</v>
@@ -1081,13 +1081,13 @@
         <v>6.2</v>
       </c>
       <c r="I5" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J5" t="n">
         <v>5.3</v>
       </c>
       <c r="K5" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="Q5" t="n">
         <v>1.29</v>
@@ -1210,16 +1210,16 @@
         <v>1.96</v>
       </c>
       <c r="G6" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="H6" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="I6" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J6" t="n">
         <v>3.9</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.6</v>
       </c>
       <c r="K6" t="n">
         <v>4.5</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="G7" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="H7" t="n">
-        <v>2.58</v>
+        <v>6.4</v>
       </c>
       <c r="I7" t="n">
-        <v>19</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J7" t="n">
         <v>4.5</v>
       </c>
       <c r="K7" t="n">
-        <v>1000</v>
+        <v>5.9</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.58</v>
+        <v>2.9</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1486,7 +1486,7 @@
         <v>2.62</v>
       </c>
       <c r="I8" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="J8" t="n">
         <v>3.4</v>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-25.xlsx
@@ -682,7 +682,7 @@
         <v>4.3</v>
       </c>
       <c r="K2" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="L2" t="n">
         <v>1.29</v>
@@ -712,7 +712,7 @@
         <v>1.69</v>
       </c>
       <c r="U2" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V2" t="n">
         <v>1.2</v>
@@ -970,7 +970,7 @@
         <v>1.25</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1210,16 +1210,16 @@
         <v>1.96</v>
       </c>
       <c r="G6" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="H6" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I6" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="J6" t="n">
-        <v>3.9</v>
+        <v>3.45</v>
       </c>
       <c r="K6" t="n">
         <v>4.5</v>
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="G7" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="H7" t="n">
         <v>6.4</v>
@@ -1354,7 +1354,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="J7" t="n">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="K7" t="n">
         <v>5.9</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-25.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="G2" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="H2" t="n">
         <v>5.2</v>
       </c>
       <c r="I2" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="J2" t="n">
         <v>4.3</v>
@@ -724,7 +724,7 @@
         <v>24</v>
       </c>
       <c r="Y2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z2" t="n">
         <v>980</v>
@@ -733,7 +733,7 @@
         <v>150</v>
       </c>
       <c r="AB2" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC2" t="n">
         <v>11</v>
@@ -742,7 +742,7 @@
         <v>23</v>
       </c>
       <c r="AE2" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AF2" t="n">
         <v>12.5</v>
@@ -754,7 +754,7 @@
         <v>19.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ2" t="n">
         <v>17.5</v>
@@ -766,13 +766,13 @@
         <v>30</v>
       </c>
       <c r="AM2" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AN2" t="n">
         <v>7.8</v>
       </c>
       <c r="AO2" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="G3" t="n">
-        <v>1.59</v>
+        <v>1.46</v>
       </c>
       <c r="H3" t="n">
-        <v>2.66</v>
+        <v>10</v>
       </c>
       <c r="I3" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="J3" t="n">
-        <v>3.95</v>
+        <v>4.5</v>
       </c>
       <c r="K3" t="n">
-        <v>1000</v>
+        <v>5.1</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>3.65</v>
       </c>
       <c r="K4" t="n">
-        <v>950</v>
+        <v>5.8</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.25</v>
+        <v>2.46</v>
       </c>
       <c r="Q4" t="n">
         <v>1.42</v>
@@ -1075,16 +1075,16 @@
         <v>1.41</v>
       </c>
       <c r="G5" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="H5" t="n">
         <v>6.2</v>
       </c>
       <c r="I5" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="J5" t="n">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="K5" t="n">
         <v>6.6</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q5" t="n">
         <v>1.29</v>
@@ -1354,7 +1354,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="J7" t="n">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="K7" t="n">
         <v>5.9</v>
@@ -1510,7 +1510,7 @@
         <v>1.97</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.88</v>
+        <v>1.74</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-25.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="G2" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="H2" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="I2" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="J2" t="n">
         <v>4.3</v>
       </c>
       <c r="K2" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L2" t="n">
         <v>1.29</v>
@@ -715,10 +715,10 @@
         <v>2.2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W2" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="X2" t="n">
         <v>24</v>
@@ -739,7 +739,7 @@
         <v>11</v>
       </c>
       <c r="AD2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE2" t="n">
         <v>75</v>
@@ -751,7 +751,7 @@
         <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI2" t="n">
         <v>70</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="G3" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="I3" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="J3" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="K3" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.88</v>
+        <v>1.81</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -940,19 +940,19 @@
         <v>1.9</v>
       </c>
       <c r="G4" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="H4" t="n">
         <v>3.35</v>
       </c>
       <c r="I4" t="n">
-        <v>4.6</v>
+        <v>3.85</v>
       </c>
       <c r="J4" t="n">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
       <c r="K4" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>2.46</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="G5" t="n">
         <v>1.51</v>
@@ -1087,7 +1087,7 @@
         <v>4.8</v>
       </c>
       <c r="K5" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>3.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1216,10 +1216,10 @@
         <v>3.45</v>
       </c>
       <c r="I6" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="J6" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="K6" t="n">
         <v>4.5</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="G7" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="H7" t="n">
         <v>6.4</v>
       </c>
       <c r="I7" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="J7" t="n">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="K7" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1480,16 +1480,16 @@
         <v>2.76</v>
       </c>
       <c r="G8" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="H8" t="n">
         <v>2.62</v>
       </c>
       <c r="I8" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="J8" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K8" t="n">
         <v>3.8</v>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.74</v>
+        <v>1.9</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-25.xlsx
@@ -808,10 +808,10 @@
         <v>1.49</v>
       </c>
       <c r="H3" t="n">
-        <v>9.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="J3" t="n">
         <v>4.4</v>
@@ -820,94 +820,94 @@
         <v>5.2</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="P3" t="n">
         <v>1.81</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="G4" t="n">
         <v>2.12</v>
@@ -952,7 +952,7 @@
         <v>4.1</v>
       </c>
       <c r="K4" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -967,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.46</v>
+        <v>2.68</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>3.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1219,7 +1219,7 @@
         <v>3.9</v>
       </c>
       <c r="J6" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="K6" t="n">
         <v>4.5</v>
@@ -1354,7 +1354,7 @@
         <v>9</v>
       </c>
       <c r="J7" t="n">
-        <v>5.1</v>
+        <v>4.4</v>
       </c>
       <c r="K7" t="n">
         <v>6</v>
@@ -1477,19 +1477,19 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="G8" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="H8" t="n">
-        <v>2.62</v>
+        <v>2.54</v>
       </c>
       <c r="I8" t="n">
         <v>2.82</v>
       </c>
       <c r="J8" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="K8" t="n">
         <v>3.8</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-25.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="G2" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="H2" t="n">
         <v>5.1</v>
       </c>
       <c r="I2" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="J2" t="n">
         <v>4.3</v>
@@ -685,40 +685,40 @@
         <v>4.7</v>
       </c>
       <c r="L2" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O2" t="n">
         <v>1.21</v>
       </c>
       <c r="P2" t="n">
-        <v>2.32</v>
+        <v>2.44</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="R2" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="S2" t="n">
-        <v>2.52</v>
+        <v>2.62</v>
       </c>
       <c r="T2" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="U2" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="V2" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W2" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="X2" t="n">
         <v>24</v>
@@ -727,7 +727,7 @@
         <v>24</v>
       </c>
       <c r="Z2" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AA2" t="n">
         <v>150</v>
@@ -736,7 +736,7 @@
         <v>11.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD2" t="n">
         <v>21</v>
@@ -748,10 +748,10 @@
         <v>12.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI2" t="n">
         <v>70</v>
@@ -769,7 +769,7 @@
         <v>85</v>
       </c>
       <c r="AN2" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AO2" t="n">
         <v>70</v>
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="G3" t="n">
         <v>1.49</v>
       </c>
       <c r="H3" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="I3" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="J3" t="n">
         <v>4.4</v>
@@ -820,34 +820,34 @@
         <v>5.2</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>1.81</v>
+        <v>3.4</v>
       </c>
       <c r="O3" t="n">
         <v>1.34</v>
       </c>
       <c r="P3" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="Q3" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R3" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="S3" t="n">
-        <v>3.05</v>
+        <v>3.55</v>
       </c>
       <c r="T3" t="n">
-        <v>1.87</v>
+        <v>2.24</v>
       </c>
       <c r="U3" t="n">
-        <v>1.44</v>
+        <v>1.65</v>
       </c>
       <c r="V3" t="n">
         <v>1.09</v>
@@ -856,58 +856,58 @@
         <v>3</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>570</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>470</v>
       </c>
     </row>
     <row r="4">
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="Q4" t="n">
         <v>1.41</v>
@@ -1219,7 +1219,7 @@
         <v>3.9</v>
       </c>
       <c r="J6" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="K6" t="n">
         <v>4.5</v>
@@ -1354,7 +1354,7 @@
         <v>9</v>
       </c>
       <c r="J7" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K7" t="n">
         <v>6</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO8"/>
+  <dimension ref="A1:AO18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="G2" t="n">
         <v>1.72</v>
@@ -691,7 +691,7 @@
         <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O2" t="n">
         <v>1.21</v>
@@ -805,7 +805,7 @@
         <v>1.4</v>
       </c>
       <c r="G3" t="n">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="H3" t="n">
         <v>9.4</v>
@@ -817,7 +817,7 @@
         <v>4.4</v>
       </c>
       <c r="K3" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="L3" t="n">
         <v>1.41</v>
@@ -826,34 +826,34 @@
         <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="O3" t="n">
         <v>1.34</v>
       </c>
       <c r="P3" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="Q3" t="n">
         <v>2.02</v>
       </c>
       <c r="R3" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="S3" t="n">
         <v>3.55</v>
       </c>
       <c r="T3" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="U3" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="V3" t="n">
         <v>1.09</v>
       </c>
       <c r="W3" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="X3" t="n">
         <v>17.5</v>
@@ -898,22 +898,22 @@
         <v>18.5</v>
       </c>
       <c r="AL3" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AM3" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AN3" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AO3" t="n">
-        <v>470</v>
+        <v>460</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Vitesse Arnhem</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Jong PSV Eindhoven</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.93</v>
+        <v>4.3</v>
       </c>
       <c r="G4" t="n">
-        <v>2.12</v>
+        <v>4.5</v>
       </c>
       <c r="H4" t="n">
-        <v>3.35</v>
+        <v>1.94</v>
       </c>
       <c r="I4" t="n">
-        <v>3.85</v>
+        <v>1.95</v>
       </c>
       <c r="J4" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="K4" t="n">
-        <v>5.4</v>
+        <v>3.95</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P4" t="n">
-        <v>2.72</v>
+        <v>2.22</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.41</v>
+        <v>1.75</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,126 +1058,126 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>Union St Gilloise</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.42</v>
+        <v>1.64</v>
       </c>
       <c r="G5" t="n">
-        <v>1.51</v>
+        <v>1.66</v>
       </c>
       <c r="H5" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="I5" t="n">
-        <v>8.6</v>
+        <v>6</v>
       </c>
       <c r="J5" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="K5" t="n">
-        <v>6.4</v>
+        <v>4.7</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="P5" t="n">
-        <v>3.5</v>
+        <v>2.56</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.29</v>
+        <v>1.59</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
@@ -1198,121 +1198,121 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Roda JC</t>
+          <t>RKC Waalwijk</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>FC Dordrecht</t>
+          <t>MVV Maastricht</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.96</v>
+        <v>1.43</v>
       </c>
       <c r="G6" t="n">
-        <v>2.14</v>
+        <v>1.52</v>
       </c>
       <c r="H6" t="n">
-        <v>3.45</v>
+        <v>6.4</v>
       </c>
       <c r="I6" t="n">
-        <v>3.9</v>
+        <v>9</v>
       </c>
       <c r="J6" t="n">
-        <v>3.6</v>
+        <v>4.9</v>
       </c>
       <c r="K6" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="P6" t="n">
-        <v>2.46</v>
+        <v>2.92</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.56</v>
+        <v>1.42</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1333,256 +1333,1606 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>RKC Waalwijk</t>
+          <t>Roda JC</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MVV Maastricht</t>
+          <t>FC Dordrecht</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.43</v>
+        <v>1.96</v>
       </c>
       <c r="G7" t="n">
-        <v>1.52</v>
+        <v>2.14</v>
       </c>
       <c r="H7" t="n">
-        <v>6.4</v>
+        <v>3.45</v>
       </c>
       <c r="I7" t="n">
-        <v>9</v>
+        <v>3.9</v>
       </c>
       <c r="J7" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K7" t="n">
         <v>4.5</v>
       </c>
-      <c r="K7" t="n">
-        <v>6</v>
-      </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="P7" t="n">
-        <v>2.92</v>
+        <v>2.46</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.42</v>
+        <v>1.56</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>French Ligue 2</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-11-25</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Bastia</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Laval</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="X8" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>90</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>240</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>38</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-11-25</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ADO Den Haag</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>De Graafschap</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="H9" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>8</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K9" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N9" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="W9" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="X9" t="n">
+        <v>55</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>95</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>200</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-11-25</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Vitesse Arnhem</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Jong PSV Eindhoven</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N10" t="n">
+        <v>6</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="X10" t="n">
+        <v>980</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>980</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Scottish Premiership</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>2025-11-25</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>16:45:00</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Motherwell</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>Hibernian</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="F11" t="n">
         <v>2.74</v>
       </c>
-      <c r="G8" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H8" t="n">
+      <c r="G11" t="n">
+        <v>3</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-11-25</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Marseille</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N12" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-11-25</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Leverkusen</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="H13" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="I13" t="n">
+        <v>15</v>
+      </c>
+      <c r="J13" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="K13" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N13" t="n">
+        <v>8</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>44</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>60</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>170</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>540</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>18</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>220</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-11-25</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Qarabag FK</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="H14" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="I14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J14" t="n">
+        <v>6</v>
+      </c>
+      <c r="K14" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N14" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P14" t="n">
         <v>2.54</v>
       </c>
-      <c r="I8" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="J8" t="n">
+      <c r="Q14" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>540</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>100</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>230</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-11-25</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I15" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N15" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-11-25</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Bodo Glimt</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="G16" t="n">
         <v>3.35</v>
       </c>
-      <c r="K8" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>0</v>
+      <c r="H16" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K16" t="n">
+        <v>4</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N16" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>24</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025-11-25</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="J17" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N17" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="U17" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>42</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025-11-25</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Slavia Prague</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Athletic Bilbao</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="G18" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N18" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>980</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO18"/>
+  <dimension ref="A1:AO19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="G2" t="n">
         <v>1.72</v>
       </c>
       <c r="H2" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="I2" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="J2" t="n">
         <v>4.3</v>
@@ -691,10 +691,10 @@
         <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="O2" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
         <v>2.44</v>
@@ -709,13 +709,13 @@
         <v>2.62</v>
       </c>
       <c r="T2" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="U2" t="n">
         <v>2.3</v>
       </c>
       <c r="V2" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W2" t="n">
         <v>2.38</v>
@@ -745,7 +745,7 @@
         <v>75</v>
       </c>
       <c r="AF2" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG2" t="n">
         <v>10.5</v>
@@ -982,7 +982,7 @@
         <v>1.69</v>
       </c>
       <c r="U4" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="V4" t="n">
         <v>2.04</v>
@@ -1021,7 +1021,7 @@
         <v>17.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI4" t="n">
         <v>30</v>
@@ -1039,7 +1039,7 @@
         <v>80</v>
       </c>
       <c r="AN4" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AO4" t="n">
         <v>11</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="G5" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="H5" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="I5" t="n">
         <v>5.7</v>
       </c>
-      <c r="I5" t="n">
-        <v>6</v>
-      </c>
       <c r="J5" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="K5" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L5" t="n">
         <v>1.29</v>
@@ -1096,7 +1096,7 @@
         <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="O5" t="n">
         <v>1.2</v>
@@ -1105,40 +1105,40 @@
         <v>2.56</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="R5" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="S5" t="n">
         <v>2.48</v>
       </c>
       <c r="T5" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="U5" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="V5" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W5" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="X5" t="n">
         <v>25</v>
       </c>
       <c r="Y5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z5" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA5" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AB5" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC5" t="n">
         <v>10.5</v>
@@ -1150,16 +1150,16 @@
         <v>65</v>
       </c>
       <c r="AF5" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AG5" t="n">
         <v>9.6</v>
       </c>
       <c r="AH5" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ5" t="n">
         <v>16.5</v>
@@ -1171,7 +1171,7 @@
         <v>28</v>
       </c>
       <c r="AM5" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN5" t="n">
         <v>6.6</v>
@@ -1216,103 +1216,103 @@
         <v>6.4</v>
       </c>
       <c r="I6" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J6" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="K6" t="n">
         <v>6</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="M6" t="n">
         <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>2.92</v>
+        <v>6.6</v>
       </c>
       <c r="O6" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="P6" t="n">
         <v>2.92</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="R6" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="T6" t="n">
         <v>1.64</v>
       </c>
-      <c r="S6" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.43</v>
-      </c>
       <c r="U6" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="V6" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W6" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="X6" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="Y6" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="Z6" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AB6" t="n">
-        <v>20</v>
+        <v>14.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AD6" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AE6" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AF6" t="n">
-        <v>18</v>
+        <v>12.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>11.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="AI6" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="AJ6" t="n">
-        <v>21</v>
+        <v>14.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>20</v>
+        <v>14.5</v>
       </c>
       <c r="AL6" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AM6" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>5.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
@@ -1354,7 +1354,7 @@
         <v>3.9</v>
       </c>
       <c r="J7" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="K7" t="n">
         <v>4.5</v>
@@ -1366,10 +1366,10 @@
         <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>2.46</v>
+        <v>5.2</v>
       </c>
       <c r="O7" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P7" t="n">
         <v>2.46</v>
@@ -1378,16 +1378,16 @@
         <v>1.56</v>
       </c>
       <c r="R7" t="n">
-        <v>1.24</v>
+        <v>1.58</v>
       </c>
       <c r="S7" t="n">
-        <v>2.16</v>
+        <v>2.38</v>
       </c>
       <c r="T7" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="U7" t="n">
-        <v>2.02</v>
+        <v>2.48</v>
       </c>
       <c r="V7" t="n">
         <v>1.34</v>
@@ -1396,58 +1396,58 @@
         <v>1.87</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
@@ -1480,13 +1480,13 @@
         <v>2.12</v>
       </c>
       <c r="G8" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="H8" t="n">
         <v>3.9</v>
       </c>
       <c r="I8" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="J8" t="n">
         <v>3</v>
@@ -1504,7 +1504,7 @@
         <v>2.58</v>
       </c>
       <c r="O8" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="P8" t="n">
         <v>1.54</v>
@@ -1528,7 +1528,7 @@
         <v>1.29</v>
       </c>
       <c r="W8" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="X8" t="n">
         <v>11</v>
@@ -1573,7 +1573,7 @@
         <v>38</v>
       </c>
       <c r="AL8" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AM8" t="n">
         <v>240</v>
@@ -1615,19 +1615,19 @@
         <v>1.42</v>
       </c>
       <c r="G9" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="H9" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="I9" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="J9" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="K9" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="L9" t="n">
         <v>1.19</v>
@@ -1642,7 +1642,7 @@
         <v>1.1</v>
       </c>
       <c r="P9" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="Q9" t="n">
         <v>1.29</v>
@@ -1660,10 +1660,10 @@
         <v>2.56</v>
       </c>
       <c r="V9" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="W9" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="X9" t="n">
         <v>55</v>
@@ -1762,7 +1762,7 @@
         <v>4.1</v>
       </c>
       <c r="K10" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
@@ -1777,7 +1777,7 @@
         <v>1.15</v>
       </c>
       <c r="P10" t="n">
-        <v>2.72</v>
+        <v>2.48</v>
       </c>
       <c r="Q10" t="n">
         <v>1.41</v>
@@ -1846,7 +1846,7 @@
         <v>980</v>
       </c>
       <c r="AM10" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AN10" t="n">
         <v>9.800000000000001</v>
@@ -1858,7 +1858,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,127 +1873,127 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Motherwell</t>
+          <t>Partick</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Hibernian</t>
+          <t>Dunfermline</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.74</v>
+        <v>1.72</v>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>2.14</v>
       </c>
       <c r="H11" t="n">
-        <v>2.56</v>
+        <v>3.95</v>
       </c>
       <c r="I11" t="n">
-        <v>2.8</v>
+        <v>7</v>
       </c>
       <c r="J11" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="K11" t="n">
-        <v>3.8</v>
+        <v>1000</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P11" t="n">
-        <v>1.97</v>
+        <v>1.63</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,126 +2003,126 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Motherwell</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Hibernian</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.96</v>
+        <v>2.74</v>
       </c>
       <c r="G12" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="I12" t="n">
-        <v>2.64</v>
+        <v>2.8</v>
       </c>
       <c r="J12" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K12" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="M12" t="n">
         <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="O12" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="P12" t="n">
-        <v>2.12</v>
+        <v>1.97</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="R12" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="S12" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T12" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="U12" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X12" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y12" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD12" t="n">
         <v>12.5</v>
       </c>
-      <c r="Z12" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>38</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>12</v>
-      </c>
       <c r="AE12" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AF12" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI12" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK12" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AL12" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AM12" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AN12" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AO12" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
     </row>
     <row r="13">
@@ -2143,121 +2143,121 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Leverkusen</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.26</v>
+        <v>2.96</v>
       </c>
       <c r="G13" t="n">
-        <v>1.27</v>
+        <v>3</v>
       </c>
       <c r="H13" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N13" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X13" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB13" t="n">
         <v>13.5</v>
       </c>
-      <c r="I13" t="n">
-        <v>15</v>
-      </c>
-      <c r="J13" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="K13" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N13" t="n">
-        <v>8</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" t="n">
-        <v>44</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>60</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>170</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>540</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AC13" t="n">
-        <v>18</v>
+        <v>7.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>50</v>
+        <v>11.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>220</v>
+        <v>26</v>
       </c>
       <c r="AF13" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AJ13" t="n">
-        <v>10.5</v>
+        <v>46</v>
       </c>
       <c r="AK13" t="n">
-        <v>12.5</v>
+        <v>30</v>
       </c>
       <c r="AL13" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AM13" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AN13" t="n">
-        <v>3.35</v>
+        <v>25</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
@@ -2278,121 +2278,121 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Qarabag FK</t>
+          <t>Leverkusen</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
       <c r="G14" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="H14" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="I14" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="J14" t="n">
-        <v>6</v>
+        <v>7.2</v>
       </c>
       <c r="K14" t="n">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="M14" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N14" t="n">
-        <v>5.6</v>
+        <v>8</v>
       </c>
       <c r="O14" t="n">
-        <v>1.2</v>
+        <v>1.12</v>
       </c>
       <c r="P14" t="n">
-        <v>2.54</v>
+        <v>3.35</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="R14" t="n">
-        <v>1.61</v>
+        <v>1.94</v>
       </c>
       <c r="S14" t="n">
-        <v>2.54</v>
+        <v>1.99</v>
       </c>
       <c r="T14" t="n">
-        <v>2.06</v>
+        <v>1.87</v>
       </c>
       <c r="U14" t="n">
-        <v>1.89</v>
+        <v>2.08</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="X14" t="n">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="Y14" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="Z14" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AA14" t="n">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="AB14" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AC14" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="AD14" t="n">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="AE14" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="AF14" t="n">
-        <v>8.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG14" t="n">
         <v>11</v>
       </c>
       <c r="AH14" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AI14" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ14" t="n">
         <v>10.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AL14" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="AM14" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.6</v>
+        <v>3.35</v>
       </c>
       <c r="AO14" t="n">
-        <v>290</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15">
@@ -2413,121 +2413,121 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>Qarabag FK</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.92</v>
+        <v>1.32</v>
       </c>
       <c r="G15" t="n">
-        <v>1.94</v>
+        <v>1.33</v>
       </c>
       <c r="H15" t="n">
-        <v>4.4</v>
+        <v>11</v>
       </c>
       <c r="I15" t="n">
-        <v>4.6</v>
+        <v>12.5</v>
       </c>
       <c r="J15" t="n">
-        <v>3.85</v>
+        <v>6.2</v>
       </c>
       <c r="K15" t="n">
-        <v>3.95</v>
+        <v>6.6</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>4.7</v>
+        <v>5.6</v>
       </c>
       <c r="O15" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="P15" t="n">
-        <v>2.26</v>
+        <v>2.54</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.77</v>
+        <v>1.61</v>
       </c>
       <c r="R15" t="n">
-        <v>1.49</v>
+        <v>1.61</v>
       </c>
       <c r="S15" t="n">
-        <v>2.92</v>
+        <v>2.52</v>
       </c>
       <c r="T15" t="n">
-        <v>1.72</v>
+        <v>2.06</v>
       </c>
       <c r="U15" t="n">
-        <v>2.3</v>
+        <v>1.88</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X15" t="n">
-        <v>18.5</v>
+        <v>26</v>
       </c>
       <c r="Y15" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="Z15" t="n">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="AA15" t="n">
-        <v>110</v>
+        <v>440</v>
       </c>
       <c r="AB15" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.6</v>
+        <v>14</v>
       </c>
       <c r="AD15" t="n">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="AE15" t="n">
-        <v>55</v>
+        <v>180</v>
       </c>
       <c r="AF15" t="n">
-        <v>13</v>
+        <v>8.4</v>
       </c>
       <c r="AG15" t="n">
         <v>10.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="AI15" t="n">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="AJ15" t="n">
-        <v>21</v>
+        <v>10.5</v>
       </c>
       <c r="AK15" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AL15" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AM15" t="n">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="AN15" t="n">
-        <v>10</v>
+        <v>4.6</v>
       </c>
       <c r="AO15" t="n">
-        <v>50</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16">
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Bodo Glimt</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.25</v>
+        <v>1.91</v>
       </c>
       <c r="G16" t="n">
-        <v>3.35</v>
+        <v>1.92</v>
       </c>
       <c r="H16" t="n">
-        <v>2.26</v>
+        <v>4.4</v>
       </c>
       <c r="I16" t="n">
-        <v>2.28</v>
+        <v>4.5</v>
       </c>
       <c r="J16" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K16" t="n">
         <v>4</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M16" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>5.3</v>
+        <v>4.7</v>
       </c>
       <c r="O16" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="P16" t="n">
-        <v>2.48</v>
+        <v>2.26</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.63</v>
+        <v>1.77</v>
       </c>
       <c r="R16" t="n">
-        <v>1.6</v>
+        <v>1.51</v>
       </c>
       <c r="S16" t="n">
-        <v>2.58</v>
+        <v>2.9</v>
       </c>
       <c r="T16" t="n">
-        <v>1.58</v>
+        <v>1.72</v>
       </c>
       <c r="U16" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="X16" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Y16" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="Z16" t="n">
-        <v>16.5</v>
+        <v>34</v>
       </c>
       <c r="AA16" t="n">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="AB16" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="AC16" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD16" t="n">
-        <v>11.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE16" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ16" t="n">
         <v>21</v>
       </c>
-      <c r="AF16" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI16" t="n">
+      <c r="AK16" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO16" t="n">
         <v>48</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>24</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>11.5</v>
       </c>
     </row>
     <row r="17">
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Bodo Glimt</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.38</v>
+        <v>3.25</v>
       </c>
       <c r="G17" t="n">
-        <v>2.42</v>
+        <v>3.3</v>
       </c>
       <c r="H17" t="n">
-        <v>2.94</v>
+        <v>2.26</v>
       </c>
       <c r="I17" t="n">
-        <v>2.96</v>
+        <v>2.28</v>
       </c>
       <c r="J17" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="K17" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="M17" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>7.4</v>
+        <v>5.3</v>
       </c>
       <c r="O17" t="n">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="P17" t="n">
-        <v>3.15</v>
+        <v>2.48</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.44</v>
+        <v>1.64</v>
       </c>
       <c r="R17" t="n">
-        <v>1.88</v>
+        <v>1.6</v>
       </c>
       <c r="S17" t="n">
-        <v>2.06</v>
+        <v>2.58</v>
       </c>
       <c r="T17" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="W17" t="n">
         <v>1.43</v>
       </c>
-      <c r="U17" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
       <c r="X17" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="Y17" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>27</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN17" t="n">
         <v>23</v>
       </c>
-      <c r="Z17" t="n">
-        <v>27</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>28</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>25</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>42</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>9.4</v>
-      </c>
       <c r="AO17" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="18">
@@ -2818,121 +2818,256 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Slavia Prague</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Athletic Bilbao</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.15</v>
+        <v>2.4</v>
       </c>
       <c r="G18" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="J18" t="n">
+        <v>4</v>
+      </c>
+      <c r="K18" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N18" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="U18" t="n">
         <v>3.2</v>
       </c>
-      <c r="H18" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N18" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S18" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="U18" t="n">
-        <v>2.12</v>
-      </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="X18" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="Y18" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="Z18" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="AA18" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AB18" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AC18" t="n">
-        <v>7.4</v>
+        <v>11</v>
       </c>
       <c r="AD18" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AE18" t="n">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="AF18" t="n">
         <v>22</v>
       </c>
       <c r="AG18" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AH18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>27</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>24</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>42</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025-11-25</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Slavia Prague</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Athletic Bilbao</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="G19" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X19" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH19" t="n">
         <v>18</v>
       </c>
-      <c r="AI18" t="n">
+      <c r="AI19" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ19" t="n">
         <v>55</v>
       </c>
-      <c r="AJ18" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>980</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>25</v>
+      <c r="AK19" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>36</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-25.xlsx
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="G2" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="H2" t="n">
         <v>5.2</v>
@@ -700,7 +700,7 @@
         <v>2.44</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="R2" t="n">
         <v>1.57</v>
@@ -718,7 +718,7 @@
         <v>1.21</v>
       </c>
       <c r="W2" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="X2" t="n">
         <v>24</v>
@@ -943,19 +943,19 @@
         <v>4.5</v>
       </c>
       <c r="H4" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="I4" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="J4" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K4" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
@@ -979,13 +979,13 @@
         <v>2.88</v>
       </c>
       <c r="T4" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="U4" t="n">
         <v>2.3</v>
       </c>
       <c r="V4" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="W4" t="n">
         <v>1.29</v>
@@ -1027,19 +1027,19 @@
         <v>30</v>
       </c>
       <c r="AJ4" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AK4" t="n">
         <v>50</v>
       </c>
       <c r="AL4" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM4" t="n">
         <v>80</v>
       </c>
       <c r="AN4" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AO4" t="n">
         <v>11</v>
@@ -1078,10 +1078,10 @@
         <v>1.68</v>
       </c>
       <c r="H5" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="I5" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="J5" t="n">
         <v>4.4</v>
@@ -1099,13 +1099,13 @@
         <v>5.7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P5" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="R5" t="n">
         <v>1.64</v>
@@ -1114,13 +1114,13 @@
         <v>2.48</v>
       </c>
       <c r="T5" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U5" t="n">
         <v>2.4</v>
       </c>
       <c r="V5" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W5" t="n">
         <v>2.46</v>
@@ -1129,13 +1129,13 @@
         <v>25</v>
       </c>
       <c r="Y5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Z5" t="n">
         <v>48</v>
       </c>
       <c r="AA5" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AB5" t="n">
         <v>12.5</v>
@@ -1159,7 +1159,7 @@
         <v>17.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ5" t="n">
         <v>16.5</v>
@@ -1168,7 +1168,7 @@
         <v>15</v>
       </c>
       <c r="AL5" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AM5" t="n">
         <v>75</v>
@@ -1177,7 +1177,7 @@
         <v>6.6</v>
       </c>
       <c r="AO5" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6">
@@ -1384,7 +1384,7 @@
         <v>2.38</v>
       </c>
       <c r="T7" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="U7" t="n">
         <v>2.48</v>
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="G8" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="H8" t="n">
         <v>3.9</v>
@@ -1492,7 +1492,7 @@
         <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1528,7 +1528,7 @@
         <v>1.29</v>
       </c>
       <c r="W8" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="X8" t="n">
         <v>11</v>
@@ -1618,7 +1618,7 @@
         <v>1.5</v>
       </c>
       <c r="H9" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="I9" t="n">
         <v>7.8</v>
@@ -1846,7 +1846,7 @@
         <v>980</v>
       </c>
       <c r="AM10" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AN10" t="n">
         <v>9.800000000000001</v>
@@ -1891,37 +1891,37 @@
         <v>3.95</v>
       </c>
       <c r="I11" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J11" t="n">
         <v>3.2</v>
       </c>
       <c r="K11" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="L11" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M11" t="n">
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>2.24</v>
+        <v>2.14</v>
       </c>
       <c r="O11" t="n">
         <v>1.01</v>
       </c>
       <c r="P11" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.94</v>
+        <v>2.02</v>
       </c>
       <c r="R11" t="n">
         <v>1.25</v>
       </c>
       <c r="S11" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="T11" t="n">
         <v>1.04</v>
@@ -2020,10 +2020,10 @@
         <v>2.74</v>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="H12" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="I12" t="n">
         <v>2.8</v>
@@ -2056,7 +2056,7 @@
         <v>1.38</v>
       </c>
       <c r="S12" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T12" t="n">
         <v>1.71</v>
@@ -2068,7 +2068,7 @@
         <v>1.55</v>
       </c>
       <c r="W12" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X12" t="n">
         <v>18.5</v>
@@ -2158,10 +2158,10 @@
         <v>3</v>
       </c>
       <c r="H13" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="I13" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="J13" t="n">
         <v>3.5</v>
@@ -2188,7 +2188,7 @@
         <v>1.87</v>
       </c>
       <c r="R13" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S13" t="n">
         <v>3.15</v>
@@ -2257,7 +2257,7 @@
         <v>25</v>
       </c>
       <c r="AO13" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="14">
@@ -2287,10 +2287,10 @@
         </is>
       </c>
       <c r="F14" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G14" t="n">
         <v>1.26</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1.27</v>
       </c>
       <c r="H14" t="n">
         <v>13</v>
@@ -2299,7 +2299,7 @@
         <v>14</v>
       </c>
       <c r="J14" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="K14" t="n">
         <v>7.6</v>
@@ -2311,7 +2311,7 @@
         <v>1.02</v>
       </c>
       <c r="N14" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O14" t="n">
         <v>1.12</v>
@@ -2320,25 +2320,25 @@
         <v>3.35</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="R14" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="S14" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="T14" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="U14" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V14" t="n">
         <v>1.07</v>
       </c>
       <c r="W14" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="X14" t="n">
         <v>42</v>
@@ -2368,7 +2368,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH14" t="n">
         <v>28</v>
@@ -2389,7 +2389,7 @@
         <v>120</v>
       </c>
       <c r="AN14" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="AO14" t="n">
         <v>140</v>
@@ -2425,13 +2425,13 @@
         <v>1.32</v>
       </c>
       <c r="G15" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="H15" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="I15" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="J15" t="n">
         <v>6.2</v>
@@ -2446,7 +2446,7 @@
         <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="O15" t="n">
         <v>1.2</v>
@@ -2455,7 +2455,7 @@
         <v>2.54</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="R15" t="n">
         <v>1.61</v>
@@ -2485,7 +2485,7 @@
         <v>120</v>
       </c>
       <c r="AA15" t="n">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="AB15" t="n">
         <v>9.800000000000001</v>
@@ -2566,13 +2566,13 @@
         <v>4.4</v>
       </c>
       <c r="I16" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="J16" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K16" t="n">
         <v>3.95</v>
-      </c>
-      <c r="K16" t="n">
-        <v>4</v>
       </c>
       <c r="L16" t="n">
         <v>1.33</v>
@@ -2587,13 +2587,13 @@
         <v>1.25</v>
       </c>
       <c r="P16" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="Q16" t="n">
         <v>1.77</v>
       </c>
       <c r="R16" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="S16" t="n">
         <v>2.9</v>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="G17" t="n">
         <v>3.3</v>
@@ -2701,10 +2701,10 @@
         <v>2.26</v>
       </c>
       <c r="I17" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="J17" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K17" t="n">
         <v>4</v>
@@ -2740,7 +2740,7 @@
         <v>2.64</v>
       </c>
       <c r="V17" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="W17" t="n">
         <v>1.43</v>
@@ -2749,16 +2749,16 @@
         <v>22</v>
       </c>
       <c r="Y17" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AA17" t="n">
         <v>28</v>
       </c>
       <c r="AB17" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AC17" t="n">
         <v>9</v>
@@ -2767,7 +2767,7 @@
         <v>11</v>
       </c>
       <c r="AE17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF17" t="n">
         <v>26</v>
@@ -2779,7 +2779,7 @@
         <v>14.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AJ17" t="n">
         <v>55</v>
@@ -2797,7 +2797,7 @@
         <v>23</v>
       </c>
       <c r="AO17" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
@@ -2830,13 +2830,13 @@
         <v>2.4</v>
       </c>
       <c r="G18" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="H18" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="I18" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="J18" t="n">
         <v>4</v>
@@ -2872,7 +2872,7 @@
         <v>1.43</v>
       </c>
       <c r="U18" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="V18" t="n">
         <v>1.51</v>
@@ -2932,7 +2932,7 @@
         <v>9.4</v>
       </c>
       <c r="AO18" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="19">
@@ -2986,7 +2986,7 @@
         <v>1.08</v>
       </c>
       <c r="N19" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O19" t="n">
         <v>1.36</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-25.xlsx
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="G2" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="H2" t="n">
         <v>5.2</v>
@@ -691,34 +691,34 @@
         <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O2" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P2" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="R2" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="S2" t="n">
         <v>2.62</v>
       </c>
       <c r="T2" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U2" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="V2" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W2" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="X2" t="n">
         <v>24</v>
@@ -730,7 +730,7 @@
         <v>46</v>
       </c>
       <c r="AA2" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AB2" t="n">
         <v>11.5</v>
@@ -742,7 +742,7 @@
         <v>21</v>
       </c>
       <c r="AE2" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AF2" t="n">
         <v>12</v>
@@ -757,7 +757,7 @@
         <v>70</v>
       </c>
       <c r="AJ2" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AK2" t="n">
         <v>19.5</v>
@@ -766,13 +766,13 @@
         <v>30</v>
       </c>
       <c r="AM2" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN2" t="n">
         <v>7.6</v>
       </c>
       <c r="AO2" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3">
@@ -943,10 +943,10 @@
         <v>4.5</v>
       </c>
       <c r="H4" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="I4" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="J4" t="n">
         <v>3.95</v>
@@ -967,7 +967,7 @@
         <v>1.25</v>
       </c>
       <c r="P4" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="Q4" t="n">
         <v>1.75</v>
@@ -976,7 +976,7 @@
         <v>1.49</v>
       </c>
       <c r="S4" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="T4" t="n">
         <v>1.7</v>
@@ -985,7 +985,7 @@
         <v>2.3</v>
       </c>
       <c r="V4" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="W4" t="n">
         <v>1.29</v>
@@ -1027,7 +1027,7 @@
         <v>30</v>
       </c>
       <c r="AJ4" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AK4" t="n">
         <v>50</v>
@@ -1039,7 +1039,7 @@
         <v>80</v>
       </c>
       <c r="AN4" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AO4" t="n">
         <v>11</v>
@@ -1075,10 +1075,10 @@
         <v>1.66</v>
       </c>
       <c r="G5" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="H5" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="I5" t="n">
         <v>5.9</v>
@@ -1087,7 +1087,7 @@
         <v>4.4</v>
       </c>
       <c r="K5" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L5" t="n">
         <v>1.29</v>
@@ -1096,16 +1096,16 @@
         <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="O5" t="n">
         <v>1.19</v>
       </c>
       <c r="P5" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="R5" t="n">
         <v>1.64</v>
@@ -1114,7 +1114,7 @@
         <v>2.48</v>
       </c>
       <c r="T5" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="U5" t="n">
         <v>2.4</v>
@@ -1123,7 +1123,7 @@
         <v>1.2</v>
       </c>
       <c r="W5" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="X5" t="n">
         <v>25</v>
@@ -1138,10 +1138,10 @@
         <v>140</v>
       </c>
       <c r="AB5" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC5" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD5" t="n">
         <v>21</v>
@@ -1153,7 +1153,7 @@
         <v>12</v>
       </c>
       <c r="AG5" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH5" t="n">
         <v>17.5</v>
@@ -1177,7 +1177,7 @@
         <v>6.6</v>
       </c>
       <c r="AO5" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="G6" t="n">
         <v>1.52</v>
@@ -1216,7 +1216,7 @@
         <v>6.4</v>
       </c>
       <c r="I6" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="J6" t="n">
         <v>5.1</v>
@@ -1255,7 +1255,7 @@
         <v>2.3</v>
       </c>
       <c r="V6" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="W6" t="n">
         <v>2.94</v>
@@ -1387,7 +1387,7 @@
         <v>1.55</v>
       </c>
       <c r="U7" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="V7" t="n">
         <v>1.34</v>
@@ -1480,7 +1480,7 @@
         <v>2.14</v>
       </c>
       <c r="G8" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="H8" t="n">
         <v>3.9</v>
@@ -1489,7 +1489,7 @@
         <v>4.5</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K8" t="n">
         <v>3.3</v>
@@ -1525,19 +1525,19 @@
         <v>1.75</v>
       </c>
       <c r="V8" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="W8" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="X8" t="n">
         <v>11</v>
       </c>
       <c r="Y8" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z8" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA8" t="n">
         <v>130</v>
@@ -1561,7 +1561,7 @@
         <v>14.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI8" t="n">
         <v>110</v>
@@ -1579,7 +1579,7 @@
         <v>240</v>
       </c>
       <c r="AN8" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AO8" t="n">
         <v>130</v>
@@ -1645,7 +1645,7 @@
         <v>3.55</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="R9" t="n">
         <v>2.04</v>
@@ -1780,7 +1780,7 @@
         <v>2.48</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="R10" t="n">
         <v>1.7</v>
@@ -1882,58 +1882,58 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="G11" t="n">
-        <v>2.14</v>
+        <v>1.97</v>
       </c>
       <c r="H11" t="n">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="I11" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="J11" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K11" t="n">
-        <v>950</v>
+        <v>4.2</v>
       </c>
       <c r="L11" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="M11" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N11" t="n">
-        <v>2.14</v>
+        <v>2.62</v>
       </c>
       <c r="O11" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="P11" t="n">
         <v>1.64</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.02</v>
+        <v>2.24</v>
       </c>
       <c r="R11" t="n">
         <v>1.25</v>
       </c>
       <c r="S11" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="T11" t="n">
-        <v>1.04</v>
+        <v>2.02</v>
       </c>
       <c r="U11" t="n">
-        <v>1.04</v>
+        <v>1.78</v>
       </c>
       <c r="V11" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="W11" t="n">
-        <v>1.87</v>
+        <v>2.02</v>
       </c>
       <c r="X11" t="n">
         <v>1000</v>
@@ -1948,10 +1948,10 @@
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AC11" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AD11" t="n">
         <v>1000</v>
@@ -2197,7 +2197,7 @@
         <v>1.69</v>
       </c>
       <c r="U13" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="V13" t="n">
         <v>1.6</v>
@@ -2206,13 +2206,13 @@
         <v>1.5</v>
       </c>
       <c r="X13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y13" t="n">
         <v>12.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AA13" t="n">
         <v>38</v>
@@ -2221,7 +2221,7 @@
         <v>13.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD13" t="n">
         <v>11.5</v>
@@ -2230,19 +2230,19 @@
         <v>26</v>
       </c>
       <c r="AF13" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AG13" t="n">
         <v>12.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI13" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ13" t="n">
         <v>42</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>46</v>
       </c>
       <c r="AK13" t="n">
         <v>30</v>
@@ -2254,7 +2254,7 @@
         <v>80</v>
       </c>
       <c r="AN13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO13" t="n">
         <v>19.5</v>
@@ -2293,16 +2293,16 @@
         <v>1.26</v>
       </c>
       <c r="H14" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="I14" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="J14" t="n">
         <v>7.4</v>
       </c>
       <c r="K14" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="L14" t="n">
         <v>1.21</v>
@@ -2317,7 +2317,7 @@
         <v>1.12</v>
       </c>
       <c r="P14" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="Q14" t="n">
         <v>1.39</v>
@@ -2326,13 +2326,13 @@
         <v>1.96</v>
       </c>
       <c r="S14" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="T14" t="n">
         <v>1.86</v>
       </c>
       <c r="U14" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V14" t="n">
         <v>1.07</v>
@@ -2350,7 +2350,7 @@
         <v>150</v>
       </c>
       <c r="AA14" t="n">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="AB14" t="n">
         <v>14</v>
@@ -2425,19 +2425,19 @@
         <v>1.32</v>
       </c>
       <c r="G15" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="H15" t="n">
         <v>11.5</v>
       </c>
       <c r="I15" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="J15" t="n">
         <v>6.2</v>
       </c>
       <c r="K15" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="L15" t="n">
         <v>1.27</v>
@@ -2452,7 +2452,7 @@
         <v>1.2</v>
       </c>
       <c r="P15" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="Q15" t="n">
         <v>1.6</v>
@@ -2470,7 +2470,7 @@
         <v>1.88</v>
       </c>
       <c r="V15" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="W15" t="n">
         <v>4</v>
@@ -2485,7 +2485,7 @@
         <v>120</v>
       </c>
       <c r="AA15" t="n">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="AB15" t="n">
         <v>9.800000000000001</v>
@@ -2494,7 +2494,7 @@
         <v>14</v>
       </c>
       <c r="AD15" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AE15" t="n">
         <v>180</v>
@@ -2518,7 +2518,7 @@
         <v>13</v>
       </c>
       <c r="AL15" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AM15" t="n">
         <v>170</v>
@@ -2566,10 +2566,10 @@
         <v>4.4</v>
       </c>
       <c r="I16" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J16" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K16" t="n">
         <v>3.95</v>
@@ -2581,7 +2581,7 @@
         <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="O16" t="n">
         <v>1.25</v>
@@ -2596,7 +2596,7 @@
         <v>1.49</v>
       </c>
       <c r="S16" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="T16" t="n">
         <v>1.72</v>
@@ -2611,10 +2611,10 @@
         <v>2.08</v>
       </c>
       <c r="X16" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Z16" t="n">
         <v>34</v>
@@ -2635,10 +2635,10 @@
         <v>50</v>
       </c>
       <c r="AF16" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG16" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH16" t="n">
         <v>17</v>
@@ -2647,7 +2647,7 @@
         <v>55</v>
       </c>
       <c r="AJ16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK16" t="n">
         <v>18.5</v>
@@ -2701,10 +2701,10 @@
         <v>2.26</v>
       </c>
       <c r="I17" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="J17" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K17" t="n">
         <v>4</v>
@@ -2716,22 +2716,22 @@
         <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="O17" t="n">
         <v>1.21</v>
       </c>
       <c r="P17" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="Q17" t="n">
         <v>1.64</v>
       </c>
       <c r="R17" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="S17" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="T17" t="n">
         <v>1.58</v>
@@ -2740,7 +2740,7 @@
         <v>2.64</v>
       </c>
       <c r="V17" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="W17" t="n">
         <v>1.43</v>
@@ -2827,13 +2827,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="G18" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="H18" t="n">
-        <v>2.84</v>
+        <v>2.9</v>
       </c>
       <c r="I18" t="n">
         <v>2.94</v>
@@ -2842,7 +2842,7 @@
         <v>4</v>
       </c>
       <c r="K18" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L18" t="n">
         <v>1.22</v>
@@ -2872,7 +2872,7 @@
         <v>1.43</v>
       </c>
       <c r="U18" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="V18" t="n">
         <v>1.51</v>
@@ -2926,10 +2926,10 @@
         <v>24</v>
       </c>
       <c r="AM18" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AN18" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AO18" t="n">
         <v>12.5</v>
@@ -2965,10 +2965,10 @@
         <v>3.15</v>
       </c>
       <c r="G19" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H19" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="I19" t="n">
         <v>2.52</v>
@@ -2986,7 +2986,7 @@
         <v>1.08</v>
       </c>
       <c r="N19" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O19" t="n">
         <v>1.36</v>
@@ -3013,7 +3013,7 @@
         <v>1.65</v>
       </c>
       <c r="W19" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="X19" t="n">
         <v>12.5</v>
@@ -3058,13 +3058,13 @@
         <v>38</v>
       </c>
       <c r="AL19" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM19" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN19" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AO19" t="n">
         <v>24</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO19"/>
+  <dimension ref="A1:AO22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,22 +670,22 @@
         <v>1.68</v>
       </c>
       <c r="G2" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="H2" t="n">
         <v>5.2</v>
       </c>
       <c r="I2" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="J2" t="n">
         <v>4.3</v>
       </c>
       <c r="K2" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L2" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
@@ -694,13 +694,13 @@
         <v>5.2</v>
       </c>
       <c r="O2" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="R2" t="n">
         <v>1.58</v>
@@ -709,16 +709,16 @@
         <v>2.62</v>
       </c>
       <c r="T2" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="U2" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="V2" t="n">
         <v>1.22</v>
       </c>
       <c r="W2" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="X2" t="n">
         <v>24</v>
@@ -757,10 +757,10 @@
         <v>70</v>
       </c>
       <c r="AJ2" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AL2" t="n">
         <v>30</v>
@@ -832,22 +832,22 @@
         <v>1.34</v>
       </c>
       <c r="P3" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S3" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T3" t="n">
         <v>2.28</v>
       </c>
       <c r="U3" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="V3" t="n">
         <v>1.09</v>
@@ -865,7 +865,7 @@
         <v>120</v>
       </c>
       <c r="AA3" t="n">
-        <v>570</v>
+        <v>550</v>
       </c>
       <c r="AB3" t="n">
         <v>7</v>
@@ -877,7 +877,7 @@
         <v>980</v>
       </c>
       <c r="AE3" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AF3" t="n">
         <v>7.8</v>
@@ -889,7 +889,7 @@
         <v>980</v>
       </c>
       <c r="AI3" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AJ3" t="n">
         <v>12.5</v>
@@ -901,13 +901,13 @@
         <v>980</v>
       </c>
       <c r="AM3" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AN3" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AO3" t="n">
-        <v>460</v>
+        <v>430</v>
       </c>
     </row>
     <row r="4">
@@ -970,7 +970,7 @@
         <v>2.24</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="R4" t="n">
         <v>1.49</v>
@@ -1024,7 +1024,7 @@
         <v>17</v>
       </c>
       <c r="AI4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ4" t="n">
         <v>90</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="G5" t="n">
         <v>1.67</v>
       </c>
       <c r="H5" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="I5" t="n">
         <v>5.9</v>
@@ -1087,16 +1087,16 @@
         <v>4.4</v>
       </c>
       <c r="K5" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L5" t="n">
         <v>1.29</v>
       </c>
       <c r="M5" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="O5" t="n">
         <v>1.19</v>
@@ -1105,7 +1105,7 @@
         <v>2.6</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="R5" t="n">
         <v>1.64</v>
@@ -1132,7 +1132,7 @@
         <v>26</v>
       </c>
       <c r="Z5" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AA5" t="n">
         <v>140</v>
@@ -1174,7 +1174,7 @@
         <v>75</v>
       </c>
       <c r="AN5" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AO5" t="n">
         <v>50</v>
@@ -1198,121 +1198,121 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>RKC Waalwijk</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MVV Maastricht</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="G6" t="n">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="H6" t="n">
         <v>6.4</v>
       </c>
       <c r="I6" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="J6" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="K6" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="L6" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="M6" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>6.6</v>
+        <v>7.4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="P6" t="n">
-        <v>2.92</v>
+        <v>3.55</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.43</v>
+        <v>1.3</v>
       </c>
       <c r="R6" t="n">
-        <v>1.78</v>
+        <v>2.04</v>
       </c>
       <c r="S6" t="n">
-        <v>2.06</v>
+        <v>1.76</v>
       </c>
       <c r="T6" t="n">
-        <v>1.64</v>
+        <v>1.51</v>
       </c>
       <c r="U6" t="n">
-        <v>2.3</v>
+        <v>2.56</v>
       </c>
       <c r="V6" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="W6" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="X6" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="Y6" t="n">
         <v>980</v>
       </c>
       <c r="Z6" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="AA6" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AB6" t="n">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="AC6" t="n">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="AD6" t="n">
         <v>980</v>
       </c>
       <c r="AE6" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AF6" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="AG6" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="AH6" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AI6" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AJ6" t="n">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="AK6" t="n">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="AL6" t="n">
         <v>980</v>
       </c>
       <c r="AM6" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AN6" t="n">
-        <v>5.5</v>
+        <v>4.4</v>
       </c>
       <c r="AO6" t="n">
-        <v>80</v>
+        <v>980</v>
       </c>
     </row>
     <row r="7">
@@ -1333,31 +1333,31 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Roda JC</t>
+          <t>Vitesse Arnhem</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>FC Dordrecht</t>
+          <t>Jong PSV Eindhoven</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="H7" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="I7" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="J7" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K7" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1366,94 +1366,94 @@
         <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="O7" t="n">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="P7" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.56</v>
+        <v>1.43</v>
       </c>
       <c r="R7" t="n">
-        <v>1.58</v>
+        <v>1.7</v>
       </c>
       <c r="S7" t="n">
-        <v>2.38</v>
+        <v>2.16</v>
       </c>
       <c r="T7" t="n">
-        <v>1.55</v>
+        <v>1.41</v>
       </c>
       <c r="U7" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="V7" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="W7" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="X7" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="Y7" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="Z7" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AA7" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AB7" t="n">
-        <v>16.5</v>
+        <v>980</v>
       </c>
       <c r="AC7" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>18.5</v>
+        <v>980</v>
       </c>
       <c r="AE7" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AF7" t="n">
-        <v>18.5</v>
+        <v>980</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH7" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI7" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AJ7" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AK7" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AL7" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AM7" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AN7" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO7" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1468,121 +1468,121 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Bastia</t>
+          <t>Roda JC</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Laval</t>
+          <t>FC Dordrecht</t>
         </is>
       </c>
       <c r="F8" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="G8" t="n">
         <v>2.14</v>
       </c>
-      <c r="G8" t="n">
-        <v>2.3</v>
-      </c>
       <c r="H8" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I8" t="n">
         <v>3.9</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K8" t="n">
         <v>4.5</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3.3</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>2.58</v>
+        <v>5.2</v>
       </c>
       <c r="O8" t="n">
-        <v>1.53</v>
+        <v>1.19</v>
       </c>
       <c r="P8" t="n">
-        <v>1.54</v>
+        <v>2.46</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.54</v>
+        <v>1.56</v>
       </c>
       <c r="R8" t="n">
-        <v>1.19</v>
+        <v>1.58</v>
       </c>
       <c r="S8" t="n">
-        <v>5.1</v>
+        <v>2.38</v>
       </c>
       <c r="T8" t="n">
-        <v>2.1</v>
+        <v>1.55</v>
       </c>
       <c r="U8" t="n">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="V8" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="W8" t="n">
-        <v>1.76</v>
+        <v>1.87</v>
       </c>
       <c r="X8" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN8" t="n">
         <v>11</v>
       </c>
-      <c r="Y8" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>130</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>90</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>240</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>36</v>
-      </c>
       <c r="AO8" t="n">
-        <v>130</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -1603,127 +1603,127 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>RKC Waalwijk</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>MVV Maastricht</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="G9" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="H9" t="n">
         <v>6.4</v>
       </c>
       <c r="I9" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="J9" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="K9" t="n">
+        <v>6</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N9" t="n">
         <v>6.6</v>
       </c>
-      <c r="L9" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N9" t="n">
-        <v>7.4</v>
-      </c>
       <c r="O9" t="n">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="P9" t="n">
-        <v>3.55</v>
+        <v>2.92</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.3</v>
+        <v>1.43</v>
       </c>
       <c r="R9" t="n">
-        <v>2.04</v>
+        <v>1.78</v>
       </c>
       <c r="S9" t="n">
-        <v>1.76</v>
+        <v>2.06</v>
       </c>
       <c r="T9" t="n">
-        <v>1.51</v>
+        <v>1.64</v>
       </c>
       <c r="U9" t="n">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="V9" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W9" t="n">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="X9" t="n">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="Y9" t="n">
         <v>980</v>
       </c>
       <c r="Z9" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="AA9" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AB9" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AD9" t="n">
         <v>980</v>
       </c>
       <c r="AE9" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM9" t="n">
         <v>75</v>
       </c>
-      <c r="AF9" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>980</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>60</v>
-      </c>
       <c r="AN9" t="n">
-        <v>4.4</v>
+        <v>5.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,127 +1738,127 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Vitesse Arnhem</t>
+          <t>Bastia</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Jong PSV Eindhoven</t>
+          <t>Laval</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.93</v>
+        <v>2.14</v>
       </c>
       <c r="G10" t="n">
-        <v>2.12</v>
+        <v>2.3</v>
       </c>
       <c r="H10" t="n">
-        <v>3.35</v>
+        <v>3.9</v>
       </c>
       <c r="I10" t="n">
-        <v>3.85</v>
+        <v>4.5</v>
       </c>
       <c r="J10" t="n">
-        <v>4.1</v>
+        <v>3.05</v>
       </c>
       <c r="K10" t="n">
-        <v>4.9</v>
+        <v>3.3</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="N10" t="n">
-        <v>6</v>
+        <v>2.58</v>
       </c>
       <c r="O10" t="n">
-        <v>1.15</v>
+        <v>1.53</v>
       </c>
       <c r="P10" t="n">
-        <v>2.48</v>
+        <v>1.54</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.43</v>
+        <v>2.54</v>
       </c>
       <c r="R10" t="n">
-        <v>1.7</v>
+        <v>1.19</v>
       </c>
       <c r="S10" t="n">
-        <v>2.14</v>
+        <v>5.1</v>
       </c>
       <c r="T10" t="n">
-        <v>1.41</v>
+        <v>2.1</v>
       </c>
       <c r="U10" t="n">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="V10" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="W10" t="n">
-        <v>1.89</v>
+        <v>1.76</v>
       </c>
       <c r="X10" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="Y10" t="n">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="Z10" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AA10" t="n">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="AB10" t="n">
-        <v>980</v>
+        <v>8.6</v>
       </c>
       <c r="AC10" t="n">
-        <v>13.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD10" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AE10" t="n">
-        <v>980</v>
+        <v>90</v>
       </c>
       <c r="AF10" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>18.5</v>
+        <v>28</v>
       </c>
       <c r="AI10" t="n">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="AJ10" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AK10" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AL10" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AM10" t="n">
-        <v>55</v>
+        <v>240</v>
       </c>
       <c r="AN10" t="n">
-        <v>9.800000000000001</v>
+        <v>36</v>
       </c>
       <c r="AO10" t="n">
-        <v>980</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Scottish Championship</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,127 +1873,127 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Partick</t>
+          <t>Motherwell</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Dunfermline</t>
+          <t>Hibernian</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.78</v>
+        <v>2.74</v>
       </c>
       <c r="G11" t="n">
-        <v>1.97</v>
+        <v>2.96</v>
       </c>
       <c r="H11" t="n">
-        <v>4.3</v>
+        <v>2.6</v>
       </c>
       <c r="I11" t="n">
-        <v>6.4</v>
+        <v>2.8</v>
       </c>
       <c r="J11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N11" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S11" t="n">
         <v>3.25</v>
       </c>
-      <c r="K11" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N11" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S11" t="n">
-        <v>3.45</v>
-      </c>
       <c r="T11" t="n">
-        <v>2.02</v>
+        <v>1.71</v>
       </c>
       <c r="U11" t="n">
-        <v>1.78</v>
+        <v>2.22</v>
       </c>
       <c r="V11" t="n">
-        <v>1.19</v>
+        <v>1.55</v>
       </c>
       <c r="W11" t="n">
-        <v>2.02</v>
+        <v>1.51</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB11" t="n">
-        <v>8.4</v>
+        <v>15</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2008,121 +2008,121 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Motherwell</t>
+          <t>Partick</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Hibernian</t>
+          <t>Dunfermline</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.74</v>
+        <v>1.78</v>
       </c>
       <c r="G12" t="n">
-        <v>2.96</v>
+        <v>1.97</v>
       </c>
       <c r="H12" t="n">
-        <v>2.58</v>
+        <v>4.3</v>
       </c>
       <c r="I12" t="n">
-        <v>2.8</v>
+        <v>6.4</v>
       </c>
       <c r="J12" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K12" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="L12" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="N12" t="n">
-        <v>3.8</v>
+        <v>2.62</v>
       </c>
       <c r="O12" t="n">
-        <v>1.3</v>
+        <v>1.42</v>
       </c>
       <c r="P12" t="n">
-        <v>1.97</v>
+        <v>1.64</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.88</v>
+        <v>2.24</v>
       </c>
       <c r="R12" t="n">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="S12" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="T12" t="n">
-        <v>1.71</v>
+        <v>2.02</v>
       </c>
       <c r="U12" t="n">
-        <v>2.2</v>
+        <v>1.78</v>
       </c>
       <c r="V12" t="n">
-        <v>1.55</v>
+        <v>1.19</v>
       </c>
       <c r="W12" t="n">
-        <v>1.51</v>
+        <v>2.02</v>
       </c>
       <c r="X12" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>15</v>
+        <v>8.4</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AE12" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AI12" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
@@ -2143,121 +2143,121 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.96</v>
+        <v>1.91</v>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>1.92</v>
       </c>
       <c r="H13" t="n">
-        <v>2.6</v>
+        <v>4.4</v>
       </c>
       <c r="I13" t="n">
-        <v>2.64</v>
+        <v>4.6</v>
       </c>
       <c r="J13" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="K13" t="n">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="L13" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="M13" t="n">
         <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="O13" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V13" t="n">
         <v>1.28</v>
       </c>
-      <c r="P13" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S13" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.6</v>
-      </c>
       <c r="W13" t="n">
-        <v>1.5</v>
+        <v>2.08</v>
       </c>
       <c r="X13" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>12.5</v>
+        <v>18.5</v>
       </c>
       <c r="Z13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH13" t="n">
         <v>17</v>
       </c>
-      <c r="AA13" t="n">
-        <v>38</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AI13" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AJ13" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="AK13" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL13" t="n">
         <v>30</v>
       </c>
-      <c r="AL13" t="n">
-        <v>40</v>
-      </c>
       <c r="AM13" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AN13" t="n">
-        <v>24</v>
+        <v>10.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>19.5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14">
@@ -2278,121 +2278,121 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Bodo Glimt</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Leverkusen</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.25</v>
+        <v>3.2</v>
       </c>
       <c r="G14" t="n">
-        <v>1.26</v>
+        <v>3.3</v>
       </c>
       <c r="H14" t="n">
-        <v>13.5</v>
+        <v>2.26</v>
       </c>
       <c r="I14" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K14" t="n">
+        <v>4</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N14" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X14" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y14" t="n">
         <v>14.5</v>
       </c>
-      <c r="J14" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="K14" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N14" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="W14" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="X14" t="n">
-        <v>42</v>
-      </c>
-      <c r="Y14" t="n">
+      <c r="Z14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM14" t="n">
         <v>60</v>
       </c>
-      <c r="Z14" t="n">
-        <v>150</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>540</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>48</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>180</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AK14" t="n">
+      <c r="AN14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO14" t="n">
         <v>12</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>140</v>
       </c>
     </row>
     <row r="15">
@@ -2413,121 +2413,121 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Qarabag FK</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.32</v>
+        <v>2.46</v>
       </c>
       <c r="G15" t="n">
-        <v>1.33</v>
+        <v>2.5</v>
       </c>
       <c r="H15" t="n">
-        <v>11.5</v>
+        <v>2.82</v>
       </c>
       <c r="I15" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="J15" t="n">
+        <v>4</v>
+      </c>
+      <c r="K15" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N15" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="U15" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="X15" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG15" t="n">
         <v>12.5</v>
       </c>
-      <c r="J15" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="K15" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N15" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="S15" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="W15" t="n">
-        <v>4</v>
-      </c>
-      <c r="X15" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y15" t="n">
+      <c r="AH15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>27</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>24</v>
+      </c>
+      <c r="AM15" t="n">
         <v>40</v>
       </c>
-      <c r="Z15" t="n">
-        <v>120</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>440</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>40</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>180</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>140</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>170</v>
-      </c>
       <c r="AN15" t="n">
-        <v>4.6</v>
+        <v>10</v>
       </c>
       <c r="AO15" t="n">
-        <v>210</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>Leverkusen</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.91</v>
+        <v>1.24</v>
       </c>
       <c r="G16" t="n">
-        <v>1.92</v>
+        <v>1.25</v>
       </c>
       <c r="H16" t="n">
-        <v>4.4</v>
+        <v>14</v>
       </c>
       <c r="I16" t="n">
-        <v>4.6</v>
+        <v>14.5</v>
       </c>
       <c r="J16" t="n">
-        <v>3.9</v>
+        <v>7.6</v>
       </c>
       <c r="K16" t="n">
-        <v>3.95</v>
+        <v>7.8</v>
       </c>
       <c r="L16" t="n">
-        <v>1.33</v>
+        <v>1.21</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N16" t="n">
-        <v>4.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O16" t="n">
-        <v>1.25</v>
+        <v>1.12</v>
       </c>
       <c r="P16" t="n">
-        <v>2.24</v>
+        <v>3.4</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.77</v>
+        <v>1.39</v>
       </c>
       <c r="R16" t="n">
-        <v>1.49</v>
+        <v>1.96</v>
       </c>
       <c r="S16" t="n">
-        <v>2.94</v>
+        <v>1.97</v>
       </c>
       <c r="T16" t="n">
-        <v>1.72</v>
+        <v>1.87</v>
       </c>
       <c r="U16" t="n">
-        <v>2.3</v>
+        <v>2.06</v>
       </c>
       <c r="V16" t="n">
-        <v>1.28</v>
+        <v>1.07</v>
       </c>
       <c r="W16" t="n">
-        <v>2.08</v>
+        <v>5</v>
       </c>
       <c r="X16" t="n">
-        <v>17.5</v>
+        <v>42</v>
       </c>
       <c r="Y16" t="n">
-        <v>18.5</v>
+        <v>60</v>
       </c>
       <c r="Z16" t="n">
-        <v>34</v>
+        <v>150</v>
       </c>
       <c r="AA16" t="n">
-        <v>95</v>
+        <v>550</v>
       </c>
       <c r="AB16" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.800000000000001</v>
+        <v>17</v>
       </c>
       <c r="AD16" t="n">
-        <v>17.5</v>
+        <v>48</v>
       </c>
       <c r="AE16" t="n">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="AF16" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AK16" t="n">
         <v>12</v>
       </c>
-      <c r="AG16" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>20</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AL16" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM16" t="n">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="AN16" t="n">
-        <v>10</v>
+        <v>3.25</v>
       </c>
       <c r="AO16" t="n">
-        <v>48</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17">
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Bodo Glimt</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Qarabag FK</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.2</v>
+        <v>1.32</v>
       </c>
       <c r="G17" t="n">
-        <v>3.3</v>
+        <v>1.33</v>
       </c>
       <c r="H17" t="n">
-        <v>2.26</v>
+        <v>11.5</v>
       </c>
       <c r="I17" t="n">
-        <v>2.28</v>
+        <v>12.5</v>
       </c>
       <c r="J17" t="n">
-        <v>3.95</v>
+        <v>6.2</v>
       </c>
       <c r="K17" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N17" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="W17" t="n">
         <v>4</v>
       </c>
-      <c r="L17" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N17" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="S17" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="W17" t="n">
-        <v>1.43</v>
-      </c>
       <c r="X17" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="Y17" t="n">
-        <v>14.5</v>
+        <v>40</v>
       </c>
       <c r="Z17" t="n">
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="AA17" t="n">
-        <v>28</v>
+        <v>440</v>
       </c>
       <c r="AB17" t="n">
-        <v>17.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC17" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AD17" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="AE17" t="n">
-        <v>21</v>
+        <v>180</v>
       </c>
       <c r="AF17" t="n">
-        <v>26</v>
+        <v>8.4</v>
       </c>
       <c r="AG17" t="n">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>14.5</v>
+        <v>30</v>
       </c>
       <c r="AI17" t="n">
-        <v>29</v>
+        <v>140</v>
       </c>
       <c r="AJ17" t="n">
-        <v>55</v>
+        <v>10.5</v>
       </c>
       <c r="AK17" t="n">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="AL17" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM17" t="n">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="AN17" t="n">
-        <v>23</v>
+        <v>4.6</v>
       </c>
       <c r="AO17" t="n">
-        <v>12</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18">
@@ -2818,121 +2818,121 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.42</v>
+        <v>2.96</v>
       </c>
       <c r="G18" t="n">
-        <v>2.46</v>
+        <v>3</v>
       </c>
       <c r="H18" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="I18" t="n">
-        <v>2.94</v>
+        <v>2.64</v>
       </c>
       <c r="J18" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="K18" t="n">
-        <v>4.1</v>
+        <v>3.55</v>
       </c>
       <c r="L18" t="n">
-        <v>1.22</v>
+        <v>1.37</v>
       </c>
       <c r="M18" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>7.4</v>
+        <v>4.3</v>
       </c>
       <c r="O18" t="n">
-        <v>1.14</v>
+        <v>1.28</v>
       </c>
       <c r="P18" t="n">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="Q18" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R18" t="n">
         <v>1.44</v>
       </c>
-      <c r="R18" t="n">
-        <v>1.88</v>
-      </c>
       <c r="S18" t="n">
-        <v>2.06</v>
+        <v>3.15</v>
       </c>
       <c r="T18" t="n">
-        <v>1.43</v>
+        <v>1.69</v>
       </c>
       <c r="U18" t="n">
-        <v>3.2</v>
+        <v>2.36</v>
       </c>
       <c r="V18" t="n">
-        <v>1.51</v>
+        <v>1.6</v>
       </c>
       <c r="W18" t="n">
-        <v>1.68</v>
+        <v>1.5</v>
       </c>
       <c r="X18" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="Y18" t="n">
-        <v>23</v>
+        <v>12.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="AA18" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AB18" t="n">
-        <v>21</v>
+        <v>13.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>11</v>
+        <v>7.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF18" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AG18" t="n">
         <v>12.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="AJ18" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AK18" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="AL18" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN18" t="n">
         <v>24</v>
       </c>
-      <c r="AM18" t="n">
-        <v>40</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>9.6</v>
-      </c>
       <c r="AO18" t="n">
-        <v>12.5</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="19">
@@ -2992,7 +2992,7 @@
         <v>1.36</v>
       </c>
       <c r="P19" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="Q19" t="n">
         <v>2.1</v>
@@ -3049,7 +3049,7 @@
         <v>18</v>
       </c>
       <c r="AI19" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AJ19" t="n">
         <v>55</v>
@@ -3058,7 +3058,7 @@
         <v>38</v>
       </c>
       <c r="AL19" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM19" t="n">
         <v>110</v>
@@ -3068,6 +3068,411 @@
       </c>
       <c r="AO19" t="n">
         <v>24</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-11-25</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Atletico MG</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Flamengo</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G20" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V20" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X20" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>42</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>85</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>90</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025-11-25</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Gremio</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>SE Palmeiras</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N21" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S21" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X21" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2025-11-25</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Santa Fe</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Tolima</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I22" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X22" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-25.xlsx
@@ -691,16 +691,16 @@
         <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="O2" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P2" t="n">
         <v>2.44</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="R2" t="n">
         <v>1.58</v>
@@ -709,10 +709,10 @@
         <v>2.62</v>
       </c>
       <c r="T2" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U2" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="V2" t="n">
         <v>1.22</v>
@@ -730,7 +730,7 @@
         <v>46</v>
       </c>
       <c r="AA2" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AB2" t="n">
         <v>11.5</v>
@@ -745,7 +745,7 @@
         <v>70</v>
       </c>
       <c r="AF2" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG2" t="n">
         <v>10.5</v>
@@ -754,13 +754,13 @@
         <v>18</v>
       </c>
       <c r="AI2" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AJ2" t="n">
         <v>17.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AL2" t="n">
         <v>30</v>
@@ -769,10 +769,10 @@
         <v>80</v>
       </c>
       <c r="AN2" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AO2" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="G3" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="H3" t="n">
         <v>9.4</v>
       </c>
       <c r="I3" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="J3" t="n">
         <v>4.4</v>
@@ -832,13 +832,13 @@
         <v>1.34</v>
       </c>
       <c r="P3" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="Q3" t="n">
         <v>2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="S3" t="n">
         <v>3.6</v>
@@ -850,10 +850,10 @@
         <v>1.69</v>
       </c>
       <c r="V3" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="W3" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="X3" t="n">
         <v>17.5</v>
@@ -865,7 +865,7 @@
         <v>120</v>
       </c>
       <c r="AA3" t="n">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="AB3" t="n">
         <v>7</v>
@@ -943,16 +943,16 @@
         <v>4.5</v>
       </c>
       <c r="H4" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="I4" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="J4" t="n">
         <v>3.95</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L4" t="n">
         <v>1.34</v>
@@ -970,22 +970,22 @@
         <v>2.24</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="R4" t="n">
         <v>1.49</v>
       </c>
       <c r="S4" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="T4" t="n">
         <v>1.7</v>
       </c>
       <c r="U4" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="V4" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="W4" t="n">
         <v>1.29</v>
@@ -1012,7 +1012,7 @@
         <v>10</v>
       </c>
       <c r="AE4" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AF4" t="n">
         <v>34</v>
@@ -1030,7 +1030,7 @@
         <v>90</v>
       </c>
       <c r="AK4" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AL4" t="n">
         <v>55</v>
@@ -1042,7 +1042,7 @@
         <v>42</v>
       </c>
       <c r="AO4" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="5">
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="G5" t="n">
         <v>1.67</v>
       </c>
       <c r="H5" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="I5" t="n">
         <v>5.9</v>
@@ -1087,7 +1087,7 @@
         <v>4.4</v>
       </c>
       <c r="K5" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L5" t="n">
         <v>1.29</v>
@@ -1117,7 +1117,7 @@
         <v>1.66</v>
       </c>
       <c r="U5" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="V5" t="n">
         <v>1.2</v>
@@ -1132,7 +1132,7 @@
         <v>26</v>
       </c>
       <c r="Z5" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA5" t="n">
         <v>140</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="G6" t="n">
         <v>1.49</v>
@@ -1231,7 +1231,7 @@
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="O6" t="n">
         <v>1.1</v>
@@ -1249,7 +1249,7 @@
         <v>1.76</v>
       </c>
       <c r="T6" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="U6" t="n">
         <v>2.56</v>
@@ -1630,7 +1630,7 @@
         <v>6</v>
       </c>
       <c r="L9" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="M9" t="n">
         <v>1.02</v>
@@ -1771,10 +1771,10 @@
         <v>1.1</v>
       </c>
       <c r="N10" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="O10" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="P10" t="n">
         <v>1.54</v>
@@ -1801,7 +1801,7 @@
         <v>1.76</v>
       </c>
       <c r="X10" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y10" t="n">
         <v>13</v>
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="AB10" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC10" t="n">
         <v>8.6</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>8.800000000000001</v>
       </c>
       <c r="AD10" t="n">
         <v>22</v>
@@ -1828,7 +1828,7 @@
         <v>15</v>
       </c>
       <c r="AG10" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH10" t="n">
         <v>28</v>
@@ -1837,7 +1837,7 @@
         <v>110</v>
       </c>
       <c r="AJ10" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AK10" t="n">
         <v>38</v>
@@ -1849,7 +1849,7 @@
         <v>240</v>
       </c>
       <c r="AN10" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AO10" t="n">
         <v>130</v>
@@ -2155,7 +2155,7 @@
         <v>1.91</v>
       </c>
       <c r="G13" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="H13" t="n">
         <v>4.4</v>
@@ -2167,10 +2167,10 @@
         <v>3.9</v>
       </c>
       <c r="K13" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L13" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="M13" t="n">
         <v>1.06</v>
@@ -2242,7 +2242,7 @@
         <v>55</v>
       </c>
       <c r="AJ13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK13" t="n">
         <v>18.5</v>
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="G14" t="n">
         <v>3.3</v>
       </c>
       <c r="H14" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="I14" t="n">
         <v>2.26</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2.28</v>
       </c>
       <c r="J14" t="n">
         <v>3.95</v>
@@ -2332,10 +2332,10 @@
         <v>1.58</v>
       </c>
       <c r="U14" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="V14" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="W14" t="n">
         <v>1.43</v>
@@ -2347,7 +2347,7 @@
         <v>14.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AA14" t="n">
         <v>28</v>
@@ -2377,7 +2377,7 @@
         <v>29</v>
       </c>
       <c r="AJ14" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AK14" t="n">
         <v>32</v>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="G15" t="n">
         <v>2.5</v>
@@ -2458,16 +2458,16 @@
         <v>1.44</v>
       </c>
       <c r="R15" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S15" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="T15" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="U15" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="V15" t="n">
         <v>1.53</v>
@@ -2479,7 +2479,7 @@
         <v>32</v>
       </c>
       <c r="Y15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z15" t="n">
         <v>26</v>
@@ -2512,7 +2512,7 @@
         <v>27</v>
       </c>
       <c r="AJ15" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AK15" t="n">
         <v>21</v>
@@ -2527,7 +2527,7 @@
         <v>10</v>
       </c>
       <c r="AO15" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="16">
@@ -2563,16 +2563,16 @@
         <v>1.25</v>
       </c>
       <c r="H16" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="I16" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="J16" t="n">
         <v>7.6</v>
       </c>
       <c r="K16" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="L16" t="n">
         <v>1.21</v>
@@ -2596,13 +2596,13 @@
         <v>1.96</v>
       </c>
       <c r="S16" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="T16" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="U16" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="V16" t="n">
         <v>1.07</v>
@@ -2617,22 +2617,22 @@
         <v>60</v>
       </c>
       <c r="Z16" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AA16" t="n">
-        <v>550</v>
+        <v>480</v>
       </c>
       <c r="AB16" t="n">
         <v>14</v>
       </c>
       <c r="AC16" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AE16" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AF16" t="n">
         <v>9.800000000000001</v>
@@ -2644,7 +2644,7 @@
         <v>29</v>
       </c>
       <c r="AI16" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AJ16" t="n">
         <v>10.5</v>
@@ -2695,7 +2695,7 @@
         <v>1.32</v>
       </c>
       <c r="G17" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="H17" t="n">
         <v>11.5</v>
@@ -2704,7 +2704,7 @@
         <v>12.5</v>
       </c>
       <c r="J17" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="K17" t="n">
         <v>6.4</v>
@@ -2722,13 +2722,13 @@
         <v>1.2</v>
       </c>
       <c r="P17" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="Q17" t="n">
         <v>1.6</v>
       </c>
       <c r="R17" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="S17" t="n">
         <v>2.52</v>
@@ -2758,7 +2758,7 @@
         <v>440</v>
       </c>
       <c r="AB17" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AC17" t="n">
         <v>14</v>
@@ -2779,7 +2779,7 @@
         <v>30</v>
       </c>
       <c r="AI17" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AJ17" t="n">
         <v>10.5</v>
@@ -2992,7 +2992,7 @@
         <v>1.36</v>
       </c>
       <c r="P19" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="Q19" t="n">
         <v>2.1</v>
@@ -3121,7 +3121,7 @@
         <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>1.74</v>
+        <v>2.56</v>
       </c>
       <c r="O20" t="n">
         <v>1.39</v>
@@ -3232,34 +3232,34 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="G21" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="H21" t="n">
         <v>2.54</v>
       </c>
       <c r="I21" t="n">
-        <v>2.68</v>
+        <v>2.76</v>
       </c>
       <c r="J21" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K21" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L21" t="n">
         <v>1.49</v>
       </c>
       <c r="M21" t="n">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="N21" t="n">
-        <v>2.78</v>
+        <v>3.1</v>
       </c>
       <c r="O21" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="P21" t="n">
         <v>1.76</v>
@@ -3268,76 +3268,76 @@
         <v>2.22</v>
       </c>
       <c r="R21" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="S21" t="n">
         <v>4.2</v>
       </c>
       <c r="T21" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="U21" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="V21" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="W21" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="X21" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y21" t="n">
         <v>9.6</v>
       </c>
       <c r="Z21" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AA21" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AB21" t="n">
         <v>11.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE21" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AF21" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AG21" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AJ21" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AK21" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AL21" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM21" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN21" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AO21" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22">
@@ -3370,7 +3370,7 @@
         <v>2.24</v>
       </c>
       <c r="G22" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="H22" t="n">
         <v>3.65</v>
@@ -3379,10 +3379,10 @@
         <v>5.1</v>
       </c>
       <c r="J22" t="n">
-        <v>2.82</v>
+        <v>2.72</v>
       </c>
       <c r="K22" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L22" t="n">
         <v>1.01</v>
@@ -3397,7 +3397,7 @@
         <v>1.02</v>
       </c>
       <c r="P22" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="Q22" t="n">
         <v>2.08</v>
@@ -3415,10 +3415,10 @@
         <v>1.04</v>
       </c>
       <c r="V22" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W22" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="X22" t="n">
         <v>15.5</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-25.xlsx
@@ -676,10 +676,10 @@
         <v>5.2</v>
       </c>
       <c r="I2" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="J2" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K2" t="n">
         <v>4.6</v>
@@ -697,7 +697,7 @@
         <v>1.21</v>
       </c>
       <c r="P2" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="Q2" t="n">
         <v>1.65</v>
@@ -706,7 +706,7 @@
         <v>1.58</v>
       </c>
       <c r="S2" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="T2" t="n">
         <v>1.71</v>
@@ -760,7 +760,7 @@
         <v>17.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AL2" t="n">
         <v>30</v>
@@ -805,13 +805,13 @@
         <v>1.41</v>
       </c>
       <c r="G3" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="H3" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="I3" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="J3" t="n">
         <v>4.4</v>
@@ -826,7 +826,7 @@
         <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.34</v>
@@ -835,7 +835,7 @@
         <v>1.86</v>
       </c>
       <c r="Q3" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R3" t="n">
         <v>1.32</v>
@@ -847,16 +847,16 @@
         <v>2.28</v>
       </c>
       <c r="U3" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="V3" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="W3" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="X3" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y3" t="n">
         <v>980</v>
@@ -940,19 +940,19 @@
         <v>4.3</v>
       </c>
       <c r="G4" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="H4" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="I4" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="J4" t="n">
         <v>3.95</v>
       </c>
       <c r="K4" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
         <v>1.34</v>
@@ -976,19 +976,19 @@
         <v>1.49</v>
       </c>
       <c r="S4" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="T4" t="n">
         <v>1.7</v>
       </c>
       <c r="U4" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="V4" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="W4" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X4" t="n">
         <v>18</v>
@@ -1003,7 +1003,7 @@
         <v>22</v>
       </c>
       <c r="AB4" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AC4" t="n">
         <v>8.800000000000001</v>
@@ -1024,7 +1024,7 @@
         <v>17</v>
       </c>
       <c r="AI4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AJ4" t="n">
         <v>90</v>
@@ -1033,7 +1033,7 @@
         <v>48</v>
       </c>
       <c r="AL4" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM4" t="n">
         <v>80</v>
@@ -1042,7 +1042,7 @@
         <v>42</v>
       </c>
       <c r="AO4" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G5" t="n">
         <v>1.66</v>
       </c>
-      <c r="G5" t="n">
-        <v>1.67</v>
-      </c>
       <c r="H5" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="I5" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="J5" t="n">
         <v>4.4</v>
       </c>
       <c r="K5" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L5" t="n">
         <v>1.29</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="G6" t="n">
         <v>1.49</v>
@@ -1219,10 +1219,10 @@
         <v>7.6</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="K6" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="L6" t="n">
         <v>1.19</v>
@@ -1240,13 +1240,13 @@
         <v>3.55</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="R6" t="n">
         <v>2.04</v>
       </c>
       <c r="S6" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="T6" t="n">
         <v>1.52</v>
@@ -1270,7 +1270,7 @@
         <v>95</v>
       </c>
       <c r="AA6" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AB6" t="n">
         <v>980</v>
@@ -1288,7 +1288,7 @@
         <v>980</v>
       </c>
       <c r="AG6" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AH6" t="n">
         <v>980</v>
@@ -1309,7 +1309,7 @@
         <v>60</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="AO6" t="n">
         <v>980</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="G7" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="H7" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I7" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J7" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K7" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1369,13 +1369,13 @@
         <v>6</v>
       </c>
       <c r="O7" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P7" t="n">
-        <v>2.48</v>
+        <v>2.72</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="R7" t="n">
         <v>1.7</v>
@@ -1384,16 +1384,16 @@
         <v>2.16</v>
       </c>
       <c r="T7" t="n">
-        <v>1.41</v>
+        <v>1.49</v>
       </c>
       <c r="U7" t="n">
-        <v>2.42</v>
+        <v>2.62</v>
       </c>
       <c r="V7" t="n">
         <v>1.37</v>
       </c>
       <c r="W7" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="X7" t="n">
         <v>980</v>
@@ -1405,13 +1405,13 @@
         <v>980</v>
       </c>
       <c r="AA7" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AB7" t="n">
         <v>980</v>
       </c>
       <c r="AC7" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD7" t="n">
         <v>980</v>
@@ -1426,7 +1426,7 @@
         <v>14</v>
       </c>
       <c r="AH7" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="AI7" t="n">
         <v>980</v>
@@ -1483,7 +1483,7 @@
         <v>2.14</v>
       </c>
       <c r="H8" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I8" t="n">
         <v>3.9</v>
@@ -1501,28 +1501,28 @@
         <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="O8" t="n">
         <v>1.19</v>
       </c>
       <c r="P8" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="Q8" t="n">
         <v>1.56</v>
       </c>
       <c r="R8" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="S8" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="T8" t="n">
         <v>1.55</v>
       </c>
       <c r="U8" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="V8" t="n">
         <v>1.34</v>
@@ -1549,10 +1549,10 @@
         <v>12</v>
       </c>
       <c r="AD8" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AE8" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AF8" t="n">
         <v>18.5</v>
@@ -1579,7 +1579,7 @@
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AO8" t="n">
         <v>32</v>
@@ -1615,22 +1615,22 @@
         <v>1.45</v>
       </c>
       <c r="G9" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="H9" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="I9" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="J9" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="K9" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="L9" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="M9" t="n">
         <v>1.02</v>
@@ -1642,13 +1642,13 @@
         <v>1.14</v>
       </c>
       <c r="P9" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="Q9" t="n">
         <v>1.43</v>
       </c>
       <c r="R9" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="S9" t="n">
         <v>2.06</v>
@@ -1663,7 +1663,7 @@
         <v>1.16</v>
       </c>
       <c r="W9" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="X9" t="n">
         <v>36</v>
@@ -1717,7 +1717,7 @@
         <v>5.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1753,7 +1753,7 @@
         <v>2.3</v>
       </c>
       <c r="H10" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I10" t="n">
         <v>4.5</v>
@@ -1771,7 +1771,7 @@
         <v>1.1</v>
       </c>
       <c r="N10" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="O10" t="n">
         <v>1.52</v>
@@ -1792,7 +1792,7 @@
         <v>2.1</v>
       </c>
       <c r="U10" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="V10" t="n">
         <v>1.28</v>
@@ -1837,16 +1837,16 @@
         <v>110</v>
       </c>
       <c r="AJ10" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK10" t="n">
         <v>36</v>
       </c>
-      <c r="AK10" t="n">
-        <v>38</v>
-      </c>
       <c r="AL10" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM10" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AN10" t="n">
         <v>34</v>
@@ -1885,19 +1885,19 @@
         <v>2.74</v>
       </c>
       <c r="G11" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="H11" t="n">
         <v>2.6</v>
       </c>
       <c r="I11" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="J11" t="n">
         <v>3.4</v>
       </c>
       <c r="K11" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="L11" t="n">
         <v>1.38</v>
@@ -1909,34 +1909,34 @@
         <v>3.8</v>
       </c>
       <c r="O11" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P11" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="Q11" t="n">
         <v>1.87</v>
       </c>
       <c r="R11" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S11" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T11" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U11" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="V11" t="n">
         <v>1.55</v>
       </c>
       <c r="W11" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="X11" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Y11" t="n">
         <v>12</v>
@@ -1948,7 +1948,7 @@
         <v>980</v>
       </c>
       <c r="AB11" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC11" t="n">
         <v>8.199999999999999</v>
@@ -1984,7 +1984,7 @@
         <v>100</v>
       </c>
       <c r="AN11" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AO11" t="n">
         <v>980</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="G12" t="n">
         <v>1.97</v>
@@ -2026,13 +2026,13 @@
         <v>4.3</v>
       </c>
       <c r="I12" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="J12" t="n">
         <v>3.25</v>
       </c>
       <c r="K12" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="L12" t="n">
         <v>1.39</v>
@@ -2056,10 +2056,10 @@
         <v>1.25</v>
       </c>
       <c r="S12" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="T12" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U12" t="n">
         <v>1.78</v>
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="G13" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="H13" t="n">
         <v>4.4</v>
       </c>
       <c r="I13" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J13" t="n">
         <v>3.9</v>
@@ -2188,13 +2188,13 @@
         <v>1.77</v>
       </c>
       <c r="R13" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S13" t="n">
         <v>2.94</v>
       </c>
       <c r="T13" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="U13" t="n">
         <v>2.3</v>
@@ -2203,7 +2203,7 @@
         <v>1.28</v>
       </c>
       <c r="W13" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="X13" t="n">
         <v>17.5</v>
@@ -2224,7 +2224,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD13" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE13" t="n">
         <v>50</v>
@@ -2236,7 +2236,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH13" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI13" t="n">
         <v>55</v>
@@ -2257,7 +2257,7 @@
         <v>10.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14">
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="G14" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="H14" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="I14" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="J14" t="n">
         <v>3.95</v>
@@ -2317,16 +2317,16 @@
         <v>1.21</v>
       </c>
       <c r="P14" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="R14" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="S14" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="T14" t="n">
         <v>1.58</v>
@@ -2335,25 +2335,25 @@
         <v>2.62</v>
       </c>
       <c r="V14" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="W14" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="X14" t="n">
         <v>22</v>
       </c>
       <c r="Y14" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z14" t="n">
         <v>16.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AB14" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC14" t="n">
         <v>9</v>
@@ -2365,7 +2365,7 @@
         <v>21</v>
       </c>
       <c r="AF14" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG14" t="n">
         <v>14</v>
@@ -2392,7 +2392,7 @@
         <v>23</v>
       </c>
       <c r="AO14" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="15">
@@ -2428,10 +2428,10 @@
         <v>2.5</v>
       </c>
       <c r="H15" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="I15" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="J15" t="n">
         <v>4</v>
@@ -2458,7 +2458,7 @@
         <v>1.44</v>
       </c>
       <c r="R15" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="S15" t="n">
         <v>2.06</v>
@@ -2470,7 +2470,7 @@
         <v>3.25</v>
       </c>
       <c r="V15" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="W15" t="n">
         <v>1.66</v>
@@ -2527,7 +2527,7 @@
         <v>10</v>
       </c>
       <c r="AO15" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
@@ -2599,7 +2599,7 @@
         <v>1.96</v>
       </c>
       <c r="T16" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U16" t="n">
         <v>2.1</v>
@@ -2614,13 +2614,13 @@
         <v>42</v>
       </c>
       <c r="Y16" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="Z16" t="n">
         <v>160</v>
       </c>
       <c r="AA16" t="n">
-        <v>480</v>
+        <v>580</v>
       </c>
       <c r="AB16" t="n">
         <v>14</v>
@@ -2644,7 +2644,7 @@
         <v>29</v>
       </c>
       <c r="AI16" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AJ16" t="n">
         <v>10.5</v>
@@ -2695,7 +2695,7 @@
         <v>1.32</v>
       </c>
       <c r="G17" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="H17" t="n">
         <v>11.5</v>
@@ -2728,7 +2728,7 @@
         <v>1.6</v>
       </c>
       <c r="R17" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="S17" t="n">
         <v>2.52</v>
@@ -2755,10 +2755,10 @@
         <v>120</v>
       </c>
       <c r="AA17" t="n">
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="AB17" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC17" t="n">
         <v>14</v>
@@ -2827,16 +2827,16 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="H18" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="I18" t="n">
-        <v>2.64</v>
+        <v>2.58</v>
       </c>
       <c r="J18" t="n">
         <v>3.5</v>
@@ -2857,10 +2857,10 @@
         <v>1.28</v>
       </c>
       <c r="P18" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="R18" t="n">
         <v>1.44</v>
@@ -2875,10 +2875,10 @@
         <v>2.36</v>
       </c>
       <c r="V18" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="W18" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="X18" t="n">
         <v>15</v>
@@ -2905,7 +2905,7 @@
         <v>26</v>
       </c>
       <c r="AF18" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AG18" t="n">
         <v>12.5</v>
@@ -2929,10 +2929,10 @@
         <v>80</v>
       </c>
       <c r="AN18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO18" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
@@ -2989,7 +2989,7 @@
         <v>3.6</v>
       </c>
       <c r="O19" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P19" t="n">
         <v>1.85</v>
@@ -3019,7 +3019,7 @@
         <v>12.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="Z19" t="n">
         <v>15</v>
@@ -3100,7 +3100,7 @@
         <v>4.5</v>
       </c>
       <c r="G20" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="H20" t="n">
         <v>1.9</v>
@@ -3235,10 +3235,10 @@
         <v>3</v>
       </c>
       <c r="G21" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="H21" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="I21" t="n">
         <v>2.76</v>
@@ -3259,7 +3259,7 @@
         <v>3.1</v>
       </c>
       <c r="O21" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P21" t="n">
         <v>1.76</v>
@@ -3280,10 +3280,10 @@
         <v>1.96</v>
       </c>
       <c r="V21" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="W21" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="X21" t="n">
         <v>11.5</v>
@@ -3298,7 +3298,7 @@
         <v>40</v>
       </c>
       <c r="AB21" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC21" t="n">
         <v>7.6</v>
@@ -3310,7 +3310,7 @@
         <v>32</v>
       </c>
       <c r="AF21" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AG21" t="n">
         <v>14.5</v>
@@ -3337,7 +3337,7 @@
         <v>44</v>
       </c>
       <c r="AO21" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22">
@@ -3403,7 +3403,7 @@
         <v>2.08</v>
       </c>
       <c r="R22" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S22" t="n">
         <v>3.45</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-25.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="G2" t="n">
         <v>1.71</v>
@@ -676,13 +676,13 @@
         <v>5.2</v>
       </c>
       <c r="I2" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="J2" t="n">
         <v>4.4</v>
       </c>
       <c r="K2" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L2" t="n">
         <v>1.31</v>
@@ -694,16 +694,16 @@
         <v>5.3</v>
       </c>
       <c r="O2" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
         <v>2.46</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R2" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="S2" t="n">
         <v>2.64</v>
@@ -742,7 +742,7 @@
         <v>21</v>
       </c>
       <c r="AE2" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF2" t="n">
         <v>11.5</v>
@@ -766,7 +766,7 @@
         <v>30</v>
       </c>
       <c r="AM2" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AN2" t="n">
         <v>7.4</v>
@@ -805,7 +805,7 @@
         <v>1.41</v>
       </c>
       <c r="G3" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="H3" t="n">
         <v>9.6</v>
@@ -814,13 +814,13 @@
         <v>11.5</v>
       </c>
       <c r="J3" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K3" t="n">
         <v>5.1</v>
       </c>
       <c r="L3" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M3" t="n">
         <v>1.07</v>
@@ -835,7 +835,7 @@
         <v>1.86</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R3" t="n">
         <v>1.32</v>
@@ -847,67 +847,67 @@
         <v>2.28</v>
       </c>
       <c r="U3" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="V3" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="W3" t="n">
         <v>3.15</v>
       </c>
       <c r="X3" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="Z3" t="n">
         <v>120</v>
       </c>
       <c r="AA3" t="n">
-        <v>540</v>
+        <v>560</v>
       </c>
       <c r="AB3" t="n">
         <v>7</v>
       </c>
       <c r="AC3" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD3" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AE3" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH3" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AI3" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AJ3" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AK3" t="n">
-        <v>18.5</v>
+        <v>980</v>
       </c>
       <c r="AL3" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AM3" t="n">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="AN3" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AO3" t="n">
-        <v>430</v>
+        <v>450</v>
       </c>
     </row>
     <row r="4">
@@ -940,22 +940,22 @@
         <v>4.3</v>
       </c>
       <c r="G4" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="H4" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="I4" t="n">
         <v>1.95</v>
       </c>
       <c r="J4" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K4" t="n">
         <v>3.95</v>
       </c>
-      <c r="K4" t="n">
-        <v>4</v>
-      </c>
       <c r="L4" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
@@ -967,7 +967,7 @@
         <v>1.25</v>
       </c>
       <c r="P4" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="Q4" t="n">
         <v>1.76</v>
@@ -982,13 +982,13 @@
         <v>1.7</v>
       </c>
       <c r="U4" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="V4" t="n">
         <v>2.04</v>
       </c>
       <c r="W4" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X4" t="n">
         <v>18</v>
@@ -1003,7 +1003,7 @@
         <v>22</v>
       </c>
       <c r="AB4" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AC4" t="n">
         <v>8.800000000000001</v>
@@ -1033,7 +1033,7 @@
         <v>48</v>
       </c>
       <c r="AL4" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM4" t="n">
         <v>80</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="G5" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="H5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I5" t="n">
         <v>5.6</v>
-      </c>
-      <c r="I5" t="n">
-        <v>5.8</v>
       </c>
       <c r="J5" t="n">
         <v>4.4</v>
       </c>
       <c r="K5" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L5" t="n">
         <v>1.29</v>
@@ -1102,7 +1102,7 @@
         <v>1.19</v>
       </c>
       <c r="P5" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="Q5" t="n">
         <v>1.59</v>
@@ -1120,28 +1120,28 @@
         <v>2.42</v>
       </c>
       <c r="V5" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W5" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="X5" t="n">
         <v>25</v>
       </c>
       <c r="Y5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Z5" t="n">
         <v>48</v>
       </c>
       <c r="AA5" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AB5" t="n">
         <v>12</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AD5" t="n">
         <v>21</v>
@@ -1153,16 +1153,16 @@
         <v>12</v>
       </c>
       <c r="AG5" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH5" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI5" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ5" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AK5" t="n">
         <v>15</v>
@@ -1174,7 +1174,7 @@
         <v>75</v>
       </c>
       <c r="AN5" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AO5" t="n">
         <v>50</v>
@@ -1210,7 +1210,7 @@
         <v>1.42</v>
       </c>
       <c r="G6" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="H6" t="n">
         <v>6.4</v>
@@ -1219,7 +1219,7 @@
         <v>7.6</v>
       </c>
       <c r="J6" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="K6" t="n">
         <v>6.4</v>
@@ -1231,7 +1231,7 @@
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="O6" t="n">
         <v>1.1</v>
@@ -1246,10 +1246,10 @@
         <v>2.04</v>
       </c>
       <c r="S6" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="T6" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="U6" t="n">
         <v>2.56</v>
@@ -1258,19 +1258,19 @@
         <v>1.15</v>
       </c>
       <c r="W6" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="X6" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Y6" t="n">
         <v>980</v>
       </c>
       <c r="Z6" t="n">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AA6" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AB6" t="n">
         <v>980</v>
@@ -1288,7 +1288,7 @@
         <v>980</v>
       </c>
       <c r="AG6" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AH6" t="n">
         <v>980</v>
@@ -1297,7 +1297,7 @@
         <v>55</v>
       </c>
       <c r="AJ6" t="n">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="AK6" t="n">
         <v>980</v>
@@ -1306,7 +1306,7 @@
         <v>980</v>
       </c>
       <c r="AM6" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AN6" t="n">
         <v>4</v>
@@ -1345,7 +1345,7 @@
         <v>1.98</v>
       </c>
       <c r="G7" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="H7" t="n">
         <v>3.3</v>
@@ -1360,7 +1360,7 @@
         <v>4.7</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="M7" t="n">
         <v>1.03</v>
@@ -1375,16 +1375,16 @@
         <v>2.72</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="R7" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="S7" t="n">
         <v>2.16</v>
       </c>
       <c r="T7" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="U7" t="n">
         <v>2.62</v>
@@ -1411,10 +1411,10 @@
         <v>980</v>
       </c>
       <c r="AC7" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AD7" t="n">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="AE7" t="n">
         <v>980</v>
@@ -1423,7 +1423,7 @@
         <v>980</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AH7" t="n">
         <v>980</v>
@@ -1444,10 +1444,10 @@
         <v>55</v>
       </c>
       <c r="AN7" t="n">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AO7" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8">
@@ -1480,7 +1480,7 @@
         <v>1.96</v>
       </c>
       <c r="G8" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="H8" t="n">
         <v>3.5</v>
@@ -1489,13 +1489,13 @@
         <v>3.9</v>
       </c>
       <c r="J8" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K8" t="n">
         <v>4.5</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M8" t="n">
         <v>1.03</v>
@@ -1513,28 +1513,28 @@
         <v>1.56</v>
       </c>
       <c r="R8" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="S8" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="T8" t="n">
         <v>1.55</v>
       </c>
       <c r="U8" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="V8" t="n">
         <v>1.34</v>
       </c>
       <c r="W8" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="X8" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Z8" t="n">
         <v>38</v>
@@ -1549,13 +1549,13 @@
         <v>12</v>
       </c>
       <c r="AD8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AE8" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AF8" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AG8" t="n">
         <v>13</v>
@@ -1564,7 +1564,7 @@
         <v>18.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ8" t="n">
         <v>30</v>
@@ -1576,10 +1576,10 @@
         <v>34</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN8" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AO8" t="n">
         <v>32</v>
@@ -1621,13 +1621,13 @@
         <v>6.6</v>
       </c>
       <c r="I9" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="J9" t="n">
         <v>5.2</v>
       </c>
       <c r="K9" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="L9" t="n">
         <v>1.24</v>
@@ -1666,7 +1666,7 @@
         <v>2.96</v>
       </c>
       <c r="X9" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="Y9" t="n">
         <v>980</v>
@@ -1684,16 +1684,16 @@
         <v>14</v>
       </c>
       <c r="AD9" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AE9" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AF9" t="n">
         <v>12.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH9" t="n">
         <v>21</v>
@@ -1708,13 +1708,13 @@
         <v>14.5</v>
       </c>
       <c r="AL9" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AM9" t="n">
         <v>75</v>
       </c>
       <c r="AN9" t="n">
-        <v>5.5</v>
+        <v>4.7</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1747,28 +1747,28 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="G10" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="I10" t="n">
         <v>4.5</v>
       </c>
       <c r="J10" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K10" t="n">
         <v>3.3</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="M10" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="N10" t="n">
         <v>2.62</v>
@@ -1780,7 +1780,7 @@
         <v>1.54</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="R10" t="n">
         <v>1.19</v>
@@ -1798,28 +1798,28 @@
         <v>1.28</v>
       </c>
       <c r="W10" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="X10" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Y10" t="n">
         <v>13</v>
       </c>
       <c r="Z10" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AA10" t="n">
         <v>130</v>
       </c>
       <c r="AB10" t="n">
-        <v>8.4</v>
+        <v>7.2</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AD10" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE10" t="n">
         <v>90</v>
@@ -1828,31 +1828,31 @@
         <v>15</v>
       </c>
       <c r="AG10" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AH10" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AI10" t="n">
         <v>110</v>
       </c>
       <c r="AJ10" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AK10" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AL10" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AM10" t="n">
         <v>230</v>
       </c>
       <c r="AN10" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AO10" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11">
@@ -1882,31 +1882,31 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="G11" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="H11" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="I11" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="J11" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K11" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L11" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="M11" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="O11" t="n">
         <v>1.31</v>
@@ -1915,13 +1915,13 @@
         <v>1.96</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="R11" t="n">
         <v>1.37</v>
       </c>
       <c r="S11" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="T11" t="n">
         <v>1.72</v>
@@ -1936,7 +1936,7 @@
         <v>1.5</v>
       </c>
       <c r="X11" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="Y11" t="n">
         <v>12</v>
@@ -1948,7 +1948,7 @@
         <v>980</v>
       </c>
       <c r="AB11" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC11" t="n">
         <v>8.199999999999999</v>
@@ -1963,7 +1963,7 @@
         <v>980</v>
       </c>
       <c r="AG11" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AH11" t="n">
         <v>17</v>
@@ -1978,13 +1978,13 @@
         <v>980</v>
       </c>
       <c r="AL11" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AM11" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN11" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AO11" t="n">
         <v>980</v>
@@ -2017,25 +2017,25 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="G12" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="H12" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I12" t="n">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="J12" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K12" t="n">
         <v>3.8</v>
       </c>
       <c r="L12" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="M12" t="n">
         <v>1.09</v>
@@ -2056,22 +2056,22 @@
         <v>1.25</v>
       </c>
       <c r="S12" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="T12" t="n">
         <v>2.04</v>
       </c>
       <c r="U12" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="V12" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W12" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="X12" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Y12" t="n">
         <v>1000</v>
@@ -2098,7 +2098,7 @@
         <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH12" t="n">
         <v>1000</v>
@@ -2119,7 +2119,7 @@
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2155,7 +2155,7 @@
         <v>1.92</v>
       </c>
       <c r="G13" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="H13" t="n">
         <v>4.4</v>
@@ -2167,7 +2167,7 @@
         <v>3.9</v>
       </c>
       <c r="K13" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L13" t="n">
         <v>1.35</v>
@@ -2188,7 +2188,7 @@
         <v>1.77</v>
       </c>
       <c r="R13" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="S13" t="n">
         <v>2.94</v>
@@ -2230,7 +2230,7 @@
         <v>50</v>
       </c>
       <c r="AF13" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG13" t="n">
         <v>9.800000000000001</v>
@@ -2251,7 +2251,7 @@
         <v>30</v>
       </c>
       <c r="AM13" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN13" t="n">
         <v>10.5</v>
@@ -2293,7 +2293,7 @@
         <v>3.45</v>
       </c>
       <c r="H14" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="I14" t="n">
         <v>2.22</v>
@@ -2305,7 +2305,7 @@
         <v>4</v>
       </c>
       <c r="L14" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M14" t="n">
         <v>1.04</v>
@@ -2314,10 +2314,10 @@
         <v>5.5</v>
       </c>
       <c r="O14" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P14" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="Q14" t="n">
         <v>1.63</v>
@@ -2380,7 +2380,7 @@
         <v>60</v>
       </c>
       <c r="AK14" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AL14" t="n">
         <v>36</v>
@@ -2422,16 +2422,16 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="G15" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="H15" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="I15" t="n">
         <v>2.8</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2.84</v>
       </c>
       <c r="J15" t="n">
         <v>4</v>
@@ -2455,7 +2455,7 @@
         <v>3.1</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="R15" t="n">
         <v>1.89</v>
@@ -2470,16 +2470,16 @@
         <v>3.25</v>
       </c>
       <c r="V15" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="W15" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="X15" t="n">
         <v>32</v>
       </c>
       <c r="Y15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z15" t="n">
         <v>26</v>
@@ -2491,7 +2491,7 @@
         <v>21</v>
       </c>
       <c r="AC15" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD15" t="n">
         <v>14</v>
@@ -2500,7 +2500,7 @@
         <v>24</v>
       </c>
       <c r="AF15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG15" t="n">
         <v>12.5</v>
@@ -2569,13 +2569,13 @@
         <v>15</v>
       </c>
       <c r="J16" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="K16" t="n">
         <v>8</v>
       </c>
       <c r="L16" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="M16" t="n">
         <v>1.02</v>
@@ -2593,16 +2593,16 @@
         <v>1.39</v>
       </c>
       <c r="R16" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="S16" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="T16" t="n">
         <v>1.87</v>
       </c>
       <c r="U16" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V16" t="n">
         <v>1.07</v>
@@ -2611,7 +2611,7 @@
         <v>5</v>
       </c>
       <c r="X16" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="Y16" t="n">
         <v>65</v>
@@ -2620,7 +2620,7 @@
         <v>160</v>
       </c>
       <c r="AA16" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AB16" t="n">
         <v>14</v>
@@ -2635,7 +2635,7 @@
         <v>190</v>
       </c>
       <c r="AF16" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AG16" t="n">
         <v>11.5</v>
@@ -2647,7 +2647,7 @@
         <v>140</v>
       </c>
       <c r="AJ16" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AK16" t="n">
         <v>12</v>
@@ -2662,7 +2662,7 @@
         <v>3.25</v>
       </c>
       <c r="AO16" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17">
@@ -2698,7 +2698,7 @@
         <v>1.33</v>
       </c>
       <c r="H17" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="I17" t="n">
         <v>12.5</v>
@@ -2710,7 +2710,7 @@
         <v>6.4</v>
       </c>
       <c r="L17" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M17" t="n">
         <v>1.03</v>
@@ -2722,13 +2722,13 @@
         <v>1.2</v>
       </c>
       <c r="P17" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="Q17" t="n">
         <v>1.6</v>
       </c>
       <c r="R17" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="S17" t="n">
         <v>2.52</v>
@@ -2737,7 +2737,7 @@
         <v>2.06</v>
       </c>
       <c r="U17" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="V17" t="n">
         <v>1.08</v>
@@ -2758,7 +2758,7 @@
         <v>460</v>
       </c>
       <c r="AB17" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AC17" t="n">
         <v>14</v>
@@ -2791,7 +2791,7 @@
         <v>34</v>
       </c>
       <c r="AM17" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AN17" t="n">
         <v>4.6</v>
@@ -2830,13 +2830,13 @@
         <v>3</v>
       </c>
       <c r="G18" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H18" t="n">
         <v>2.56</v>
       </c>
       <c r="I18" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="J18" t="n">
         <v>3.5</v>
@@ -2875,28 +2875,28 @@
         <v>2.36</v>
       </c>
       <c r="V18" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="W18" t="n">
         <v>1.48</v>
       </c>
       <c r="X18" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z18" t="n">
         <v>17</v>
       </c>
       <c r="AA18" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB18" t="n">
         <v>13.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD18" t="n">
         <v>11.5</v>
@@ -2911,10 +2911,10 @@
         <v>12.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI18" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AJ18" t="n">
         <v>42</v>
@@ -2926,7 +2926,7 @@
         <v>40</v>
       </c>
       <c r="AM18" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN18" t="n">
         <v>25</v>
@@ -2971,7 +2971,7 @@
         <v>2.46</v>
       </c>
       <c r="I19" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="J19" t="n">
         <v>3.45</v>
@@ -2980,16 +2980,16 @@
         <v>3.5</v>
       </c>
       <c r="L19" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="M19" t="n">
         <v>1.08</v>
       </c>
       <c r="N19" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="O19" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P19" t="n">
         <v>1.85</v>
@@ -3004,13 +3004,13 @@
         <v>3.85</v>
       </c>
       <c r="T19" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="U19" t="n">
         <v>2.1</v>
       </c>
       <c r="V19" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="W19" t="n">
         <v>1.44</v>
@@ -3019,7 +3019,7 @@
         <v>12.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z19" t="n">
         <v>15</v>
@@ -3058,7 +3058,7 @@
         <v>38</v>
       </c>
       <c r="AL19" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM19" t="n">
         <v>110</v>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="G20" t="n">
         <v>5</v>
@@ -3106,13 +3106,13 @@
         <v>1.9</v>
       </c>
       <c r="I20" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="J20" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="K20" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L20" t="n">
         <v>1.48</v>
@@ -3121,13 +3121,13 @@
         <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="O20" t="n">
         <v>1.39</v>
       </c>
       <c r="P20" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q20" t="n">
         <v>2.14</v>
@@ -3139,13 +3139,13 @@
         <v>3.55</v>
       </c>
       <c r="T20" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="U20" t="n">
-        <v>1.75</v>
+        <v>1.61</v>
       </c>
       <c r="V20" t="n">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="W20" t="n">
         <v>1.25</v>
@@ -3154,46 +3154,46 @@
         <v>14</v>
       </c>
       <c r="Y20" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AA20" t="n">
         <v>32</v>
       </c>
       <c r="AB20" t="n">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="AC20" t="n">
-        <v>9.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="AD20" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AE20" t="n">
         <v>32</v>
       </c>
       <c r="AF20" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AG20" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AH20" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AI20" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ20" t="n">
         <v>1000</v>
       </c>
       <c r="AK20" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AL20" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AM20" t="n">
         <v>1000</v>
@@ -3235,13 +3235,13 @@
         <v>3</v>
       </c>
       <c r="G21" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H21" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="I21" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="J21" t="n">
         <v>3.25</v>
@@ -3259,13 +3259,13 @@
         <v>3.1</v>
       </c>
       <c r="O21" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="P21" t="n">
         <v>1.76</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R21" t="n">
         <v>1.26</v>
@@ -3274,28 +3274,28 @@
         <v>4.2</v>
       </c>
       <c r="T21" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="U21" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="V21" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="W21" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="X21" t="n">
         <v>11.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AA21" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AB21" t="n">
         <v>11</v>
@@ -3304,7 +3304,7 @@
         <v>7.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AE21" t="n">
         <v>32</v>
@@ -3313,10 +3313,10 @@
         <v>20</v>
       </c>
       <c r="AG21" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI21" t="n">
         <v>50</v>
@@ -3328,10 +3328,10 @@
         <v>40</v>
       </c>
       <c r="AL21" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM21" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN21" t="n">
         <v>44</v>
@@ -3373,46 +3373,46 @@
         <v>2.44</v>
       </c>
       <c r="H22" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I22" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="K22" t="n">
         <v>3.65</v>
-      </c>
-      <c r="I22" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="J22" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="K22" t="n">
-        <v>3.55</v>
       </c>
       <c r="L22" t="n">
         <v>1.01</v>
       </c>
       <c r="M22" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N22" t="n">
-        <v>2.2</v>
+        <v>2.98</v>
       </c>
       <c r="O22" t="n">
-        <v>1.02</v>
+        <v>1.43</v>
       </c>
       <c r="P22" t="n">
         <v>1.67</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.08</v>
+        <v>2.26</v>
       </c>
       <c r="R22" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="S22" t="n">
-        <v>3.45</v>
+        <v>3.8</v>
       </c>
       <c r="T22" t="n">
-        <v>1.04</v>
+        <v>1.92</v>
       </c>
       <c r="U22" t="n">
-        <v>1.04</v>
+        <v>1.94</v>
       </c>
       <c r="V22" t="n">
         <v>1.33</v>
@@ -3421,7 +3421,7 @@
         <v>1.7</v>
       </c>
       <c r="X22" t="n">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="Y22" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-25.xlsx
@@ -673,16 +673,16 @@
         <v>1.71</v>
       </c>
       <c r="H2" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="I2" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="J2" t="n">
         <v>4.4</v>
       </c>
       <c r="K2" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L2" t="n">
         <v>1.31</v>
@@ -697,19 +697,19 @@
         <v>1.22</v>
       </c>
       <c r="P2" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="Q2" t="n">
         <v>1.67</v>
       </c>
       <c r="R2" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="S2" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="T2" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="U2" t="n">
         <v>2.32</v>
@@ -736,7 +736,7 @@
         <v>11.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD2" t="n">
         <v>21</v>
@@ -757,7 +757,7 @@
         <v>60</v>
       </c>
       <c r="AJ2" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AK2" t="n">
         <v>16</v>
@@ -769,7 +769,7 @@
         <v>85</v>
       </c>
       <c r="AN2" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AO2" t="n">
         <v>60</v>
@@ -811,7 +811,7 @@
         <v>9.6</v>
       </c>
       <c r="I3" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="J3" t="n">
         <v>4.5</v>
@@ -835,7 +835,7 @@
         <v>1.86</v>
       </c>
       <c r="Q3" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R3" t="n">
         <v>1.32</v>
@@ -856,7 +856,7 @@
         <v>3.15</v>
       </c>
       <c r="X3" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y3" t="n">
         <v>32</v>
@@ -868,10 +868,10 @@
         <v>560</v>
       </c>
       <c r="AB3" t="n">
-        <v>7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC3" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="AD3" t="n">
         <v>48</v>
@@ -880,10 +880,10 @@
         <v>260</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH3" t="n">
         <v>40</v>
@@ -892,10 +892,10 @@
         <v>220</v>
       </c>
       <c r="AJ3" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AL3" t="n">
         <v>60</v>
@@ -904,7 +904,7 @@
         <v>290</v>
       </c>
       <c r="AN3" t="n">
-        <v>8.6</v>
+        <v>10.5</v>
       </c>
       <c r="AO3" t="n">
         <v>450</v>
@@ -946,28 +946,28 @@
         <v>1.93</v>
       </c>
       <c r="I4" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="J4" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K4" t="n">
         <v>3.95</v>
       </c>
       <c r="L4" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O4" t="n">
         <v>1.25</v>
       </c>
       <c r="P4" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="Q4" t="n">
         <v>1.76</v>
@@ -976,16 +976,16 @@
         <v>1.49</v>
       </c>
       <c r="S4" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="T4" t="n">
         <v>1.7</v>
       </c>
       <c r="U4" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="V4" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="W4" t="n">
         <v>1.29</v>
@@ -1021,7 +1021,7 @@
         <v>17.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI4" t="n">
         <v>30</v>
@@ -1042,7 +1042,7 @@
         <v>42</v>
       </c>
       <c r="AO4" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="5">
@@ -1072,16 +1072,16 @@
         </is>
       </c>
       <c r="F5" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="G5" t="n">
         <v>1.68</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1.69</v>
       </c>
       <c r="H5" t="n">
         <v>5.5</v>
       </c>
       <c r="I5" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="J5" t="n">
         <v>4.4</v>
@@ -1105,7 +1105,7 @@
         <v>2.58</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="R5" t="n">
         <v>1.64</v>
@@ -1123,13 +1123,13 @@
         <v>1.21</v>
       </c>
       <c r="W5" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="X5" t="n">
         <v>25</v>
       </c>
       <c r="Y5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z5" t="n">
         <v>48</v>
@@ -1138,7 +1138,7 @@
         <v>130</v>
       </c>
       <c r="AB5" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC5" t="n">
         <v>10.5</v>
@@ -1147,7 +1147,7 @@
         <v>21</v>
       </c>
       <c r="AE5" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF5" t="n">
         <v>12</v>
@@ -1168,7 +1168,7 @@
         <v>15</v>
       </c>
       <c r="AL5" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AM5" t="n">
         <v>75</v>
@@ -1246,13 +1246,13 @@
         <v>2.04</v>
       </c>
       <c r="S6" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="T6" t="n">
         <v>1.51</v>
       </c>
       <c r="U6" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="V6" t="n">
         <v>1.15</v>
@@ -1267,16 +1267,16 @@
         <v>980</v>
       </c>
       <c r="Z6" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AA6" t="n">
         <v>200</v>
       </c>
       <c r="AB6" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AC6" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AD6" t="n">
         <v>980</v>
@@ -1285,22 +1285,22 @@
         <v>75</v>
       </c>
       <c r="AF6" t="n">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="AG6" t="n">
         <v>14</v>
       </c>
       <c r="AH6" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AI6" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AJ6" t="n">
         <v>19</v>
       </c>
       <c r="AK6" t="n">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="AL6" t="n">
         <v>980</v>
@@ -1309,10 +1309,10 @@
         <v>70</v>
       </c>
       <c r="AN6" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
@@ -1345,7 +1345,7 @@
         <v>1.98</v>
       </c>
       <c r="G7" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="H7" t="n">
         <v>3.3</v>
@@ -1381,7 +1381,7 @@
         <v>1.71</v>
       </c>
       <c r="S7" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="T7" t="n">
         <v>1.47</v>
@@ -1399,19 +1399,19 @@
         <v>980</v>
       </c>
       <c r="Y7" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="Z7" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AA7" t="n">
         <v>65</v>
       </c>
       <c r="AB7" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="AD7" t="n">
         <v>19</v>
@@ -1420,31 +1420,31 @@
         <v>980</v>
       </c>
       <c r="AF7" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AG7" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AH7" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="AI7" t="n">
         <v>980</v>
       </c>
       <c r="AJ7" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AK7" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AL7" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AM7" t="n">
         <v>55</v>
       </c>
       <c r="AN7" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="AO7" t="n">
         <v>25</v>
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="G8" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="H8" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="J8" t="n">
         <v>3.95</v>
@@ -1495,13 +1495,13 @@
         <v>4.5</v>
       </c>
       <c r="L8" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="n">
         <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="O8" t="n">
         <v>1.19</v>
@@ -1513,7 +1513,7 @@
         <v>1.56</v>
       </c>
       <c r="R8" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="S8" t="n">
         <v>2.38</v>
@@ -1522,16 +1522,16 @@
         <v>1.55</v>
       </c>
       <c r="U8" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="V8" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W8" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Y8" t="n">
         <v>24</v>
@@ -1540,13 +1540,13 @@
         <v>38</v>
       </c>
       <c r="AA8" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AC8" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AD8" t="n">
         <v>19</v>
@@ -1555,10 +1555,10 @@
         <v>44</v>
       </c>
       <c r="AF8" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH8" t="n">
         <v>18.5</v>
@@ -1579,7 +1579,7 @@
         <v>75</v>
       </c>
       <c r="AN8" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AO8" t="n">
         <v>32</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="G9" t="n">
         <v>1.51</v>
@@ -1660,28 +1660,28 @@
         <v>2.3</v>
       </c>
       <c r="V9" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="W9" t="n">
         <v>2.96</v>
       </c>
       <c r="X9" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="Y9" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="Z9" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AA9" t="n">
         <v>210</v>
       </c>
       <c r="AB9" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="AC9" t="n">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="AD9" t="n">
         <v>34</v>
@@ -1690,31 +1690,31 @@
         <v>95</v>
       </c>
       <c r="AF9" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AI9" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AJ9" t="n">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="AL9" t="n">
         <v>32</v>
       </c>
       <c r="AM9" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.7</v>
+        <v>5.4</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1777,7 +1777,7 @@
         <v>1.52</v>
       </c>
       <c r="P10" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="Q10" t="n">
         <v>2.52</v>
@@ -1804,22 +1804,22 @@
         <v>11</v>
       </c>
       <c r="Y10" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AA10" t="n">
         <v>130</v>
       </c>
       <c r="AB10" t="n">
-        <v>7.2</v>
+        <v>8.6</v>
       </c>
       <c r="AC10" t="n">
         <v>9</v>
       </c>
       <c r="AD10" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AE10" t="n">
         <v>90</v>
@@ -1828,10 +1828,10 @@
         <v>15</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AH10" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AI10" t="n">
         <v>110</v>
@@ -1840,7 +1840,7 @@
         <v>36</v>
       </c>
       <c r="AK10" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AL10" t="n">
         <v>75</v>
@@ -1888,106 +1888,106 @@
         <v>3.05</v>
       </c>
       <c r="H11" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="I11" t="n">
         <v>2.8</v>
       </c>
       <c r="J11" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K11" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L11" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M11" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O11" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P11" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="R11" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S11" t="n">
         <v>3.25</v>
       </c>
       <c r="T11" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="U11" t="n">
         <v>2.2</v>
       </c>
       <c r="V11" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="W11" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="X11" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AA11" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AB11" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD11" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AE11" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AF11" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AI11" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AJ11" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AK11" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AL11" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM11" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN11" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AO11" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12">
@@ -2017,31 +2017,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="G12" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="H12" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="I12" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="J12" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="K12" t="n">
         <v>3.8</v>
       </c>
       <c r="L12" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="M12" t="n">
         <v>1.09</v>
       </c>
       <c r="N12" t="n">
-        <v>2.62</v>
+        <v>2.88</v>
       </c>
       <c r="O12" t="n">
         <v>1.42</v>
@@ -2056,19 +2056,19 @@
         <v>1.25</v>
       </c>
       <c r="S12" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="T12" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U12" t="n">
         <v>1.79</v>
       </c>
       <c r="V12" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="W12" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="X12" t="n">
         <v>13</v>
@@ -2083,7 +2083,7 @@
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AC12" t="n">
         <v>9.6</v>
@@ -2095,7 +2095,7 @@
         <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AG12" t="n">
         <v>13</v>
@@ -2119,7 +2119,7 @@
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="G13" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="H13" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="I13" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="J13" t="n">
         <v>3.9</v>
@@ -2182,16 +2182,16 @@
         <v>1.25</v>
       </c>
       <c r="P13" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q13" t="n">
         <v>1.77</v>
       </c>
       <c r="R13" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S13" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="T13" t="n">
         <v>1.71</v>
@@ -2200,10 +2200,10 @@
         <v>2.3</v>
       </c>
       <c r="V13" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="W13" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="X13" t="n">
         <v>17.5</v>
@@ -2215,28 +2215,28 @@
         <v>34</v>
       </c>
       <c r="AA13" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AB13" t="n">
         <v>11</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AE13" t="n">
         <v>50</v>
       </c>
       <c r="AF13" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG13" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AH13" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI13" t="n">
         <v>55</v>
@@ -2290,7 +2290,7 @@
         <v>3.35</v>
       </c>
       <c r="G14" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="H14" t="n">
         <v>2.2</v>
@@ -2314,7 +2314,7 @@
         <v>5.5</v>
       </c>
       <c r="O14" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P14" t="n">
         <v>2.5</v>
@@ -2362,7 +2362,7 @@
         <v>11</v>
       </c>
       <c r="AE14" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AF14" t="n">
         <v>27</v>
@@ -2374,7 +2374,7 @@
         <v>14.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AJ14" t="n">
         <v>60</v>
@@ -2389,7 +2389,7 @@
         <v>60</v>
       </c>
       <c r="AN14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO14" t="n">
         <v>11.5</v>
@@ -2422,16 +2422,16 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.52</v>
+        <v>2.46</v>
       </c>
       <c r="G15" t="n">
-        <v>2.54</v>
+        <v>2.48</v>
       </c>
       <c r="H15" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="I15" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J15" t="n">
         <v>4</v>
@@ -2446,55 +2446,55 @@
         <v>1.02</v>
       </c>
       <c r="N15" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="O15" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P15" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="R15" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="S15" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="T15" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="U15" t="n">
         <v>3.25</v>
       </c>
       <c r="V15" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="W15" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="X15" t="n">
         <v>32</v>
       </c>
       <c r="Y15" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB15" t="n">
         <v>22</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>44</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>21</v>
       </c>
       <c r="AC15" t="n">
         <v>10.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE15" t="n">
         <v>24</v>
@@ -2509,7 +2509,7 @@
         <v>13</v>
       </c>
       <c r="AI15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ15" t="n">
         <v>38</v>
@@ -2524,7 +2524,7 @@
         <v>40</v>
       </c>
       <c r="AN15" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO15" t="n">
         <v>12</v>
@@ -2587,7 +2587,7 @@
         <v>1.12</v>
       </c>
       <c r="P16" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="Q16" t="n">
         <v>1.39</v>
@@ -2596,7 +2596,7 @@
         <v>1.97</v>
       </c>
       <c r="S16" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="T16" t="n">
         <v>1.87</v>
@@ -2620,7 +2620,7 @@
         <v>160</v>
       </c>
       <c r="AA16" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AB16" t="n">
         <v>14</v>
@@ -2704,7 +2704,7 @@
         <v>12.5</v>
       </c>
       <c r="J17" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="K17" t="n">
         <v>6.4</v>
@@ -2728,7 +2728,7 @@
         <v>1.6</v>
       </c>
       <c r="R17" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="S17" t="n">
         <v>2.52</v>
@@ -2737,7 +2737,7 @@
         <v>2.06</v>
       </c>
       <c r="U17" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="V17" t="n">
         <v>1.08</v>
@@ -2749,7 +2749,7 @@
         <v>26</v>
       </c>
       <c r="Y17" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Z17" t="n">
         <v>120</v>
@@ -2764,13 +2764,13 @@
         <v>14</v>
       </c>
       <c r="AD17" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AE17" t="n">
         <v>180</v>
       </c>
       <c r="AF17" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG17" t="n">
         <v>10.5</v>
@@ -2830,10 +2830,10 @@
         <v>3</v>
       </c>
       <c r="G18" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H18" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="I18" t="n">
         <v>2.6</v>
@@ -2872,7 +2872,7 @@
         <v>1.69</v>
       </c>
       <c r="U18" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V18" t="n">
         <v>1.62</v>
@@ -2917,7 +2917,7 @@
         <v>36</v>
       </c>
       <c r="AJ18" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AK18" t="n">
         <v>30</v>
@@ -2932,7 +2932,7 @@
         <v>25</v>
       </c>
       <c r="AO18" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="19">
@@ -2962,16 +2962,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="G19" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H19" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="I19" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="J19" t="n">
         <v>3.45</v>
@@ -3004,16 +3004,16 @@
         <v>3.85</v>
       </c>
       <c r="T19" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U19" t="n">
         <v>2.1</v>
       </c>
       <c r="V19" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="W19" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="X19" t="n">
         <v>12.5</v>
@@ -3067,7 +3067,7 @@
         <v>38</v>
       </c>
       <c r="AO19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20">
@@ -3106,10 +3106,10 @@
         <v>1.9</v>
       </c>
       <c r="I20" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K20" t="n">
         <v>3.8</v>
@@ -3118,10 +3118,10 @@
         <v>1.48</v>
       </c>
       <c r="M20" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>2.58</v>
+        <v>3.2</v>
       </c>
       <c r="O20" t="n">
         <v>1.39</v>
@@ -3130,79 +3130,79 @@
         <v>1.75</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="R20" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="S20" t="n">
-        <v>3.55</v>
+        <v>3.9</v>
       </c>
       <c r="T20" t="n">
-        <v>1.64</v>
+        <v>1.94</v>
       </c>
       <c r="U20" t="n">
-        <v>1.61</v>
+        <v>1.9</v>
       </c>
       <c r="V20" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="W20" t="n">
         <v>1.25</v>
       </c>
       <c r="X20" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Z20" t="n">
         <v>14</v>
       </c>
-      <c r="Y20" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>16</v>
-      </c>
       <c r="AA20" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AB20" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE20" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AF20" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AG20" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AH20" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AI20" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AK20" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AL20" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AM20" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN20" t="n">
         <v>1000</v>
       </c>
       <c r="AO20" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21">
@@ -3235,7 +3235,7 @@
         <v>3</v>
       </c>
       <c r="G21" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H21" t="n">
         <v>2.54</v>
@@ -3253,7 +3253,7 @@
         <v>1.49</v>
       </c>
       <c r="M21" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N21" t="n">
         <v>3.1</v>
@@ -3274,10 +3274,10 @@
         <v>4.2</v>
       </c>
       <c r="T21" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="U21" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="V21" t="n">
         <v>1.57</v>
@@ -3292,16 +3292,16 @@
         <v>9.800000000000001</v>
       </c>
       <c r="Z21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AA21" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AB21" t="n">
         <v>11</v>
       </c>
       <c r="AC21" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AD21" t="n">
         <v>12.5</v>
@@ -3370,19 +3370,19 @@
         <v>2.24</v>
       </c>
       <c r="G22" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="H22" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="I22" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="J22" t="n">
         <v>2.96</v>
       </c>
       <c r="K22" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L22" t="n">
         <v>1.01</v>
@@ -3433,10 +3433,10 @@
         <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AC22" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD22" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-25.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="G2" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="H2" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="I2" t="n">
         <v>5.3</v>
-      </c>
-      <c r="I2" t="n">
-        <v>5.4</v>
       </c>
       <c r="J2" t="n">
         <v>4.4</v>
@@ -697,16 +697,16 @@
         <v>1.22</v>
       </c>
       <c r="P2" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="R2" t="n">
         <v>1.57</v>
       </c>
       <c r="S2" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="T2" t="n">
         <v>1.7</v>
@@ -715,19 +715,19 @@
         <v>2.32</v>
       </c>
       <c r="V2" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W2" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="X2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y2" t="n">
         <v>24</v>
       </c>
       <c r="Z2" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AA2" t="n">
         <v>130</v>
@@ -739,16 +739,16 @@
         <v>10</v>
       </c>
       <c r="AD2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE2" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF2" t="n">
         <v>11.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH2" t="n">
         <v>18</v>
@@ -757,22 +757,22 @@
         <v>60</v>
       </c>
       <c r="AJ2" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AL2" t="n">
         <v>30</v>
       </c>
       <c r="AM2" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN2" t="n">
         <v>7.6</v>
       </c>
       <c r="AO2" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -802,43 +802,43 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="G3" t="n">
         <v>1.45</v>
       </c>
       <c r="H3" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="J3" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="K3" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="L3" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="M3" t="n">
         <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O3" t="n">
         <v>1.34</v>
       </c>
       <c r="P3" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="Q3" t="n">
         <v>2.02</v>
       </c>
       <c r="R3" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S3" t="n">
         <v>3.6</v>
@@ -850,10 +850,10 @@
         <v>1.67</v>
       </c>
       <c r="V3" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="W3" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="X3" t="n">
         <v>17.5</v>
@@ -892,7 +892,7 @@
         <v>220</v>
       </c>
       <c r="AJ3" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AK3" t="n">
         <v>21</v>
@@ -904,7 +904,7 @@
         <v>290</v>
       </c>
       <c r="AN3" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO3" t="n">
         <v>450</v>
@@ -940,28 +940,28 @@
         <v>4.3</v>
       </c>
       <c r="G4" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="H4" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="I4" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="J4" t="n">
         <v>3.9</v>
       </c>
       <c r="K4" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="O4" t="n">
         <v>1.25</v>
@@ -976,7 +976,7 @@
         <v>1.49</v>
       </c>
       <c r="S4" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="T4" t="n">
         <v>1.7</v>
@@ -985,10 +985,10 @@
         <v>2.32</v>
       </c>
       <c r="V4" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="W4" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X4" t="n">
         <v>18</v>
@@ -1033,7 +1033,7 @@
         <v>48</v>
       </c>
       <c r="AL4" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM4" t="n">
         <v>80</v>
@@ -1042,7 +1042,7 @@
         <v>42</v>
       </c>
       <c r="AO4" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="G5" t="n">
         <v>1.68</v>
@@ -1087,16 +1087,16 @@
         <v>4.4</v>
       </c>
       <c r="K5" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L5" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M5" t="n">
         <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="O5" t="n">
         <v>1.19</v>
@@ -1141,7 +1141,7 @@
         <v>12.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD5" t="n">
         <v>21</v>
@@ -1150,7 +1150,7 @@
         <v>60</v>
       </c>
       <c r="AF5" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG5" t="n">
         <v>10</v>
@@ -1168,7 +1168,7 @@
         <v>15</v>
       </c>
       <c r="AL5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM5" t="n">
         <v>75</v>
@@ -1216,7 +1216,7 @@
         <v>6.4</v>
       </c>
       <c r="I6" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="J6" t="n">
         <v>5.6</v>
@@ -1243,10 +1243,10 @@
         <v>1.31</v>
       </c>
       <c r="R6" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="S6" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="T6" t="n">
         <v>1.51</v>
@@ -1255,13 +1255,13 @@
         <v>2.58</v>
       </c>
       <c r="V6" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W6" t="n">
         <v>3.05</v>
       </c>
       <c r="X6" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="Y6" t="n">
         <v>980</v>
@@ -1279,7 +1279,7 @@
         <v>19.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AE6" t="n">
         <v>75</v>
@@ -1303,16 +1303,16 @@
         <v>17</v>
       </c>
       <c r="AL6" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AM6" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AN6" t="n">
         <v>4.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
     </row>
     <row r="7">
@@ -1345,7 +1345,7 @@
         <v>1.98</v>
       </c>
       <c r="G7" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="H7" t="n">
         <v>3.3</v>
@@ -1375,7 +1375,7 @@
         <v>2.72</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="R7" t="n">
         <v>1.71</v>
@@ -1393,7 +1393,7 @@
         <v>1.37</v>
       </c>
       <c r="W7" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="X7" t="n">
         <v>980</v>
@@ -1480,7 +1480,7 @@
         <v>1.98</v>
       </c>
       <c r="G8" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="H8" t="n">
         <v>3.4</v>
@@ -1522,7 +1522,7 @@
         <v>1.55</v>
       </c>
       <c r="U8" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="V8" t="n">
         <v>1.35</v>
@@ -1612,10 +1612,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="G9" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="H9" t="n">
         <v>6.6</v>
@@ -1627,7 +1627,7 @@
         <v>5.2</v>
       </c>
       <c r="K9" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="L9" t="n">
         <v>1.24</v>
@@ -1636,25 +1636,25 @@
         <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="O9" t="n">
         <v>1.14</v>
       </c>
       <c r="P9" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="Q9" t="n">
         <v>1.43</v>
       </c>
       <c r="R9" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="S9" t="n">
         <v>2.06</v>
       </c>
       <c r="T9" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U9" t="n">
         <v>2.3</v>
@@ -1663,7 +1663,7 @@
         <v>1.14</v>
       </c>
       <c r="W9" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="X9" t="n">
         <v>44</v>
@@ -1693,7 +1693,7 @@
         <v>14.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH9" t="n">
         <v>25</v>
@@ -1702,7 +1702,7 @@
         <v>80</v>
       </c>
       <c r="AJ9" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AK9" t="n">
         <v>17</v>
@@ -1780,7 +1780,7 @@
         <v>1.55</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="R10" t="n">
         <v>1.19</v>
@@ -1894,7 +1894,7 @@
         <v>2.8</v>
       </c>
       <c r="J11" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K11" t="n">
         <v>3.7</v>
@@ -1927,13 +1927,13 @@
         <v>1.71</v>
       </c>
       <c r="U11" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V11" t="n">
         <v>1.56</v>
       </c>
       <c r="W11" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="X11" t="n">
         <v>18.5</v>
@@ -2026,7 +2026,7 @@
         <v>4.7</v>
       </c>
       <c r="I12" t="n">
-        <v>6.6</v>
+        <v>5.9</v>
       </c>
       <c r="J12" t="n">
         <v>3.1</v>
@@ -2041,10 +2041,10 @@
         <v>1.09</v>
       </c>
       <c r="N12" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="O12" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P12" t="n">
         <v>1.64</v>
@@ -2059,13 +2059,13 @@
         <v>4.3</v>
       </c>
       <c r="T12" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U12" t="n">
         <v>1.79</v>
       </c>
       <c r="V12" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="W12" t="n">
         <v>2</v>
@@ -2176,28 +2176,28 @@
         <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="O13" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P13" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="R13" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="S13" t="n">
-        <v>2.92</v>
+        <v>2.84</v>
       </c>
       <c r="T13" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="U13" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="V13" t="n">
         <v>1.27</v>
@@ -2206,13 +2206,13 @@
         <v>2.1</v>
       </c>
       <c r="X13" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AA13" t="n">
         <v>95</v>
@@ -2221,7 +2221,7 @@
         <v>11</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD13" t="n">
         <v>17</v>
@@ -2236,7 +2236,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH13" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI13" t="n">
         <v>55</v>
@@ -2245,16 +2245,16 @@
         <v>21</v>
       </c>
       <c r="AK13" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AL13" t="n">
         <v>30</v>
       </c>
       <c r="AM13" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN13" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AO13" t="n">
         <v>44</v>
@@ -2287,10 +2287,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="G14" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="H14" t="n">
         <v>2.2</v>
@@ -2305,7 +2305,7 @@
         <v>4</v>
       </c>
       <c r="L14" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="M14" t="n">
         <v>1.04</v>
@@ -2317,10 +2317,10 @@
         <v>1.21</v>
       </c>
       <c r="P14" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="R14" t="n">
         <v>1.6</v>
@@ -2350,7 +2350,7 @@
         <v>16.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AB14" t="n">
         <v>18</v>
@@ -2392,7 +2392,7 @@
         <v>22</v>
       </c>
       <c r="AO14" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15">
@@ -2428,7 +2428,7 @@
         <v>2.48</v>
       </c>
       <c r="H15" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="I15" t="n">
         <v>2.88</v>
@@ -2440,7 +2440,7 @@
         <v>4.1</v>
       </c>
       <c r="L15" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="M15" t="n">
         <v>1.02</v>
@@ -2458,28 +2458,28 @@
         <v>1.42</v>
       </c>
       <c r="R15" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="S15" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="T15" t="n">
         <v>1.41</v>
       </c>
       <c r="U15" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="V15" t="n">
         <v>1.53</v>
       </c>
       <c r="W15" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="X15" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Y15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z15" t="n">
         <v>27</v>
@@ -2491,7 +2491,7 @@
         <v>22</v>
       </c>
       <c r="AC15" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD15" t="n">
         <v>13.5</v>
@@ -2506,13 +2506,13 @@
         <v>12.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AI15" t="n">
         <v>26</v>
       </c>
       <c r="AJ15" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AK15" t="n">
         <v>21</v>
@@ -2524,7 +2524,7 @@
         <v>40</v>
       </c>
       <c r="AN15" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO15" t="n">
         <v>12</v>
@@ -2569,7 +2569,7 @@
         <v>15</v>
       </c>
       <c r="J16" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="K16" t="n">
         <v>8</v>
@@ -2587,19 +2587,19 @@
         <v>1.12</v>
       </c>
       <c r="P16" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="Q16" t="n">
         <v>1.39</v>
       </c>
       <c r="R16" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="S16" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="T16" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="U16" t="n">
         <v>2.08</v>
@@ -2611,7 +2611,7 @@
         <v>5</v>
       </c>
       <c r="X16" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Y16" t="n">
         <v>65</v>
@@ -2620,10 +2620,10 @@
         <v>160</v>
       </c>
       <c r="AA16" t="n">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="AB16" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC16" t="n">
         <v>17.5</v>
@@ -2635,7 +2635,7 @@
         <v>190</v>
       </c>
       <c r="AF16" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG16" t="n">
         <v>11.5</v>
@@ -2647,7 +2647,7 @@
         <v>140</v>
       </c>
       <c r="AJ16" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AK16" t="n">
         <v>12</v>
@@ -2659,7 +2659,7 @@
         <v>120</v>
       </c>
       <c r="AN16" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="AO16" t="n">
         <v>170</v>
@@ -2692,10 +2692,10 @@
         </is>
       </c>
       <c r="F17" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="G17" t="n">
         <v>1.32</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1.33</v>
       </c>
       <c r="H17" t="n">
         <v>12</v>
@@ -2728,10 +2728,10 @@
         <v>1.6</v>
       </c>
       <c r="R17" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="S17" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="T17" t="n">
         <v>2.06</v>
@@ -2743,7 +2743,7 @@
         <v>1.08</v>
       </c>
       <c r="W17" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="X17" t="n">
         <v>26</v>
@@ -2755,7 +2755,7 @@
         <v>120</v>
       </c>
       <c r="AA17" t="n">
-        <v>460</v>
+        <v>550</v>
       </c>
       <c r="AB17" t="n">
         <v>10</v>
@@ -2767,7 +2767,7 @@
         <v>42</v>
       </c>
       <c r="AE17" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AF17" t="n">
         <v>8.199999999999999</v>
@@ -2845,7 +2845,7 @@
         <v>3.55</v>
       </c>
       <c r="L18" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M18" t="n">
         <v>1.06</v>
@@ -2857,16 +2857,16 @@
         <v>1.28</v>
       </c>
       <c r="P18" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="R18" t="n">
         <v>1.44</v>
       </c>
       <c r="S18" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T18" t="n">
         <v>1.69</v>
@@ -2878,7 +2878,7 @@
         <v>1.62</v>
       </c>
       <c r="W18" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="X18" t="n">
         <v>15.5</v>
@@ -2929,7 +2929,7 @@
         <v>75</v>
       </c>
       <c r="AN18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO18" t="n">
         <v>18.5</v>
@@ -2962,16 +2962,16 @@
         </is>
       </c>
       <c r="F19" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G19" t="n">
         <v>3.25</v>
       </c>
-      <c r="G19" t="n">
-        <v>3.3</v>
-      </c>
       <c r="H19" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="I19" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="J19" t="n">
         <v>3.45</v>
@@ -2986,13 +2986,13 @@
         <v>1.08</v>
       </c>
       <c r="N19" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="O19" t="n">
         <v>1.36</v>
       </c>
       <c r="P19" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="Q19" t="n">
         <v>2.1</v>
@@ -3010,13 +3010,13 @@
         <v>2.1</v>
       </c>
       <c r="V19" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="W19" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="X19" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y19" t="n">
         <v>9.800000000000001</v>
@@ -3052,13 +3052,13 @@
         <v>44</v>
       </c>
       <c r="AJ19" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AK19" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AL19" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM19" t="n">
         <v>110</v>
@@ -3067,7 +3067,7 @@
         <v>38</v>
       </c>
       <c r="AO19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20">
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="G20" t="n">
         <v>5</v>
       </c>
       <c r="H20" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="J20" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K20" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L20" t="n">
         <v>1.48</v>
@@ -3121,22 +3121,22 @@
         <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O20" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P20" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="R20" t="n">
         <v>1.28</v>
       </c>
       <c r="S20" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="T20" t="n">
         <v>1.94</v>
@@ -3148,13 +3148,13 @@
         <v>2</v>
       </c>
       <c r="W20" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="X20" t="n">
         <v>14.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Z20" t="n">
         <v>14</v>
@@ -3235,28 +3235,28 @@
         <v>3</v>
       </c>
       <c r="G21" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="J21" t="n">
         <v>3.35</v>
       </c>
-      <c r="H21" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="J21" t="n">
-        <v>3.25</v>
-      </c>
       <c r="K21" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L21" t="n">
         <v>1.49</v>
       </c>
       <c r="M21" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N21" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="O21" t="n">
         <v>1.4</v>
@@ -3265,25 +3265,25 @@
         <v>1.76</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R21" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="S21" t="n">
         <v>4.2</v>
       </c>
       <c r="T21" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U21" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="V21" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="W21" t="n">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="X21" t="n">
         <v>11.5</v>
@@ -3334,10 +3334,10 @@
         <v>120</v>
       </c>
       <c r="AN21" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AO21" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22">
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G22" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="H22" t="n">
         <v>3.65</v>
       </c>
       <c r="I22" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="J22" t="n">
         <v>2.96</v>
       </c>
       <c r="K22" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L22" t="n">
         <v>1.01</v>
@@ -3391,7 +3391,7 @@
         <v>1.1</v>
       </c>
       <c r="N22" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="O22" t="n">
         <v>1.43</v>
@@ -3424,7 +3424,7 @@
         <v>980</v>
       </c>
       <c r="Y22" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z22" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-25.xlsx
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="G2" t="n">
-        <v>1.72</v>
+        <v>1.64</v>
       </c>
       <c r="H2" t="n">
-        <v>5.1</v>
+        <v>5.8</v>
       </c>
       <c r="I2" t="n">
-        <v>5.3</v>
+        <v>6.2</v>
       </c>
       <c r="J2" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K2" t="n">
         <v>4.6</v>
@@ -691,58 +691,58 @@
         <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P2" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="R2" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="S2" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="T2" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="U2" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="V2" t="n">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="W2" t="n">
-        <v>2.38</v>
+        <v>2.56</v>
       </c>
       <c r="X2" t="n">
         <v>23</v>
       </c>
       <c r="Y2" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Z2" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AA2" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AB2" t="n">
         <v>11.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AE2" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AF2" t="n">
         <v>11.5</v>
@@ -751,28 +751,28 @@
         <v>10</v>
       </c>
       <c r="AH2" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ2" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AK2" t="n">
         <v>15.5</v>
       </c>
       <c r="AL2" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM2" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AN2" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="AO2" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3">
@@ -802,10 +802,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="G3" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="H3" t="n">
         <v>9.800000000000001</v>
@@ -832,7 +832,7 @@
         <v>1.34</v>
       </c>
       <c r="P3" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="Q3" t="n">
         <v>2.02</v>
@@ -841,7 +841,7 @@
         <v>1.33</v>
       </c>
       <c r="S3" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="T3" t="n">
         <v>2.28</v>
@@ -853,7 +853,7 @@
         <v>1.09</v>
       </c>
       <c r="W3" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="X3" t="n">
         <v>17.5</v>
@@ -880,7 +880,7 @@
         <v>260</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AG3" t="n">
         <v>12.5</v>
@@ -967,7 +967,7 @@
         <v>1.25</v>
       </c>
       <c r="P4" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="Q4" t="n">
         <v>1.76</v>
@@ -991,7 +991,7 @@
         <v>1.3</v>
       </c>
       <c r="X4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y4" t="n">
         <v>11</v>
@@ -1027,7 +1027,7 @@
         <v>30</v>
       </c>
       <c r="AJ4" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AK4" t="n">
         <v>48</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="G5" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="H5" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="I5" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="J5" t="n">
         <v>4.4</v>
       </c>
       <c r="K5" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L5" t="n">
         <v>1.3</v>
@@ -1096,73 +1096,73 @@
         <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P5" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="R5" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="S5" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="T5" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="U5" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="V5" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="W5" t="n">
-        <v>2.46</v>
+        <v>2.38</v>
       </c>
       <c r="X5" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y5" t="n">
         <v>25</v>
       </c>
-      <c r="Y5" t="n">
-        <v>26</v>
-      </c>
       <c r="Z5" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AA5" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AB5" t="n">
         <v>12.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE5" t="n">
         <v>60</v>
       </c>
       <c r="AF5" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH5" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI5" t="n">
         <v>55</v>
       </c>
       <c r="AJ5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK5" t="n">
         <v>15</v>
@@ -1171,13 +1171,13 @@
         <v>26</v>
       </c>
       <c r="AM5" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN5" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AO5" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6">
@@ -1240,7 +1240,7 @@
         <v>3.55</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="R6" t="n">
         <v>2.06</v>
@@ -1261,7 +1261,7 @@
         <v>3.05</v>
       </c>
       <c r="X6" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Y6" t="n">
         <v>980</v>
@@ -1282,10 +1282,10 @@
         <v>34</v>
       </c>
       <c r="AE6" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AF6" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AG6" t="n">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>27</v>
       </c>
       <c r="AM6" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AN6" t="n">
         <v>4.5</v>
@@ -1345,7 +1345,7 @@
         <v>1.98</v>
       </c>
       <c r="G7" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="H7" t="n">
         <v>3.3</v>
@@ -1375,13 +1375,13 @@
         <v>2.72</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="R7" t="n">
         <v>1.71</v>
       </c>
       <c r="S7" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="T7" t="n">
         <v>1.47</v>
@@ -1393,19 +1393,19 @@
         <v>1.37</v>
       </c>
       <c r="W7" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="X7" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="Y7" t="n">
         <v>27</v>
       </c>
       <c r="Z7" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AA7" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AB7" t="n">
         <v>19.5</v>
@@ -1429,7 +1429,7 @@
         <v>18</v>
       </c>
       <c r="AI7" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AJ7" t="n">
         <v>32</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
         <v>2.14</v>
@@ -1501,7 +1501,7 @@
         <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>5.3</v>
+        <v>4.6</v>
       </c>
       <c r="O8" t="n">
         <v>1.19</v>
@@ -1522,7 +1522,7 @@
         <v>1.55</v>
       </c>
       <c r="U8" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="V8" t="n">
         <v>1.35</v>
@@ -1540,7 +1540,7 @@
         <v>38</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AB8" t="n">
         <v>17</v>
@@ -1615,7 +1615,7 @@
         <v>1.42</v>
       </c>
       <c r="G9" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="H9" t="n">
         <v>6.6</v>
@@ -1651,10 +1651,10 @@
         <v>1.8</v>
       </c>
       <c r="S9" t="n">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
       <c r="T9" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="U9" t="n">
         <v>2.3</v>
@@ -1675,13 +1675,13 @@
         <v>85</v>
       </c>
       <c r="AA9" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AB9" t="n">
         <v>17</v>
       </c>
       <c r="AC9" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AD9" t="n">
         <v>34</v>
@@ -1717,7 +1717,7 @@
         <v>5.4</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
@@ -1750,7 +1750,7 @@
         <v>2.12</v>
       </c>
       <c r="G10" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="H10" t="n">
         <v>3.95</v>
@@ -1768,7 +1768,7 @@
         <v>1.56</v>
       </c>
       <c r="M10" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="N10" t="n">
         <v>2.62</v>
@@ -1792,13 +1792,13 @@
         <v>2.1</v>
       </c>
       <c r="U10" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="V10" t="n">
         <v>1.28</v>
       </c>
       <c r="W10" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="X10" t="n">
         <v>11</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="G11" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="H11" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="I11" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="J11" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K11" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L11" t="n">
         <v>1.39</v>
@@ -1906,28 +1906,28 @@
         <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="O11" t="n">
         <v>1.3</v>
       </c>
       <c r="P11" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="R11" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="S11" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="T11" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="U11" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V11" t="n">
         <v>1.56</v>
@@ -1936,10 +1936,10 @@
         <v>1.5</v>
       </c>
       <c r="X11" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Y11" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z11" t="n">
         <v>23</v>
@@ -1948,13 +1948,13 @@
         <v>48</v>
       </c>
       <c r="AB11" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD11" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE11" t="n">
         <v>36</v>
@@ -2035,10 +2035,10 @@
         <v>3.8</v>
       </c>
       <c r="L12" t="n">
-        <v>1.39</v>
+        <v>1.48</v>
       </c>
       <c r="M12" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N12" t="n">
         <v>2.86</v>
@@ -2065,7 +2065,7 @@
         <v>1.79</v>
       </c>
       <c r="V12" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="W12" t="n">
         <v>2</v>
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="G13" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="H13" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I13" t="n">
         <v>4.6</v>
-      </c>
-      <c r="I13" t="n">
-        <v>4.7</v>
       </c>
       <c r="J13" t="n">
         <v>3.9</v>
@@ -2170,10 +2170,10 @@
         <v>3.95</v>
       </c>
       <c r="L13" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
         <v>4.8</v>
@@ -2182,10 +2182,10 @@
         <v>1.24</v>
       </c>
       <c r="P13" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="R13" t="n">
         <v>1.52</v>
@@ -2197,49 +2197,49 @@
         <v>1.69</v>
       </c>
       <c r="U13" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V13" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W13" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="X13" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Y13" t="n">
         <v>19.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA13" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AB13" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC13" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD13" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AE13" t="n">
         <v>50</v>
       </c>
       <c r="AF13" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG13" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AH13" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI13" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AJ13" t="n">
         <v>21</v>
@@ -2254,7 +2254,7 @@
         <v>75</v>
       </c>
       <c r="AN13" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO13" t="n">
         <v>44</v>
@@ -2287,13 +2287,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="G14" t="n">
         <v>3.45</v>
       </c>
       <c r="H14" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="I14" t="n">
         <v>2.22</v>
@@ -2305,7 +2305,7 @@
         <v>4</v>
       </c>
       <c r="L14" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="M14" t="n">
         <v>1.04</v>
@@ -2317,28 +2317,28 @@
         <v>1.21</v>
       </c>
       <c r="P14" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="R14" t="n">
         <v>1.6</v>
       </c>
       <c r="S14" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="T14" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="U14" t="n">
         <v>2.62</v>
       </c>
       <c r="V14" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="W14" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="X14" t="n">
         <v>22</v>
@@ -2392,7 +2392,7 @@
         <v>22</v>
       </c>
       <c r="AO14" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="15">
@@ -2452,13 +2452,13 @@
         <v>1.13</v>
       </c>
       <c r="P15" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q15" t="n">
         <v>1.42</v>
       </c>
       <c r="R15" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="S15" t="n">
         <v>2.02</v>
@@ -2473,7 +2473,7 @@
         <v>1.53</v>
       </c>
       <c r="W15" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="X15" t="n">
         <v>34</v>
@@ -2491,7 +2491,7 @@
         <v>22</v>
       </c>
       <c r="AC15" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD15" t="n">
         <v>13.5</v>
@@ -2506,7 +2506,7 @@
         <v>12.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AI15" t="n">
         <v>26</v>
@@ -2563,10 +2563,10 @@
         <v>1.25</v>
       </c>
       <c r="H16" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="I16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J16" t="n">
         <v>7.6</v>
@@ -2587,25 +2587,25 @@
         <v>1.12</v>
       </c>
       <c r="P16" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="R16" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S16" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="T16" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="U16" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="V16" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="W16" t="n">
         <v>5</v>
@@ -2614,19 +2614,19 @@
         <v>40</v>
       </c>
       <c r="Y16" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="Z16" t="n">
         <v>160</v>
       </c>
       <c r="AA16" t="n">
-        <v>570</v>
+        <v>590</v>
       </c>
       <c r="AB16" t="n">
         <v>14.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AD16" t="n">
         <v>50</v>
@@ -2638,10 +2638,10 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AG16" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH16" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AI16" t="n">
         <v>140</v>
@@ -2662,7 +2662,7 @@
         <v>3.15</v>
       </c>
       <c r="AO16" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17">
@@ -2704,10 +2704,10 @@
         <v>12.5</v>
       </c>
       <c r="J17" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="K17" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="L17" t="n">
         <v>1.28</v>
@@ -2722,22 +2722,22 @@
         <v>1.2</v>
       </c>
       <c r="P17" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="Q17" t="n">
         <v>1.6</v>
       </c>
       <c r="R17" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="S17" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="T17" t="n">
         <v>2.06</v>
       </c>
       <c r="U17" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="V17" t="n">
         <v>1.08</v>
@@ -2758,7 +2758,7 @@
         <v>550</v>
       </c>
       <c r="AB17" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC17" t="n">
         <v>14</v>
@@ -2782,7 +2782,7 @@
         <v>150</v>
       </c>
       <c r="AJ17" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK17" t="n">
         <v>13</v>
@@ -2833,10 +2833,10 @@
         <v>3.05</v>
       </c>
       <c r="H18" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="I18" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="J18" t="n">
         <v>3.5</v>
@@ -2845,7 +2845,7 @@
         <v>3.55</v>
       </c>
       <c r="L18" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M18" t="n">
         <v>1.06</v>
@@ -2860,7 +2860,7 @@
         <v>2.14</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="R18" t="n">
         <v>1.44</v>
@@ -2881,7 +2881,7 @@
         <v>1.49</v>
       </c>
       <c r="X18" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Y18" t="n">
         <v>12</v>
@@ -2968,10 +2968,10 @@
         <v>3.25</v>
       </c>
       <c r="H19" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="I19" t="n">
         <v>2.48</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2.52</v>
       </c>
       <c r="J19" t="n">
         <v>3.45</v>
@@ -2989,7 +2989,7 @@
         <v>3.6</v>
       </c>
       <c r="O19" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P19" t="n">
         <v>1.86</v>
@@ -3004,13 +3004,13 @@
         <v>3.85</v>
       </c>
       <c r="T19" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="U19" t="n">
         <v>2.1</v>
       </c>
       <c r="V19" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="W19" t="n">
         <v>1.44</v>
@@ -3025,7 +3025,7 @@
         <v>15</v>
       </c>
       <c r="AA19" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AB19" t="n">
         <v>12</v>
@@ -3049,7 +3049,7 @@
         <v>18</v>
       </c>
       <c r="AI19" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ19" t="n">
         <v>60</v>
@@ -3061,13 +3061,13 @@
         <v>50</v>
       </c>
       <c r="AM19" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN19" t="n">
         <v>38</v>
       </c>
       <c r="AO19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20">
@@ -3100,7 +3100,7 @@
         <v>4.5</v>
       </c>
       <c r="G20" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H20" t="n">
         <v>1.93</v>
@@ -3109,7 +3109,7 @@
         <v>1.98</v>
       </c>
       <c r="J20" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K20" t="n">
         <v>3.75</v>
@@ -3121,40 +3121,40 @@
         <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O20" t="n">
         <v>1.4</v>
       </c>
       <c r="P20" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="Q20" t="n">
         <v>2.16</v>
       </c>
       <c r="R20" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S20" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="T20" t="n">
         <v>1.94</v>
       </c>
       <c r="U20" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="V20" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="W20" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="X20" t="n">
         <v>14.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z20" t="n">
         <v>14</v>
@@ -3232,10 +3232,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G21" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="H21" t="n">
         <v>2.58</v>
@@ -3247,7 +3247,7 @@
         <v>3.35</v>
       </c>
       <c r="K21" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L21" t="n">
         <v>1.49</v>
@@ -3256,7 +3256,7 @@
         <v>1.09</v>
       </c>
       <c r="N21" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O21" t="n">
         <v>1.4</v>
@@ -3283,7 +3283,7 @@
         <v>1.6</v>
       </c>
       <c r="W21" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="X21" t="n">
         <v>11.5</v>
@@ -3388,25 +3388,25 @@
         <v>1.01</v>
       </c>
       <c r="M22" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N22" t="n">
         <v>3</v>
       </c>
       <c r="O22" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="P22" t="n">
         <v>1.67</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.26</v>
+        <v>2.08</v>
       </c>
       <c r="R22" t="n">
         <v>1.25</v>
       </c>
       <c r="S22" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="T22" t="n">
         <v>1.92</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-25.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="G2" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="H2" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="I2" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="J2" t="n">
         <v>4.5</v>
@@ -691,7 +691,7 @@
         <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="O2" t="n">
         <v>1.21</v>
@@ -700,7 +700,7 @@
         <v>2.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="R2" t="n">
         <v>1.59</v>
@@ -712,19 +712,19 @@
         <v>1.72</v>
       </c>
       <c r="U2" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="V2" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W2" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="X2" t="n">
         <v>23</v>
       </c>
       <c r="Y2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z2" t="n">
         <v>55</v>
@@ -769,10 +769,10 @@
         <v>85</v>
       </c>
       <c r="AN2" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="AO2" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3">
@@ -805,7 +805,7 @@
         <v>1.39</v>
       </c>
       <c r="G3" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="H3" t="n">
         <v>9.800000000000001</v>
@@ -820,7 +820,7 @@
         <v>5.2</v>
       </c>
       <c r="L3" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M3" t="n">
         <v>1.07</v>
@@ -832,7 +832,7 @@
         <v>1.34</v>
       </c>
       <c r="P3" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="Q3" t="n">
         <v>2.02</v>
@@ -853,7 +853,7 @@
         <v>1.09</v>
       </c>
       <c r="W3" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="X3" t="n">
         <v>17.5</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G4" t="n">
         <v>4.3</v>
       </c>
-      <c r="G4" t="n">
-        <v>4.4</v>
-      </c>
       <c r="H4" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="I4" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="J4" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L4" t="n">
         <v>1.33</v>
@@ -982,10 +982,10 @@
         <v>1.7</v>
       </c>
       <c r="U4" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="V4" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="W4" t="n">
         <v>1.3</v>
@@ -1012,13 +1012,13 @@
         <v>10</v>
       </c>
       <c r="AE4" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AF4" t="n">
         <v>34</v>
       </c>
       <c r="AG4" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AH4" t="n">
         <v>16.5</v>
@@ -1039,7 +1039,7 @@
         <v>80</v>
       </c>
       <c r="AN4" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AO4" t="n">
         <v>11</v>
@@ -1072,61 +1072,61 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="G5" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="H5" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="J5" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K5" t="n">
         <v>4.4</v>
       </c>
-      <c r="K5" t="n">
-        <v>4.5</v>
-      </c>
       <c r="L5" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="M5" t="n">
         <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="O5" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P5" t="n">
-        <v>2.56</v>
+        <v>2.64</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="R5" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="T5" t="n">
         <v>1.63</v>
       </c>
-      <c r="S5" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.65</v>
-      </c>
       <c r="U5" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="V5" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W5" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="X5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y5" t="n">
         <v>25</v>
@@ -1135,49 +1135,49 @@
         <v>44</v>
       </c>
       <c r="AA5" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AB5" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD5" t="n">
         <v>19</v>
       </c>
       <c r="AE5" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AF5" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AH5" t="n">
         <v>16.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ5" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AK5" t="n">
         <v>15</v>
       </c>
       <c r="AL5" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AM5" t="n">
         <v>70</v>
       </c>
       <c r="AN5" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AO5" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
@@ -1237,16 +1237,16 @@
         <v>1.1</v>
       </c>
       <c r="P6" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="R6" t="n">
         <v>2.06</v>
       </c>
       <c r="S6" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="T6" t="n">
         <v>1.51</v>
@@ -1261,7 +1261,7 @@
         <v>3.05</v>
       </c>
       <c r="X6" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="Y6" t="n">
         <v>980</v>
@@ -1282,10 +1282,10 @@
         <v>34</v>
       </c>
       <c r="AE6" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AF6" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AG6" t="n">
         <v>14</v>
@@ -1303,7 +1303,7 @@
         <v>17</v>
       </c>
       <c r="AL6" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AM6" t="n">
         <v>70</v>
@@ -1312,7 +1312,7 @@
         <v>4.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="G7" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="H7" t="n">
         <v>3.3</v>
       </c>
       <c r="I7" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J7" t="n">
         <v>4.1</v>
@@ -1372,7 +1372,7 @@
         <v>1.16</v>
       </c>
       <c r="P7" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="Q7" t="n">
         <v>1.47</v>
@@ -1384,10 +1384,10 @@
         <v>2.16</v>
       </c>
       <c r="T7" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="U7" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="V7" t="n">
         <v>1.37</v>
@@ -1396,19 +1396,19 @@
         <v>1.87</v>
       </c>
       <c r="X7" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="Y7" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="Z7" t="n">
         <v>980</v>
       </c>
       <c r="AA7" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AB7" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AC7" t="n">
         <v>13.5</v>
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="G8" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="H8" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="I8" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="J8" t="n">
         <v>3.95</v>
@@ -1501,34 +1501,34 @@
         <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>4.6</v>
+        <v>5.2</v>
       </c>
       <c r="O8" t="n">
         <v>1.19</v>
       </c>
       <c r="P8" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="R8" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="S8" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="T8" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="U8" t="n">
-        <v>2.52</v>
+        <v>2.46</v>
       </c>
       <c r="V8" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="W8" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="X8" t="n">
         <v>30</v>
@@ -1540,34 +1540,34 @@
         <v>38</v>
       </c>
       <c r="AA8" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AC8" t="n">
         <v>12.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AF8" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH8" t="n">
         <v>19.5</v>
       </c>
-      <c r="AG8" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AI8" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AJ8" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AK8" t="n">
         <v>23</v>
@@ -1576,13 +1576,13 @@
         <v>34</v>
       </c>
       <c r="AM8" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
@@ -1612,97 +1612,97 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="G9" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="H9" t="n">
         <v>6.6</v>
       </c>
       <c r="I9" t="n">
-        <v>8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J9" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="K9" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="L9" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="M9" t="n">
         <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="O9" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P9" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="R9" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S9" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="T9" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U9" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="V9" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W9" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="X9" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Y9" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Z9" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AA9" t="n">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="AB9" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AE9" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AF9" t="n">
         <v>14.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI9" t="n">
         <v>80</v>
       </c>
       <c r="AJ9" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AK9" t="n">
         <v>17</v>
@@ -1717,7 +1717,7 @@
         <v>5.4</v>
       </c>
       <c r="AO9" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1747,13 +1747,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="G10" t="n">
         <v>2.26</v>
       </c>
       <c r="H10" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I10" t="n">
         <v>4.5</v>
@@ -1816,7 +1816,7 @@
         <v>8.6</v>
       </c>
       <c r="AC10" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD10" t="n">
         <v>22</v>
@@ -1891,7 +1891,7 @@
         <v>2.58</v>
       </c>
       <c r="I11" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="J11" t="n">
         <v>3.5</v>
@@ -1930,7 +1930,7 @@
         <v>2.24</v>
       </c>
       <c r="V11" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="W11" t="n">
         <v>1.5</v>
@@ -1939,7 +1939,7 @@
         <v>19</v>
       </c>
       <c r="Y11" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z11" t="n">
         <v>23</v>
@@ -1948,13 +1948,13 @@
         <v>48</v>
       </c>
       <c r="AB11" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD11" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AE11" t="n">
         <v>36</v>
@@ -2020,19 +2020,19 @@
         <v>1.83</v>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="H12" t="n">
         <v>4.7</v>
       </c>
       <c r="I12" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="J12" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K12" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L12" t="n">
         <v>1.48</v>
@@ -2041,16 +2041,16 @@
         <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="O12" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="P12" t="n">
         <v>1.64</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.24</v>
+        <v>2.1</v>
       </c>
       <c r="R12" t="n">
         <v>1.25</v>
@@ -2059,19 +2059,19 @@
         <v>4.3</v>
       </c>
       <c r="T12" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U12" t="n">
         <v>1.79</v>
       </c>
       <c r="V12" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="W12" t="n">
         <v>2</v>
       </c>
       <c r="X12" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
         <v>1000</v>
@@ -2098,7 +2098,7 @@
         <v>13</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH12" t="n">
         <v>1000</v>
@@ -2119,7 +2119,7 @@
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="G13" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="H13" t="n">
         <v>4.4</v>
       </c>
       <c r="I13" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J13" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K13" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L13" t="n">
         <v>1.34</v>
@@ -2185,7 +2185,7 @@
         <v>2.34</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R13" t="n">
         <v>1.52</v>
@@ -2197,10 +2197,10 @@
         <v>1.69</v>
       </c>
       <c r="U13" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="V13" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W13" t="n">
         <v>2.08</v>
@@ -2254,10 +2254,10 @@
         <v>75</v>
       </c>
       <c r="AN13" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AO13" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14">
@@ -2287,13 +2287,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="G14" t="n">
         <v>3.45</v>
       </c>
       <c r="H14" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="I14" t="n">
         <v>2.22</v>
@@ -2305,7 +2305,7 @@
         <v>4</v>
       </c>
       <c r="L14" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M14" t="n">
         <v>1.04</v>
@@ -2314,16 +2314,16 @@
         <v>5.5</v>
       </c>
       <c r="O14" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P14" t="n">
         <v>2.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="R14" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="S14" t="n">
         <v>2.56</v>
@@ -2335,10 +2335,10 @@
         <v>2.62</v>
       </c>
       <c r="V14" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="W14" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="X14" t="n">
         <v>22</v>
@@ -2428,10 +2428,10 @@
         <v>2.48</v>
       </c>
       <c r="H15" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="I15" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J15" t="n">
         <v>4</v>
@@ -2452,7 +2452,7 @@
         <v>1.13</v>
       </c>
       <c r="P15" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q15" t="n">
         <v>1.42</v>
@@ -2464,19 +2464,19 @@
         <v>2.02</v>
       </c>
       <c r="T15" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="U15" t="n">
         <v>3.3</v>
       </c>
       <c r="V15" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="W15" t="n">
         <v>1.67</v>
       </c>
       <c r="X15" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Y15" t="n">
         <v>24</v>
@@ -2488,7 +2488,7 @@
         <v>46</v>
       </c>
       <c r="AB15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC15" t="n">
         <v>10.5</v>
@@ -2500,7 +2500,7 @@
         <v>24</v>
       </c>
       <c r="AF15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG15" t="n">
         <v>12.5</v>
@@ -2515,7 +2515,7 @@
         <v>36</v>
       </c>
       <c r="AK15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL15" t="n">
         <v>24</v>
@@ -2524,7 +2524,7 @@
         <v>40</v>
       </c>
       <c r="AN15" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AO15" t="n">
         <v>12</v>
@@ -2563,16 +2563,16 @@
         <v>1.25</v>
       </c>
       <c r="H16" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="I16" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="J16" t="n">
         <v>7.6</v>
       </c>
       <c r="K16" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="L16" t="n">
         <v>1.22</v>
@@ -2587,7 +2587,7 @@
         <v>1.12</v>
       </c>
       <c r="P16" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="Q16" t="n">
         <v>1.38</v>
@@ -2602,7 +2602,7 @@
         <v>1.89</v>
       </c>
       <c r="U16" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="V16" t="n">
         <v>1.06</v>
@@ -2620,13 +2620,13 @@
         <v>160</v>
       </c>
       <c r="AA16" t="n">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="AB16" t="n">
         <v>14.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AD16" t="n">
         <v>50</v>
@@ -2641,7 +2641,7 @@
         <v>12</v>
       </c>
       <c r="AH16" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI16" t="n">
         <v>140</v>
@@ -2659,7 +2659,7 @@
         <v>120</v>
       </c>
       <c r="AN16" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="AO16" t="n">
         <v>160</v>
@@ -2731,13 +2731,13 @@
         <v>1.62</v>
       </c>
       <c r="S17" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="T17" t="n">
         <v>2.06</v>
       </c>
       <c r="U17" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="V17" t="n">
         <v>1.08</v>
@@ -2827,70 +2827,70 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="G18" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="H18" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="I18" t="n">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="J18" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K18" t="n">
         <v>3.55</v>
       </c>
       <c r="L18" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="M18" t="n">
         <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O18" t="n">
         <v>1.28</v>
       </c>
       <c r="P18" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R18" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S18" t="n">
         <v>3.1</v>
       </c>
       <c r="T18" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="U18" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="V18" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="W18" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="X18" t="n">
         <v>16</v>
       </c>
       <c r="Y18" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AB18" t="n">
         <v>13.5</v>
@@ -2905,7 +2905,7 @@
         <v>26</v>
       </c>
       <c r="AF18" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AG18" t="n">
         <v>12.5</v>
@@ -2920,16 +2920,16 @@
         <v>44</v>
       </c>
       <c r="AK18" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL18" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM18" t="n">
         <v>75</v>
       </c>
       <c r="AN18" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AO18" t="n">
         <v>18.5</v>
@@ -2962,16 +2962,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="G19" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="H19" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="I19" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="J19" t="n">
         <v>3.45</v>
@@ -2980,7 +2980,7 @@
         <v>3.5</v>
       </c>
       <c r="L19" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M19" t="n">
         <v>1.08</v>
@@ -2989,16 +2989,16 @@
         <v>3.6</v>
       </c>
       <c r="O19" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="P19" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R19" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S19" t="n">
         <v>3.85</v>
@@ -3007,19 +3007,19 @@
         <v>1.83</v>
       </c>
       <c r="U19" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V19" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="W19" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="X19" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="Z19" t="n">
         <v>15</v>
@@ -3031,19 +3031,19 @@
         <v>12</v>
       </c>
       <c r="AC19" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD19" t="n">
         <v>11.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AF19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG19" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH19" t="n">
         <v>18</v>
@@ -3064,10 +3064,10 @@
         <v>100</v>
       </c>
       <c r="AN19" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AO19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20">
@@ -3103,10 +3103,10 @@
         <v>4.9</v>
       </c>
       <c r="H20" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="I20" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="J20" t="n">
         <v>3.5</v>
@@ -3121,7 +3121,7 @@
         <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O20" t="n">
         <v>1.4</v>
@@ -3145,10 +3145,10 @@
         <v>1.92</v>
       </c>
       <c r="V20" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="W20" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="X20" t="n">
         <v>14.5</v>
@@ -3157,19 +3157,19 @@
         <v>9.199999999999999</v>
       </c>
       <c r="Z20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AA20" t="n">
         <v>28</v>
       </c>
       <c r="AB20" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE20" t="n">
         <v>28</v>
@@ -3187,7 +3187,7 @@
         <v>55</v>
       </c>
       <c r="AJ20" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AK20" t="n">
         <v>85</v>
@@ -3232,37 +3232,37 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="G21" t="n">
-        <v>3.15</v>
+        <v>2.98</v>
       </c>
       <c r="H21" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="I21" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="J21" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K21" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L21" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="M21" t="n">
         <v>1.09</v>
       </c>
       <c r="N21" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O21" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P21" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="Q21" t="n">
         <v>2.22</v>
@@ -3280,10 +3280,10 @@
         <v>2.02</v>
       </c>
       <c r="V21" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="W21" t="n">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="X21" t="n">
         <v>11.5</v>
@@ -3292,13 +3292,13 @@
         <v>9.800000000000001</v>
       </c>
       <c r="Z21" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AA21" t="n">
         <v>40</v>
       </c>
       <c r="AB21" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC21" t="n">
         <v>7.2</v>
@@ -3307,10 +3307,10 @@
         <v>12.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AF21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG21" t="n">
         <v>13.5</v>
@@ -3322,10 +3322,10 @@
         <v>50</v>
       </c>
       <c r="AJ21" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AK21" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AL21" t="n">
         <v>55</v>
@@ -3337,7 +3337,7 @@
         <v>40</v>
       </c>
       <c r="AO21" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22">
@@ -3376,7 +3376,7 @@
         <v>3.65</v>
       </c>
       <c r="I22" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J22" t="n">
         <v>2.96</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-25.xlsx
@@ -676,7 +676,7 @@
         <v>5.6</v>
       </c>
       <c r="I2" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="J2" t="n">
         <v>4.5</v>
@@ -697,7 +697,7 @@
         <v>1.21</v>
       </c>
       <c r="P2" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="Q2" t="n">
         <v>1.65</v>
@@ -709,10 +709,10 @@
         <v>2.62</v>
       </c>
       <c r="T2" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U2" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="V2" t="n">
         <v>1.2</v>
@@ -757,7 +757,7 @@
         <v>65</v>
       </c>
       <c r="AJ2" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AK2" t="n">
         <v>15.5</v>
@@ -769,7 +769,7 @@
         <v>85</v>
       </c>
       <c r="AN2" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AO2" t="n">
         <v>65</v>
@@ -946,7 +946,7 @@
         <v>1.96</v>
       </c>
       <c r="I4" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="J4" t="n">
         <v>3.85</v>
@@ -955,34 +955,34 @@
         <v>3.95</v>
       </c>
       <c r="L4" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
         <v>4.6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P4" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="R4" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="S4" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="T4" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="U4" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="V4" t="n">
         <v>2.02</v>
@@ -991,19 +991,19 @@
         <v>1.3</v>
       </c>
       <c r="X4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y4" t="n">
         <v>11</v>
       </c>
       <c r="Z4" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AA4" t="n">
         <v>22</v>
       </c>
       <c r="AB4" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AC4" t="n">
         <v>8.800000000000001</v>
@@ -1078,10 +1078,10 @@
         <v>1.76</v>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I5" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="J5" t="n">
         <v>4.3</v>
@@ -1099,37 +1099,37 @@
         <v>5.9</v>
       </c>
       <c r="O5" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P5" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="Q5" t="n">
         <v>1.58</v>
       </c>
       <c r="R5" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="S5" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="T5" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="U5" t="n">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="V5" t="n">
         <v>1.24</v>
       </c>
       <c r="W5" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="X5" t="n">
         <v>23</v>
       </c>
       <c r="Y5" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Z5" t="n">
         <v>44</v>
@@ -1138,7 +1138,7 @@
         <v>110</v>
       </c>
       <c r="AB5" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC5" t="n">
         <v>10</v>
@@ -1156,22 +1156,22 @@
         <v>10.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AI5" t="n">
         <v>50</v>
       </c>
       <c r="AJ5" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AK5" t="n">
         <v>15</v>
       </c>
       <c r="AL5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM5" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN5" t="n">
         <v>7</v>
@@ -1210,13 +1210,13 @@
         <v>1.42</v>
       </c>
       <c r="G6" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="H6" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="I6" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="J6" t="n">
         <v>5.6</v>
@@ -1231,7 +1231,7 @@
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="O6" t="n">
         <v>1.1</v>
@@ -1240,25 +1240,25 @@
         <v>3.6</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="R6" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="S6" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="T6" t="n">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="U6" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="V6" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="W6" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="X6" t="n">
         <v>55</v>
@@ -1267,7 +1267,7 @@
         <v>980</v>
       </c>
       <c r="Z6" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AA6" t="n">
         <v>200</v>
@@ -1276,43 +1276,43 @@
         <v>22</v>
       </c>
       <c r="AC6" t="n">
-        <v>19.5</v>
+        <v>980</v>
       </c>
       <c r="AD6" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AE6" t="n">
         <v>75</v>
       </c>
       <c r="AF6" t="n">
-        <v>17.5</v>
+        <v>980</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="AH6" t="n">
         <v>24</v>
       </c>
       <c r="AI6" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AJ6" t="n">
-        <v>19</v>
+        <v>980</v>
       </c>
       <c r="AK6" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AL6" t="n">
         <v>980</v>
       </c>
       <c r="AM6" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="AO6" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
     </row>
     <row r="7">
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="G7" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="H7" t="n">
         <v>3.3</v>
       </c>
       <c r="I7" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J7" t="n">
         <v>4.1</v>
@@ -1366,34 +1366,34 @@
         <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="O7" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P7" t="n">
-        <v>2.76</v>
+        <v>2.84</v>
       </c>
       <c r="Q7" t="n">
         <v>1.47</v>
       </c>
       <c r="R7" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="S7" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="T7" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="U7" t="n">
-        <v>2.66</v>
+        <v>2.78</v>
       </c>
       <c r="V7" t="n">
         <v>1.37</v>
       </c>
       <c r="W7" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="X7" t="n">
         <v>980</v>
@@ -1411,7 +1411,7 @@
         <v>20</v>
       </c>
       <c r="AC7" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AD7" t="n">
         <v>19</v>
@@ -1423,31 +1423,31 @@
         <v>21</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AH7" t="n">
         <v>18</v>
       </c>
       <c r="AI7" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AJ7" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AK7" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AL7" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AM7" t="n">
         <v>55</v>
       </c>
       <c r="AN7" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AO7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8">
@@ -1480,28 +1480,28 @@
         <v>1.92</v>
       </c>
       <c r="G8" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="H8" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="I8" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J8" t="n">
         <v>4</v>
       </c>
-      <c r="J8" t="n">
-        <v>3.95</v>
-      </c>
       <c r="K8" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="O8" t="n">
         <v>1.19</v>
@@ -1513,22 +1513,22 @@
         <v>1.58</v>
       </c>
       <c r="R8" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="S8" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="T8" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="U8" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="V8" t="n">
         <v>1.33</v>
       </c>
       <c r="W8" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="X8" t="n">
         <v>30</v>
@@ -1543,7 +1543,7 @@
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC8" t="n">
         <v>12.5</v>
@@ -1567,7 +1567,7 @@
         <v>48</v>
       </c>
       <c r="AJ8" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK8" t="n">
         <v>23</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="G9" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="H9" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="I9" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="J9" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="K9" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="L9" t="n">
         <v>1.23</v>
@@ -1639,25 +1639,25 @@
         <v>7</v>
       </c>
       <c r="O9" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P9" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="Q9" t="n">
         <v>1.41</v>
       </c>
       <c r="R9" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="S9" t="n">
         <v>2.02</v>
       </c>
       <c r="T9" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U9" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V9" t="n">
         <v>1.13</v>
@@ -1672,10 +1672,10 @@
         <v>46</v>
       </c>
       <c r="Z9" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AA9" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AB9" t="n">
         <v>17.5</v>
@@ -1684,7 +1684,7 @@
         <v>17.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AE9" t="n">
         <v>110</v>
@@ -1747,40 +1747,40 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="G10" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="H10" t="n">
         <v>4</v>
       </c>
       <c r="I10" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J10" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K10" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L10" t="n">
         <v>1.56</v>
       </c>
       <c r="M10" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N10" t="n">
         <v>2.62</v>
       </c>
       <c r="O10" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="P10" t="n">
         <v>1.55</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="R10" t="n">
         <v>1.19</v>
@@ -1789,16 +1789,16 @@
         <v>5.1</v>
       </c>
       <c r="T10" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="U10" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="W10" t="n">
         <v>1.75</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1.79</v>
       </c>
       <c r="X10" t="n">
         <v>11</v>
@@ -1816,13 +1816,13 @@
         <v>8.6</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD10" t="n">
         <v>22</v>
       </c>
       <c r="AE10" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AF10" t="n">
         <v>15</v>
@@ -1852,7 +1852,7 @@
         <v>36</v>
       </c>
       <c r="AO10" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11">
@@ -1885,55 +1885,55 @@
         <v>2.74</v>
       </c>
       <c r="G11" t="n">
-        <v>2.98</v>
+        <v>2.9</v>
       </c>
       <c r="H11" t="n">
         <v>2.58</v>
       </c>
       <c r="I11" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="J11" t="n">
         <v>3.5</v>
       </c>
       <c r="K11" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L11" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M11" t="n">
         <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="O11" t="n">
         <v>1.3</v>
       </c>
       <c r="P11" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="R11" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S11" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="T11" t="n">
         <v>1.69</v>
       </c>
       <c r="U11" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="V11" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="W11" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="X11" t="n">
         <v>19</v>
@@ -1975,7 +1975,7 @@
         <v>55</v>
       </c>
       <c r="AK11" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AL11" t="n">
         <v>50</v>
@@ -1987,7 +1987,7 @@
         <v>32</v>
       </c>
       <c r="AO11" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12">
@@ -2017,40 +2017,40 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="G12" t="n">
-        <v>1.99</v>
+        <v>2.12</v>
       </c>
       <c r="H12" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="I12" t="n">
-        <v>5.8</v>
+        <v>5.1</v>
       </c>
       <c r="J12" t="n">
         <v>3.15</v>
       </c>
       <c r="K12" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="L12" t="n">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="M12" t="n">
         <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="O12" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P12" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R12" t="n">
         <v>1.25</v>
@@ -2059,22 +2059,22 @@
         <v>4.3</v>
       </c>
       <c r="T12" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U12" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="V12" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="W12" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="X12" t="n">
         <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Z12" t="n">
         <v>1000</v>
@@ -2086,7 +2086,7 @@
         <v>8.6</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD12" t="n">
         <v>1000</v>
@@ -2098,7 +2098,7 @@
         <v>13</v>
       </c>
       <c r="AG12" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH12" t="n">
         <v>1000</v>
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="G13" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="H13" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I13" t="n">
         <v>4.4</v>
-      </c>
-      <c r="I13" t="n">
-        <v>4.5</v>
       </c>
       <c r="J13" t="n">
         <v>3.95</v>
@@ -2188,7 +2188,7 @@
         <v>1.73</v>
       </c>
       <c r="R13" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S13" t="n">
         <v>2.84</v>
@@ -2203,7 +2203,7 @@
         <v>1.29</v>
       </c>
       <c r="W13" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="X13" t="n">
         <v>19</v>
@@ -2215,7 +2215,7 @@
         <v>34</v>
       </c>
       <c r="AA13" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AB13" t="n">
         <v>11.5</v>
@@ -2224,10 +2224,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD13" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AE13" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AF13" t="n">
         <v>12.5</v>
@@ -2257,7 +2257,7 @@
         <v>10</v>
       </c>
       <c r="AO13" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14">
@@ -2299,55 +2299,55 @@
         <v>2.22</v>
       </c>
       <c r="J14" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K14" t="n">
         <v>3.95</v>
       </c>
-      <c r="K14" t="n">
-        <v>4</v>
-      </c>
       <c r="L14" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M14" t="n">
         <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="O14" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P14" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="R14" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="S14" t="n">
-        <v>2.56</v>
+        <v>2.68</v>
       </c>
       <c r="T14" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="U14" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="V14" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="W14" t="n">
         <v>1.41</v>
       </c>
       <c r="X14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y14" t="n">
         <v>14</v>
       </c>
       <c r="Z14" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AA14" t="n">
         <v>28</v>
@@ -2362,19 +2362,19 @@
         <v>11</v>
       </c>
       <c r="AE14" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AF14" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG14" t="n">
         <v>14</v>
       </c>
       <c r="AH14" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AI14" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ14" t="n">
         <v>60</v>
@@ -2383,16 +2383,16 @@
         <v>34</v>
       </c>
       <c r="AL14" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AM14" t="n">
         <v>60</v>
       </c>
       <c r="AN14" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AO14" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15">
@@ -2422,16 +2422,16 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="G15" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="H15" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="I15" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="J15" t="n">
         <v>4</v>
@@ -2443,7 +2443,7 @@
         <v>1.22</v>
       </c>
       <c r="M15" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N15" t="n">
         <v>7.8</v>
@@ -2464,22 +2464,22 @@
         <v>2.02</v>
       </c>
       <c r="T15" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="U15" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="V15" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="W15" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="X15" t="n">
         <v>32</v>
       </c>
       <c r="Y15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z15" t="n">
         <v>27</v>
@@ -2494,10 +2494,10 @@
         <v>10.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AE15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AF15" t="n">
         <v>22</v>
@@ -2506,16 +2506,16 @@
         <v>12.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AI15" t="n">
         <v>26</v>
       </c>
       <c r="AJ15" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AK15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL15" t="n">
         <v>24</v>
@@ -2581,13 +2581,13 @@
         <v>1.02</v>
       </c>
       <c r="N16" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="O16" t="n">
         <v>1.12</v>
       </c>
       <c r="P16" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q16" t="n">
         <v>1.38</v>
@@ -2596,10 +2596,10 @@
         <v>2</v>
       </c>
       <c r="S16" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="T16" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="U16" t="n">
         <v>2.08</v>
@@ -2620,13 +2620,13 @@
         <v>160</v>
       </c>
       <c r="AA16" t="n">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="AB16" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC16" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AD16" t="n">
         <v>50</v>
@@ -2635,7 +2635,7 @@
         <v>190</v>
       </c>
       <c r="AF16" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AG16" t="n">
         <v>12</v>
@@ -2644,7 +2644,7 @@
         <v>29</v>
       </c>
       <c r="AI16" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AJ16" t="n">
         <v>10.5</v>
@@ -2659,10 +2659,10 @@
         <v>120</v>
       </c>
       <c r="AN16" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AO16" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17">
@@ -2698,10 +2698,10 @@
         <v>1.32</v>
       </c>
       <c r="H17" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="I17" t="n">
         <v>12</v>
-      </c>
-      <c r="I17" t="n">
-        <v>12.5</v>
       </c>
       <c r="J17" t="n">
         <v>6.4</v>
@@ -2722,25 +2722,25 @@
         <v>1.2</v>
       </c>
       <c r="P17" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="Q17" t="n">
         <v>1.6</v>
       </c>
       <c r="R17" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="S17" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="T17" t="n">
         <v>2.06</v>
       </c>
       <c r="U17" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="V17" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="W17" t="n">
         <v>4.1</v>
@@ -2755,7 +2755,7 @@
         <v>120</v>
       </c>
       <c r="AA17" t="n">
-        <v>550</v>
+        <v>470</v>
       </c>
       <c r="AB17" t="n">
         <v>9.800000000000001</v>
@@ -2782,10 +2782,10 @@
         <v>150</v>
       </c>
       <c r="AJ17" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AK17" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AL17" t="n">
         <v>34</v>
@@ -2827,25 +2827,25 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="G18" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="H18" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="I18" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="J18" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K18" t="n">
         <v>3.55</v>
       </c>
       <c r="L18" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M18" t="n">
         <v>1.06</v>
@@ -2872,10 +2872,10 @@
         <v>1.67</v>
       </c>
       <c r="U18" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="V18" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="W18" t="n">
         <v>1.5</v>
@@ -2896,7 +2896,7 @@
         <v>13.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD18" t="n">
         <v>11.5</v>
@@ -2905,7 +2905,7 @@
         <v>26</v>
       </c>
       <c r="AF18" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AG18" t="n">
         <v>12.5</v>
@@ -2929,7 +2929,7 @@
         <v>75</v>
       </c>
       <c r="AN18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO18" t="n">
         <v>18.5</v>
@@ -2962,73 +2962,73 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="G19" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="H19" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="I19" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="J19" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K19" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L19" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="M19" t="n">
         <v>1.08</v>
       </c>
       <c r="N19" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="O19" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R19" t="n">
         <v>1.35</v>
       </c>
-      <c r="P19" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.33</v>
-      </c>
       <c r="S19" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="T19" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="U19" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="V19" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="W19" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="X19" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y19" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AA19" t="n">
         <v>34</v>
       </c>
       <c r="AB19" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC19" t="n">
         <v>7.6</v>
@@ -3037,16 +3037,16 @@
         <v>11.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AF19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG19" t="n">
         <v>14</v>
       </c>
       <c r="AH19" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI19" t="n">
         <v>42</v>
@@ -3061,13 +3061,13 @@
         <v>50</v>
       </c>
       <c r="AM19" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN19" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AO19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20">
@@ -3103,7 +3103,7 @@
         <v>4.9</v>
       </c>
       <c r="H20" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="I20" t="n">
         <v>1.97</v>
@@ -3112,7 +3112,7 @@
         <v>3.5</v>
       </c>
       <c r="K20" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="L20" t="n">
         <v>1.48</v>
@@ -3145,10 +3145,10 @@
         <v>1.92</v>
       </c>
       <c r="V20" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="W20" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="X20" t="n">
         <v>14.5</v>
@@ -3232,25 +3232,25 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="G21" t="n">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="H21" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="I21" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="J21" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K21" t="n">
         <v>3.45</v>
       </c>
-      <c r="K21" t="n">
-        <v>3.5</v>
-      </c>
       <c r="L21" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="M21" t="n">
         <v>1.09</v>
@@ -3259,7 +3259,7 @@
         <v>3.25</v>
       </c>
       <c r="O21" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="P21" t="n">
         <v>1.77</v>
@@ -3274,16 +3274,16 @@
         <v>4.2</v>
       </c>
       <c r="T21" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="U21" t="n">
         <v>2.02</v>
       </c>
       <c r="V21" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="W21" t="n">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="X21" t="n">
         <v>11.5</v>
@@ -3292,13 +3292,13 @@
         <v>9.800000000000001</v>
       </c>
       <c r="Z21" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AA21" t="n">
         <v>40</v>
       </c>
       <c r="AB21" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC21" t="n">
         <v>7.2</v>
@@ -3307,10 +3307,10 @@
         <v>12.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AF21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG21" t="n">
         <v>13.5</v>
@@ -3322,7 +3322,7 @@
         <v>50</v>
       </c>
       <c r="AJ21" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AK21" t="n">
         <v>38</v>
@@ -3337,7 +3337,7 @@
         <v>40</v>
       </c>
       <c r="AO21" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22">
@@ -3376,7 +3376,7 @@
         <v>3.65</v>
       </c>
       <c r="I22" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J22" t="n">
         <v>2.96</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO22"/>
+  <dimension ref="A1:AO23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,19 +670,19 @@
         <v>1.64</v>
       </c>
       <c r="G2" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="H2" t="n">
         <v>5.6</v>
       </c>
       <c r="I2" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="J2" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K2" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L2" t="n">
         <v>1.31</v>
@@ -703,13 +703,13 @@
         <v>1.65</v>
       </c>
       <c r="R2" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="S2" t="n">
         <v>2.62</v>
       </c>
       <c r="T2" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U2" t="n">
         <v>2.3</v>
@@ -718,19 +718,19 @@
         <v>1.2</v>
       </c>
       <c r="W2" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="X2" t="n">
         <v>23</v>
       </c>
       <c r="Y2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Z2" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AA2" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AB2" t="n">
         <v>11.5</v>
@@ -745,10 +745,10 @@
         <v>70</v>
       </c>
       <c r="AF2" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH2" t="n">
         <v>18.5</v>
@@ -805,13 +805,13 @@
         <v>1.39</v>
       </c>
       <c r="G3" t="n">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="H3" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="I3" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="J3" t="n">
         <v>4.7</v>
@@ -820,7 +820,7 @@
         <v>5.2</v>
       </c>
       <c r="L3" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="M3" t="n">
         <v>1.07</v>
@@ -835,7 +835,7 @@
         <v>1.88</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="R3" t="n">
         <v>1.33</v>
@@ -844,16 +844,16 @@
         <v>3.55</v>
       </c>
       <c r="T3" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="U3" t="n">
         <v>1.67</v>
       </c>
       <c r="V3" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="W3" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="X3" t="n">
         <v>17.5</v>
@@ -880,7 +880,7 @@
         <v>260</v>
       </c>
       <c r="AF3" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="AG3" t="n">
         <v>12.5</v>
@@ -892,7 +892,7 @@
         <v>220</v>
       </c>
       <c r="AJ3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK3" t="n">
         <v>21</v>
@@ -904,7 +904,7 @@
         <v>290</v>
       </c>
       <c r="AN3" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AO3" t="n">
         <v>450</v>
@@ -952,7 +952,7 @@
         <v>3.85</v>
       </c>
       <c r="K4" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L4" t="n">
         <v>1.34</v>
@@ -964,19 +964,19 @@
         <v>4.6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P4" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q4" t="n">
         <v>1.78</v>
       </c>
       <c r="R4" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S4" t="n">
-        <v>2.96</v>
+        <v>2.9</v>
       </c>
       <c r="T4" t="n">
         <v>1.72</v>
@@ -991,10 +991,10 @@
         <v>1.3</v>
       </c>
       <c r="X4" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Z4" t="n">
         <v>12.5</v>
@@ -1009,7 +1009,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD4" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AE4" t="n">
         <v>18.5</v>
@@ -1072,10 +1072,10 @@
         </is>
       </c>
       <c r="F5" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="G5" t="n">
         <v>1.75</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1.76</v>
       </c>
       <c r="H5" t="n">
         <v>5.1</v>
@@ -1096,22 +1096,22 @@
         <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="O5" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P5" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="R5" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="S5" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="T5" t="n">
         <v>1.62</v>
@@ -1120,16 +1120,16 @@
         <v>2.54</v>
       </c>
       <c r="V5" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W5" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="X5" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Y5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z5" t="n">
         <v>44</v>
@@ -1138,10 +1138,10 @@
         <v>110</v>
       </c>
       <c r="AB5" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD5" t="n">
         <v>19</v>
@@ -1150,34 +1150,34 @@
         <v>50</v>
       </c>
       <c r="AF5" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AG5" t="n">
         <v>10.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AI5" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ5" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AK5" t="n">
         <v>15</v>
       </c>
       <c r="AL5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM5" t="n">
         <v>65</v>
       </c>
       <c r="AN5" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AO5" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6">
@@ -1210,7 +1210,7 @@
         <v>1.42</v>
       </c>
       <c r="G6" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="H6" t="n">
         <v>6.6</v>
@@ -1231,34 +1231,34 @@
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="O6" t="n">
         <v>1.1</v>
       </c>
       <c r="P6" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="R6" t="n">
         <v>2.08</v>
       </c>
       <c r="S6" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="T6" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="U6" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="V6" t="n">
         <v>1.15</v>
       </c>
       <c r="W6" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="X6" t="n">
         <v>55</v>
@@ -1267,7 +1267,7 @@
         <v>980</v>
       </c>
       <c r="Z6" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AA6" t="n">
         <v>200</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
         <v>2.1</v>
@@ -1354,7 +1354,7 @@
         <v>3.7</v>
       </c>
       <c r="J7" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K7" t="n">
         <v>4.7</v>
@@ -1375,13 +1375,13 @@
         <v>2.84</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="R7" t="n">
         <v>1.75</v>
       </c>
       <c r="S7" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="T7" t="n">
         <v>1.52</v>
@@ -1408,13 +1408,13 @@
         <v>65</v>
       </c>
       <c r="AB7" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AC7" t="n">
         <v>12</v>
       </c>
       <c r="AD7" t="n">
-        <v>19</v>
+        <v>980</v>
       </c>
       <c r="AE7" t="n">
         <v>980</v>
@@ -1441,13 +1441,13 @@
         <v>980</v>
       </c>
       <c r="AM7" t="n">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="AN7" t="n">
         <v>10</v>
       </c>
       <c r="AO7" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
     </row>
     <row r="8">
@@ -1567,7 +1567,7 @@
         <v>48</v>
       </c>
       <c r="AJ8" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK8" t="n">
         <v>23</v>
@@ -1576,7 +1576,7 @@
         <v>34</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AN8" t="n">
         <v>11.5</v>
@@ -1621,7 +1621,7 @@
         <v>7</v>
       </c>
       <c r="I9" t="n">
-        <v>9.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="J9" t="n">
         <v>5.1</v>
@@ -1672,7 +1672,7 @@
         <v>46</v>
       </c>
       <c r="Z9" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="AA9" t="n">
         <v>230</v>
@@ -1750,7 +1750,7 @@
         <v>2.18</v>
       </c>
       <c r="G10" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="H10" t="n">
         <v>4</v>
@@ -1771,7 +1771,7 @@
         <v>1.11</v>
       </c>
       <c r="N10" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="O10" t="n">
         <v>1.53</v>
@@ -1792,13 +1792,13 @@
         <v>2.12</v>
       </c>
       <c r="U10" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="W10" t="n">
         <v>1.76</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1.75</v>
       </c>
       <c r="X10" t="n">
         <v>11</v>
@@ -1843,7 +1843,7 @@
         <v>38</v>
       </c>
       <c r="AL10" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AM10" t="n">
         <v>230</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="G11" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="H11" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="I11" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="J11" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K11" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L11" t="n">
         <v>1.4</v>
@@ -1906,31 +1906,31 @@
         <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="O11" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="P11" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="Q11" t="n">
         <v>1.83</v>
       </c>
       <c r="R11" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="S11" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="T11" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="U11" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="V11" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="W11" t="n">
         <v>1.52</v>
@@ -1954,46 +1954,46 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AD11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE11" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AF11" t="n">
         <v>24</v>
       </c>
       <c r="AG11" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH11" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AI11" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AJ11" t="n">
         <v>55</v>
       </c>
       <c r="AK11" t="n">
-        <v>980</v>
+        <v>90</v>
       </c>
       <c r="AL11" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AM11" t="n">
-        <v>100</v>
+        <v>580</v>
       </c>
       <c r="AN11" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AO11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Scottish Championship</t>
+          <t>Scottish League One</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2008,127 +2008,127 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Partick</t>
+          <t>Alloa</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Dunfermline</t>
+          <t>Inverness CT</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.93</v>
+        <v>3.75</v>
       </c>
       <c r="G12" t="n">
-        <v>2.12</v>
+        <v>5.3</v>
       </c>
       <c r="H12" t="n">
-        <v>4.4</v>
+        <v>1.83</v>
       </c>
       <c r="I12" t="n">
-        <v>5.1</v>
+        <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K12" t="n">
-        <v>3.65</v>
+        <v>4.5</v>
       </c>
       <c r="L12" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="O12" t="n">
-        <v>1.43</v>
+        <v>1.27</v>
       </c>
       <c r="P12" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.2</v>
+        <v>1.92</v>
       </c>
       <c r="R12" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S12" t="n">
-        <v>4.3</v>
+        <v>2.8</v>
       </c>
       <c r="T12" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V12" t="n">
         <v>2</v>
       </c>
-      <c r="U12" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.25</v>
-      </c>
       <c r="W12" t="n">
-        <v>1.89</v>
+        <v>1.23</v>
       </c>
       <c r="X12" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>16.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AA12" t="n">
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>8.6</v>
+        <v>18</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="AD12" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AF12" t="n">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="AG12" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AH12" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ12" t="n">
         <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AM12" t="n">
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>23</v>
+        <v>300</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,126 +2138,126 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Partick</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>Dunfermline</t>
         </is>
       </c>
       <c r="F13" t="n">
         <v>1.93</v>
       </c>
       <c r="G13" t="n">
-        <v>1.94</v>
+        <v>2.08</v>
       </c>
       <c r="H13" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I13" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S13" t="n">
         <v>4.3</v>
       </c>
-      <c r="I13" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K13" t="n">
-        <v>4</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N13" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2.84</v>
-      </c>
       <c r="T13" t="n">
-        <v>1.69</v>
+        <v>2</v>
       </c>
       <c r="U13" t="n">
-        <v>2.4</v>
+        <v>1.83</v>
       </c>
       <c r="V13" t="n">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="W13" t="n">
-        <v>2.06</v>
+        <v>1.92</v>
       </c>
       <c r="X13" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.5</v>
+        <v>32</v>
       </c>
       <c r="Z13" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AA13" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>11.5</v>
+        <v>8.6</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AE13" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AG13" t="n">
-        <v>9.800000000000001</v>
+        <v>40</v>
       </c>
       <c r="AH13" t="n">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="AI13" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="AK13" t="n">
-        <v>17.5</v>
+        <v>65</v>
       </c>
       <c r="AL13" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="AO13" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
@@ -2278,25 +2278,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Bodo Glimt</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.4</v>
+        <v>1.95</v>
       </c>
       <c r="G14" t="n">
-        <v>3.45</v>
+        <v>1.96</v>
       </c>
       <c r="H14" t="n">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="I14" t="n">
-        <v>2.22</v>
+        <v>4.3</v>
       </c>
       <c r="J14" t="n">
         <v>3.9</v>
@@ -2305,94 +2305,94 @@
         <v>3.95</v>
       </c>
       <c r="L14" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="M14" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="O14" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="P14" t="n">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="R14" t="n">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="S14" t="n">
-        <v>2.68</v>
+        <v>2.78</v>
       </c>
       <c r="T14" t="n">
-        <v>1.59</v>
+        <v>1.66</v>
       </c>
       <c r="U14" t="n">
-        <v>2.6</v>
+        <v>2.42</v>
       </c>
       <c r="V14" t="n">
-        <v>1.81</v>
+        <v>1.3</v>
       </c>
       <c r="W14" t="n">
-        <v>1.41</v>
+        <v>2.04</v>
       </c>
       <c r="X14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y14" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="Z14" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="AA14" t="n">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="AB14" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AC14" t="n">
         <v>9</v>
       </c>
       <c r="AD14" t="n">
-        <v>11</v>
+        <v>17.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="AF14" t="n">
-        <v>26</v>
+        <v>13.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AH14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI14" t="n">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="AJ14" t="n">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="AK14" t="n">
-        <v>34</v>
+        <v>17.5</v>
       </c>
       <c r="AL14" t="n">
+        <v>27</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO14" t="n">
         <v>38</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>60</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>24</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="15">
@@ -2413,118 +2413,118 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Bodo Glimt</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="G15" t="n">
-        <v>2.42</v>
+        <v>3.35</v>
       </c>
       <c r="H15" t="n">
-        <v>2.92</v>
+        <v>2.26</v>
       </c>
       <c r="I15" t="n">
-        <v>2.94</v>
+        <v>2.28</v>
       </c>
       <c r="J15" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="K15" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="L15" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="M15" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>7.8</v>
+        <v>5.3</v>
       </c>
       <c r="O15" t="n">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="P15" t="n">
-        <v>3.2</v>
+        <v>2.44</v>
       </c>
       <c r="Q15" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="W15" t="n">
         <v>1.42</v>
       </c>
-      <c r="R15" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S15" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="U15" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="W15" t="n">
-        <v>1.7</v>
-      </c>
       <c r="X15" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK15" t="n">
         <v>32</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="AL15" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN15" t="n">
         <v>23</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>27</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>46</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>24</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>40</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>9.4</v>
       </c>
       <c r="AO15" t="n">
         <v>12</v>
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Leverkusen</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.24</v>
+        <v>2.4</v>
       </c>
       <c r="G16" t="n">
-        <v>1.25</v>
+        <v>2.42</v>
       </c>
       <c r="H16" t="n">
-        <v>14.5</v>
+        <v>2.88</v>
       </c>
       <c r="I16" t="n">
-        <v>15.5</v>
+        <v>2.9</v>
       </c>
       <c r="J16" t="n">
-        <v>7.6</v>
+        <v>4.1</v>
       </c>
       <c r="K16" t="n">
-        <v>7.8</v>
+        <v>4.2</v>
       </c>
       <c r="L16" t="n">
         <v>1.22</v>
       </c>
       <c r="M16" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="O16" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="P16" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="R16" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="S16" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="T16" t="n">
-        <v>1.87</v>
+        <v>1.42</v>
       </c>
       <c r="U16" t="n">
-        <v>2.08</v>
+        <v>3.25</v>
       </c>
       <c r="V16" t="n">
-        <v>1.06</v>
+        <v>1.52</v>
       </c>
       <c r="W16" t="n">
-        <v>5</v>
+        <v>1.71</v>
       </c>
       <c r="X16" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>24</v>
+      </c>
+      <c r="AM16" t="n">
         <v>40</v>
       </c>
-      <c r="Y16" t="n">
-        <v>70</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>160</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>570</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>18</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>50</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>190</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG16" t="n">
+      <c r="AN16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO16" t="n">
         <v>12</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>150</v>
       </c>
     </row>
     <row r="17">
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Qarabag FK</t>
+          <t>Leverkusen</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="G17" t="n">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="H17" t="n">
-        <v>11.5</v>
+        <v>14.5</v>
       </c>
       <c r="I17" t="n">
-        <v>12</v>
+        <v>15.5</v>
       </c>
       <c r="J17" t="n">
-        <v>6.4</v>
+        <v>7.6</v>
       </c>
       <c r="K17" t="n">
-        <v>6.6</v>
+        <v>7.8</v>
       </c>
       <c r="L17" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="M17" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N17" t="n">
-        <v>5.6</v>
+        <v>8.4</v>
       </c>
       <c r="O17" t="n">
-        <v>1.2</v>
+        <v>1.12</v>
       </c>
       <c r="P17" t="n">
-        <v>2.56</v>
+        <v>3.45</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.6</v>
+        <v>1.38</v>
       </c>
       <c r="R17" t="n">
-        <v>1.61</v>
+        <v>2.02</v>
       </c>
       <c r="S17" t="n">
-        <v>2.54</v>
+        <v>1.95</v>
       </c>
       <c r="T17" t="n">
-        <v>2.06</v>
+        <v>1.87</v>
       </c>
       <c r="U17" t="n">
-        <v>1.92</v>
+        <v>2.08</v>
       </c>
       <c r="V17" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="W17" t="n">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="X17" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="Y17" t="n">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="Z17" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="AA17" t="n">
-        <v>470</v>
+        <v>570</v>
       </c>
       <c r="AB17" t="n">
-        <v>9.800000000000001</v>
+        <v>14.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AD17" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AE17" t="n">
         <v>190</v>
       </c>
       <c r="AF17" t="n">
-        <v>8.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>140</v>
+      </c>
+      <c r="AJ17" t="n">
         <v>10.5</v>
       </c>
-      <c r="AH17" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI17" t="n">
+      <c r="AK17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AO17" t="n">
         <v>150</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>210</v>
       </c>
     </row>
     <row r="18">
@@ -2818,121 +2818,121 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Qarabag FK</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.98</v>
+        <v>1.32</v>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="H18" t="n">
-        <v>2.6</v>
+        <v>11.5</v>
       </c>
       <c r="I18" t="n">
-        <v>2.62</v>
+        <v>12</v>
       </c>
       <c r="J18" t="n">
-        <v>3.5</v>
+        <v>6.4</v>
       </c>
       <c r="K18" t="n">
-        <v>3.55</v>
+        <v>6.6</v>
       </c>
       <c r="L18" t="n">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="M18" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>4.4</v>
+        <v>5.6</v>
       </c>
       <c r="O18" t="n">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="P18" t="n">
-        <v>2.18</v>
+        <v>2.54</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.83</v>
+        <v>1.6</v>
       </c>
       <c r="R18" t="n">
-        <v>1.45</v>
+        <v>1.62</v>
       </c>
       <c r="S18" t="n">
-        <v>3.1</v>
+        <v>2.56</v>
       </c>
       <c r="T18" t="n">
-        <v>1.67</v>
+        <v>2.06</v>
       </c>
       <c r="U18" t="n">
-        <v>2.42</v>
+        <v>1.92</v>
       </c>
       <c r="V18" t="n">
-        <v>1.61</v>
+        <v>1.09</v>
       </c>
       <c r="W18" t="n">
-        <v>1.5</v>
+        <v>4.1</v>
       </c>
       <c r="X18" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="Y18" t="n">
-        <v>12.5</v>
+        <v>40</v>
       </c>
       <c r="Z18" t="n">
-        <v>17.5</v>
+        <v>120</v>
       </c>
       <c r="AA18" t="n">
-        <v>38</v>
+        <v>440</v>
       </c>
       <c r="AB18" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>190</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>140</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AK18" t="n">
         <v>13.5</v>
       </c>
-      <c r="AC18" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>44</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>29</v>
-      </c>
       <c r="AL18" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AM18" t="n">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="AN18" t="n">
-        <v>23</v>
+        <v>4.7</v>
       </c>
       <c r="AO18" t="n">
-        <v>18.5</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19">
@@ -2953,127 +2953,127 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Slavia Prague</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Athletic Bilbao</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="G19" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="H19" t="n">
-        <v>2.44</v>
+        <v>2.6</v>
       </c>
       <c r="I19" t="n">
-        <v>2.48</v>
+        <v>2.62</v>
       </c>
       <c r="J19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K19" t="n">
         <v>3.55</v>
       </c>
-      <c r="K19" t="n">
-        <v>3.6</v>
-      </c>
       <c r="L19" t="n">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="M19" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="O19" t="n">
-        <v>1.34</v>
+        <v>1.27</v>
       </c>
       <c r="P19" t="n">
-        <v>1.93</v>
+        <v>2.18</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.02</v>
+        <v>1.82</v>
       </c>
       <c r="R19" t="n">
-        <v>1.35</v>
+        <v>1.45</v>
       </c>
       <c r="S19" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="T19" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="U19" t="n">
-        <v>2.16</v>
+        <v>2.42</v>
       </c>
       <c r="V19" t="n">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="W19" t="n">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="X19" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB19" t="n">
         <v>14</v>
       </c>
-      <c r="Y19" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AC19" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD19" t="n">
         <v>11.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF19" t="n">
         <v>21</v>
       </c>
       <c r="AG19" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AJ19" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="AK19" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="AL19" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="AM19" t="n">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AN19" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AO19" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,123 +3083,123 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Atletico MG</t>
+          <t>Slavia Prague</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Athletic Bilbao</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="G20" t="n">
-        <v>4.9</v>
+        <v>3.25</v>
       </c>
       <c r="H20" t="n">
-        <v>1.91</v>
+        <v>2.44</v>
       </c>
       <c r="I20" t="n">
-        <v>1.97</v>
+        <v>2.46</v>
       </c>
       <c r="J20" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K20" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="L20" t="n">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="M20" t="n">
         <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="O20" t="n">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="P20" t="n">
-        <v>1.78</v>
+        <v>1.94</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.16</v>
+        <v>2.04</v>
       </c>
       <c r="R20" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="S20" t="n">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="T20" t="n">
-        <v>1.94</v>
+        <v>1.8</v>
       </c>
       <c r="U20" t="n">
-        <v>1.92</v>
+        <v>2.18</v>
       </c>
       <c r="V20" t="n">
-        <v>2.02</v>
+        <v>1.68</v>
       </c>
       <c r="W20" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="X20" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y20" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA20" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AB20" t="n">
-        <v>16.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>9.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF20" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="AG20" t="n">
-        <v>23</v>
+        <v>13.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AI20" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AJ20" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="AK20" t="n">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="AL20" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM20" t="n">
         <v>95</v>
       </c>
-      <c r="AM20" t="n">
-        <v>170</v>
-      </c>
       <c r="AN20" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AO20" t="n">
         <v>21</v>
@@ -3232,25 +3232,25 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.05</v>
+        <v>2.44</v>
       </c>
       <c r="G21" t="n">
-        <v>3.1</v>
+        <v>2.48</v>
       </c>
       <c r="H21" t="n">
-        <v>2.6</v>
+        <v>3.35</v>
       </c>
       <c r="I21" t="n">
-        <v>2.66</v>
+        <v>3.45</v>
       </c>
       <c r="J21" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K21" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L21" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="M21" t="n">
         <v>1.09</v>
@@ -3259,10 +3259,10 @@
         <v>3.25</v>
       </c>
       <c r="O21" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P21" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="Q21" t="n">
         <v>2.22</v>
@@ -3274,76 +3274,76 @@
         <v>4.2</v>
       </c>
       <c r="T21" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="U21" t="n">
         <v>2.02</v>
       </c>
       <c r="V21" t="n">
-        <v>1.6</v>
+        <v>1.41</v>
       </c>
       <c r="W21" t="n">
-        <v>1.47</v>
+        <v>1.67</v>
       </c>
       <c r="X21" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y21" t="n">
         <v>11.5</v>
       </c>
-      <c r="Y21" t="n">
-        <v>9.800000000000001</v>
-      </c>
       <c r="Z21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF21" t="n">
         <v>15.5</v>
       </c>
-      <c r="AA21" t="n">
-        <v>40</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>20</v>
-      </c>
       <c r="AG21" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AH21" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AJ21" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AK21" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="AL21" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AM21" t="n">
         <v>120</v>
       </c>
       <c r="AN21" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="AO21" t="n">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3358,120 +3358,255 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Atletico MG</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Tolima</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.26</v>
+        <v>4.4</v>
       </c>
       <c r="G22" t="n">
-        <v>2.44</v>
+        <v>4.9</v>
       </c>
       <c r="H22" t="n">
-        <v>3.65</v>
+        <v>1.95</v>
       </c>
       <c r="I22" t="n">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>2.96</v>
+        <v>3.5</v>
       </c>
       <c r="K22" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L22" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="M22" t="n">
         <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="O22" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="P22" t="n">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="R22" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="S22" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T22" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U22" t="n">
         <v>1.92</v>
       </c>
-      <c r="U22" t="n">
-        <v>1.94</v>
-      </c>
       <c r="V22" t="n">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="W22" t="n">
-        <v>1.7</v>
+        <v>1.26</v>
       </c>
       <c r="X22" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>14.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z22" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AA22" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AB22" t="n">
-        <v>10</v>
+        <v>16.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AF22" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AG22" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AH22" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI22" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AK22" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AL22" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AM22" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN22" t="n">
         <v>1000</v>
       </c>
       <c r="AO22" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2025-11-25</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Santa Fe</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Tolima</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+      <c r="I23" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N23" t="n">
+        <v>3</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="X23" t="n">
+        <v>980</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO23" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-25.xlsx
@@ -670,16 +670,16 @@
         <v>1.64</v>
       </c>
       <c r="G2" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H2" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="I2" t="n">
         <v>5.8</v>
       </c>
       <c r="J2" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="K2" t="n">
         <v>4.7</v>
@@ -700,7 +700,7 @@
         <v>2.48</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="R2" t="n">
         <v>1.58</v>
@@ -709,28 +709,28 @@
         <v>2.62</v>
       </c>
       <c r="T2" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="U2" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="V2" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W2" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="X2" t="n">
         <v>23</v>
       </c>
       <c r="Y2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z2" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA2" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AB2" t="n">
         <v>11.5</v>
@@ -739,13 +739,13 @@
         <v>10.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE2" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF2" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG2" t="n">
         <v>9.800000000000001</v>
@@ -754,25 +754,25 @@
         <v>18.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ2" t="n">
         <v>16.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AL2" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AM2" t="n">
         <v>85</v>
       </c>
       <c r="AN2" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AO2" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
@@ -802,19 +802,19 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="G3" t="n">
         <v>1.41</v>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="I3" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="J3" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="K3" t="n">
         <v>5.2</v>
@@ -835,7 +835,7 @@
         <v>1.88</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="R3" t="n">
         <v>1.33</v>
@@ -850,64 +850,64 @@
         <v>1.67</v>
       </c>
       <c r="V3" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="W3" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="X3" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="Y3" t="n">
         <v>32</v>
       </c>
       <c r="Z3" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AA3" t="n">
-        <v>560</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>320</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>85</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>260</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>130</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>300</v>
+      </c>
+      <c r="AN3" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="AC3" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>48</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>260</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>40</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>220</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>290</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>9.4</v>
-      </c>
       <c r="AO3" t="n">
-        <v>450</v>
+        <v>570</v>
       </c>
     </row>
     <row r="4">
@@ -943,10 +943,10 @@
         <v>4.3</v>
       </c>
       <c r="H4" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="I4" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="J4" t="n">
         <v>3.85</v>
@@ -955,7 +955,7 @@
         <v>3.9</v>
       </c>
       <c r="L4" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M4" t="n">
         <v>1.06</v>
@@ -970,19 +970,19 @@
         <v>2.22</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="R4" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="S4" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="T4" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="U4" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="V4" t="n">
         <v>2.02</v>
@@ -991,13 +991,13 @@
         <v>1.3</v>
       </c>
       <c r="X4" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Y4" t="n">
         <v>11.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AA4" t="n">
         <v>22</v>
@@ -1015,7 +1015,7 @@
         <v>18.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AG4" t="n">
         <v>16.5</v>
@@ -1030,13 +1030,13 @@
         <v>85</v>
       </c>
       <c r="AK4" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AL4" t="n">
         <v>50</v>
       </c>
       <c r="AM4" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN4" t="n">
         <v>40</v>
@@ -1072,16 +1072,16 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="G5" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="H5" t="n">
+        <v>5</v>
+      </c>
+      <c r="I5" t="n">
         <v>5.1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>5.2</v>
       </c>
       <c r="J5" t="n">
         <v>4.3</v>
@@ -1102,31 +1102,31 @@
         <v>1.18</v>
       </c>
       <c r="P5" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="R5" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="S5" t="n">
         <v>2.36</v>
       </c>
       <c r="T5" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="U5" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="V5" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W5" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="X5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y5" t="n">
         <v>26</v>
@@ -1141,10 +1141,10 @@
         <v>13.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD5" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AE5" t="n">
         <v>50</v>
@@ -1159,7 +1159,7 @@
         <v>16</v>
       </c>
       <c r="AI5" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ5" t="n">
         <v>18.5</v>
@@ -1171,7 +1171,7 @@
         <v>26</v>
       </c>
       <c r="AM5" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN5" t="n">
         <v>6.8</v>
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="G6" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="H6" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="I6" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="J6" t="n">
         <v>5.6</v>
@@ -1243,73 +1243,73 @@
         <v>1.31</v>
       </c>
       <c r="R6" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S6" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="T6" t="n">
         <v>1.56</v>
       </c>
       <c r="U6" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="V6" t="n">
         <v>1.15</v>
       </c>
       <c r="W6" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="X6" t="n">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c r="Y6" t="n">
-        <v>980</v>
+        <v>300</v>
       </c>
       <c r="Z6" t="n">
-        <v>75</v>
+        <v>220</v>
       </c>
       <c r="AA6" t="n">
         <v>200</v>
       </c>
       <c r="AB6" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AC6" t="n">
         <v>980</v>
       </c>
       <c r="AD6" t="n">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="AE6" t="n">
+        <v>510</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>42</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>300</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK6" t="n">
         <v>75</v>
       </c>
-      <c r="AF6" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>980</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>980</v>
-      </c>
       <c r="AL6" t="n">
-        <v>980</v>
+        <v>130</v>
       </c>
       <c r="AM6" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="AO6" t="n">
         <v>980</v>
@@ -1375,10 +1375,10 @@
         <v>2.84</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="R7" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="S7" t="n">
         <v>2.12</v>
@@ -1405,10 +1405,10 @@
         <v>980</v>
       </c>
       <c r="AA7" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="AB7" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="AC7" t="n">
         <v>12</v>
@@ -1420,16 +1420,16 @@
         <v>980</v>
       </c>
       <c r="AF7" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AG7" t="n">
         <v>12.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="AI7" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AJ7" t="n">
         <v>980</v>
@@ -1438,13 +1438,13 @@
         <v>980</v>
       </c>
       <c r="AL7" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AM7" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="AN7" t="n">
-        <v>10</v>
+        <v>8.4</v>
       </c>
       <c r="AO7" t="n">
         <v>980</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="G8" t="n">
         <v>2.04</v>
@@ -1519,70 +1519,70 @@
         <v>2.46</v>
       </c>
       <c r="T8" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="U8" t="n">
         <v>2.48</v>
       </c>
       <c r="V8" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="W8" t="n">
         <v>1.96</v>
       </c>
       <c r="X8" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="Y8" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Z8" t="n">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="AA8" t="n">
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="AF8" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH8" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="AJ8" t="n">
-        <v>27</v>
+        <v>120</v>
       </c>
       <c r="AK8" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AL8" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="AM8" t="n">
         <v>260</v>
       </c>
       <c r="AN8" t="n">
-        <v>11.5</v>
+        <v>9.4</v>
       </c>
       <c r="AO8" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1615,7 +1615,7 @@
         <v>1.4</v>
       </c>
       <c r="G9" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="H9" t="n">
         <v>7</v>
@@ -1624,7 +1624,7 @@
         <v>8.4</v>
       </c>
       <c r="J9" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="K9" t="n">
         <v>6.2</v>
@@ -1651,7 +1651,7 @@
         <v>1.87</v>
       </c>
       <c r="S9" t="n">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="T9" t="n">
         <v>1.66</v>
@@ -1666,55 +1666,55 @@
         <v>3.1</v>
       </c>
       <c r="X9" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="Y9" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="Z9" t="n">
         <v>200</v>
       </c>
       <c r="AA9" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>17.5</v>
+        <v>980</v>
       </c>
       <c r="AC9" t="n">
-        <v>17.5</v>
+        <v>980</v>
       </c>
       <c r="AD9" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AE9" t="n">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="AF9" t="n">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="AG9" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="AH9" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AI9" t="n">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="AJ9" t="n">
-        <v>16.5</v>
+        <v>980</v>
       </c>
       <c r="AK9" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AL9" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AM9" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>5.4</v>
+        <v>29</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1747,13 +1747,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="G10" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="I10" t="n">
         <v>4.4</v>
@@ -1768,7 +1768,7 @@
         <v>1.56</v>
       </c>
       <c r="M10" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N10" t="n">
         <v>2.6</v>
@@ -1777,7 +1777,7 @@
         <v>1.53</v>
       </c>
       <c r="P10" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="Q10" t="n">
         <v>2.58</v>
@@ -1798,58 +1798,58 @@
         <v>1.29</v>
       </c>
       <c r="W10" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="X10" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y10" t="n">
         <v>11</v>
       </c>
-      <c r="Y10" t="n">
-        <v>13.5</v>
-      </c>
       <c r="Z10" t="n">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="AA10" t="n">
-        <v>130</v>
+        <v>290</v>
       </c>
       <c r="AB10" t="n">
-        <v>8.6</v>
+        <v>7.2</v>
       </c>
       <c r="AC10" t="n">
-        <v>9</v>
+        <v>7.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="AE10" t="n">
-        <v>75</v>
+        <v>290</v>
       </c>
       <c r="AF10" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AH10" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI10" t="n">
-        <v>110</v>
+        <v>390</v>
       </c>
       <c r="AJ10" t="n">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="AK10" t="n">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="AL10" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="AM10" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="AN10" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AO10" t="n">
         <v>130</v>
@@ -1882,25 +1882,25 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.78</v>
+        <v>2.86</v>
       </c>
       <c r="G11" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="H11" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="I11" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="J11" t="n">
         <v>3.45</v>
       </c>
       <c r="K11" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L11" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M11" t="n">
         <v>1.06</v>
@@ -1912,16 +1912,16 @@
         <v>1.27</v>
       </c>
       <c r="P11" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="R11" t="n">
         <v>1.43</v>
       </c>
       <c r="S11" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T11" t="n">
         <v>1.67</v>
@@ -1930,64 +1930,64 @@
         <v>2.34</v>
       </c>
       <c r="V11" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="W11" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="X11" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="Y11" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB11" t="n">
         <v>14.5</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="AC11" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF11" t="n">
         <v>23</v>
       </c>
-      <c r="AA11" t="n">
-        <v>48</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>24</v>
-      </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH11" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="AJ11" t="n">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="AK11" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AL11" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AM11" t="n">
         <v>580</v>
       </c>
       <c r="AN11" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AO11" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12">
@@ -2017,112 +2017,112 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="G12" t="n">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="H12" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="J12" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="K12" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L12" t="n">
         <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="O12" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="W12" t="n">
         <v>1.27</v>
       </c>
-      <c r="P12" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S12" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V12" t="n">
-        <v>2</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1.23</v>
-      </c>
       <c r="X12" t="n">
-        <v>16.5</v>
+        <v>26</v>
       </c>
       <c r="Y12" t="n">
-        <v>10.5</v>
+        <v>17.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB12" t="n">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="AC12" t="n">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="AD12" t="n">
-        <v>12.5</v>
+        <v>44</v>
       </c>
       <c r="AE12" t="n">
-        <v>27</v>
+        <v>130</v>
       </c>
       <c r="AF12" t="n">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="AH12" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AI12" t="n">
-        <v>50</v>
+        <v>170</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>310</v>
       </c>
       <c r="AK12" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="AL12" t="n">
-        <v>90</v>
+        <v>230</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN12" t="n">
         <v>300</v>
       </c>
       <c r="AO12" t="n">
-        <v>19</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="G13" t="n">
         <v>2.08</v>
@@ -2164,7 +2164,7 @@
         <v>5.3</v>
       </c>
       <c r="J13" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K13" t="n">
         <v>3.65</v>
@@ -2185,7 +2185,7 @@
         <v>1.65</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="R13" t="n">
         <v>1.25</v>
@@ -2203,7 +2203,7 @@
         <v>1.23</v>
       </c>
       <c r="W13" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="X13" t="n">
         <v>19.5</v>
@@ -2218,19 +2218,19 @@
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.4</v>
+        <v>14</v>
       </c>
       <c r="AD13" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AE13" t="n">
         <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="AG13" t="n">
         <v>40</v>
@@ -2242,10 +2242,10 @@
         <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="AL13" t="n">
         <v>1000</v>
@@ -2254,7 +2254,7 @@
         <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="AO13" t="n">
         <v>1000</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="G14" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="H14" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I14" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="J14" t="n">
         <v>3.9</v>
       </c>
       <c r="K14" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L14" t="n">
         <v>1.34</v>
@@ -2311,7 +2311,7 @@
         <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="O14" t="n">
         <v>1.24</v>
@@ -2323,40 +2323,40 @@
         <v>1.7</v>
       </c>
       <c r="R14" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="S14" t="n">
         <v>2.78</v>
       </c>
       <c r="T14" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U14" t="n">
         <v>2.42</v>
       </c>
       <c r="V14" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W14" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="X14" t="n">
         <v>20</v>
       </c>
       <c r="Y14" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Z14" t="n">
         <v>34</v>
       </c>
       <c r="AA14" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AB14" t="n">
         <v>12</v>
       </c>
       <c r="AC14" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD14" t="n">
         <v>17.5</v>
@@ -2389,10 +2389,10 @@
         <v>70</v>
       </c>
       <c r="AN14" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO14" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="G15" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="H15" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="I15" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="J15" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K15" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L15" t="n">
         <v>1.32</v>
@@ -2449,7 +2449,7 @@
         <v>5.3</v>
       </c>
       <c r="O15" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P15" t="n">
         <v>2.44</v>
@@ -2467,13 +2467,13 @@
         <v>1.59</v>
       </c>
       <c r="U15" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="V15" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="W15" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="X15" t="n">
         <v>22</v>
@@ -2485,7 +2485,7 @@
         <v>16</v>
       </c>
       <c r="AA15" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB15" t="n">
         <v>17.5</v>
@@ -2503,7 +2503,7 @@
         <v>26</v>
       </c>
       <c r="AG15" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH15" t="n">
         <v>15</v>
@@ -2515,19 +2515,19 @@
         <v>60</v>
       </c>
       <c r="AK15" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AL15" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AM15" t="n">
         <v>60</v>
       </c>
       <c r="AN15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO15" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="16">
@@ -2563,10 +2563,10 @@
         <v>2.42</v>
       </c>
       <c r="H16" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="I16" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="J16" t="n">
         <v>4.1</v>
@@ -2599,16 +2599,16 @@
         <v>2.02</v>
       </c>
       <c r="T16" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="U16" t="n">
         <v>3.25</v>
       </c>
       <c r="V16" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="W16" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="X16" t="n">
         <v>34</v>
@@ -2632,7 +2632,7 @@
         <v>14</v>
       </c>
       <c r="AE16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AF16" t="n">
         <v>22</v>
@@ -2647,10 +2647,10 @@
         <v>26</v>
       </c>
       <c r="AJ16" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AK16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL16" t="n">
         <v>24</v>
@@ -2662,7 +2662,7 @@
         <v>9</v>
       </c>
       <c r="AO16" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="17">
@@ -2692,10 +2692,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="G17" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="H17" t="n">
         <v>14.5</v>
@@ -2704,10 +2704,10 @@
         <v>15.5</v>
       </c>
       <c r="J17" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="K17" t="n">
         <v>7.6</v>
-      </c>
-      <c r="K17" t="n">
-        <v>7.8</v>
       </c>
       <c r="L17" t="n">
         <v>1.21</v>
@@ -2728,22 +2728,22 @@
         <v>1.38</v>
       </c>
       <c r="R17" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="S17" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="T17" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="U17" t="n">
         <v>2.08</v>
       </c>
       <c r="V17" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="W17" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="X17" t="n">
         <v>40</v>
@@ -2752,31 +2752,31 @@
         <v>70</v>
       </c>
       <c r="Z17" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AA17" t="n">
-        <v>570</v>
+        <v>540</v>
       </c>
       <c r="AB17" t="n">
         <v>14.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AD17" t="n">
         <v>50</v>
       </c>
       <c r="AE17" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AF17" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AG17" t="n">
         <v>12</v>
       </c>
       <c r="AH17" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI17" t="n">
         <v>140</v>
@@ -2794,10 +2794,10 @@
         <v>110</v>
       </c>
       <c r="AN17" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="AO17" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18">
@@ -2851,19 +2851,19 @@
         <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="O18" t="n">
         <v>1.2</v>
       </c>
       <c r="P18" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="Q18" t="n">
         <v>1.6</v>
       </c>
       <c r="R18" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="S18" t="n">
         <v>2.56</v>
@@ -2881,19 +2881,19 @@
         <v>4.1</v>
       </c>
       <c r="X18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y18" t="n">
         <v>40</v>
       </c>
       <c r="Z18" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AA18" t="n">
         <v>440</v>
       </c>
       <c r="AB18" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AC18" t="n">
         <v>14</v>
@@ -2902,7 +2902,7 @@
         <v>40</v>
       </c>
       <c r="AE18" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AF18" t="n">
         <v>8.199999999999999</v>
@@ -2968,10 +2968,10 @@
         <v>3.05</v>
       </c>
       <c r="H19" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="I19" t="n">
         <v>2.6</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2.62</v>
       </c>
       <c r="J19" t="n">
         <v>3.5</v>
@@ -2980,13 +2980,13 @@
         <v>3.55</v>
       </c>
       <c r="L19" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M19" t="n">
         <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O19" t="n">
         <v>1.27</v>
@@ -2995,13 +2995,13 @@
         <v>2.18</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R19" t="n">
         <v>1.45</v>
       </c>
       <c r="S19" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="T19" t="n">
         <v>1.67</v>
@@ -3010,7 +3010,7 @@
         <v>2.42</v>
       </c>
       <c r="V19" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="W19" t="n">
         <v>1.49</v>
@@ -3055,7 +3055,7 @@
         <v>46</v>
       </c>
       <c r="AK19" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL19" t="n">
         <v>38</v>
@@ -3064,7 +3064,7 @@
         <v>75</v>
       </c>
       <c r="AN19" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AO19" t="n">
         <v>18</v>
@@ -3097,16 +3097,16 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="G20" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="H20" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="I20" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="J20" t="n">
         <v>3.55</v>
@@ -3121,7 +3121,7 @@
         <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O20" t="n">
         <v>1.34</v>
@@ -3142,13 +3142,13 @@
         <v>1.8</v>
       </c>
       <c r="U20" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V20" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="W20" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="X20" t="n">
         <v>14</v>
@@ -3172,10 +3172,10 @@
         <v>11.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG20" t="n">
         <v>13.5</v>
@@ -3190,7 +3190,7 @@
         <v>60</v>
       </c>
       <c r="AK20" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AL20" t="n">
         <v>48</v>
@@ -3199,7 +3199,7 @@
         <v>95</v>
       </c>
       <c r="AN20" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AO20" t="n">
         <v>21</v>
@@ -3232,37 +3232,37 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.44</v>
+        <v>2.32</v>
       </c>
       <c r="G21" t="n">
-        <v>2.48</v>
+        <v>2.36</v>
       </c>
       <c r="H21" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="J21" t="n">
         <v>3.35</v>
-      </c>
-      <c r="I21" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="J21" t="n">
-        <v>3.3</v>
       </c>
       <c r="K21" t="n">
         <v>3.4</v>
       </c>
       <c r="L21" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="M21" t="n">
         <v>1.09</v>
       </c>
       <c r="N21" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O21" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P21" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="Q21" t="n">
         <v>2.22</v>
@@ -3271,73 +3271,73 @@
         <v>1.28</v>
       </c>
       <c r="S21" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="T21" t="n">
         <v>1.91</v>
       </c>
       <c r="U21" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="V21" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="W21" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="X21" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Z21" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AA21" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AB21" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC21" t="n">
         <v>7.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AF21" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH21" t="n">
         <v>19.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ21" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AK21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL21" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>24</v>
+      </c>
+      <c r="AO21" t="n">
         <v>48</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>28</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>44</v>
       </c>
     </row>
     <row r="22">
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="G22" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="H22" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="J22" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K22" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L22" t="n">
         <v>1.48</v>
@@ -3394,13 +3394,13 @@
         <v>3.25</v>
       </c>
       <c r="O22" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P22" t="n">
         <v>1.78</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R22" t="n">
         <v>1.29</v>
@@ -3409,61 +3409,61 @@
         <v>4</v>
       </c>
       <c r="T22" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="U22" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V22" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="W22" t="n">
         <v>1.26</v>
       </c>
       <c r="X22" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB22" t="n">
         <v>14.5</v>
       </c>
-      <c r="Y22" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>28</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AC22" t="n">
-        <v>9.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD22" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AE22" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AF22" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AG22" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AH22" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AI22" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AJ22" t="n">
         <v>140</v>
       </c>
       <c r="AK22" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AL22" t="n">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AM22" t="n">
         <v>170</v>
@@ -3472,7 +3472,7 @@
         <v>1000</v>
       </c>
       <c r="AO22" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23">
@@ -3520,7 +3520,7 @@
         <v>3.25</v>
       </c>
       <c r="L23" t="n">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="M23" t="n">
         <v>1.08</v>
@@ -3529,19 +3529,19 @@
         <v>3</v>
       </c>
       <c r="O23" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P23" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.08</v>
+        <v>2.26</v>
       </c>
       <c r="R23" t="n">
         <v>1.25</v>
       </c>
       <c r="S23" t="n">
-        <v>3.75</v>
+        <v>4.3</v>
       </c>
       <c r="T23" t="n">
         <v>1.92</v>
@@ -3556,7 +3556,7 @@
         <v>1.73</v>
       </c>
       <c r="X23" t="n">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="Y23" t="n">
         <v>1000</v>
@@ -3568,13 +3568,13 @@
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AC23" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AE23" t="n">
         <v>1000</v>
@@ -3601,7 +3601,7 @@
         <v>1000</v>
       </c>
       <c r="AM23" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN23" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-25.xlsx
@@ -653,7 +653,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:10:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="G2" t="n">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="H2" t="n">
         <v>5.4</v>
       </c>
       <c r="I2" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="J2" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K2" t="n">
         <v>4.5</v>
       </c>
-      <c r="K2" t="n">
-        <v>4.7</v>
-      </c>
       <c r="L2" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="O2" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="R2" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="S2" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="T2" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="U2" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="V2" t="n">
         <v>1.21</v>
       </c>
       <c r="W2" t="n">
-        <v>2.5</v>
+        <v>2.32</v>
       </c>
       <c r="X2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y2" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="Z2" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AA2" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AB2" t="n">
         <v>11.5</v>
       </c>
       <c r="AC2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG2" t="n">
         <v>10.5</v>
       </c>
-      <c r="AD2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>9.800000000000001</v>
-      </c>
       <c r="AH2" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AI2" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AJ2" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK2" t="n">
         <v>16.5</v>
       </c>
-      <c r="AK2" t="n">
-        <v>15</v>
-      </c>
       <c r="AL2" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="AM2" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="AN2" t="n">
-        <v>7.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO2" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3">
@@ -835,31 +835,31 @@
         <v>1.88</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="R3" t="n">
         <v>1.33</v>
       </c>
       <c r="S3" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="T3" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="U3" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="V3" t="n">
         <v>1.08</v>
       </c>
       <c r="W3" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="X3" t="n">
         <v>15</v>
       </c>
       <c r="Y3" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="Z3" t="n">
         <v>140</v>
@@ -868,7 +868,7 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AC3" t="n">
         <v>11.5</v>
@@ -895,16 +895,16 @@
         <v>11.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AL3" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AM3" t="n">
         <v>300</v>
       </c>
       <c r="AN3" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AO3" t="n">
         <v>570</v>
@@ -943,7 +943,7 @@
         <v>4.3</v>
       </c>
       <c r="H4" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="I4" t="n">
         <v>1.98</v>
@@ -961,22 +961,22 @@
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="O4" t="n">
         <v>1.25</v>
       </c>
       <c r="P4" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="R4" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S4" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="T4" t="n">
         <v>1.69</v>
@@ -1012,19 +1012,19 @@
         <v>10.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AF4" t="n">
         <v>32</v>
       </c>
       <c r="AG4" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AH4" t="n">
         <v>16.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ4" t="n">
         <v>85</v>
@@ -1042,7 +1042,7 @@
         <v>40</v>
       </c>
       <c r="AO4" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="5">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="G5" t="n">
         <v>1.76</v>
@@ -1141,7 +1141,7 @@
         <v>13.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD5" t="n">
         <v>18.5</v>
@@ -1156,7 +1156,7 @@
         <v>10.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI5" t="n">
         <v>46</v>
@@ -1210,7 +1210,7 @@
         <v>1.41</v>
       </c>
       <c r="G6" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="H6" t="n">
         <v>6.8</v>
@@ -1219,7 +1219,7 @@
         <v>7.8</v>
       </c>
       <c r="J6" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="K6" t="n">
         <v>6.4</v>
@@ -1252,7 +1252,7 @@
         <v>1.56</v>
       </c>
       <c r="U6" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="V6" t="n">
         <v>1.15</v>
@@ -1348,7 +1348,7 @@
         <v>2.1</v>
       </c>
       <c r="H7" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I7" t="n">
         <v>3.7</v>
@@ -1372,7 +1372,7 @@
         <v>1.15</v>
       </c>
       <c r="P7" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="Q7" t="n">
         <v>1.45</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="G8" t="n">
         <v>2.04</v>
@@ -1495,7 +1495,7 @@
         <v>4.4</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="M8" t="n">
         <v>1.04</v>
@@ -1567,7 +1567,7 @@
         <v>120</v>
       </c>
       <c r="AJ8" t="n">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="AK8" t="n">
         <v>19</v>
@@ -1651,7 +1651,7 @@
         <v>1.87</v>
       </c>
       <c r="S9" t="n">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="T9" t="n">
         <v>1.66</v>
@@ -1663,10 +1663,10 @@
         <v>1.13</v>
       </c>
       <c r="W9" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="X9" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="Y9" t="n">
         <v>980</v>
@@ -1675,13 +1675,13 @@
         <v>200</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AB9" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AD9" t="n">
         <v>980</v>
@@ -1690,10 +1690,10 @@
         <v>250</v>
       </c>
       <c r="AF9" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AG9" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AH9" t="n">
         <v>980</v>
@@ -1702,10 +1702,10 @@
         <v>190</v>
       </c>
       <c r="AJ9" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AK9" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AL9" t="n">
         <v>980</v>
@@ -1714,7 +1714,7 @@
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>29</v>
+        <v>4.4</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="G10" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="H10" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I10" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J10" t="n">
         <v>3.05</v>
@@ -1765,28 +1765,28 @@
         <v>3.25</v>
       </c>
       <c r="L10" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="M10" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="N10" t="n">
-        <v>2.6</v>
+        <v>2.68</v>
       </c>
       <c r="O10" t="n">
         <v>1.53</v>
       </c>
       <c r="P10" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="Q10" t="n">
         <v>2.58</v>
       </c>
       <c r="R10" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="S10" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="T10" t="n">
         <v>2.12</v>
@@ -1798,16 +1798,16 @@
         <v>1.29</v>
       </c>
       <c r="W10" t="n">
-        <v>1.79</v>
+        <v>1.74</v>
       </c>
       <c r="X10" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y10" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="AA10" t="n">
         <v>290</v>
@@ -1819,40 +1819,40 @@
         <v>7.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>34</v>
+        <v>18.5</v>
       </c>
       <c r="AE10" t="n">
         <v>290</v>
       </c>
       <c r="AF10" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AG10" t="n">
         <v>12</v>
       </c>
       <c r="AH10" t="n">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="AI10" t="n">
         <v>390</v>
       </c>
       <c r="AJ10" t="n">
+        <v>150</v>
+      </c>
+      <c r="AK10" t="n">
         <v>80</v>
       </c>
-      <c r="AK10" t="n">
-        <v>70</v>
-      </c>
       <c r="AL10" t="n">
-        <v>160</v>
+        <v>480</v>
       </c>
       <c r="AM10" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="AN10" t="n">
         <v>980</v>
       </c>
       <c r="AO10" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="G11" t="n">
         <v>3</v>
@@ -1912,7 +1912,7 @@
         <v>1.27</v>
       </c>
       <c r="P11" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="Q11" t="n">
         <v>1.82</v>
@@ -1927,7 +1927,7 @@
         <v>1.67</v>
       </c>
       <c r="U11" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="V11" t="n">
         <v>1.58</v>
@@ -1948,7 +1948,7 @@
         <v>980</v>
       </c>
       <c r="AB11" t="n">
-        <v>14.5</v>
+        <v>28</v>
       </c>
       <c r="AC11" t="n">
         <v>8.4</v>
@@ -1957,10 +1957,10 @@
         <v>12</v>
       </c>
       <c r="AE11" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AF11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG11" t="n">
         <v>13</v>
@@ -1969,7 +1969,7 @@
         <v>15.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="AJ11" t="n">
         <v>200</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="G12" t="n">
         <v>4.8</v>
@@ -2029,13 +2029,13 @@
         <v>2.1</v>
       </c>
       <c r="J12" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K12" t="n">
-        <v>4.4</v>
+        <v>3.95</v>
       </c>
       <c r="L12" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M12" t="n">
         <v>1.07</v>
@@ -2071,19 +2071,19 @@
         <v>1.27</v>
       </c>
       <c r="X12" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="Y12" t="n">
         <v>17.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AA12" t="n">
-        <v>130</v>
+        <v>980</v>
       </c>
       <c r="AB12" t="n">
-        <v>85</v>
+        <v>980</v>
       </c>
       <c r="AC12" t="n">
         <v>42</v>
@@ -2095,16 +2095,16 @@
         <v>130</v>
       </c>
       <c r="AF12" t="n">
-        <v>85</v>
+        <v>980</v>
       </c>
       <c r="AG12" t="n">
-        <v>90</v>
+        <v>980</v>
       </c>
       <c r="AH12" t="n">
-        <v>150</v>
+        <v>980</v>
       </c>
       <c r="AI12" t="n">
-        <v>170</v>
+        <v>980</v>
       </c>
       <c r="AJ12" t="n">
         <v>310</v>
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="G13" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="H13" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I13" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="J13" t="n">
         <v>3.25</v>
@@ -2176,7 +2176,7 @@
         <v>1.08</v>
       </c>
       <c r="N13" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="O13" t="n">
         <v>1.43</v>
@@ -2200,16 +2200,16 @@
         <v>1.83</v>
       </c>
       <c r="V13" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="W13" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="X13" t="n">
         <v>19.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Z13" t="n">
         <v>1000</v>
@@ -2218,10 +2218,10 @@
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>7.6</v>
+        <v>14</v>
       </c>
       <c r="AC13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AD13" t="n">
         <v>1000</v>
@@ -2230,7 +2230,7 @@
         <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AG13" t="n">
         <v>40</v>
@@ -2248,7 +2248,7 @@
         <v>85</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AM13" t="n">
         <v>1000</v>
@@ -2290,7 +2290,7 @@
         <v>1.93</v>
       </c>
       <c r="G14" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="H14" t="n">
         <v>4.3</v>
@@ -2311,10 +2311,10 @@
         <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O14" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P14" t="n">
         <v>2.38</v>
@@ -2338,13 +2338,13 @@
         <v>1.29</v>
       </c>
       <c r="W14" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="X14" t="n">
         <v>20</v>
       </c>
       <c r="Y14" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Z14" t="n">
         <v>34</v>
@@ -2356,7 +2356,7 @@
         <v>12</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD14" t="n">
         <v>17.5</v>
@@ -2368,7 +2368,7 @@
         <v>13.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH14" t="n">
         <v>16</v>
@@ -2377,10 +2377,10 @@
         <v>46</v>
       </c>
       <c r="AJ14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK14" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AL14" t="n">
         <v>27</v>
@@ -2422,10 +2422,10 @@
         </is>
       </c>
       <c r="F15" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="G15" t="n">
         <v>3.4</v>
-      </c>
-      <c r="G15" t="n">
-        <v>3.45</v>
       </c>
       <c r="H15" t="n">
         <v>2.22</v>
@@ -2470,7 +2470,7 @@
         <v>2.58</v>
       </c>
       <c r="V15" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="W15" t="n">
         <v>1.41</v>
@@ -2518,7 +2518,7 @@
         <v>34</v>
       </c>
       <c r="AL15" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM15" t="n">
         <v>60</v>
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="G16" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="H16" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="I16" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="J16" t="n">
         <v>4.1</v>
@@ -2575,7 +2575,7 @@
         <v>4.2</v>
       </c>
       <c r="L16" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="M16" t="n">
         <v>1.03</v>
@@ -2590,10 +2590,10 @@
         <v>3.25</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="R16" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="S16" t="n">
         <v>2.02</v>
@@ -2605,10 +2605,10 @@
         <v>3.25</v>
       </c>
       <c r="V16" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="W16" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="X16" t="n">
         <v>34</v>
@@ -2620,7 +2620,7 @@
         <v>27</v>
       </c>
       <c r="AA16" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AB16" t="n">
         <v>21</v>
@@ -2629,7 +2629,7 @@
         <v>10.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AE16" t="n">
         <v>25</v>
@@ -2722,16 +2722,16 @@
         <v>1.12</v>
       </c>
       <c r="P17" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="R17" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="S17" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="T17" t="n">
         <v>1.86</v>
@@ -2740,25 +2740,25 @@
         <v>2.08</v>
       </c>
       <c r="V17" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="W17" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="X17" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="Y17" t="n">
         <v>70</v>
       </c>
       <c r="Z17" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AA17" t="n">
         <v>540</v>
       </c>
       <c r="AB17" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC17" t="n">
         <v>17.5</v>
@@ -2770,7 +2770,7 @@
         <v>180</v>
       </c>
       <c r="AF17" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AG17" t="n">
         <v>12</v>
@@ -2788,13 +2788,13 @@
         <v>12</v>
       </c>
       <c r="AL17" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM17" t="n">
         <v>110</v>
       </c>
       <c r="AN17" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="AO17" t="n">
         <v>140</v>
@@ -2839,7 +2839,7 @@
         <v>12</v>
       </c>
       <c r="J18" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="K18" t="n">
         <v>6.6</v>
@@ -2866,7 +2866,7 @@
         <v>1.61</v>
       </c>
       <c r="S18" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="T18" t="n">
         <v>2.06</v>
@@ -2878,10 +2878,10 @@
         <v>1.09</v>
       </c>
       <c r="W18" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="X18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y18" t="n">
         <v>40</v>
@@ -2893,7 +2893,7 @@
         <v>440</v>
       </c>
       <c r="AB18" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC18" t="n">
         <v>14</v>
@@ -2914,7 +2914,7 @@
         <v>28</v>
       </c>
       <c r="AI18" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AJ18" t="n">
         <v>10.5</v>
@@ -2932,7 +2932,7 @@
         <v>4.7</v>
       </c>
       <c r="AO18" t="n">
-        <v>210</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19">
@@ -2980,7 +2980,7 @@
         <v>3.55</v>
       </c>
       <c r="L19" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="M19" t="n">
         <v>1.06</v>
@@ -2992,19 +2992,19 @@
         <v>1.27</v>
       </c>
       <c r="P19" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="R19" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="S19" t="n">
         <v>3.05</v>
       </c>
       <c r="T19" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="U19" t="n">
         <v>2.42</v>
@@ -3013,10 +3013,10 @@
         <v>1.62</v>
       </c>
       <c r="W19" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="X19" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y19" t="n">
         <v>13</v>
@@ -3037,7 +3037,7 @@
         <v>11.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF19" t="n">
         <v>21</v>
@@ -3049,7 +3049,7 @@
         <v>14.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ19" t="n">
         <v>46</v>
@@ -3061,10 +3061,10 @@
         <v>38</v>
       </c>
       <c r="AM19" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO19" t="n">
         <v>18</v>
@@ -3169,7 +3169,7 @@
         <v>7.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE20" t="n">
         <v>26</v>
@@ -3232,16 +3232,16 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="G21" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="H21" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="I21" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="J21" t="n">
         <v>3.35</v>
@@ -3250,19 +3250,19 @@
         <v>3.4</v>
       </c>
       <c r="L21" t="n">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="M21" t="n">
         <v>1.09</v>
       </c>
       <c r="N21" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O21" t="n">
         <v>1.42</v>
       </c>
       <c r="P21" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q21" t="n">
         <v>2.22</v>
@@ -3271,25 +3271,25 @@
         <v>1.28</v>
       </c>
       <c r="S21" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T21" t="n">
         <v>1.91</v>
       </c>
       <c r="U21" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V21" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="W21" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="X21" t="n">
         <v>11.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z21" t="n">
         <v>24</v>
@@ -3298,19 +3298,19 @@
         <v>70</v>
       </c>
       <c r="AB21" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC21" t="n">
         <v>7.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE21" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AF21" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AG21" t="n">
         <v>11.5</v>
@@ -3328,16 +3328,16 @@
         <v>28</v>
       </c>
       <c r="AL21" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AM21" t="n">
         <v>130</v>
       </c>
       <c r="AN21" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22">
@@ -3373,10 +3373,10 @@
         <v>4.8</v>
       </c>
       <c r="H22" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="I22" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="J22" t="n">
         <v>3.6</v>
@@ -3385,7 +3385,7 @@
         <v>3.8</v>
       </c>
       <c r="L22" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="M22" t="n">
         <v>1.08</v>
@@ -3394,13 +3394,13 @@
         <v>3.25</v>
       </c>
       <c r="O22" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="P22" t="n">
         <v>1.78</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="R22" t="n">
         <v>1.29</v>
@@ -3424,7 +3424,7 @@
         <v>15</v>
       </c>
       <c r="Y22" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="Z22" t="n">
         <v>11.5</v>
@@ -3439,10 +3439,10 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD22" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AF22" t="n">
         <v>980</v>
@@ -3520,7 +3520,7 @@
         <v>3.25</v>
       </c>
       <c r="L23" t="n">
-        <v>1.49</v>
+        <v>1.01</v>
       </c>
       <c r="M23" t="n">
         <v>1.08</v>
@@ -3571,7 +3571,7 @@
         <v>1000</v>
       </c>
       <c r="AC23" t="n">
-        <v>8.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD23" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO23"/>
+  <dimension ref="A1:AO22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>US MLS</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>00:10:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>San Diego FC</t>
+          <t>Pyramids</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Minnesota Utd</t>
+          <t>Al Mokawloon</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.69</v>
+        <v>1.39</v>
       </c>
       <c r="G2" t="n">
-        <v>1.71</v>
+        <v>1.4</v>
       </c>
       <c r="H2" t="n">
-        <v>5.4</v>
+        <v>12</v>
       </c>
       <c r="I2" t="n">
-        <v>5.7</v>
+        <v>14</v>
       </c>
       <c r="J2" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="K2" t="n">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="L2" t="n">
-        <v>1.29</v>
+        <v>1.43</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>5.1</v>
+        <v>3.7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.22</v>
+        <v>1.35</v>
       </c>
       <c r="P2" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T2" t="n">
         <v>2.42</v>
       </c>
-      <c r="Q2" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.71</v>
-      </c>
       <c r="U2" t="n">
-        <v>2.34</v>
+        <v>1.62</v>
       </c>
       <c r="V2" t="n">
-        <v>1.21</v>
+        <v>1.08</v>
       </c>
       <c r="W2" t="n">
-        <v>2.32</v>
+        <v>3.5</v>
       </c>
       <c r="X2" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="Y2" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Z2" t="n">
+        <v>130</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>650</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>46</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>280</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>260</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL2" t="n">
         <v>55</v>
       </c>
-      <c r="AA2" t="n">
-        <v>150</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>18</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>36</v>
-      </c>
       <c r="AM2" t="n">
-        <v>110</v>
+        <v>310</v>
       </c>
       <c r="AN2" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AO2" t="n">
-        <v>70</v>
+        <v>530</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,126 +788,126 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Pyramids</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Al Mokawloon</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.37</v>
+        <v>3.85</v>
       </c>
       <c r="G3" t="n">
-        <v>1.41</v>
+        <v>3.95</v>
       </c>
       <c r="H3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N3" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X3" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y3" t="n">
         <v>11.5</v>
       </c>
-      <c r="I3" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="K3" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N3" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="W3" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="X3" t="n">
+      <c r="Z3" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG3" t="n">
         <v>15</v>
       </c>
-      <c r="Y3" t="n">
-        <v>80</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>140</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>320</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AH3" t="n">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="AI3" t="n">
-        <v>260</v>
+        <v>30</v>
       </c>
       <c r="AJ3" t="n">
-        <v>11.5</v>
+        <v>75</v>
       </c>
       <c r="AK3" t="n">
-        <v>18.5</v>
+        <v>40</v>
       </c>
       <c r="AL3" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="AM3" t="n">
-        <v>300</v>
+        <v>75</v>
       </c>
       <c r="AN3" t="n">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="AO3" t="n">
-        <v>570</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -928,127 +928,127 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Union St Gilloise</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.2</v>
+        <v>1.79</v>
       </c>
       <c r="G4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="J4" t="n">
         <v>4.3</v>
       </c>
-      <c r="H4" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.85</v>
-      </c>
       <c r="K4" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>4.8</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="P4" t="n">
-        <v>2.26</v>
+        <v>2.7</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.76</v>
+        <v>1.57</v>
       </c>
       <c r="R4" t="n">
-        <v>1.5</v>
+        <v>1.68</v>
       </c>
       <c r="S4" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="T4" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="U4" t="n">
-        <v>2.38</v>
+        <v>2.6</v>
       </c>
       <c r="V4" t="n">
-        <v>2.02</v>
+        <v>1.27</v>
       </c>
       <c r="W4" t="n">
-        <v>1.3</v>
+        <v>2.24</v>
       </c>
       <c r="X4" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD4" t="n">
         <v>18</v>
       </c>
-      <c r="Y4" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>22</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AE4" t="n">
-        <v>17.5</v>
+        <v>46</v>
       </c>
       <c r="AF4" t="n">
-        <v>32</v>
+        <v>13.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AH4" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AI4" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="AJ4" t="n">
-        <v>85</v>
+        <v>19.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>46</v>
+        <v>15.5</v>
       </c>
       <c r="AL4" t="n">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="AM4" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AN4" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AO4" t="n">
         <v>40</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>10.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,126 +1058,126 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Union St Gilloise</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.74</v>
+        <v>1.43</v>
       </c>
       <c r="G5" t="n">
-        <v>1.76</v>
+        <v>1.47</v>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>6.8</v>
       </c>
       <c r="I5" t="n">
-        <v>5.1</v>
+        <v>7.8</v>
       </c>
       <c r="J5" t="n">
-        <v>4.3</v>
+        <v>5.5</v>
       </c>
       <c r="K5" t="n">
-        <v>4.4</v>
+        <v>6.2</v>
       </c>
       <c r="L5" t="n">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>6.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="O5" t="n">
-        <v>1.18</v>
+        <v>1.1</v>
       </c>
       <c r="P5" t="n">
-        <v>2.72</v>
+        <v>3.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.55</v>
+        <v>1.32</v>
       </c>
       <c r="R5" t="n">
-        <v>1.7</v>
+        <v>2.12</v>
       </c>
       <c r="S5" t="n">
-        <v>2.36</v>
+        <v>1.8</v>
       </c>
       <c r="T5" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="U5" t="n">
-        <v>2.58</v>
+        <v>2.7</v>
       </c>
       <c r="V5" t="n">
-        <v>1.24</v>
+        <v>1.15</v>
       </c>
       <c r="W5" t="n">
-        <v>2.32</v>
+        <v>3.1</v>
       </c>
       <c r="X5" t="n">
-        <v>26</v>
+        <v>250</v>
       </c>
       <c r="Y5" t="n">
-        <v>26</v>
+        <v>300</v>
       </c>
       <c r="Z5" t="n">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="AA5" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="AB5" t="n">
-        <v>13.5</v>
+        <v>20</v>
       </c>
       <c r="AC5" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AD5" t="n">
-        <v>18.5</v>
+        <v>170</v>
       </c>
       <c r="AE5" t="n">
-        <v>50</v>
+        <v>510</v>
       </c>
       <c r="AF5" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="AG5" t="n">
-        <v>10.5</v>
+        <v>19</v>
       </c>
       <c r="AH5" t="n">
-        <v>15.5</v>
+        <v>42</v>
       </c>
       <c r="AI5" t="n">
+        <v>300</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>46</v>
       </c>
-      <c r="AJ5" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AK5" t="n">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="AL5" t="n">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="AM5" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="AN5" t="n">
-        <v>6.8</v>
+        <v>3.85</v>
       </c>
       <c r="AO5" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
     </row>
     <row r="6">
@@ -1198,118 +1198,118 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>Vitesse Arnhem</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>Jong PSV Eindhoven</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.41</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>1.47</v>
+        <v>2.08</v>
       </c>
       <c r="H6" t="n">
-        <v>6.8</v>
+        <v>3.35</v>
       </c>
       <c r="I6" t="n">
-        <v>7.8</v>
+        <v>3.65</v>
       </c>
       <c r="J6" t="n">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="K6" t="n">
-        <v>6.4</v>
+        <v>4.7</v>
       </c>
       <c r="L6" t="n">
-        <v>1.19</v>
+        <v>1.26</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>9.199999999999999</v>
+        <v>6.6</v>
       </c>
       <c r="O6" t="n">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
       <c r="P6" t="n">
-        <v>3.7</v>
+        <v>2.92</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.31</v>
+        <v>1.48</v>
       </c>
       <c r="R6" t="n">
-        <v>2.1</v>
+        <v>1.77</v>
       </c>
       <c r="S6" t="n">
-        <v>1.76</v>
+        <v>2.18</v>
       </c>
       <c r="T6" t="n">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="U6" t="n">
-        <v>2.68</v>
+        <v>2.8</v>
       </c>
       <c r="V6" t="n">
-        <v>1.15</v>
+        <v>1.37</v>
       </c>
       <c r="W6" t="n">
-        <v>3.1</v>
+        <v>1.92</v>
       </c>
       <c r="X6" t="n">
-        <v>250</v>
+        <v>980</v>
       </c>
       <c r="Y6" t="n">
-        <v>300</v>
+        <v>980</v>
       </c>
       <c r="Z6" t="n">
-        <v>220</v>
+        <v>980</v>
       </c>
       <c r="AA6" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="AB6" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="AC6" t="n">
+        <v>22</v>
+      </c>
+      <c r="AD6" t="n">
         <v>980</v>
       </c>
-      <c r="AD6" t="n">
-        <v>75</v>
-      </c>
       <c r="AE6" t="n">
-        <v>510</v>
+        <v>980</v>
       </c>
       <c r="AF6" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AH6" t="n">
-        <v>42</v>
+        <v>15.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>300</v>
+        <v>85</v>
       </c>
       <c r="AJ6" t="n">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="AK6" t="n">
-        <v>75</v>
+        <v>980</v>
       </c>
       <c r="AL6" t="n">
-        <v>130</v>
+        <v>48</v>
       </c>
       <c r="AM6" t="n">
-        <v>250</v>
+        <v>580</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.9</v>
+        <v>8.4</v>
       </c>
       <c r="AO6" t="n">
         <v>980</v>
@@ -1333,121 +1333,121 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Vitesse Arnhem</t>
+          <t>Roda JC</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Jong PSV Eindhoven</t>
+          <t>FC Dordrecht</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="G7" t="n">
         <v>2.1</v>
       </c>
       <c r="H7" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="I7" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="J7" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="K7" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="L7" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>6.4</v>
+        <v>5.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="P7" t="n">
-        <v>2.86</v>
+        <v>2.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="R7" t="n">
-        <v>1.76</v>
+        <v>1.6</v>
       </c>
       <c r="S7" t="n">
-        <v>2.12</v>
+        <v>2.5</v>
       </c>
       <c r="T7" t="n">
-        <v>1.52</v>
+        <v>1.61</v>
       </c>
       <c r="U7" t="n">
-        <v>2.78</v>
+        <v>2.52</v>
       </c>
       <c r="V7" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="W7" t="n">
         <v>1.9</v>
       </c>
       <c r="X7" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="Y7" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="Z7" t="n">
-        <v>980</v>
+        <v>100</v>
       </c>
       <c r="AA7" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AC7" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AD7" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AE7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AG7" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="AI7" t="n">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="AJ7" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AK7" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AL7" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="AM7" t="n">
         <v>580</v>
       </c>
       <c r="AN7" t="n">
-        <v>8.4</v>
+        <v>10</v>
       </c>
       <c r="AO7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
@@ -1468,118 +1468,118 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Roda JC</t>
+          <t>RKC Waalwijk</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>FC Dordrecht</t>
+          <t>MVV Maastricht</t>
         </is>
       </c>
       <c r="F8" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H8" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="I8" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="J8" t="n">
+        <v>6</v>
+      </c>
+      <c r="K8" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N8" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R8" t="n">
         <v>1.92</v>
       </c>
-      <c r="G8" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>4</v>
-      </c>
-      <c r="K8" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N8" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.59</v>
-      </c>
       <c r="S8" t="n">
-        <v>2.46</v>
+        <v>2.02</v>
       </c>
       <c r="T8" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="U8" t="n">
-        <v>2.48</v>
+        <v>2.22</v>
       </c>
       <c r="V8" t="n">
-        <v>1.32</v>
+        <v>1.11</v>
       </c>
       <c r="W8" t="n">
-        <v>1.96</v>
+        <v>3.55</v>
       </c>
       <c r="X8" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="Y8" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="Z8" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AB8" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>10.5</v>
+        <v>29</v>
       </c>
       <c r="AD8" t="n">
-        <v>16.5</v>
+        <v>980</v>
       </c>
       <c r="AE8" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AF8" t="n">
-        <v>15.5</v>
+        <v>12</v>
       </c>
       <c r="AG8" t="n">
         <v>11</v>
       </c>
       <c r="AH8" t="n">
-        <v>16.5</v>
+        <v>24</v>
       </c>
       <c r="AI8" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="AJ8" t="n">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="AK8" t="n">
-        <v>19</v>
+        <v>14.5</v>
       </c>
       <c r="AL8" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AM8" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>9.4</v>
+        <v>3.8</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1588,7 +1588,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1603,127 +1603,127 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>RKC Waalwijk</t>
+          <t>Bastia</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>MVV Maastricht</t>
+          <t>Laval</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.4</v>
+        <v>2.22</v>
       </c>
       <c r="G9" t="n">
-        <v>1.47</v>
+        <v>2.3</v>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>4.1</v>
       </c>
       <c r="I9" t="n">
-        <v>8.4</v>
+        <v>4.4</v>
       </c>
       <c r="J9" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S9" t="n">
         <v>5.5</v>
       </c>
-      <c r="K9" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N9" t="n">
-        <v>7</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2.04</v>
-      </c>
       <c r="T9" t="n">
-        <v>1.66</v>
+        <v>2.12</v>
       </c>
       <c r="U9" t="n">
-        <v>2.3</v>
+        <v>1.83</v>
       </c>
       <c r="V9" t="n">
-        <v>1.13</v>
+        <v>1.3</v>
       </c>
       <c r="W9" t="n">
-        <v>3.15</v>
+        <v>1.76</v>
       </c>
       <c r="X9" t="n">
-        <v>42</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y9" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>120</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>290</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>290</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>65</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>390</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>150</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>80</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>480</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>220</v>
+      </c>
+      <c r="AN9" t="n">
         <v>980</v>
       </c>
-      <c r="Z9" t="n">
-        <v>200</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>230</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>250</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>190</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>14</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>4.4</v>
-      </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Scottish League One</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,126 +1733,126 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Bastia</t>
+          <t>Alloa</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Laval</t>
+          <t>Inverness CT</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="G10" t="n">
-        <v>2.34</v>
+        <v>4.7</v>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>1.91</v>
       </c>
       <c r="I10" t="n">
-        <v>4.5</v>
+        <v>2.06</v>
       </c>
       <c r="J10" t="n">
-        <v>3.05</v>
+        <v>3.45</v>
       </c>
       <c r="K10" t="n">
-        <v>3.25</v>
+        <v>3.95</v>
       </c>
       <c r="L10" t="n">
-        <v>1.57</v>
+        <v>1.42</v>
       </c>
       <c r="M10" t="n">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>2.68</v>
+        <v>3.6</v>
       </c>
       <c r="O10" t="n">
-        <v>1.53</v>
+        <v>1.32</v>
       </c>
       <c r="P10" t="n">
-        <v>1.55</v>
+        <v>1.88</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.58</v>
+        <v>1.96</v>
       </c>
       <c r="R10" t="n">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="S10" t="n">
-        <v>5.3</v>
+        <v>3.4</v>
       </c>
       <c r="T10" t="n">
-        <v>2.12</v>
+        <v>1.79</v>
       </c>
       <c r="U10" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.29</v>
+        <v>1.94</v>
       </c>
       <c r="W10" t="n">
-        <v>1.74</v>
+        <v>1.27</v>
       </c>
       <c r="X10" t="n">
-        <v>8.800000000000001</v>
+        <v>980</v>
       </c>
       <c r="Y10" t="n">
-        <v>11.5</v>
+        <v>40</v>
       </c>
       <c r="Z10" t="n">
-        <v>120</v>
+        <v>980</v>
       </c>
       <c r="AA10" t="n">
-        <v>290</v>
+        <v>980</v>
       </c>
       <c r="AB10" t="n">
-        <v>7.2</v>
+        <v>980</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.4</v>
+        <v>42</v>
       </c>
       <c r="AD10" t="n">
-        <v>18.5</v>
+        <v>44</v>
       </c>
       <c r="AE10" t="n">
-        <v>290</v>
+        <v>130</v>
       </c>
       <c r="AF10" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AH10" t="n">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AI10" t="n">
-        <v>390</v>
+        <v>980</v>
       </c>
       <c r="AJ10" t="n">
-        <v>150</v>
+        <v>310</v>
       </c>
       <c r="AK10" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="AL10" t="n">
-        <v>480</v>
+        <v>230</v>
       </c>
       <c r="AM10" t="n">
-        <v>220</v>
+        <v>580</v>
       </c>
       <c r="AN10" t="n">
-        <v>980</v>
+        <v>300</v>
       </c>
       <c r="AO10" t="n">
-        <v>120</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11">
@@ -1882,49 +1882,49 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="H11" t="n">
         <v>2.6</v>
       </c>
       <c r="I11" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="J11" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K11" t="n">
         <v>3.6</v>
       </c>
       <c r="L11" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M11" t="n">
         <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="O11" t="n">
         <v>1.27</v>
       </c>
       <c r="P11" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R11" t="n">
         <v>1.43</v>
       </c>
       <c r="S11" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T11" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="U11" t="n">
         <v>2.38</v>
@@ -1933,7 +1933,7 @@
         <v>1.58</v>
       </c>
       <c r="W11" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X11" t="n">
         <v>16.5</v>
@@ -1948,7 +1948,7 @@
         <v>980</v>
       </c>
       <c r="AB11" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="AC11" t="n">
         <v>8.4</v>
@@ -1966,19 +1966,19 @@
         <v>13</v>
       </c>
       <c r="AH11" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI11" t="n">
         <v>150</v>
       </c>
       <c r="AJ11" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="AK11" t="n">
         <v>75</v>
       </c>
       <c r="AL11" t="n">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="AM11" t="n">
         <v>580</v>
@@ -1993,7 +1993,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Scottish League One</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2008,127 +2008,127 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Alloa</t>
+          <t>Partick</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Inverness CT</t>
+          <t>Dunfermline</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>4</v>
+        <v>1.85</v>
       </c>
       <c r="G12" t="n">
-        <v>4.8</v>
+        <v>2</v>
       </c>
       <c r="H12" t="n">
-        <v>1.91</v>
+        <v>4.9</v>
       </c>
       <c r="I12" t="n">
-        <v>2.1</v>
+        <v>5.6</v>
       </c>
       <c r="J12" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K12" t="n">
-        <v>3.95</v>
+        <v>3.65</v>
       </c>
       <c r="L12" t="n">
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N12" t="n">
-        <v>3.1</v>
+        <v>2.94</v>
       </c>
       <c r="O12" t="n">
-        <v>1.32</v>
+        <v>1.43</v>
       </c>
       <c r="P12" t="n">
-        <v>1.84</v>
+        <v>1.66</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.95</v>
+        <v>2.28</v>
       </c>
       <c r="R12" t="n">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="S12" t="n">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="T12" t="n">
-        <v>1.79</v>
+        <v>2</v>
       </c>
       <c r="U12" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="W12" t="n">
         <v>2</v>
       </c>
-      <c r="V12" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1.27</v>
-      </c>
       <c r="X12" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="Y12" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="AD12" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AE12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>40</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>70</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>85</v>
+      </c>
+      <c r="AL12" t="n">
         <v>130</v>
       </c>
-      <c r="AF12" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>980</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>310</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>200</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>230</v>
-      </c>
       <c r="AM12" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>300</v>
+        <v>55</v>
       </c>
       <c r="AO12" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Scottish Championship</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,126 +2138,126 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Partick</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Dunfermline</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="H13" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="I13" t="n">
-        <v>5.6</v>
+        <v>4.4</v>
       </c>
       <c r="J13" t="n">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="K13" t="n">
-        <v>3.65</v>
+        <v>3.95</v>
       </c>
       <c r="L13" t="n">
-        <v>1.42</v>
+        <v>1.34</v>
       </c>
       <c r="M13" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>2.92</v>
+        <v>5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.43</v>
+        <v>1.23</v>
       </c>
       <c r="P13" t="n">
-        <v>1.65</v>
+        <v>2.38</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.26</v>
+        <v>1.71</v>
       </c>
       <c r="R13" t="n">
-        <v>1.25</v>
+        <v>1.54</v>
       </c>
       <c r="S13" t="n">
-        <v>4.3</v>
+        <v>2.78</v>
       </c>
       <c r="T13" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="U13" t="n">
-        <v>1.83</v>
+        <v>2.42</v>
       </c>
       <c r="V13" t="n">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="W13" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="X13" t="n">
         <v>19.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Z13" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AB13" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AC13" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AD13" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AF13" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>40</v>
+        <v>10.5</v>
       </c>
       <c r="AH13" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>27</v>
+      </c>
+      <c r="AM13" t="n">
         <v>70</v>
       </c>
-      <c r="AI13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>85</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>130</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>1000</v>
-      </c>
       <c r="AN13" t="n">
-        <v>55</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14">
@@ -2278,121 +2278,121 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Bodo Glimt</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.93</v>
+        <v>3.35</v>
       </c>
       <c r="G14" t="n">
-        <v>1.95</v>
+        <v>3.4</v>
       </c>
       <c r="H14" t="n">
-        <v>4.3</v>
+        <v>2.22</v>
       </c>
       <c r="I14" t="n">
-        <v>4.4</v>
+        <v>2.24</v>
       </c>
       <c r="J14" t="n">
         <v>3.9</v>
       </c>
       <c r="K14" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L14" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="O14" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P14" t="n">
-        <v>2.38</v>
+        <v>2.46</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R14" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="S14" t="n">
-        <v>2.78</v>
+        <v>2.68</v>
       </c>
       <c r="T14" t="n">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="U14" t="n">
-        <v>2.42</v>
+        <v>2.58</v>
       </c>
       <c r="V14" t="n">
-        <v>1.29</v>
+        <v>1.8</v>
       </c>
       <c r="W14" t="n">
-        <v>2.04</v>
+        <v>1.41</v>
       </c>
       <c r="X14" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE14" t="n">
         <v>20</v>
       </c>
-      <c r="Y14" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>80</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>46</v>
-      </c>
       <c r="AF14" t="n">
-        <v>13.5</v>
+        <v>26</v>
       </c>
       <c r="AG14" t="n">
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI14" t="n">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="AJ14" t="n">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="AK14" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="AL14" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="AM14" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AN14" t="n">
-        <v>9.800000000000001</v>
+        <v>24</v>
       </c>
       <c r="AO14" t="n">
-        <v>36</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="15">
@@ -2413,121 +2413,121 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Bodo Glimt</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.35</v>
+        <v>2.32</v>
       </c>
       <c r="G15" t="n">
-        <v>3.4</v>
+        <v>2.34</v>
       </c>
       <c r="H15" t="n">
-        <v>2.22</v>
+        <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>2.24</v>
+        <v>3.1</v>
       </c>
       <c r="J15" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="K15" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="L15" t="n">
-        <v>1.32</v>
+        <v>1.24</v>
       </c>
       <c r="M15" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>5.3</v>
+        <v>8</v>
       </c>
       <c r="O15" t="n">
-        <v>1.22</v>
+        <v>1.13</v>
       </c>
       <c r="P15" t="n">
-        <v>2.44</v>
+        <v>3.3</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.68</v>
+        <v>1.42</v>
       </c>
       <c r="R15" t="n">
-        <v>1.58</v>
+        <v>1.95</v>
       </c>
       <c r="S15" t="n">
-        <v>2.68</v>
+        <v>2.02</v>
       </c>
       <c r="T15" t="n">
-        <v>1.59</v>
+        <v>1.41</v>
       </c>
       <c r="U15" t="n">
-        <v>2.58</v>
+        <v>3.25</v>
       </c>
       <c r="V15" t="n">
-        <v>1.8</v>
+        <v>1.48</v>
       </c>
       <c r="W15" t="n">
-        <v>1.41</v>
+        <v>1.74</v>
       </c>
       <c r="X15" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF15" t="n">
         <v>22</v>
       </c>
-      <c r="Y15" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>16</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>28</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>20</v>
-      </c>
-      <c r="AF15" t="n">
+      <c r="AG15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AI15" t="n">
         <v>26</v>
       </c>
-      <c r="AG15" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>28</v>
-      </c>
       <c r="AJ15" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="AK15" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AL15" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="AM15" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="AN15" t="n">
-        <v>24</v>
+        <v>8.6</v>
       </c>
       <c r="AO15" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="16">
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Leverkusen</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.36</v>
+        <v>1.25</v>
       </c>
       <c r="G16" t="n">
-        <v>2.38</v>
+        <v>1.26</v>
       </c>
       <c r="H16" t="n">
-        <v>2.96</v>
+        <v>14.5</v>
       </c>
       <c r="I16" t="n">
-        <v>2.98</v>
+        <v>15</v>
       </c>
       <c r="J16" t="n">
-        <v>4.1</v>
+        <v>7.4</v>
       </c>
       <c r="K16" t="n">
-        <v>4.2</v>
+        <v>7.6</v>
       </c>
       <c r="L16" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="M16" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N16" t="n">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="O16" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="P16" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="R16" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="S16" t="n">
         <v>1.94</v>
       </c>
-      <c r="S16" t="n">
-        <v>2.02</v>
-      </c>
       <c r="T16" t="n">
-        <v>1.41</v>
+        <v>1.85</v>
       </c>
       <c r="U16" t="n">
-        <v>3.25</v>
+        <v>2.08</v>
       </c>
       <c r="V16" t="n">
-        <v>1.5</v>
+        <v>1.07</v>
       </c>
       <c r="W16" t="n">
-        <v>1.72</v>
+        <v>4.8</v>
       </c>
       <c r="X16" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="Y16" t="n">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="Z16" t="n">
-        <v>27</v>
+        <v>150</v>
       </c>
       <c r="AA16" t="n">
-        <v>48</v>
+        <v>540</v>
       </c>
       <c r="AB16" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AC16" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>180</v>
+      </c>
+      <c r="AF16" t="n">
         <v>10.5</v>
       </c>
-      <c r="AD16" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>22</v>
-      </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH16" t="n">
-        <v>12.5</v>
+        <v>28</v>
       </c>
       <c r="AI16" t="n">
-        <v>26</v>
+        <v>140</v>
       </c>
       <c r="AJ16" t="n">
-        <v>36</v>
+        <v>10.5</v>
       </c>
       <c r="AK16" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="AL16" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AM16" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="AN16" t="n">
-        <v>9</v>
+        <v>3.1</v>
       </c>
       <c r="AO16" t="n">
-        <v>12.5</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17">
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Leverkusen</t>
+          <t>Qarabag FK</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="G17" t="n">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="H17" t="n">
-        <v>14.5</v>
+        <v>11.5</v>
       </c>
       <c r="I17" t="n">
-        <v>15.5</v>
+        <v>12</v>
       </c>
       <c r="J17" t="n">
-        <v>7.4</v>
+        <v>6.4</v>
       </c>
       <c r="K17" t="n">
-        <v>7.6</v>
+        <v>6.6</v>
       </c>
       <c r="L17" t="n">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="M17" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>8.4</v>
+        <v>5.6</v>
       </c>
       <c r="O17" t="n">
-        <v>1.12</v>
+        <v>1.2</v>
       </c>
       <c r="P17" t="n">
-        <v>3.5</v>
+        <v>2.56</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.37</v>
+        <v>1.61</v>
       </c>
       <c r="R17" t="n">
-        <v>2.02</v>
+        <v>1.62</v>
       </c>
       <c r="S17" t="n">
-        <v>1.93</v>
+        <v>2.56</v>
       </c>
       <c r="T17" t="n">
-        <v>1.86</v>
+        <v>2.06</v>
       </c>
       <c r="U17" t="n">
-        <v>2.08</v>
+        <v>1.9</v>
       </c>
       <c r="V17" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="W17" t="n">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="X17" t="n">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="Y17" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="Z17" t="n">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="AA17" t="n">
-        <v>540</v>
+        <v>430</v>
       </c>
       <c r="AB17" t="n">
-        <v>15</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC17" t="n">
-        <v>17.5</v>
+        <v>14</v>
       </c>
       <c r="AD17" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AE17" t="n">
         <v>180</v>
       </c>
       <c r="AF17" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AG17" t="n">
         <v>10.5</v>
       </c>
-      <c r="AG17" t="n">
-        <v>12</v>
-      </c>
       <c r="AH17" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI17" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AJ17" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AK17" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AL17" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AM17" t="n">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="AN17" t="n">
-        <v>3.15</v>
+        <v>4.7</v>
       </c>
       <c r="AO17" t="n">
-        <v>140</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18">
@@ -2818,121 +2818,121 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Qarabag FK</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.32</v>
+        <v>3</v>
       </c>
       <c r="G18" t="n">
-        <v>1.33</v>
+        <v>3.05</v>
       </c>
       <c r="H18" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N18" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X18" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD18" t="n">
         <v>11.5</v>
       </c>
-      <c r="I18" t="n">
-        <v>12</v>
-      </c>
-      <c r="J18" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="K18" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N18" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="S18" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="W18" t="n">
-        <v>4</v>
-      </c>
-      <c r="X18" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>110</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>440</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>40</v>
-      </c>
       <c r="AE18" t="n">
-        <v>180</v>
+        <v>25</v>
       </c>
       <c r="AF18" t="n">
-        <v>8.199999999999999</v>
+        <v>21</v>
       </c>
       <c r="AG18" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>28</v>
+        <v>14.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="AJ18" t="n">
-        <v>10.5</v>
+        <v>46</v>
       </c>
       <c r="AK18" t="n">
-        <v>13.5</v>
+        <v>29</v>
       </c>
       <c r="AL18" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AM18" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="AN18" t="n">
-        <v>4.7</v>
+        <v>24</v>
       </c>
       <c r="AO18" t="n">
-        <v>180</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
@@ -2953,127 +2953,127 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Slavia Prague</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Athletic Bilbao</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="G19" t="n">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="H19" t="n">
-        <v>2.58</v>
+        <v>2.4</v>
       </c>
       <c r="I19" t="n">
-        <v>2.6</v>
+        <v>2.42</v>
       </c>
       <c r="J19" t="n">
         <v>3.5</v>
       </c>
       <c r="K19" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L19" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N19" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R19" t="n">
         <v>1.35</v>
       </c>
-      <c r="M19" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N19" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.47</v>
-      </c>
       <c r="S19" t="n">
-        <v>3.05</v>
+        <v>3.7</v>
       </c>
       <c r="T19" t="n">
-        <v>1.66</v>
+        <v>1.8</v>
       </c>
       <c r="U19" t="n">
-        <v>2.42</v>
+        <v>2.16</v>
       </c>
       <c r="V19" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="W19" t="n">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="X19" t="n">
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Z19" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AA19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK19" t="n">
         <v>38</v>
       </c>
-      <c r="AB19" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF19" t="n">
+      <c r="AL19" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>95</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>36</v>
+      </c>
+      <c r="AO19" t="n">
         <v>21</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>46</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>24</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,126 +3083,126 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Slavia Prague</t>
+          <t>Atletico MG</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Athletic Bilbao</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.25</v>
+        <v>4.6</v>
       </c>
       <c r="G20" t="n">
-        <v>3.35</v>
+        <v>5</v>
       </c>
       <c r="H20" t="n">
-        <v>2.4</v>
+        <v>1.89</v>
       </c>
       <c r="I20" t="n">
-        <v>2.42</v>
+        <v>1.94</v>
       </c>
       <c r="J20" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K20" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="L20" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="M20" t="n">
         <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="O20" t="n">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="P20" t="n">
-        <v>1.94</v>
+        <v>1.8</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.04</v>
+        <v>2.18</v>
       </c>
       <c r="R20" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="S20" t="n">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
       <c r="T20" t="n">
-        <v>1.8</v>
+        <v>1.97</v>
       </c>
       <c r="U20" t="n">
-        <v>2.16</v>
+        <v>1.92</v>
       </c>
       <c r="V20" t="n">
-        <v>1.7</v>
+        <v>2.06</v>
       </c>
       <c r="W20" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="X20" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="Y20" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD20" t="n">
         <v>10.5</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>11</v>
       </c>
       <c r="AE20" t="n">
         <v>26</v>
       </c>
       <c r="AF20" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG20" t="n">
         <v>22</v>
       </c>
-      <c r="AG20" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AH20" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AI20" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AJ20" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AK20" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AL20" t="n">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="AM20" t="n">
-        <v>95</v>
+        <v>170</v>
       </c>
       <c r="AN20" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AO20" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21">
@@ -3232,10 +3232,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="G21" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="H21" t="n">
         <v>3.4</v>
@@ -3244,7 +3244,7 @@
         <v>3.5</v>
       </c>
       <c r="J21" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K21" t="n">
         <v>3.4</v>
@@ -3256,58 +3256,58 @@
         <v>1.09</v>
       </c>
       <c r="N21" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O21" t="n">
         <v>1.42</v>
       </c>
       <c r="P21" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="R21" t="n">
         <v>1.28</v>
       </c>
       <c r="S21" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T21" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="U21" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="V21" t="n">
         <v>1.4</v>
       </c>
       <c r="W21" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="X21" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y21" t="n">
         <v>11.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AA21" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB21" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AC21" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD21" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AF21" t="n">
         <v>14</v>
@@ -3319,10 +3319,10 @@
         <v>19.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ21" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AK21" t="n">
         <v>28</v>
@@ -3334,16 +3334,16 @@
         <v>130</v>
       </c>
       <c r="AN21" t="n">
+        <v>27</v>
+      </c>
+      <c r="AO21" t="n">
         <v>1000</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>55</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3358,255 +3358,120 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Atletico MG</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Tolima</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>4.5</v>
+        <v>2.38</v>
       </c>
       <c r="G22" t="n">
-        <v>4.8</v>
+        <v>2.62</v>
       </c>
       <c r="H22" t="n">
-        <v>1.91</v>
+        <v>3.5</v>
       </c>
       <c r="I22" t="n">
+        <v>4</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N22" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U22" t="n">
         <v>1.98</v>
       </c>
-      <c r="J22" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K22" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N22" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S22" t="n">
-        <v>4</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.93</v>
-      </c>
       <c r="V22" t="n">
-        <v>2.02</v>
+        <v>1.33</v>
       </c>
       <c r="W22" t="n">
-        <v>1.26</v>
+        <v>1.61</v>
       </c>
       <c r="X22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y22" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="Z22" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AA22" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>14.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD22" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AE22" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG22" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH22" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI22" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM22" t="n">
         <v>140</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>70</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>170</v>
       </c>
       <c r="AN22" t="n">
         <v>1000</v>
       </c>
       <c r="AO22" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2025-11-25</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>21:30:00</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Santa Fe</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Tolima</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="G23" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="H23" t="n">
-        <v>4</v>
-      </c>
-      <c r="I23" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K23" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N23" t="n">
-        <v>3</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S23" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="W23" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="X23" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO23" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-25.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="G2" t="n">
         <v>1.4</v>
@@ -676,13 +676,13 @@
         <v>12</v>
       </c>
       <c r="I2" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="J2" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="K2" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="L2" t="n">
         <v>1.43</v>
@@ -691,22 +691,22 @@
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O2" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P2" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R2" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S2" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="T2" t="n">
         <v>2.42</v>
@@ -721,19 +721,19 @@
         <v>3.5</v>
       </c>
       <c r="X2" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y2" t="n">
         <v>32</v>
       </c>
       <c r="Z2" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AA2" t="n">
-        <v>650</v>
+        <v>560</v>
       </c>
       <c r="AB2" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AC2" t="n">
         <v>11.5</v>
@@ -742,22 +742,22 @@
         <v>46</v>
       </c>
       <c r="AE2" t="n">
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="AF2" t="n">
         <v>7</v>
       </c>
       <c r="AG2" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH2" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AI2" t="n">
         <v>260</v>
       </c>
       <c r="AJ2" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AK2" t="n">
         <v>17</v>
@@ -766,13 +766,13 @@
         <v>55</v>
       </c>
       <c r="AM2" t="n">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="AN2" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AO2" t="n">
-        <v>530</v>
+        <v>470</v>
       </c>
     </row>
     <row r="3">
@@ -802,13 +802,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="G3" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="H3" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="I3" t="n">
         <v>2.14</v>
@@ -823,43 +823,43 @@
         <v>1.36</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="O3" t="n">
         <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="R3" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="S3" t="n">
-        <v>2.98</v>
+        <v>2.86</v>
       </c>
       <c r="T3" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="U3" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="V3" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="W3" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="X3" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Z3" t="n">
         <v>14</v>
@@ -868,10 +868,10 @@
         <v>25</v>
       </c>
       <c r="AB3" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD3" t="n">
         <v>10.5</v>
@@ -880,34 +880,34 @@
         <v>19.5</v>
       </c>
       <c r="AF3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ3" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AK3" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AL3" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM3" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN3" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AO3" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="4">
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="G4" t="n">
         <v>1.79</v>
       </c>
-      <c r="G4" t="n">
-        <v>1.8</v>
-      </c>
       <c r="H4" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I4" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J4" t="n">
         <v>4.3</v>
@@ -955,7 +955,7 @@
         <v>4.4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M4" t="n">
         <v>1.04</v>
@@ -967,55 +967,55 @@
         <v>1.18</v>
       </c>
       <c r="P4" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="Q4" t="n">
         <v>1.57</v>
       </c>
       <c r="R4" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="S4" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="T4" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="U4" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="V4" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W4" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="X4" t="n">
         <v>26</v>
       </c>
       <c r="Y4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z4" t="n">
         <v>40</v>
       </c>
       <c r="AA4" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AB4" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC4" t="n">
         <v>10</v>
       </c>
       <c r="AD4" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AF4" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG4" t="n">
         <v>10</v>
@@ -1024,25 +1024,25 @@
         <v>15</v>
       </c>
       <c r="AI4" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AJ4" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AK4" t="n">
         <v>15.5</v>
       </c>
       <c r="AL4" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AM4" t="n">
         <v>60</v>
       </c>
       <c r="AN4" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AO4" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="G5" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="H5" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="I5" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="J5" t="n">
         <v>5.5</v>
       </c>
       <c r="K5" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="L5" t="n">
         <v>1.2</v>
@@ -1102,28 +1102,28 @@
         <v>1.1</v>
       </c>
       <c r="P5" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="R5" t="n">
         <v>2.12</v>
       </c>
       <c r="S5" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T5" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="U5" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="V5" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W5" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="X5" t="n">
         <v>250</v>
@@ -1135,13 +1135,13 @@
         <v>220</v>
       </c>
       <c r="AA5" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AB5" t="n">
         <v>20</v>
       </c>
       <c r="AC5" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AD5" t="n">
         <v>170</v>
@@ -1150,7 +1150,7 @@
         <v>510</v>
       </c>
       <c r="AF5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG5" t="n">
         <v>19</v>
@@ -1174,10 +1174,10 @@
         <v>250</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="AO5" t="n">
-        <v>980</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6">
@@ -1210,22 +1210,22 @@
         <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="H6" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="I6" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="J6" t="n">
         <v>4.2</v>
       </c>
       <c r="K6" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L6" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
@@ -1237,13 +1237,13 @@
         <v>1.15</v>
       </c>
       <c r="P6" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="R6" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="S6" t="n">
         <v>2.18</v>
@@ -1258,7 +1258,7 @@
         <v>1.37</v>
       </c>
       <c r="W6" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="X6" t="n">
         <v>980</v>
@@ -1273,7 +1273,7 @@
         <v>160</v>
       </c>
       <c r="AB6" t="n">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="AC6" t="n">
         <v>22</v>
@@ -1294,22 +1294,22 @@
         <v>15.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>85</v>
+        <v>980</v>
       </c>
       <c r="AJ6" t="n">
         <v>65</v>
       </c>
       <c r="AK6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL6" t="n">
         <v>980</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>48</v>
       </c>
       <c r="AM6" t="n">
         <v>580</v>
       </c>
       <c r="AN6" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AO6" t="n">
         <v>980</v>
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="H7" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="I7" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="J7" t="n">
         <v>4</v>
@@ -1366,19 +1366,19 @@
         <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="O7" t="n">
         <v>1.2</v>
       </c>
       <c r="P7" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="Q7" t="n">
         <v>1.6</v>
       </c>
       <c r="R7" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="S7" t="n">
         <v>2.5</v>
@@ -1393,7 +1393,7 @@
         <v>1.35</v>
       </c>
       <c r="W7" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="X7" t="n">
         <v>55</v>
@@ -1402,7 +1402,7 @@
         <v>44</v>
       </c>
       <c r="Z7" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
@@ -1414,7 +1414,7 @@
         <v>10</v>
       </c>
       <c r="AD7" t="n">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
@@ -1432,10 +1432,10 @@
         <v>120</v>
       </c>
       <c r="AJ7" t="n">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="AK7" t="n">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="AL7" t="n">
         <v>60</v>
@@ -1444,10 +1444,10 @@
         <v>580</v>
       </c>
       <c r="AN7" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="8">
@@ -1477,58 +1477,58 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="G8" t="n">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="H8" t="n">
-        <v>8.4</v>
+        <v>10</v>
       </c>
       <c r="I8" t="n">
-        <v>9.6</v>
+        <v>12</v>
       </c>
       <c r="J8" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="K8" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="L8" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="M8" t="n">
         <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="P8" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="R8" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="S8" t="n">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="T8" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="U8" t="n">
-        <v>2.22</v>
+        <v>2.12</v>
       </c>
       <c r="V8" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="W8" t="n">
-        <v>3.55</v>
+        <v>4.1</v>
       </c>
       <c r="X8" t="n">
         <v>980</v>
@@ -1540,10 +1540,10 @@
         <v>110</v>
       </c>
       <c r="AA8" t="n">
-        <v>300</v>
+        <v>390</v>
       </c>
       <c r="AB8" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC8" t="n">
         <v>29</v>
@@ -1552,25 +1552,25 @@
         <v>980</v>
       </c>
       <c r="AE8" t="n">
-        <v>130</v>
+        <v>290</v>
       </c>
       <c r="AF8" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG8" t="n">
         <v>11</v>
       </c>
       <c r="AH8" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AI8" t="n">
         <v>200</v>
       </c>
       <c r="AJ8" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AL8" t="n">
         <v>80</v>
@@ -1579,7 +1579,7 @@
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1612,73 +1612,73 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="G9" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="H9" t="n">
         <v>4.1</v>
       </c>
       <c r="I9" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J9" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K9" t="n">
         <v>3.25</v>
       </c>
       <c r="L9" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="M9" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N9" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Q9" t="n">
         <v>2.72</v>
       </c>
-      <c r="O9" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.66</v>
-      </c>
       <c r="R9" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="S9" t="n">
         <v>5.5</v>
       </c>
       <c r="T9" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="U9" t="n">
         <v>1.83</v>
       </c>
       <c r="V9" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W9" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="X9" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="Y9" t="n">
         <v>11.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AA9" t="n">
         <v>290</v>
       </c>
       <c r="AB9" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AC9" t="n">
         <v>7.2</v>
@@ -1690,7 +1690,7 @@
         <v>290</v>
       </c>
       <c r="AF9" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG9" t="n">
         <v>12</v>
@@ -1714,10 +1714,10 @@
         <v>220</v>
       </c>
       <c r="AN9" t="n">
-        <v>980</v>
+        <v>600</v>
       </c>
       <c r="AO9" t="n">
-        <v>120</v>
+        <v>600</v>
       </c>
     </row>
     <row r="10">
@@ -1747,64 +1747,64 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="G10" t="n">
-        <v>4.7</v>
+        <v>5.6</v>
       </c>
       <c r="H10" t="n">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
       <c r="I10" t="n">
-        <v>2.06</v>
+        <v>1.84</v>
       </c>
       <c r="J10" t="n">
-        <v>3.45</v>
+        <v>3.9</v>
       </c>
       <c r="K10" t="n">
-        <v>3.95</v>
+        <v>4.5</v>
       </c>
       <c r="L10" t="n">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="O10" t="n">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="P10" t="n">
-        <v>1.88</v>
+        <v>2.14</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.96</v>
+        <v>1.74</v>
       </c>
       <c r="R10" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="S10" t="n">
-        <v>3.4</v>
+        <v>2.84</v>
       </c>
       <c r="T10" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="U10" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="V10" t="n">
-        <v>1.94</v>
+        <v>2.16</v>
       </c>
       <c r="W10" t="n">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
       <c r="X10" t="n">
         <v>980</v>
       </c>
       <c r="Y10" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="Z10" t="n">
         <v>980</v>
@@ -1825,7 +1825,7 @@
         <v>130</v>
       </c>
       <c r="AF10" t="n">
-        <v>980</v>
+        <v>150</v>
       </c>
       <c r="AG10" t="n">
         <v>980</v>
@@ -1837,22 +1837,22 @@
         <v>980</v>
       </c>
       <c r="AJ10" t="n">
-        <v>310</v>
+        <v>140</v>
       </c>
       <c r="AK10" t="n">
+        <v>210</v>
+      </c>
+      <c r="AL10" t="n">
         <v>200</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>230</v>
       </c>
       <c r="AM10" t="n">
         <v>580</v>
       </c>
       <c r="AN10" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="AO10" t="n">
-        <v>85</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11">
@@ -1885,22 +1885,22 @@
         <v>2.86</v>
       </c>
       <c r="G11" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="H11" t="n">
         <v>2.6</v>
       </c>
       <c r="I11" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="J11" t="n">
         <v>3.5</v>
       </c>
       <c r="K11" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L11" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M11" t="n">
         <v>1.06</v>
@@ -1915,10 +1915,10 @@
         <v>2.14</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R11" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S11" t="n">
         <v>3.1</v>
@@ -1972,7 +1972,7 @@
         <v>150</v>
       </c>
       <c r="AJ11" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="AK11" t="n">
         <v>75</v>
@@ -1984,7 +1984,7 @@
         <v>580</v>
       </c>
       <c r="AN11" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AO11" t="n">
         <v>55</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="H12" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="I12" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="J12" t="n">
         <v>3.25</v>
@@ -2035,43 +2035,43 @@
         <v>3.65</v>
       </c>
       <c r="L12" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="M12" t="n">
         <v>1.1</v>
       </c>
       <c r="N12" t="n">
-        <v>2.94</v>
+        <v>3.1</v>
       </c>
       <c r="O12" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="P12" t="n">
-        <v>1.66</v>
+        <v>1.72</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="R12" t="n">
         <v>1.25</v>
       </c>
       <c r="S12" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
       </c>
       <c r="U12" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="V12" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="W12" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="X12" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y12" t="n">
         <v>1000</v>
@@ -2095,10 +2095,10 @@
         <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AG12" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="AH12" t="n">
         <v>70</v>
@@ -2113,7 +2113,7 @@
         <v>85</v>
       </c>
       <c r="AL12" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
         <v>1000</v>
@@ -2167,7 +2167,7 @@
         <v>3.9</v>
       </c>
       <c r="K13" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L13" t="n">
         <v>1.34</v>
@@ -2185,16 +2185,16 @@
         <v>2.38</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="R13" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S13" t="n">
         <v>2.78</v>
       </c>
       <c r="T13" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="U13" t="n">
         <v>2.42</v>
@@ -2209,7 +2209,7 @@
         <v>19.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Z13" t="n">
         <v>34</v>
@@ -2230,7 +2230,7 @@
         <v>44</v>
       </c>
       <c r="AF13" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG13" t="n">
         <v>10.5</v>
@@ -2239,7 +2239,7 @@
         <v>16</v>
       </c>
       <c r="AI13" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ13" t="n">
         <v>21</v>
@@ -2287,10 +2287,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="G14" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="H14" t="n">
         <v>2.22</v>
@@ -2299,10 +2299,10 @@
         <v>2.24</v>
       </c>
       <c r="J14" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K14" t="n">
         <v>3.9</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3.95</v>
       </c>
       <c r="L14" t="n">
         <v>1.32</v>
@@ -2323,25 +2323,25 @@
         <v>1.67</v>
       </c>
       <c r="R14" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="S14" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="T14" t="n">
         <v>1.59</v>
       </c>
       <c r="U14" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="V14" t="n">
         <v>1.8</v>
       </c>
       <c r="W14" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="X14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y14" t="n">
         <v>13.5</v>
@@ -2356,13 +2356,13 @@
         <v>18</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD14" t="n">
         <v>11</v>
       </c>
       <c r="AE14" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AF14" t="n">
         <v>26</v>
@@ -2371,7 +2371,7 @@
         <v>14.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AI14" t="n">
         <v>27</v>
@@ -2389,7 +2389,7 @@
         <v>60</v>
       </c>
       <c r="AN14" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO14" t="n">
         <v>11.5</v>
@@ -2428,7 +2428,7 @@
         <v>2.34</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I15" t="n">
         <v>3.1</v>
@@ -2440,34 +2440,34 @@
         <v>4.2</v>
       </c>
       <c r="L15" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="M15" t="n">
         <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="O15" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="P15" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="R15" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="S15" t="n">
-        <v>2.02</v>
+        <v>2.16</v>
       </c>
       <c r="T15" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="U15" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="V15" t="n">
         <v>1.48</v>
@@ -2476,58 +2476,58 @@
         <v>1.74</v>
       </c>
       <c r="X15" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Y15" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Z15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA15" t="n">
         <v>50</v>
       </c>
       <c r="AB15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC15" t="n">
         <v>10.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AF15" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH15" t="n">
         <v>12.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AJ15" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AK15" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AL15" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AM15" t="n">
         <v>38</v>
       </c>
       <c r="AN15" t="n">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="AO15" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="16">
@@ -2557,58 +2557,58 @@
         </is>
       </c>
       <c r="F16" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G16" t="n">
         <v>1.25</v>
       </c>
-      <c r="G16" t="n">
-        <v>1.26</v>
-      </c>
       <c r="H16" t="n">
+        <v>14</v>
+      </c>
+      <c r="I16" t="n">
         <v>14.5</v>
       </c>
-      <c r="I16" t="n">
-        <v>15</v>
-      </c>
       <c r="J16" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="K16" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="L16" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="M16" t="n">
         <v>1.02</v>
       </c>
       <c r="N16" t="n">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="O16" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="P16" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="R16" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="S16" t="n">
-        <v>1.94</v>
+        <v>1.86</v>
       </c>
       <c r="T16" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="U16" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="V16" t="n">
         <v>1.07</v>
       </c>
       <c r="W16" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="X16" t="n">
         <v>44</v>
@@ -2620,22 +2620,22 @@
         <v>150</v>
       </c>
       <c r="AA16" t="n">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="AB16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AC16" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AD16" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AE16" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AF16" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AG16" t="n">
         <v>12</v>
@@ -2644,10 +2644,10 @@
         <v>28</v>
       </c>
       <c r="AI16" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AJ16" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AK16" t="n">
         <v>12</v>
@@ -2656,13 +2656,13 @@
         <v>28</v>
       </c>
       <c r="AM16" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN16" t="n">
-        <v>3.1</v>
+        <v>2.98</v>
       </c>
       <c r="AO16" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17">
@@ -2710,43 +2710,43 @@
         <v>6.6</v>
       </c>
       <c r="L17" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M17" t="n">
         <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="O17" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P17" t="n">
-        <v>2.56</v>
+        <v>2.7</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.61</v>
+        <v>1.56</v>
       </c>
       <c r="R17" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S17" t="n">
-        <v>2.56</v>
+        <v>2.42</v>
       </c>
       <c r="T17" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="U17" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="V17" t="n">
         <v>1.09</v>
       </c>
       <c r="W17" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="X17" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Y17" t="n">
         <v>40</v>
@@ -2755,10 +2755,10 @@
         <v>110</v>
       </c>
       <c r="AA17" t="n">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="AB17" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AC17" t="n">
         <v>14</v>
@@ -2770,31 +2770,31 @@
         <v>180</v>
       </c>
       <c r="AF17" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AG17" t="n">
         <v>10.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI17" t="n">
         <v>130</v>
       </c>
       <c r="AJ17" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AK17" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AL17" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM17" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AN17" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="AO17" t="n">
         <v>190</v>
@@ -2827,16 +2827,16 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G18" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H18" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="I18" t="n">
         <v>2.58</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2.6</v>
       </c>
       <c r="J18" t="n">
         <v>3.5</v>
@@ -2851,37 +2851,37 @@
         <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O18" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P18" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="R18" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="S18" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="T18" t="n">
         <v>1.65</v>
       </c>
       <c r="U18" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="V18" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="W18" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="X18" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y18" t="n">
         <v>13</v>
@@ -2893,7 +2893,7 @@
         <v>36</v>
       </c>
       <c r="AB18" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC18" t="n">
         <v>7.8</v>
@@ -2908,13 +2908,13 @@
         <v>21</v>
       </c>
       <c r="AG18" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH18" t="n">
         <v>14.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ18" t="n">
         <v>46</v>
@@ -2923,16 +2923,16 @@
         <v>29</v>
       </c>
       <c r="AL18" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM18" t="n">
         <v>70</v>
       </c>
       <c r="AN18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO18" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="19">
@@ -2965,37 +2965,37 @@
         <v>3.25</v>
       </c>
       <c r="G19" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="H19" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="I19" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="J19" t="n">
         <v>3.5</v>
       </c>
       <c r="K19" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L19" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M19" t="n">
         <v>1.08</v>
       </c>
       <c r="N19" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="O19" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P19" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R19" t="n">
         <v>1.35</v>
@@ -3004,13 +3004,13 @@
         <v>3.7</v>
       </c>
       <c r="T19" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="U19" t="n">
         <v>2.16</v>
       </c>
       <c r="V19" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="W19" t="n">
         <v>1.43</v>
@@ -3040,10 +3040,10 @@
         <v>26</v>
       </c>
       <c r="AF19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG19" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH19" t="n">
         <v>17</v>
@@ -3100,19 +3100,19 @@
         <v>4.6</v>
       </c>
       <c r="G20" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H20" t="n">
         <v>1.89</v>
       </c>
       <c r="I20" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="J20" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K20" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L20" t="n">
         <v>1.47</v>
@@ -3133,7 +3133,7 @@
         <v>2.18</v>
       </c>
       <c r="R20" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S20" t="n">
         <v>4.1</v>
@@ -3142,7 +3142,7 @@
         <v>1.97</v>
       </c>
       <c r="U20" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V20" t="n">
         <v>2.06</v>
@@ -3151,55 +3151,55 @@
         <v>1.25</v>
       </c>
       <c r="X20" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y20" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z20" t="n">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AB20" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD20" t="n">
         <v>10.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AF20" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AG20" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AH20" t="n">
         <v>22</v>
       </c>
-      <c r="AH20" t="n">
-        <v>23</v>
-      </c>
       <c r="AI20" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AJ20" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AK20" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL20" t="n">
+        <v>95</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN20" t="n">
         <v>100</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>170</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>1000</v>
       </c>
       <c r="AO20" t="n">
         <v>16</v>
@@ -3238,16 +3238,16 @@
         <v>2.46</v>
       </c>
       <c r="H21" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I21" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="J21" t="n">
         <v>3.3</v>
       </c>
       <c r="K21" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L21" t="n">
         <v>1.48</v>
@@ -3265,7 +3265,7 @@
         <v>1.75</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="R21" t="n">
         <v>1.28</v>
@@ -3274,19 +3274,19 @@
         <v>4.3</v>
       </c>
       <c r="T21" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="U21" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="V21" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="W21" t="n">
         <v>1.68</v>
       </c>
       <c r="X21" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Y21" t="n">
         <v>11.5</v>
@@ -3298,19 +3298,19 @@
         <v>65</v>
       </c>
       <c r="AB21" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AC21" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AE21" t="n">
         <v>42</v>
       </c>
       <c r="AF21" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AG21" t="n">
         <v>11.5</v>
@@ -3325,7 +3325,7 @@
         <v>34</v>
       </c>
       <c r="AK21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL21" t="n">
         <v>48</v>
@@ -3337,7 +3337,7 @@
         <v>27</v>
       </c>
       <c r="AO21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="22">
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="G22" t="n">
         <v>2.62</v>
       </c>
       <c r="H22" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I22" t="n">
         <v>4</v>
       </c>
       <c r="J22" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="K22" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="L22" t="n">
         <v>1.49</v>
@@ -3397,22 +3397,22 @@
         <v>1.41</v>
       </c>
       <c r="P22" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="Q22" t="n">
         <v>2.26</v>
       </c>
       <c r="R22" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S22" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T22" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="U22" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="V22" t="n">
         <v>1.33</v>
@@ -3421,7 +3421,7 @@
         <v>1.61</v>
       </c>
       <c r="X22" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="Y22" t="n">
         <v>1000</v>
@@ -3451,7 +3451,7 @@
         <v>1000</v>
       </c>
       <c r="AH22" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI22" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-25.xlsx
@@ -667,46 +667,46 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="G2" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="H2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I2" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="J2" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="K2" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="L2" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.75</v>
+        <v>3.35</v>
       </c>
       <c r="O2" t="n">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="P2" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="Q2" t="n">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="R2" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="S2" t="n">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
       <c r="T2" t="n">
         <v>2.42</v>
@@ -715,61 +715,61 @@
         <v>1.62</v>
       </c>
       <c r="V2" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="W2" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="X2" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Z2" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
         <v>560</v>
       </c>
       <c r="AB2" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AC2" t="n">
         <v>11.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="AE2" t="n">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="AF2" t="n">
         <v>7</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AI2" t="n">
         <v>260</v>
       </c>
       <c r="AJ2" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL2" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM2" t="n">
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="AN2" t="n">
-        <v>7.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO2" t="n">
         <v>470</v>
@@ -808,46 +808,46 @@
         <v>3.8</v>
       </c>
       <c r="H3" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="I3" t="n">
         <v>2.14</v>
       </c>
       <c r="J3" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K3" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="L3" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O3" t="n">
         <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="R3" t="n">
         <v>1.52</v>
       </c>
       <c r="S3" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="T3" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U3" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="V3" t="n">
         <v>1.87</v>
@@ -856,7 +856,7 @@
         <v>1.35</v>
       </c>
       <c r="X3" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y3" t="n">
         <v>12</v>
@@ -868,10 +868,10 @@
         <v>25</v>
       </c>
       <c r="AB3" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD3" t="n">
         <v>10.5</v>
@@ -883,7 +883,7 @@
         <v>27</v>
       </c>
       <c r="AG3" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH3" t="n">
         <v>15.5</v>
@@ -907,7 +907,7 @@
         <v>32</v>
       </c>
       <c r="AO3" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="G4" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="H4" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I4" t="n">
         <v>4.7</v>
-      </c>
-      <c r="I4" t="n">
-        <v>4.8</v>
       </c>
       <c r="J4" t="n">
         <v>4.3</v>
@@ -967,16 +967,16 @@
         <v>1.18</v>
       </c>
       <c r="P4" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="R4" t="n">
         <v>1.67</v>
       </c>
       <c r="S4" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="T4" t="n">
         <v>1.6</v>
@@ -985,19 +985,19 @@
         <v>2.58</v>
       </c>
       <c r="V4" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W4" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="X4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y4" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Z4" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA4" t="n">
         <v>95</v>
@@ -1009,19 +1009,19 @@
         <v>10</v>
       </c>
       <c r="AD4" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AF4" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AG4" t="n">
         <v>10</v>
       </c>
       <c r="AH4" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AI4" t="n">
         <v>46</v>
@@ -1036,10 +1036,10 @@
         <v>24</v>
       </c>
       <c r="AM4" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AN4" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AO4" t="n">
         <v>38</v>
@@ -1087,7 +1087,7 @@
         <v>5.5</v>
       </c>
       <c r="K5" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="L5" t="n">
         <v>1.2</v>
@@ -1096,28 +1096,28 @@
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="O5" t="n">
         <v>1.1</v>
       </c>
       <c r="P5" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="R5" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="S5" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T5" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="U5" t="n">
-        <v>2.68</v>
+        <v>2.82</v>
       </c>
       <c r="V5" t="n">
         <v>1.16</v>
@@ -1135,37 +1135,37 @@
         <v>220</v>
       </c>
       <c r="AA5" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AB5" t="n">
         <v>20</v>
       </c>
       <c r="AC5" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AD5" t="n">
-        <v>170</v>
+        <v>75</v>
       </c>
       <c r="AE5" t="n">
         <v>510</v>
       </c>
       <c r="AF5" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AH5" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="AI5" t="n">
         <v>300</v>
       </c>
       <c r="AJ5" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="AK5" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="AL5" t="n">
         <v>130</v>
@@ -1174,10 +1174,10 @@
         <v>250</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="AO5" t="n">
-        <v>170</v>
+        <v>980</v>
       </c>
     </row>
     <row r="6">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="G6" t="n">
         <v>2.06</v>
@@ -1216,10 +1216,10 @@
         <v>3.45</v>
       </c>
       <c r="I6" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="J6" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K6" t="n">
         <v>4.6</v>
@@ -1231,37 +1231,37 @@
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="O6" t="n">
         <v>1.15</v>
       </c>
       <c r="P6" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="R6" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="S6" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="T6" t="n">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="U6" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="V6" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W6" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="X6" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="Y6" t="n">
         <v>980</v>
@@ -1273,7 +1273,7 @@
         <v>160</v>
       </c>
       <c r="AB6" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AC6" t="n">
         <v>22</v>
@@ -1285,22 +1285,22 @@
         <v>980</v>
       </c>
       <c r="AF6" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AG6" t="n">
         <v>23</v>
       </c>
       <c r="AH6" t="n">
-        <v>15.5</v>
+        <v>32</v>
       </c>
       <c r="AI6" t="n">
         <v>980</v>
       </c>
       <c r="AJ6" t="n">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AK6" t="n">
-        <v>19</v>
+        <v>960</v>
       </c>
       <c r="AL6" t="n">
         <v>980</v>
@@ -1309,10 +1309,10 @@
         <v>580</v>
       </c>
       <c r="AN6" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AO6" t="n">
-        <v>980</v>
+        <v>600</v>
       </c>
     </row>
     <row r="7">
@@ -1348,16 +1348,16 @@
         <v>2.06</v>
       </c>
       <c r="H7" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I7" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="J7" t="n">
         <v>4</v>
       </c>
       <c r="K7" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L7" t="n">
         <v>1.3</v>
@@ -1366,7 +1366,7 @@
         <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.2</v>
@@ -1375,22 +1375,22 @@
         <v>2.52</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="R7" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="S7" t="n">
         <v>2.5</v>
       </c>
       <c r="T7" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="U7" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="V7" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="W7" t="n">
         <v>1.94</v>
@@ -1441,13 +1441,13 @@
         <v>60</v>
       </c>
       <c r="AM7" t="n">
-        <v>580</v>
+        <v>260</v>
       </c>
       <c r="AN7" t="n">
-        <v>9.6</v>
+        <v>12</v>
       </c>
       <c r="AO7" t="n">
-        <v>600</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="G8" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="H8" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="I8" t="n">
         <v>10</v>
       </c>
-      <c r="I8" t="n">
-        <v>12</v>
-      </c>
       <c r="J8" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="K8" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="L8" t="n">
         <v>1.22</v>
@@ -1510,7 +1510,7 @@
         <v>3.35</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="R8" t="n">
         <v>1.96</v>
@@ -1519,16 +1519,16 @@
         <v>1.97</v>
       </c>
       <c r="T8" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="U8" t="n">
-        <v>2.12</v>
+        <v>2.28</v>
       </c>
       <c r="V8" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="W8" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="X8" t="n">
         <v>980</v>
@@ -1540,10 +1540,10 @@
         <v>110</v>
       </c>
       <c r="AA8" t="n">
-        <v>390</v>
+        <v>310</v>
       </c>
       <c r="AB8" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC8" t="n">
         <v>29</v>
@@ -1555,19 +1555,19 @@
         <v>290</v>
       </c>
       <c r="AF8" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AG8" t="n">
         <v>11</v>
       </c>
       <c r="AH8" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AI8" t="n">
         <v>200</v>
       </c>
       <c r="AJ8" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AK8" t="n">
         <v>15</v>
@@ -1576,10 +1576,10 @@
         <v>80</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1612,25 +1612,25 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="G9" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="H9" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="J9" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K9" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L9" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="M9" t="n">
         <v>1.13</v>
@@ -1639,34 +1639,34 @@
         <v>2.68</v>
       </c>
       <c r="O9" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="P9" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="Q9" t="n">
         <v>2.72</v>
       </c>
       <c r="R9" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="S9" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="T9" t="n">
         <v>2.16</v>
       </c>
       <c r="U9" t="n">
-        <v>1.83</v>
+        <v>1.76</v>
       </c>
       <c r="V9" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="W9" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="X9" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="Y9" t="n">
         <v>11.5</v>
@@ -1684,13 +1684,13 @@
         <v>7.2</v>
       </c>
       <c r="AD9" t="n">
-        <v>18.5</v>
+        <v>34</v>
       </c>
       <c r="AE9" t="n">
         <v>290</v>
       </c>
       <c r="AF9" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AG9" t="n">
         <v>12</v>
@@ -1702,19 +1702,19 @@
         <v>390</v>
       </c>
       <c r="AJ9" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="AK9" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AL9" t="n">
-        <v>480</v>
+        <v>210</v>
       </c>
       <c r="AM9" t="n">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="AN9" t="n">
-        <v>600</v>
+        <v>980</v>
       </c>
       <c r="AO9" t="n">
         <v>600</v>
@@ -1750,76 +1750,76 @@
         <v>4.7</v>
       </c>
       <c r="G10" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="H10" t="n">
         <v>1.7</v>
       </c>
       <c r="I10" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="J10" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K10" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="L10" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="M10" t="n">
         <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="O10" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="P10" t="n">
-        <v>2.14</v>
+        <v>2.24</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.74</v>
+        <v>1.68</v>
       </c>
       <c r="R10" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="S10" t="n">
-        <v>2.84</v>
+        <v>2.7</v>
       </c>
       <c r="T10" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="U10" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="V10" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="W10" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="X10" t="n">
         <v>980</v>
       </c>
       <c r="Y10" t="n">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AA10" t="n">
-        <v>980</v>
+        <v>130</v>
       </c>
       <c r="AB10" t="n">
         <v>980</v>
       </c>
       <c r="AC10" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="AD10" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AE10" t="n">
         <v>130</v>
@@ -1831,7 +1831,7 @@
         <v>980</v>
       </c>
       <c r="AH10" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AI10" t="n">
         <v>980</v>
@@ -1840,16 +1840,16 @@
         <v>140</v>
       </c>
       <c r="AK10" t="n">
-        <v>210</v>
+        <v>330</v>
       </c>
       <c r="AL10" t="n">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="AM10" t="n">
         <v>580</v>
       </c>
       <c r="AN10" t="n">
-        <v>290</v>
+        <v>600</v>
       </c>
       <c r="AO10" t="n">
         <v>29</v>
@@ -1882,58 +1882,58 @@
         </is>
       </c>
       <c r="F11" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="G11" t="n">
         <v>2.86</v>
       </c>
-      <c r="G11" t="n">
-        <v>2.96</v>
-      </c>
       <c r="H11" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="I11" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="J11" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K11" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L11" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M11" t="n">
         <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="O11" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="P11" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="R11" t="n">
         <v>1.44</v>
       </c>
       <c r="S11" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T11" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U11" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="V11" t="n">
         <v>1.58</v>
       </c>
       <c r="W11" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="X11" t="n">
         <v>16.5</v>
@@ -1942,7 +1942,7 @@
         <v>13</v>
       </c>
       <c r="Z11" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AA11" t="n">
         <v>980</v>
@@ -1954,7 +1954,7 @@
         <v>8.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AE11" t="n">
         <v>80</v>
@@ -1966,25 +1966,25 @@
         <v>13</v>
       </c>
       <c r="AH11" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AI11" t="n">
         <v>150</v>
       </c>
       <c r="AJ11" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="AK11" t="n">
         <v>75</v>
       </c>
       <c r="AL11" t="n">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="AM11" t="n">
         <v>580</v>
       </c>
       <c r="AN11" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AO11" t="n">
         <v>55</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="G12" t="n">
         <v>2.04</v>
       </c>
       <c r="H12" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="I12" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="J12" t="n">
         <v>3.25</v>
@@ -2044,31 +2044,31 @@
         <v>3.1</v>
       </c>
       <c r="O12" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="P12" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="R12" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S12" t="n">
         <v>4.2</v>
       </c>
       <c r="T12" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="U12" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="V12" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="W12" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="X12" t="n">
         <v>19.5</v>
@@ -2158,13 +2158,13 @@
         <v>1.94</v>
       </c>
       <c r="H13" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I13" t="n">
         <v>4.3</v>
       </c>
-      <c r="I13" t="n">
-        <v>4.4</v>
-      </c>
       <c r="J13" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K13" t="n">
         <v>4</v>
@@ -2176,13 +2176,13 @@
         <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O13" t="n">
         <v>1.23</v>
       </c>
       <c r="P13" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="Q13" t="n">
         <v>1.7</v>
@@ -2191,16 +2191,16 @@
         <v>1.55</v>
       </c>
       <c r="S13" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="T13" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U13" t="n">
         <v>2.42</v>
       </c>
       <c r="V13" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W13" t="n">
         <v>2.06</v>
@@ -2209,7 +2209,7 @@
         <v>19.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Z13" t="n">
         <v>34</v>
@@ -2239,10 +2239,10 @@
         <v>16</v>
       </c>
       <c r="AI13" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AJ13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK13" t="n">
         <v>17.5</v>
@@ -2257,7 +2257,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AO13" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14">
@@ -2293,10 +2293,10 @@
         <v>3.45</v>
       </c>
       <c r="H14" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="I14" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="J14" t="n">
         <v>3.85</v>
@@ -2305,40 +2305,40 @@
         <v>3.9</v>
       </c>
       <c r="L14" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M14" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="O14" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P14" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="R14" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="S14" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="T14" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="U14" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="V14" t="n">
         <v>1.8</v>
       </c>
       <c r="W14" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="X14" t="n">
         <v>21</v>
@@ -2356,16 +2356,16 @@
         <v>18</v>
       </c>
       <c r="AC14" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD14" t="n">
         <v>11</v>
       </c>
       <c r="AE14" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AF14" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG14" t="n">
         <v>14.5</v>
@@ -2374,13 +2374,13 @@
         <v>14.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ14" t="n">
         <v>60</v>
       </c>
       <c r="AK14" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AL14" t="n">
         <v>36</v>
@@ -2392,7 +2392,7 @@
         <v>23</v>
       </c>
       <c r="AO14" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15">
@@ -2422,61 +2422,61 @@
         </is>
       </c>
       <c r="F15" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G15" t="n">
         <v>2.32</v>
       </c>
-      <c r="G15" t="n">
-        <v>2.34</v>
-      </c>
       <c r="H15" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I15" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="J15" t="n">
+        <v>4</v>
+      </c>
+      <c r="K15" t="n">
         <v>4.1</v>
       </c>
-      <c r="K15" t="n">
-        <v>4.2</v>
-      </c>
       <c r="L15" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="M15" t="n">
         <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="O15" t="n">
         <v>1.15</v>
       </c>
       <c r="P15" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="R15" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="S15" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="T15" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="U15" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="V15" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="W15" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="X15" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Y15" t="n">
         <v>22</v>
@@ -2488,10 +2488,10 @@
         <v>50</v>
       </c>
       <c r="AB15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AC15" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD15" t="n">
         <v>14</v>
@@ -2500,16 +2500,16 @@
         <v>27</v>
       </c>
       <c r="AF15" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AG15" t="n">
         <v>12</v>
       </c>
       <c r="AH15" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AI15" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ15" t="n">
         <v>32</v>
@@ -2521,13 +2521,13 @@
         <v>24</v>
       </c>
       <c r="AM15" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AN15" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AO15" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="G16" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="H16" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="I16" t="n">
         <v>14</v>
-      </c>
-      <c r="I16" t="n">
-        <v>14.5</v>
       </c>
       <c r="J16" t="n">
         <v>7.6</v>
@@ -2581,37 +2581,37 @@
         <v>1.02</v>
       </c>
       <c r="N16" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="O16" t="n">
         <v>1.11</v>
       </c>
       <c r="P16" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="R16" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="S16" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="T16" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="U16" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="V16" t="n">
         <v>1.07</v>
       </c>
       <c r="W16" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="X16" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Y16" t="n">
         <v>70</v>
@@ -2623,46 +2623,46 @@
         <v>550</v>
       </c>
       <c r="AB16" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AE16" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AF16" t="n">
         <v>11</v>
       </c>
       <c r="AG16" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI16" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ16" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AK16" t="n">
         <v>12</v>
       </c>
       <c r="AL16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM16" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN16" t="n">
         <v>2.98</v>
       </c>
       <c r="AO16" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17">
@@ -2692,16 +2692,16 @@
         </is>
       </c>
       <c r="F17" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G17" t="n">
         <v>1.31</v>
       </c>
-      <c r="G17" t="n">
-        <v>1.32</v>
-      </c>
       <c r="H17" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="I17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J17" t="n">
         <v>6.4</v>
@@ -2710,37 +2710,37 @@
         <v>6.6</v>
       </c>
       <c r="L17" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M17" t="n">
         <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O17" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P17" t="n">
-        <v>2.7</v>
+        <v>2.78</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="R17" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S17" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="T17" t="n">
         <v>2.02</v>
       </c>
       <c r="U17" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="V17" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="W17" t="n">
         <v>4.2</v>
@@ -2749,52 +2749,52 @@
         <v>27</v>
       </c>
       <c r="Y17" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="Z17" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AA17" t="n">
-        <v>440</v>
+        <v>580</v>
       </c>
       <c r="AB17" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC17" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AE17" t="n">
         <v>180</v>
       </c>
       <c r="AF17" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AG17" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH17" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI17" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AJ17" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AK17" t="n">
         <v>13</v>
       </c>
       <c r="AL17" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AM17" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AN17" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="AO17" t="n">
         <v>190</v>
@@ -2827,22 +2827,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="G18" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="H18" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="I18" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="J18" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K18" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L18" t="n">
         <v>1.38</v>
@@ -2851,16 +2851,16 @@
         <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="O18" t="n">
         <v>1.26</v>
       </c>
       <c r="P18" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="R18" t="n">
         <v>1.48</v>
@@ -2869,58 +2869,58 @@
         <v>3</v>
       </c>
       <c r="T18" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="V18" t="n">
         <v>1.65</v>
-      </c>
-      <c r="U18" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.64</v>
       </c>
       <c r="W18" t="n">
         <v>1.47</v>
       </c>
       <c r="X18" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z18" t="n">
         <v>16.5</v>
       </c>
-      <c r="Y18" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AA18" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AB18" t="n">
         <v>14.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD18" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AE18" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AF18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG18" t="n">
         <v>13</v>
       </c>
       <c r="AH18" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AI18" t="n">
         <v>32</v>
       </c>
       <c r="AJ18" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AK18" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL18" t="n">
         <v>36</v>
@@ -2929,7 +2929,7 @@
         <v>70</v>
       </c>
       <c r="AN18" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO18" t="n">
         <v>17.5</v>
@@ -2968,10 +2968,10 @@
         <v>3.3</v>
       </c>
       <c r="H19" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="I19" t="n">
         <v>2.44</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2.46</v>
       </c>
       <c r="J19" t="n">
         <v>3.5</v>
@@ -2992,10 +2992,10 @@
         <v>1.35</v>
       </c>
       <c r="P19" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R19" t="n">
         <v>1.35</v>
@@ -3007,16 +3007,16 @@
         <v>1.83</v>
       </c>
       <c r="U19" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V19" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="W19" t="n">
         <v>1.43</v>
       </c>
       <c r="X19" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y19" t="n">
         <v>10</v>
@@ -3031,7 +3031,7 @@
         <v>12.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD19" t="n">
         <v>11</v>
@@ -3046,13 +3046,13 @@
         <v>14</v>
       </c>
       <c r="AH19" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI19" t="n">
         <v>40</v>
       </c>
       <c r="AJ19" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AK19" t="n">
         <v>38</v>
@@ -3067,7 +3067,7 @@
         <v>36</v>
       </c>
       <c r="AO19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20">
@@ -3097,112 +3097,112 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="G20" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="H20" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>1.93</v>
+        <v>2.04</v>
       </c>
       <c r="J20" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="K20" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L20" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="M20" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N20" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="O20" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="P20" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="R20" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="S20" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="T20" t="n">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="U20" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="V20" t="n">
-        <v>2.06</v>
+        <v>1.96</v>
       </c>
       <c r="W20" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="X20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y20" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="Z20" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AA20" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB20" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="AD20" t="n">
         <v>10.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF20" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AG20" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AH20" t="n">
         <v>22</v>
       </c>
       <c r="AI20" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AJ20" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AK20" t="n">
         <v>70</v>
       </c>
       <c r="AL20" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AM20" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AN20" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AO20" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="G21" t="n">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="H21" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I21" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="J21" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K21" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L21" t="n">
         <v>1.48</v>
@@ -3262,7 +3262,7 @@
         <v>1.42</v>
       </c>
       <c r="P21" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q21" t="n">
         <v>2.24</v>
@@ -3271,19 +3271,19 @@
         <v>1.28</v>
       </c>
       <c r="S21" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="T21" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="U21" t="n">
         <v>2</v>
       </c>
       <c r="V21" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="W21" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="X21" t="n">
         <v>11</v>
@@ -3298,16 +3298,16 @@
         <v>65</v>
       </c>
       <c r="AB21" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC21" t="n">
         <v>7.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AF21" t="n">
         <v>14.5</v>
@@ -3319,25 +3319,25 @@
         <v>19.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ21" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AK21" t="n">
         <v>29</v>
       </c>
       <c r="AL21" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM21" t="n">
         <v>130</v>
       </c>
       <c r="AN21" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AO21" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22">
@@ -3370,19 +3370,19 @@
         <v>2.4</v>
       </c>
       <c r="G22" t="n">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="H22" t="n">
         <v>3.55</v>
       </c>
       <c r="I22" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J22" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="K22" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="L22" t="n">
         <v>1.49</v>
@@ -3400,7 +3400,7 @@
         <v>1.7</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="R22" t="n">
         <v>1.27</v>
@@ -3418,7 +3418,7 @@
         <v>1.33</v>
       </c>
       <c r="W22" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="X22" t="n">
         <v>980</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-25.xlsx
@@ -667,25 +667,25 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="G2" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="H2" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="I2" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="J2" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="K2" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L2" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
@@ -694,70 +694,70 @@
         <v>3.35</v>
       </c>
       <c r="O2" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P2" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R2" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S2" t="n">
         <v>4.1</v>
       </c>
       <c r="T2" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="U2" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="V2" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="W2" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="X2" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y2" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Z2" t="n">
         <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>560</v>
+        <v>640</v>
       </c>
       <c r="AB2" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AC2" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD2" t="n">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="AE2" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="AF2" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AG2" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH2" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AI2" t="n">
-        <v>260</v>
+        <v>310</v>
       </c>
       <c r="AJ2" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AK2" t="n">
         <v>18</v>
@@ -766,13 +766,13 @@
         <v>60</v>
       </c>
       <c r="AM2" t="n">
-        <v>360</v>
+        <v>790</v>
       </c>
       <c r="AN2" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AO2" t="n">
-        <v>470</v>
+        <v>540</v>
       </c>
     </row>
     <row r="3">
@@ -802,31 +802,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="G3" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H3" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="I3" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="J3" t="n">
         <v>3.75</v>
       </c>
       <c r="K3" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="O3" t="n">
         <v>1.25</v>
@@ -838,22 +838,22 @@
         <v>1.74</v>
       </c>
       <c r="R3" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S3" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="T3" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="U3" t="n">
         <v>2.46</v>
       </c>
       <c r="V3" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="W3" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="X3" t="n">
         <v>18</v>
@@ -862,13 +862,13 @@
         <v>12</v>
       </c>
       <c r="Z3" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AA3" t="n">
         <v>25</v>
       </c>
       <c r="AB3" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AC3" t="n">
         <v>8.4</v>
@@ -886,13 +886,13 @@
         <v>15</v>
       </c>
       <c r="AH3" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI3" t="n">
         <v>29</v>
       </c>
       <c r="AJ3" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AK3" t="n">
         <v>38</v>
@@ -901,10 +901,10 @@
         <v>42</v>
       </c>
       <c r="AM3" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN3" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AO3" t="n">
         <v>12</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="G4" t="n">
         <v>1.8</v>
       </c>
-      <c r="G4" t="n">
-        <v>1.81</v>
-      </c>
       <c r="H4" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="I4" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="J4" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K4" t="n">
         <v>4.3</v>
-      </c>
-      <c r="K4" t="n">
-        <v>4.4</v>
       </c>
       <c r="L4" t="n">
         <v>1.29</v>
@@ -964,7 +964,7 @@
         <v>6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P4" t="n">
         <v>2.66</v>
@@ -976,58 +976,58 @@
         <v>1.67</v>
       </c>
       <c r="S4" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="T4" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="U4" t="n">
         <v>2.58</v>
       </c>
       <c r="V4" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="W4" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="X4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y4" t="n">
         <v>23</v>
       </c>
       <c r="Z4" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AA4" t="n">
         <v>95</v>
       </c>
       <c r="AB4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF4" t="n">
         <v>13</v>
       </c>
-      <c r="AC4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>46</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH4" t="n">
         <v>15.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ4" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AK4" t="n">
         <v>15.5</v>
@@ -1039,7 +1039,7 @@
         <v>65</v>
       </c>
       <c r="AN4" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AO4" t="n">
         <v>38</v>
@@ -1075,16 +1075,16 @@
         <v>1.45</v>
       </c>
       <c r="G5" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="H5" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="I5" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="J5" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="K5" t="n">
         <v>6</v>
@@ -1096,52 +1096,52 @@
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="O5" t="n">
         <v>1.1</v>
       </c>
       <c r="P5" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="R5" t="n">
-        <v>2.14</v>
+        <v>2.22</v>
       </c>
       <c r="S5" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="T5" t="n">
         <v>1.5</v>
       </c>
       <c r="U5" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="V5" t="n">
         <v>1.16</v>
       </c>
       <c r="W5" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="X5" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="Y5" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="Z5" t="n">
         <v>220</v>
       </c>
       <c r="AA5" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AB5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC5" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="AD5" t="n">
         <v>75</v>
@@ -1156,25 +1156,25 @@
         <v>12</v>
       </c>
       <c r="AH5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI5" t="n">
         <v>300</v>
       </c>
       <c r="AJ5" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AK5" t="n">
-        <v>25</v>
+        <v>14.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>130</v>
+        <v>36</v>
       </c>
       <c r="AM5" t="n">
         <v>250</v>
       </c>
       <c r="AN5" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="AO5" t="n">
         <v>980</v>
@@ -1207,112 +1207,112 @@
         </is>
       </c>
       <c r="F6" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="G6" t="n">
         <v>2.02</v>
       </c>
-      <c r="G6" t="n">
-        <v>2.06</v>
-      </c>
       <c r="H6" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="I6" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="J6" t="n">
         <v>4.3</v>
       </c>
       <c r="K6" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L6" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>7.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O6" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="P6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="U6" t="n">
         <v>3.05</v>
       </c>
-      <c r="Q6" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.88</v>
-      </c>
       <c r="V6" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="W6" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="X6" t="n">
         <v>85</v>
       </c>
       <c r="Y6" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="Z6" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AA6" t="n">
         <v>160</v>
       </c>
       <c r="AB6" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AC6" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="AD6" t="n">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="AE6" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AF6" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AG6" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL6" t="n">
         <v>23</v>
       </c>
-      <c r="AH6" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>960</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>980</v>
-      </c>
       <c r="AM6" t="n">
-        <v>580</v>
+        <v>95</v>
       </c>
       <c r="AN6" t="n">
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
       <c r="AO6" t="n">
-        <v>600</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="7">
@@ -1348,49 +1348,49 @@
         <v>2.06</v>
       </c>
       <c r="H7" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="I7" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="J7" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="K7" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L7" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="M7" t="n">
         <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="O7" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P7" t="n">
-        <v>2.52</v>
+        <v>2.42</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="R7" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="S7" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U7" t="n">
         <v>2.5</v>
       </c>
-      <c r="T7" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.56</v>
-      </c>
       <c r="V7" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="W7" t="n">
         <v>1.94</v>
@@ -1408,19 +1408,19 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD7" t="n">
         <v>26</v>
       </c>
-      <c r="AC7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>16</v>
-      </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AF7" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AG7" t="n">
         <v>11</v>
@@ -1429,25 +1429,25 @@
         <v>16</v>
       </c>
       <c r="AI7" t="n">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="AJ7" t="n">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="AK7" t="n">
-        <v>70</v>
+        <v>19.5</v>
       </c>
       <c r="AL7" t="n">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="AM7" t="n">
-        <v>260</v>
+        <v>95</v>
       </c>
       <c r="AN7" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AO7" t="n">
-        <v>36</v>
+        <v>600</v>
       </c>
     </row>
     <row r="8">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="G8" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="H8" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="I8" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J8" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="K8" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="L8" t="n">
         <v>1.22</v>
@@ -1501,61 +1501,61 @@
         <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O8" t="n">
         <v>1.12</v>
       </c>
       <c r="P8" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="R8" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="S8" t="n">
         <v>1.97</v>
       </c>
       <c r="T8" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="U8" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="V8" t="n">
         <v>1.11</v>
       </c>
       <c r="W8" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="X8" t="n">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="Y8" t="n">
         <v>980</v>
       </c>
       <c r="Z8" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="AA8" t="n">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="AB8" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC8" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="AD8" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AE8" t="n">
         <v>290</v>
       </c>
       <c r="AF8" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG8" t="n">
         <v>11</v>
@@ -1567,19 +1567,19 @@
         <v>200</v>
       </c>
       <c r="AJ8" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AL8" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="AM8" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="G9" t="n">
         <v>2.34</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="I9" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J9" t="n">
         <v>3.05</v>
@@ -1630,7 +1630,7 @@
         <v>3.2</v>
       </c>
       <c r="L9" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="M9" t="n">
         <v>1.13</v>
@@ -1648,19 +1648,19 @@
         <v>2.72</v>
       </c>
       <c r="R9" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S9" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="T9" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="U9" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="V9" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W9" t="n">
         <v>1.74</v>
@@ -1669,25 +1669,25 @@
         <v>8.4</v>
       </c>
       <c r="Y9" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z9" t="n">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="AA9" t="n">
         <v>290</v>
       </c>
       <c r="AB9" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AC9" t="n">
         <v>7.2</v>
       </c>
       <c r="AD9" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="AE9" t="n">
-        <v>290</v>
+        <v>170</v>
       </c>
       <c r="AF9" t="n">
         <v>13</v>
@@ -1696,25 +1696,25 @@
         <v>12</v>
       </c>
       <c r="AH9" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="AI9" t="n">
-        <v>390</v>
+        <v>240</v>
       </c>
       <c r="AJ9" t="n">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="AK9" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="AL9" t="n">
-        <v>210</v>
+        <v>110</v>
       </c>
       <c r="AM9" t="n">
         <v>240</v>
       </c>
       <c r="AN9" t="n">
-        <v>980</v>
+        <v>600</v>
       </c>
       <c r="AO9" t="n">
         <v>600</v>
@@ -1747,58 +1747,58 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>5.4</v>
+        <v>5.9</v>
       </c>
       <c r="H10" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="I10" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="J10" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="K10" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="L10" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="M10" t="n">
         <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="O10" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="P10" t="n">
-        <v>2.24</v>
+        <v>2.12</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.68</v>
+        <v>1.79</v>
       </c>
       <c r="R10" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="S10" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="T10" t="n">
-        <v>1.71</v>
+        <v>1.79</v>
       </c>
       <c r="U10" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="V10" t="n">
         <v>2.22</v>
       </c>
       <c r="W10" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="X10" t="n">
         <v>980</v>
@@ -1819,7 +1819,7 @@
         <v>14</v>
       </c>
       <c r="AD10" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="AE10" t="n">
         <v>130</v>
@@ -1831,13 +1831,13 @@
         <v>980</v>
       </c>
       <c r="AH10" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="AI10" t="n">
         <v>980</v>
       </c>
       <c r="AJ10" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
         <v>330</v>
@@ -1849,7 +1849,7 @@
         <v>580</v>
       </c>
       <c r="AN10" t="n">
-        <v>600</v>
+        <v>290</v>
       </c>
       <c r="AO10" t="n">
         <v>29</v>
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="I11" t="n">
         <v>2.84</v>
-      </c>
-      <c r="G11" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2.7</v>
       </c>
       <c r="J11" t="n">
         <v>3.55</v>
@@ -1906,49 +1906,49 @@
         <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O11" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P11" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="R11" t="n">
         <v>1.44</v>
       </c>
       <c r="S11" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T11" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="U11" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V11" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="W11" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="X11" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y11" t="n">
         <v>13</v>
       </c>
       <c r="Z11" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AB11" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC11" t="n">
         <v>8.4</v>
@@ -1957,37 +1957,37 @@
         <v>12.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="AF11" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH11" t="n">
         <v>15.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>150</v>
+        <v>38</v>
       </c>
       <c r="AJ11" t="n">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="AK11" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM11" t="n">
         <v>75</v>
       </c>
-      <c r="AL11" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>580</v>
-      </c>
       <c r="AN11" t="n">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="AO11" t="n">
-        <v>55</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="G12" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="H12" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="I12" t="n">
         <v>5.5</v>
       </c>
       <c r="J12" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K12" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="L12" t="n">
         <v>1.49</v>
@@ -2044,13 +2044,13 @@
         <v>3.1</v>
       </c>
       <c r="O12" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P12" t="n">
         <v>1.7</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="R12" t="n">
         <v>1.26</v>
@@ -2059,19 +2059,19 @@
         <v>4.2</v>
       </c>
       <c r="T12" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="U12" t="n">
         <v>1.87</v>
       </c>
       <c r="V12" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W12" t="n">
         <v>1.95</v>
       </c>
       <c r="X12" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Y12" t="n">
         <v>1000</v>
@@ -2098,10 +2098,10 @@
         <v>25</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="AH12" t="n">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="AI12" t="n">
         <v>1000</v>
@@ -2152,25 +2152,25 @@
         </is>
       </c>
       <c r="F13" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="G13" t="n">
         <v>1.93</v>
       </c>
-      <c r="G13" t="n">
-        <v>1.94</v>
-      </c>
       <c r="H13" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="I13" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="J13" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K13" t="n">
         <v>3.95</v>
       </c>
-      <c r="K13" t="n">
-        <v>4</v>
-      </c>
       <c r="L13" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M13" t="n">
         <v>1.05</v>
@@ -2188,19 +2188,19 @@
         <v>1.7</v>
       </c>
       <c r="R13" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="S13" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="T13" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="U13" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="V13" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="W13" t="n">
         <v>2.06</v>
@@ -2209,7 +2209,7 @@
         <v>19.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Z13" t="n">
         <v>34</v>
@@ -2236,25 +2236,25 @@
         <v>10.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI13" t="n">
         <v>46</v>
       </c>
       <c r="AJ13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK13" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AL13" t="n">
         <v>27</v>
       </c>
       <c r="AM13" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN13" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AO13" t="n">
         <v>38</v>
@@ -2287,25 +2287,25 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="G14" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="H14" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="I14" t="n">
-        <v>2.26</v>
+        <v>2.36</v>
       </c>
       <c r="J14" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K14" t="n">
         <v>3.85</v>
       </c>
-      <c r="K14" t="n">
-        <v>3.9</v>
-      </c>
       <c r="L14" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M14" t="n">
         <v>1.05</v>
@@ -2314,13 +2314,13 @@
         <v>5.3</v>
       </c>
       <c r="O14" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P14" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R14" t="n">
         <v>1.58</v>
@@ -2329,46 +2329,46 @@
         <v>2.68</v>
       </c>
       <c r="T14" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="U14" t="n">
         <v>2.6</v>
       </c>
       <c r="V14" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W14" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="X14" t="n">
         <v>21</v>
       </c>
       <c r="Y14" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Z14" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AB14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF14" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AG14" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH14" t="n">
         <v>14.5</v>
@@ -2377,22 +2377,22 @@
         <v>28</v>
       </c>
       <c r="AJ14" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK14" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL14" t="n">
         <v>36</v>
       </c>
       <c r="AM14" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
@@ -2422,10 +2422,10 @@
         </is>
       </c>
       <c r="F15" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="G15" t="n">
         <v>2.3</v>
-      </c>
-      <c r="G15" t="n">
-        <v>2.32</v>
       </c>
       <c r="H15" t="n">
         <v>3.1</v>
@@ -2446,25 +2446,25 @@
         <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="O15" t="n">
         <v>1.15</v>
       </c>
       <c r="P15" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="R15" t="n">
         <v>1.81</v>
       </c>
       <c r="S15" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="T15" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="U15" t="n">
         <v>3</v>
@@ -2476,7 +2476,7 @@
         <v>1.76</v>
       </c>
       <c r="X15" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Y15" t="n">
         <v>22</v>
@@ -2491,7 +2491,7 @@
         <v>18</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD15" t="n">
         <v>14</v>
@@ -2500,10 +2500,10 @@
         <v>27</v>
       </c>
       <c r="AF15" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AG15" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH15" t="n">
         <v>13</v>
@@ -2527,7 +2527,7 @@
         <v>9.6</v>
       </c>
       <c r="AO15" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="16">
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="G16" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="H16" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="I16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J16" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="K16" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="L16" t="n">
         <v>1.21</v>
@@ -2581,88 +2581,88 @@
         <v>1.02</v>
       </c>
       <c r="N16" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="O16" t="n">
         <v>1.11</v>
       </c>
       <c r="P16" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="R16" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="S16" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="T16" t="n">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="U16" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="V16" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="W16" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="X16" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Y16" t="n">
         <v>70</v>
       </c>
       <c r="Z16" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AA16" t="n">
-        <v>550</v>
+        <v>470</v>
       </c>
       <c r="AB16" t="n">
         <v>16.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AE16" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AF16" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG16" t="n">
         <v>11.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AI16" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AJ16" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AK16" t="n">
         <v>12</v>
       </c>
       <c r="AL16" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AM16" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AN16" t="n">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="AO16" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17">
@@ -2692,10 +2692,10 @@
         </is>
       </c>
       <c r="F17" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="G17" t="n">
         <v>1.3</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1.31</v>
       </c>
       <c r="H17" t="n">
         <v>12.5</v>
@@ -2704,16 +2704,16 @@
         <v>13</v>
       </c>
       <c r="J17" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="K17" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="L17" t="n">
         <v>1.28</v>
       </c>
       <c r="M17" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N17" t="n">
         <v>6.2</v>
@@ -2722,40 +2722,40 @@
         <v>1.18</v>
       </c>
       <c r="P17" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="Q17" t="n">
         <v>1.54</v>
       </c>
       <c r="R17" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="S17" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="T17" t="n">
         <v>2.02</v>
       </c>
       <c r="U17" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="V17" t="n">
         <v>1.08</v>
       </c>
       <c r="W17" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="X17" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Y17" t="n">
         <v>44</v>
       </c>
       <c r="Z17" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AA17" t="n">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="AB17" t="n">
         <v>11</v>
@@ -2764,7 +2764,7 @@
         <v>14.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AE17" t="n">
         <v>180</v>
@@ -2782,7 +2782,7 @@
         <v>140</v>
       </c>
       <c r="AJ17" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AK17" t="n">
         <v>13</v>
@@ -2791,13 +2791,13 @@
         <v>34</v>
       </c>
       <c r="AM17" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN17" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="AO17" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18">
@@ -2833,10 +2833,10 @@
         <v>3.15</v>
       </c>
       <c r="H18" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="I18" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="J18" t="n">
         <v>3.55</v>
@@ -2845,40 +2845,40 @@
         <v>3.6</v>
       </c>
       <c r="L18" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M18" t="n">
         <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O18" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P18" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="R18" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="S18" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="T18" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V18" t="n">
         <v>1.66</v>
       </c>
-      <c r="U18" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.65</v>
-      </c>
       <c r="W18" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="X18" t="n">
         <v>17</v>
@@ -2893,13 +2893,13 @@
         <v>34</v>
       </c>
       <c r="AB18" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC18" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE18" t="n">
         <v>23</v>
@@ -2908,25 +2908,25 @@
         <v>22</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AI18" t="n">
         <v>32</v>
       </c>
       <c r="AJ18" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AK18" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AL18" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AM18" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN18" t="n">
         <v>26</v>
@@ -2962,16 +2962,16 @@
         </is>
       </c>
       <c r="F19" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G19" t="n">
         <v>3.25</v>
       </c>
-      <c r="G19" t="n">
-        <v>3.3</v>
-      </c>
       <c r="H19" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="I19" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="J19" t="n">
         <v>3.5</v>
@@ -2986,40 +2986,40 @@
         <v>1.08</v>
       </c>
       <c r="N19" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O19" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P19" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="R19" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S19" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="T19" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="U19" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="V19" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="W19" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="X19" t="n">
         <v>13</v>
       </c>
       <c r="Y19" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Z19" t="n">
         <v>15</v>
@@ -3031,10 +3031,10 @@
         <v>12.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AE19" t="n">
         <v>26</v>
@@ -3052,22 +3052,22 @@
         <v>40</v>
       </c>
       <c r="AJ19" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK19" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL19" t="n">
         <v>48</v>
       </c>
       <c r="AM19" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN19" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AO19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20">
@@ -3097,55 +3097,55 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="G20" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="I20" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="J20" t="n">
         <v>3.4</v>
       </c>
       <c r="K20" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L20" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="M20" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N20" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O20" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P20" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="R20" t="n">
         <v>1.27</v>
       </c>
       <c r="S20" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T20" t="n">
         <v>2.02</v>
       </c>
       <c r="U20" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="V20" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="W20" t="n">
         <v>1.27</v>
@@ -3160,19 +3160,19 @@
         <v>11</v>
       </c>
       <c r="AA20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AB20" t="n">
         <v>13.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD20" t="n">
         <v>10.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF20" t="n">
         <v>32</v>
@@ -3202,7 +3202,7 @@
         <v>90</v>
       </c>
       <c r="AO20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="G21" t="n">
         <v>2.36</v>
-      </c>
-      <c r="G21" t="n">
-        <v>2.4</v>
       </c>
       <c r="H21" t="n">
         <v>3.5</v>
       </c>
       <c r="I21" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="J21" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K21" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L21" t="n">
         <v>1.48</v>
@@ -3259,7 +3259,7 @@
         <v>3.3</v>
       </c>
       <c r="O21" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="P21" t="n">
         <v>1.76</v>
@@ -3268,37 +3268,37 @@
         <v>2.24</v>
       </c>
       <c r="R21" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S21" t="n">
         <v>4.2</v>
       </c>
       <c r="T21" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="U21" t="n">
         <v>2</v>
       </c>
       <c r="V21" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="W21" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="X21" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Y21" t="n">
         <v>11.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA21" t="n">
         <v>65</v>
       </c>
       <c r="AB21" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC21" t="n">
         <v>7.4</v>
@@ -3325,19 +3325,19 @@
         <v>32</v>
       </c>
       <c r="AK21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL21" t="n">
         <v>46</v>
       </c>
       <c r="AM21" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO21" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22">
@@ -3373,19 +3373,19 @@
         <v>2.56</v>
       </c>
       <c r="H22" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I22" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J22" t="n">
         <v>2.86</v>
       </c>
       <c r="K22" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="L22" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="M22" t="n">
         <v>1.1</v>
@@ -3394,7 +3394,7 @@
         <v>3.1</v>
       </c>
       <c r="O22" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="P22" t="n">
         <v>1.7</v>
@@ -3406,10 +3406,10 @@
         <v>1.27</v>
       </c>
       <c r="S22" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="T22" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="U22" t="n">
         <v>1.96</v>
@@ -3421,13 +3421,13 @@
         <v>1.64</v>
       </c>
       <c r="X22" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Z22" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA22" t="n">
         <v>1000</v>
@@ -3436,22 +3436,22 @@
         <v>10.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AE22" t="n">
         <v>1000</v>
       </c>
       <c r="AF22" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH22" t="n">
         <v>1000</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>18</v>
       </c>
       <c r="AI22" t="n">
         <v>1000</v>
@@ -3466,7 +3466,7 @@
         <v>1000</v>
       </c>
       <c r="AM22" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AN22" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO22"/>
+  <dimension ref="A1:AO23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,118 +667,118 @@
         </is>
       </c>
       <c r="F2" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="G2" t="n">
         <v>1.4</v>
       </c>
-      <c r="G2" t="n">
-        <v>1.42</v>
-      </c>
       <c r="H2" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="I2" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="J2" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="K2" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="L2" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N2" t="n">
-        <v>3.35</v>
+        <v>3</v>
       </c>
       <c r="O2" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="P2" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.18</v>
+        <v>2.36</v>
       </c>
       <c r="R2" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="S2" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="T2" t="n">
-        <v>2.48</v>
+        <v>2.72</v>
       </c>
       <c r="U2" t="n">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="V2" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="W2" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="X2" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="Y2" t="n">
         <v>30</v>
       </c>
       <c r="Z2" t="n">
+        <v>170</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>970</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>120</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>420</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>55</v>
+      </c>
+      <c r="AI2" t="n">
         <v>1000</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>640</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>48</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>300</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>310</v>
       </c>
       <c r="AJ2" t="n">
         <v>11</v>
       </c>
       <c r="AK2" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AL2" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AM2" t="n">
         <v>790</v>
       </c>
       <c r="AN2" t="n">
-        <v>8.800000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO2" t="n">
-        <v>540</v>
+        <v>950</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,126 +788,126 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Naestved</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Holbaek</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.65</v>
+        <v>1.7</v>
       </c>
       <c r="G3" t="n">
-        <v>3.7</v>
+        <v>1.83</v>
       </c>
       <c r="H3" t="n">
-        <v>2.14</v>
+        <v>4.7</v>
       </c>
       <c r="I3" t="n">
-        <v>2.16</v>
+        <v>6.2</v>
       </c>
       <c r="J3" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="K3" t="n">
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="O3" t="n">
         <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>2.3</v>
+        <v>2.16</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.74</v>
+        <v>1.69</v>
       </c>
       <c r="R3" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="S3" t="n">
-        <v>2.86</v>
+        <v>2.72</v>
       </c>
       <c r="T3" t="n">
-        <v>1.64</v>
+        <v>1.7</v>
       </c>
       <c r="U3" t="n">
-        <v>2.46</v>
+        <v>2.08</v>
       </c>
       <c r="V3" t="n">
-        <v>1.86</v>
+        <v>1.2</v>
       </c>
       <c r="W3" t="n">
-        <v>1.37</v>
+        <v>2.18</v>
       </c>
       <c r="X3" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="Y3" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC3" t="n">
         <v>12</v>
       </c>
-      <c r="Z3" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AA3" t="n">
+      <c r="AD3" t="n">
         <v>25</v>
       </c>
-      <c r="AB3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AE3" t="n">
-        <v>19.5</v>
+        <v>80</v>
       </c>
       <c r="AF3" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AI3" t="n">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="AJ3" t="n">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="AK3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL3" t="n">
         <v>38</v>
       </c>
-      <c r="AL3" t="n">
-        <v>42</v>
-      </c>
       <c r="AM3" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="AN3" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="AO3" t="n">
-        <v>12</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
@@ -928,127 +928,127 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Union St Gilloise</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.79</v>
+        <v>3.7</v>
       </c>
       <c r="G4" t="n">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="H4" t="n">
-        <v>4.8</v>
+        <v>2.12</v>
       </c>
       <c r="I4" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N4" t="n">
         <v>4.9</v>
       </c>
-      <c r="J4" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K4" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6</v>
-      </c>
       <c r="O4" t="n">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="P4" t="n">
-        <v>2.66</v>
+        <v>2.32</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.58</v>
+        <v>1.73</v>
       </c>
       <c r="R4" t="n">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="S4" t="n">
-        <v>2.46</v>
+        <v>2.82</v>
       </c>
       <c r="T4" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="U4" t="n">
-        <v>2.58</v>
+        <v>2.48</v>
       </c>
       <c r="V4" t="n">
-        <v>1.25</v>
+        <v>1.87</v>
       </c>
       <c r="W4" t="n">
-        <v>2.24</v>
+        <v>1.36</v>
       </c>
       <c r="X4" t="n">
-        <v>24</v>
+        <v>19.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="Z4" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL4" t="n">
         <v>40</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>95</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>18</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>24</v>
       </c>
       <c r="AM4" t="n">
         <v>65</v>
       </c>
       <c r="AN4" t="n">
-        <v>7.4</v>
+        <v>32</v>
       </c>
       <c r="AO4" t="n">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,126 +1058,126 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>Union St Gilloise</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.45</v>
+        <v>1.78</v>
       </c>
       <c r="G5" t="n">
-        <v>1.49</v>
+        <v>1.79</v>
       </c>
       <c r="H5" t="n">
-        <v>6.6</v>
+        <v>4.8</v>
       </c>
       <c r="I5" t="n">
-        <v>7.4</v>
+        <v>4.9</v>
       </c>
       <c r="J5" t="n">
-        <v>5.4</v>
+        <v>4.2</v>
       </c>
       <c r="K5" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N5" t="n">
         <v>6</v>
       </c>
-      <c r="L5" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W5" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="X5" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG5" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="W5" t="n">
-        <v>3</v>
-      </c>
-      <c r="X5" t="n">
-        <v>80</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>120</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>220</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>200</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>16</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>75</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>510</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>12</v>
-      </c>
       <c r="AH5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AL5" t="n">
         <v>24</v>
       </c>
-      <c r="AI5" t="n">
-        <v>300</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>27</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>36</v>
-      </c>
       <c r="AM5" t="n">
-        <v>250</v>
+        <v>65</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.9</v>
+        <v>7.2</v>
       </c>
       <c r="AO5" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6">
@@ -1198,121 +1198,121 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Vitesse Arnhem</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Jong PSV Eindhoven</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.99</v>
+        <v>1.45</v>
       </c>
       <c r="G6" t="n">
-        <v>2.02</v>
+        <v>1.48</v>
       </c>
       <c r="H6" t="n">
-        <v>3.55</v>
+        <v>6.4</v>
       </c>
       <c r="I6" t="n">
-        <v>3.75</v>
+        <v>7.2</v>
       </c>
       <c r="J6" t="n">
-        <v>4.3</v>
+        <v>5.8</v>
       </c>
       <c r="K6" t="n">
-        <v>4.7</v>
+        <v>6</v>
       </c>
       <c r="L6" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>8.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="O6" t="n">
-        <v>1.13</v>
+        <v>1.09</v>
       </c>
       <c r="P6" t="n">
-        <v>3.25</v>
+        <v>3.95</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="R6" t="n">
-        <v>1.95</v>
+        <v>2.22</v>
       </c>
       <c r="S6" t="n">
-        <v>2.02</v>
+        <v>1.78</v>
       </c>
       <c r="T6" t="n">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="U6" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="W6" t="n">
         <v>3.05</v>
       </c>
-      <c r="V6" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.98</v>
-      </c>
       <c r="X6" t="n">
-        <v>85</v>
+        <v>250</v>
       </c>
       <c r="Y6" t="n">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="Z6" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AB6" t="n">
         <v>21</v>
       </c>
       <c r="AC6" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AD6" t="n">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="AE6" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AG6" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH6" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="AJ6" t="n">
-        <v>55</v>
+        <v>17.5</v>
       </c>
       <c r="AK6" t="n">
         <v>18</v>
       </c>
       <c r="AL6" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="AM6" t="n">
-        <v>95</v>
+        <v>250</v>
       </c>
       <c r="AN6" t="n">
-        <v>6.8</v>
+        <v>3.85</v>
       </c>
       <c r="AO6" t="n">
-        <v>17.5</v>
+        <v>980</v>
       </c>
     </row>
     <row r="7">
@@ -1333,121 +1333,121 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Roda JC</t>
+          <t>Vitesse Arnhem</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>FC Dordrecht</t>
+          <t>Jong PSV Eindhoven</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="G7" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="H7" t="n">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="I7" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="J7" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="K7" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="L7" t="n">
-        <v>1.32</v>
+        <v>1.23</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N7" t="n">
-        <v>5.3</v>
+        <v>8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="P7" t="n">
-        <v>2.42</v>
+        <v>3.35</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.66</v>
+        <v>1.4</v>
       </c>
       <c r="R7" t="n">
-        <v>1.59</v>
+        <v>1.96</v>
       </c>
       <c r="S7" t="n">
-        <v>2.6</v>
+        <v>1.98</v>
       </c>
       <c r="T7" t="n">
-        <v>1.6</v>
+        <v>1.42</v>
       </c>
       <c r="U7" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="V7" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="W7" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="X7" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="Y7" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="Z7" t="n">
         <v>85</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AB7" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.6</v>
+        <v>13</v>
       </c>
       <c r="AD7" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AE7" t="n">
-        <v>170</v>
+        <v>60</v>
       </c>
       <c r="AF7" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH7" t="n">
         <v>15</v>
       </c>
-      <c r="AG7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>16</v>
-      </c>
       <c r="AI7" t="n">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="AJ7" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AK7" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AL7" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AM7" t="n">
         <v>95</v>
       </c>
       <c r="AN7" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AO7" t="n">
-        <v>600</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="8">
@@ -1468,127 +1468,127 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>RKC Waalwijk</t>
+          <t>Roda JC</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>MVV Maastricht</t>
+          <t>FC Dordrecht</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.34</v>
+        <v>1.92</v>
       </c>
       <c r="G8" t="n">
-        <v>1.37</v>
+        <v>1.98</v>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>3.95</v>
       </c>
       <c r="I8" t="n">
-        <v>9.800000000000001</v>
+        <v>4.3</v>
       </c>
       <c r="J8" t="n">
-        <v>6.2</v>
+        <v>3.9</v>
       </c>
       <c r="K8" t="n">
-        <v>6.8</v>
+        <v>4.2</v>
       </c>
       <c r="L8" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="M8" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>8.199999999999999</v>
+        <v>5.2</v>
       </c>
       <c r="O8" t="n">
-        <v>1.12</v>
+        <v>1.21</v>
       </c>
       <c r="P8" t="n">
-        <v>3.5</v>
+        <v>2.42</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.38</v>
+        <v>1.66</v>
       </c>
       <c r="R8" t="n">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="S8" t="n">
-        <v>1.97</v>
+        <v>2.6</v>
       </c>
       <c r="T8" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="U8" t="n">
-        <v>2.32</v>
+        <v>2.44</v>
       </c>
       <c r="V8" t="n">
-        <v>1.11</v>
+        <v>1.31</v>
       </c>
       <c r="W8" t="n">
-        <v>3.7</v>
+        <v>2.02</v>
       </c>
       <c r="X8" t="n">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="Y8" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="Z8" t="n">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="AA8" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>16</v>
+        <v>12.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>16</v>
+        <v>9.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="AE8" t="n">
-        <v>290</v>
+        <v>170</v>
       </c>
       <c r="AF8" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG8" t="n">
         <v>11</v>
       </c>
       <c r="AH8" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="AI8" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="AJ8" t="n">
-        <v>14.5</v>
+        <v>27</v>
       </c>
       <c r="AK8" t="n">
-        <v>13.5</v>
+        <v>19.5</v>
       </c>
       <c r="AL8" t="n">
         <v>32</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.6</v>
+        <v>9.4</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1603,127 +1603,127 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Bastia</t>
+          <t>RKC Waalwijk</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Laval</t>
+          <t>MVV Maastricht</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.28</v>
+        <v>1.33</v>
       </c>
       <c r="G9" t="n">
-        <v>2.34</v>
+        <v>1.36</v>
       </c>
       <c r="H9" t="n">
-        <v>3.95</v>
+        <v>8.6</v>
       </c>
       <c r="I9" t="n">
-        <v>4.1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J9" t="n">
-        <v>3.05</v>
+        <v>6.4</v>
       </c>
       <c r="K9" t="n">
-        <v>3.2</v>
+        <v>7</v>
       </c>
       <c r="L9" t="n">
-        <v>1.59</v>
+        <v>1.21</v>
       </c>
       <c r="M9" t="n">
-        <v>1.13</v>
+        <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>2.68</v>
+        <v>8.6</v>
       </c>
       <c r="O9" t="n">
-        <v>1.56</v>
+        <v>1.11</v>
       </c>
       <c r="P9" t="n">
-        <v>1.53</v>
+        <v>3.55</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.72</v>
+        <v>1.35</v>
       </c>
       <c r="R9" t="n">
-        <v>1.19</v>
+        <v>2.04</v>
       </c>
       <c r="S9" t="n">
-        <v>5.5</v>
+        <v>1.93</v>
       </c>
       <c r="T9" t="n">
-        <v>2.14</v>
+        <v>1.65</v>
       </c>
       <c r="U9" t="n">
-        <v>1.77</v>
+        <v>2.4</v>
       </c>
       <c r="V9" t="n">
-        <v>1.32</v>
+        <v>1.11</v>
       </c>
       <c r="W9" t="n">
-        <v>1.74</v>
+        <v>3.75</v>
       </c>
       <c r="X9" t="n">
-        <v>8.4</v>
+        <v>110</v>
       </c>
       <c r="Y9" t="n">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="Z9" t="n">
-        <v>28</v>
+        <v>160</v>
       </c>
       <c r="AA9" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="AB9" t="n">
-        <v>7.2</v>
+        <v>32</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.2</v>
+        <v>23</v>
       </c>
       <c r="AD9" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
         <v>13</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH9" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="AI9" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AL9" t="n">
         <v>34</v>
       </c>
-      <c r="AK9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>110</v>
-      </c>
       <c r="AM9" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>600</v>
+        <v>3.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>600</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Scottish League One</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,126 +1733,126 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Alloa</t>
+          <t>Bastia</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Inverness CT</t>
+          <t>Laval</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>5</v>
+        <v>2.32</v>
       </c>
       <c r="G10" t="n">
-        <v>5.9</v>
+        <v>2.38</v>
       </c>
       <c r="H10" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="W10" t="n">
         <v>1.72</v>
       </c>
-      <c r="I10" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K10" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N10" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S10" t="n">
-        <v>3</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="V10" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1.2</v>
-      </c>
       <c r="X10" t="n">
-        <v>980</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y10" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD10" t="n">
         <v>17.5</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="AE10" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH10" t="n">
         <v>25</v>
       </c>
-      <c r="AA10" t="n">
-        <v>130</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>980</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>130</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>150</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>980</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>60</v>
-      </c>
       <c r="AI10" t="n">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AK10" t="n">
-        <v>330</v>
+        <v>34</v>
       </c>
       <c r="AL10" t="n">
-        <v>330</v>
+        <v>110</v>
       </c>
       <c r="AM10" t="n">
-        <v>580</v>
+        <v>230</v>
       </c>
       <c r="AN10" t="n">
-        <v>290</v>
+        <v>36</v>
       </c>
       <c r="AO10" t="n">
-        <v>29</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.7</v>
+        <v>2.64</v>
       </c>
       <c r="G11" t="n">
-        <v>2.82</v>
+        <v>2.74</v>
       </c>
       <c r="H11" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="I11" t="n">
-        <v>2.84</v>
+        <v>2.9</v>
       </c>
       <c r="J11" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K11" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L11" t="n">
         <v>1.4</v>
@@ -1912,10 +1912,10 @@
         <v>1.28</v>
       </c>
       <c r="P11" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="R11" t="n">
         <v>1.44</v>
@@ -1924,43 +1924,43 @@
         <v>3.1</v>
       </c>
       <c r="T11" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="U11" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="V11" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="W11" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="X11" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y11" t="n">
         <v>13</v>
       </c>
       <c r="Z11" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AA11" t="n">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="AB11" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD11" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AE11" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AF11" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AG11" t="n">
         <v>12</v>
@@ -1972,13 +1972,13 @@
         <v>38</v>
       </c>
       <c r="AJ11" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AK11" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL11" t="n">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="AM11" t="n">
         <v>75</v>
@@ -1987,13 +1987,13 @@
         <v>21</v>
       </c>
       <c r="AO11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Scottish Championship</t>
+          <t>Scottish League One</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2008,127 +2008,127 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Partick</t>
+          <t>Alloa</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Dunfermline</t>
+          <t>Inverness CT</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.95</v>
+        <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>2.06</v>
+        <v>6</v>
       </c>
       <c r="H12" t="n">
-        <v>4.7</v>
+        <v>1.72</v>
       </c>
       <c r="I12" t="n">
-        <v>5.5</v>
+        <v>1.82</v>
       </c>
       <c r="J12" t="n">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="K12" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="L12" t="n">
-        <v>1.49</v>
+        <v>1.37</v>
       </c>
       <c r="M12" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="O12" t="n">
-        <v>1.41</v>
+        <v>1.27</v>
       </c>
       <c r="P12" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.28</v>
+        <v>1.83</v>
       </c>
       <c r="R12" t="n">
-        <v>1.26</v>
+        <v>1.43</v>
       </c>
       <c r="S12" t="n">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="T12" t="n">
-        <v>1.94</v>
+        <v>1.79</v>
       </c>
       <c r="U12" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="V12" t="n">
-        <v>1.23</v>
+        <v>2.2</v>
       </c>
       <c r="W12" t="n">
-        <v>1.95</v>
+        <v>1.21</v>
       </c>
       <c r="X12" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="Z12" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB12" t="n">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="AC12" t="n">
-        <v>15</v>
+        <v>9.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AF12" t="n">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="AG12" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH12" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ12" t="n">
         <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>85</v>
+        <v>330</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN12" t="n">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,126 +2138,126 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Partick</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>Dunfermline</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="G13" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="H13" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="I13" t="n">
-        <v>4.5</v>
+        <v>5.6</v>
       </c>
       <c r="J13" t="n">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="K13" t="n">
-        <v>3.95</v>
+        <v>3.4</v>
       </c>
       <c r="L13" t="n">
-        <v>1.33</v>
+        <v>1.49</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="N13" t="n">
-        <v>5.1</v>
+        <v>3.1</v>
       </c>
       <c r="O13" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S13" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="V13" t="n">
         <v>1.23</v>
       </c>
-      <c r="P13" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.28</v>
-      </c>
       <c r="W13" t="n">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
       <c r="X13" t="n">
         <v>19.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="Z13" t="n">
-        <v>34</v>
+        <v>140</v>
       </c>
       <c r="AA13" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>12</v>
+        <v>7.6</v>
       </c>
       <c r="AC13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AD13" t="n">
-        <v>17.5</v>
+        <v>44</v>
       </c>
       <c r="AE13" t="n">
-        <v>44</v>
+        <v>500</v>
       </c>
       <c r="AF13" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AG13" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH13" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AI13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN13" t="n">
         <v>46</v>
       </c>
-      <c r="AJ13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>27</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>9.4</v>
-      </c>
       <c r="AO13" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
@@ -2278,34 +2278,34 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Bodo Glimt</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.2</v>
+        <v>1.89</v>
       </c>
       <c r="G14" t="n">
-        <v>3.25</v>
+        <v>1.9</v>
       </c>
       <c r="H14" t="n">
-        <v>2.32</v>
+        <v>4.5</v>
       </c>
       <c r="I14" t="n">
-        <v>2.36</v>
+        <v>4.6</v>
       </c>
       <c r="J14" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="K14" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="L14" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M14" t="n">
         <v>1.05</v>
@@ -2317,82 +2317,82 @@
         <v>1.22</v>
       </c>
       <c r="P14" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="R14" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="S14" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="T14" t="n">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="U14" t="n">
-        <v>2.6</v>
+        <v>2.48</v>
       </c>
       <c r="V14" t="n">
-        <v>1.73</v>
+        <v>1.28</v>
       </c>
       <c r="W14" t="n">
-        <v>1.44</v>
+        <v>2.1</v>
       </c>
       <c r="X14" t="n">
         <v>21</v>
       </c>
       <c r="Y14" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="Z14" t="n">
-        <v>16.5</v>
+        <v>36</v>
       </c>
       <c r="AA14" t="n">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="AB14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK14" t="n">
         <v>17</v>
       </c>
-      <c r="AC14" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>24</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>28</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>32</v>
-      </c>
       <c r="AL14" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="AM14" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AN14" t="n">
-        <v>22</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO14" t="n">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15">
@@ -2413,121 +2413,121 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Bodo Glimt</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.28</v>
+        <v>3.15</v>
       </c>
       <c r="G15" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="H15" t="n">
-        <v>3.1</v>
+        <v>2.36</v>
       </c>
       <c r="I15" t="n">
-        <v>3.15</v>
+        <v>2.38</v>
       </c>
       <c r="J15" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K15" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="L15" t="n">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="M15" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>7</v>
+        <v>5.3</v>
       </c>
       <c r="O15" t="n">
-        <v>1.15</v>
+        <v>1.22</v>
       </c>
       <c r="P15" t="n">
-        <v>2.98</v>
+        <v>2.42</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.49</v>
+        <v>1.69</v>
       </c>
       <c r="R15" t="n">
-        <v>1.81</v>
+        <v>1.58</v>
       </c>
       <c r="S15" t="n">
-        <v>2.18</v>
+        <v>2.68</v>
       </c>
       <c r="T15" t="n">
-        <v>1.48</v>
+        <v>1.6</v>
       </c>
       <c r="U15" t="n">
-        <v>3</v>
+        <v>2.62</v>
       </c>
       <c r="V15" t="n">
-        <v>1.46</v>
+        <v>1.72</v>
       </c>
       <c r="W15" t="n">
-        <v>1.76</v>
+        <v>1.45</v>
       </c>
       <c r="X15" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI15" t="n">
         <v>28</v>
       </c>
-      <c r="Y15" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>27</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>50</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>27</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH15" t="n">
+      <c r="AJ15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO15" t="n">
         <v>13</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>24</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>40</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>15.5</v>
       </c>
     </row>
     <row r="16">
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Leverkusen</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.27</v>
+        <v>2.3</v>
       </c>
       <c r="G16" t="n">
-        <v>1.28</v>
+        <v>2.32</v>
       </c>
       <c r="H16" t="n">
-        <v>12.5</v>
+        <v>3.05</v>
       </c>
       <c r="I16" t="n">
-        <v>13</v>
+        <v>3.15</v>
       </c>
       <c r="J16" t="n">
+        <v>4</v>
+      </c>
+      <c r="K16" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N16" t="n">
         <v>7.2</v>
       </c>
-      <c r="K16" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N16" t="n">
-        <v>9.800000000000001</v>
-      </c>
       <c r="O16" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="P16" t="n">
-        <v>3.85</v>
+        <v>3</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.34</v>
+        <v>1.48</v>
       </c>
       <c r="R16" t="n">
-        <v>2.14</v>
+        <v>1.84</v>
       </c>
       <c r="S16" t="n">
-        <v>1.85</v>
+        <v>2.16</v>
       </c>
       <c r="T16" t="n">
-        <v>1.73</v>
+        <v>1.46</v>
       </c>
       <c r="U16" t="n">
-        <v>2.32</v>
+        <v>3.1</v>
       </c>
       <c r="V16" t="n">
-        <v>1.08</v>
+        <v>1.47</v>
       </c>
       <c r="W16" t="n">
-        <v>4.6</v>
+        <v>1.76</v>
       </c>
       <c r="X16" t="n">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="Y16" t="n">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="Z16" t="n">
-        <v>140</v>
+        <v>28</v>
       </c>
       <c r="AA16" t="n">
-        <v>470</v>
+        <v>55</v>
       </c>
       <c r="AB16" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AC16" t="n">
-        <v>17.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>42</v>
+        <v>14.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>140</v>
+        <v>27</v>
       </c>
       <c r="AF16" t="n">
-        <v>11.5</v>
+        <v>20</v>
       </c>
       <c r="AG16" t="n">
         <v>11.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="AJ16" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="AK16" t="n">
-        <v>12</v>
+        <v>19.5</v>
       </c>
       <c r="AL16" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AM16" t="n">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="AN16" t="n">
-        <v>3.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO16" t="n">
-        <v>130</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -2683,12 +2683,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Qarabag FK</t>
+          <t>Leverkusen</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -2698,106 +2698,106 @@
         <v>1.3</v>
       </c>
       <c r="H17" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="I17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J17" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="K17" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="L17" t="n">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="M17" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N17" t="n">
-        <v>6.2</v>
+        <v>8.6</v>
       </c>
       <c r="O17" t="n">
-        <v>1.18</v>
+        <v>1.12</v>
       </c>
       <c r="P17" t="n">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.54</v>
+        <v>1.37</v>
       </c>
       <c r="R17" t="n">
-        <v>1.72</v>
+        <v>2.04</v>
       </c>
       <c r="S17" t="n">
-        <v>2.36</v>
+        <v>1.92</v>
       </c>
       <c r="T17" t="n">
-        <v>2.02</v>
+        <v>1.73</v>
       </c>
       <c r="U17" t="n">
-        <v>1.96</v>
+        <v>2.32</v>
       </c>
       <c r="V17" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="W17" t="n">
         <v>4.3</v>
       </c>
       <c r="X17" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="Y17" t="n">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="Z17" t="n">
         <v>130</v>
       </c>
       <c r="AA17" t="n">
-        <v>570</v>
+        <v>470</v>
       </c>
       <c r="AB17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>140</v>
+      </c>
+      <c r="AF17" t="n">
         <v>11</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>44</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>180</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>8.4</v>
       </c>
       <c r="AG17" t="n">
         <v>11</v>
       </c>
       <c r="AH17" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AI17" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>24</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AO17" t="n">
         <v>140</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>180</v>
       </c>
     </row>
     <row r="18">
@@ -2818,121 +2818,121 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Qarabag FK</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.1</v>
+        <v>1.29</v>
       </c>
       <c r="G18" t="n">
-        <v>3.15</v>
+        <v>1.3</v>
       </c>
       <c r="H18" t="n">
-        <v>2.48</v>
+        <v>13</v>
       </c>
       <c r="I18" t="n">
-        <v>2.5</v>
+        <v>13.5</v>
       </c>
       <c r="J18" t="n">
-        <v>3.55</v>
+        <v>6.6</v>
       </c>
       <c r="K18" t="n">
-        <v>3.6</v>
+        <v>6.8</v>
       </c>
       <c r="L18" t="n">
-        <v>1.39</v>
+        <v>1.28</v>
       </c>
       <c r="M18" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>4.4</v>
+        <v>6.2</v>
       </c>
       <c r="O18" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="P18" t="n">
-        <v>2.16</v>
+        <v>2.82</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.84</v>
+        <v>1.53</v>
       </c>
       <c r="R18" t="n">
-        <v>1.46</v>
+        <v>1.73</v>
       </c>
       <c r="S18" t="n">
-        <v>3.1</v>
+        <v>2.34</v>
       </c>
       <c r="T18" t="n">
-        <v>1.67</v>
+        <v>1.99</v>
       </c>
       <c r="U18" t="n">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="V18" t="n">
-        <v>1.66</v>
+        <v>1.08</v>
       </c>
       <c r="W18" t="n">
-        <v>1.46</v>
+        <v>4.3</v>
       </c>
       <c r="X18" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="Y18" t="n">
-        <v>12.5</v>
+        <v>46</v>
       </c>
       <c r="Z18" t="n">
-        <v>16.5</v>
+        <v>130</v>
       </c>
       <c r="AA18" t="n">
-        <v>34</v>
+        <v>520</v>
       </c>
       <c r="AB18" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AC18" t="n">
-        <v>7.8</v>
+        <v>15</v>
       </c>
       <c r="AD18" t="n">
-        <v>11.5</v>
+        <v>44</v>
       </c>
       <c r="AE18" t="n">
-        <v>23</v>
+        <v>180</v>
       </c>
       <c r="AF18" t="n">
-        <v>22</v>
+        <v>8.6</v>
       </c>
       <c r="AG18" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="AH18" t="n">
-        <v>14.5</v>
+        <v>29</v>
       </c>
       <c r="AI18" t="n">
+        <v>140</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL18" t="n">
         <v>32</v>
       </c>
-      <c r="AJ18" t="n">
-        <v>50</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>38</v>
-      </c>
       <c r="AM18" t="n">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="AN18" t="n">
-        <v>26</v>
+        <v>4.1</v>
       </c>
       <c r="AO18" t="n">
-        <v>17.5</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19">
@@ -2953,19 +2953,19 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Slavia Prague</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Athletic Bilbao</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F19" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="G19" t="n">
         <v>3.2</v>
-      </c>
-      <c r="G19" t="n">
-        <v>3.25</v>
       </c>
       <c r="H19" t="n">
         <v>2.46</v>
@@ -2974,40 +2974,40 @@
         <v>2.48</v>
       </c>
       <c r="J19" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K19" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L19" t="n">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="M19" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="O19" t="n">
-        <v>1.34</v>
+        <v>1.27</v>
       </c>
       <c r="P19" t="n">
-        <v>1.92</v>
+        <v>2.14</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.06</v>
+        <v>1.86</v>
       </c>
       <c r="R19" t="n">
-        <v>1.36</v>
+        <v>1.46</v>
       </c>
       <c r="S19" t="n">
-        <v>3.65</v>
+        <v>3.1</v>
       </c>
       <c r="T19" t="n">
-        <v>1.81</v>
+        <v>1.69</v>
       </c>
       <c r="U19" t="n">
-        <v>2.18</v>
+        <v>2.4</v>
       </c>
       <c r="V19" t="n">
         <v>1.67</v>
@@ -3016,64 +3016,64 @@
         <v>1.44</v>
       </c>
       <c r="X19" t="n">
-        <v>13</v>
+        <v>16.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="Z19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AA19" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AB19" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD19" t="n">
         <v>11.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG19" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AJ19" t="n">
         <v>55</v>
       </c>
       <c r="AK19" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AL19" t="n">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AM19" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AN19" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AO19" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,126 +3083,126 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Atletico MG</t>
+          <t>Slavia Prague</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Athletic Bilbao</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>4.4</v>
+        <v>3.35</v>
       </c>
       <c r="G20" t="n">
-        <v>4.8</v>
+        <v>3.4</v>
       </c>
       <c r="H20" t="n">
-        <v>2.02</v>
+        <v>2.42</v>
       </c>
       <c r="I20" t="n">
-        <v>2.06</v>
+        <v>2.46</v>
       </c>
       <c r="J20" t="n">
         <v>3.4</v>
       </c>
       <c r="K20" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L20" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="M20" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>3.15</v>
+        <v>3.6</v>
       </c>
       <c r="O20" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="P20" t="n">
-        <v>1.71</v>
+        <v>1.86</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.34</v>
+        <v>2.12</v>
       </c>
       <c r="R20" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="S20" t="n">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="T20" t="n">
-        <v>2.02</v>
+        <v>1.85</v>
       </c>
       <c r="U20" t="n">
-        <v>1.89</v>
+        <v>2.12</v>
       </c>
       <c r="V20" t="n">
-        <v>1.94</v>
+        <v>1.69</v>
       </c>
       <c r="W20" t="n">
-        <v>1.27</v>
+        <v>1.41</v>
       </c>
       <c r="X20" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y20" t="n">
-        <v>7.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z20" t="n">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AB20" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AC20" t="n">
         <v>7.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AF20" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AG20" t="n">
-        <v>18.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>22</v>
+        <v>17.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AJ20" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="AK20" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="AL20" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="AM20" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="AN20" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="AO20" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21">
@@ -3235,10 +3235,10 @@
         <v>2.34</v>
       </c>
       <c r="G21" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="H21" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I21" t="n">
         <v>3.55</v>
@@ -3256,58 +3256,58 @@
         <v>1.09</v>
       </c>
       <c r="N21" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="O21" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="P21" t="n">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="R21" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="S21" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="T21" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="U21" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="V21" t="n">
         <v>1.39</v>
       </c>
       <c r="W21" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="X21" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z21" t="n">
         <v>23</v>
       </c>
       <c r="AA21" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AB21" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AC21" t="n">
         <v>7.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE21" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AF21" t="n">
         <v>14.5</v>
@@ -3316,7 +3316,7 @@
         <v>11.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI21" t="n">
         <v>65</v>
@@ -3325,7 +3325,7 @@
         <v>32</v>
       </c>
       <c r="AK21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL21" t="n">
         <v>46</v>
@@ -3334,7 +3334,7 @@
         <v>120</v>
       </c>
       <c r="AN21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO21" t="n">
         <v>55</v>
@@ -3343,7 +3343,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3358,120 +3358,255 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Atletico MG</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Tolima</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="G22" t="n">
-        <v>2.56</v>
+        <v>4.4</v>
       </c>
       <c r="H22" t="n">
-        <v>3.6</v>
+        <v>2.06</v>
       </c>
       <c r="I22" t="n">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="J22" t="n">
-        <v>2.86</v>
+        <v>3.5</v>
       </c>
       <c r="K22" t="n">
-        <v>3.05</v>
+        <v>3.55</v>
       </c>
       <c r="L22" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="M22" t="n">
         <v>1.1</v>
       </c>
       <c r="N22" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="O22" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P22" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="R22" t="n">
         <v>1.27</v>
       </c>
       <c r="S22" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="T22" t="n">
-        <v>1.86</v>
+        <v>2.02</v>
       </c>
       <c r="U22" t="n">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="V22" t="n">
-        <v>1.33</v>
+        <v>1.92</v>
       </c>
       <c r="W22" t="n">
-        <v>1.64</v>
+        <v>1.3</v>
       </c>
       <c r="X22" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB22" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y22" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AC22" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AE22" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AF22" t="n">
-        <v>17.5</v>
+        <v>29</v>
       </c>
       <c r="AG22" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AH22" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI22" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AK22" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL22" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AM22" t="n">
         <v>150</v>
       </c>
       <c r="AN22" t="n">
+        <v>80</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2025-11-25</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Santa Fe</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Tolima</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I23" t="n">
+        <v>4</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N23" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="X23" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA23" t="n">
         <v>1000</v>
       </c>
-      <c r="AO22" t="n">
+      <c r="AB23" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO23" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-25.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.38</v>
+        <v>1.11</v>
       </c>
       <c r="G2" t="n">
-        <v>1.4</v>
+        <v>1.13</v>
       </c>
       <c r="H2" t="n">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="I2" t="n">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="J2" t="n">
-        <v>4.7</v>
+        <v>10</v>
       </c>
       <c r="K2" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="L2" t="n">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.46</v>
+        <v>1.29</v>
       </c>
       <c r="P2" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.36</v>
+        <v>2.46</v>
       </c>
       <c r="R2" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="S2" t="n">
-        <v>4.7</v>
+        <v>6</v>
       </c>
       <c r="T2" t="n">
-        <v>2.72</v>
+        <v>1.29</v>
       </c>
       <c r="U2" t="n">
-        <v>1.52</v>
+        <v>1.32</v>
       </c>
       <c r="V2" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="X2" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>5.6</v>
+        <v>4.3</v>
       </c>
       <c r="AC2" t="n">
-        <v>11.5</v>
+        <v>16.5</v>
       </c>
       <c r="AD2" t="n">
         <v>120</v>
       </c>
       <c r="AE2" t="n">
-        <v>420</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.6</v>
+        <v>4</v>
       </c>
       <c r="AG2" t="n">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>11</v>
+        <v>8.6</v>
       </c>
       <c r="AK2" t="n">
-        <v>19.5</v>
+        <v>28</v>
       </c>
       <c r="AL2" t="n">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="AM2" t="n">
-        <v>790</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>9.800000000000001</v>
+        <v>12</v>
       </c>
       <c r="AO2" t="n">
-        <v>950</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.7</v>
+        <v>1.84</v>
       </c>
       <c r="G3" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="H3" t="n">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>6.2</v>
+        <v>4.5</v>
       </c>
       <c r="J3" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="L3" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P3" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="R3" t="n">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="S3" t="n">
-        <v>2.72</v>
+        <v>2.84</v>
       </c>
       <c r="T3" t="n">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="U3" t="n">
-        <v>2.08</v>
+        <v>2.22</v>
       </c>
       <c r="V3" t="n">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="W3" t="n">
-        <v>2.18</v>
+        <v>2.04</v>
       </c>
       <c r="X3" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Y3" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Z3" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AA3" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="AB3" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC3" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AD3" t="n">
-        <v>25</v>
+        <v>18.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>80</v>
+        <v>980</v>
       </c>
       <c r="AF3" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH3" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>23</v>
       </c>
-      <c r="AI3" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>22</v>
-      </c>
       <c r="AK3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL3" t="n">
         <v>38</v>
       </c>
       <c r="AM3" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="AN3" t="n">
         <v>11</v>
       </c>
       <c r="AO3" t="n">
-        <v>80</v>
+        <v>980</v>
       </c>
     </row>
     <row r="4">
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="G4" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K4" t="n">
         <v>3.8</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.85</v>
       </c>
       <c r="L4" t="n">
         <v>1.43</v>
@@ -967,7 +967,7 @@
         <v>1.24</v>
       </c>
       <c r="P4" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q4" t="n">
         <v>1.73</v>
@@ -982,67 +982,67 @@
         <v>1.64</v>
       </c>
       <c r="U4" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="V4" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="W4" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="X4" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AA4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB4" t="n">
         <v>16.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AE4" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AF4" t="n">
         <v>27</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ4" t="n">
         <v>65</v>
       </c>
       <c r="AK4" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL4" t="n">
         <v>40</v>
       </c>
       <c r="AM4" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN4" t="n">
         <v>32</v>
       </c>
       <c r="AO4" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="5">
@@ -1078,10 +1078,10 @@
         <v>1.79</v>
       </c>
       <c r="H5" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="I5" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="J5" t="n">
         <v>4.2</v>
@@ -1090,34 +1090,34 @@
         <v>4.3</v>
       </c>
       <c r="L5" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M5" t="n">
         <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P5" t="n">
-        <v>2.7</v>
+        <v>2.64</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R5" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S5" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="T5" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="U5" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="V5" t="n">
         <v>1.25</v>
@@ -1126,37 +1126,37 @@
         <v>2.26</v>
       </c>
       <c r="X5" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Y5" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Z5" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AA5" t="n">
         <v>110</v>
       </c>
       <c r="AB5" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AE5" t="n">
         <v>48</v>
       </c>
       <c r="AF5" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG5" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AH5" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AI5" t="n">
         <v>46</v>
@@ -1174,10 +1174,10 @@
         <v>65</v>
       </c>
       <c r="AN5" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AO5" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6">
@@ -1207,25 +1207,25 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="G6" t="n">
-        <v>1.48</v>
+        <v>1.56</v>
       </c>
       <c r="H6" t="n">
-        <v>6.4</v>
+        <v>5.6</v>
       </c>
       <c r="I6" t="n">
-        <v>7.2</v>
+        <v>6.2</v>
       </c>
       <c r="J6" t="n">
-        <v>5.8</v>
+        <v>5.2</v>
       </c>
       <c r="K6" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="L6" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="M6" t="n">
         <v>1.01</v>
@@ -1237,82 +1237,82 @@
         <v>1.09</v>
       </c>
       <c r="P6" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="Q6" t="n">
         <v>1.31</v>
       </c>
       <c r="R6" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="S6" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="T6" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="U6" t="n">
-        <v>2.86</v>
+        <v>3.05</v>
       </c>
       <c r="V6" t="n">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="W6" t="n">
-        <v>3.05</v>
+        <v>2.78</v>
       </c>
       <c r="X6" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="Y6" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AA6" t="n">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="AB6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC6" t="n">
         <v>16</v>
       </c>
       <c r="AD6" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AF6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG6" t="n">
         <v>12</v>
       </c>
       <c r="AH6" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI6" t="n">
-        <v>130</v>
+        <v>46</v>
       </c>
       <c r="AJ6" t="n">
-        <v>17.5</v>
+        <v>23</v>
       </c>
       <c r="AK6" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AL6" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="AM6" t="n">
-        <v>250</v>
+        <v>48</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="AO6" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -1342,73 +1342,73 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="H7" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="J7" t="n">
         <v>4.4</v>
       </c>
       <c r="K7" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L7" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="M7" t="n">
         <v>1.02</v>
       </c>
       <c r="N7" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="O7" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="P7" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="Q7" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T7" t="n">
         <v>1.4</v>
       </c>
-      <c r="R7" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.42</v>
-      </c>
       <c r="U7" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="W7" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="X7" t="n">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="Y7" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Z7" t="n">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="AA7" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="AB7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AC7" t="n">
         <v>13</v>
@@ -1417,37 +1417,37 @@
         <v>17</v>
       </c>
       <c r="AE7" t="n">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="AF7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG7" t="n">
         <v>12.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI7" t="n">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="AJ7" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AK7" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AL7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM7" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="AN7" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AO7" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="8">
@@ -1477,112 +1477,112 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.92</v>
+        <v>1.75</v>
       </c>
       <c r="G8" t="n">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="H8" t="n">
-        <v>3.95</v>
+        <v>4.7</v>
       </c>
       <c r="I8" t="n">
-        <v>4.3</v>
+        <v>5.1</v>
       </c>
       <c r="J8" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="K8" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="L8" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M8" t="n">
         <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="O8" t="n">
         <v>1.21</v>
       </c>
       <c r="P8" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="R8" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="S8" t="n">
         <v>2.6</v>
       </c>
       <c r="T8" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="U8" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="V8" t="n">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="W8" t="n">
-        <v>2.02</v>
+        <v>2.24</v>
       </c>
       <c r="X8" t="n">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="Y8" t="n">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="Z8" t="n">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="AA8" t="n">
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF8" t="n">
         <v>12.5</v>
       </c>
-      <c r="AC8" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>170</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI8" t="n">
         <v>120</v>
       </c>
       <c r="AJ8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AL8" t="n">
         <v>27</v>
       </c>
-      <c r="AK8" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>32</v>
-      </c>
       <c r="AM8" t="n">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="AN8" t="n">
-        <v>9.4</v>
+        <v>8</v>
       </c>
       <c r="AO8" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9">
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="G9" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="H9" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="I9" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="J9" t="n">
         <v>6.4</v>
@@ -1642,7 +1642,7 @@
         <v>1.11</v>
       </c>
       <c r="P9" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="Q9" t="n">
         <v>1.35</v>
@@ -1651,52 +1651,52 @@
         <v>2.04</v>
       </c>
       <c r="S9" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="T9" t="n">
         <v>1.65</v>
       </c>
       <c r="U9" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="V9" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="W9" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="X9" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="Y9" t="n">
         <v>110</v>
       </c>
       <c r="Z9" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
         <v>300</v>
       </c>
       <c r="AB9" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AC9" t="n">
         <v>23</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AE9" t="n">
         <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG9" t="n">
         <v>11</v>
       </c>
       <c r="AH9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
@@ -1705,7 +1705,7 @@
         <v>13.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AL9" t="n">
         <v>34</v>
@@ -1714,7 +1714,7 @@
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="AO9" t="n">
         <v>100</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="G10" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="H10" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I10" t="n">
         <v>4</v>
       </c>
       <c r="J10" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K10" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="L10" t="n">
         <v>1.6</v>
@@ -1771,7 +1771,7 @@
         <v>1.13</v>
       </c>
       <c r="N10" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="O10" t="n">
         <v>1.56</v>
@@ -1783,7 +1783,7 @@
         <v>2.72</v>
       </c>
       <c r="R10" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S10" t="n">
         <v>5.7</v>
@@ -1798,31 +1798,31 @@
         <v>1.33</v>
       </c>
       <c r="W10" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="X10" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="Y10" t="n">
         <v>10.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AA10" t="n">
         <v>90</v>
       </c>
       <c r="AB10" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AC10" t="n">
         <v>7.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AE10" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="AF10" t="n">
         <v>12.5</v>
@@ -1837,7 +1837,7 @@
         <v>95</v>
       </c>
       <c r="AJ10" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AK10" t="n">
         <v>34</v>
@@ -1846,13 +1846,13 @@
         <v>110</v>
       </c>
       <c r="AM10" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="AN10" t="n">
         <v>36</v>
       </c>
       <c r="AO10" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="G11" t="n">
         <v>2.74</v>
@@ -1891,16 +1891,16 @@
         <v>2.8</v>
       </c>
       <c r="I11" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="J11" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K11" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L11" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M11" t="n">
         <v>1.06</v>
@@ -1909,67 +1909,67 @@
         <v>4.3</v>
       </c>
       <c r="O11" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P11" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="R11" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S11" t="n">
         <v>3.1</v>
       </c>
       <c r="T11" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="U11" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="V11" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="W11" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="X11" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Y11" t="n">
         <v>13</v>
       </c>
       <c r="Z11" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="AB11" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC11" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD11" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF11" t="n">
         <v>18.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH11" t="n">
         <v>15.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AJ11" t="n">
         <v>40</v>
@@ -1984,10 +1984,10 @@
         <v>75</v>
       </c>
       <c r="AN11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
@@ -2023,7 +2023,7 @@
         <v>6</v>
       </c>
       <c r="H12" t="n">
-        <v>1.72</v>
+        <v>1.77</v>
       </c>
       <c r="I12" t="n">
         <v>1.82</v>
@@ -2032,79 +2032,79 @@
         <v>3.8</v>
       </c>
       <c r="K12" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="L12" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="O12" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="P12" t="n">
-        <v>2.1</v>
+        <v>1.96</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="R12" t="n">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="S12" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="T12" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="U12" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="V12" t="n">
         <v>2.2</v>
       </c>
       <c r="W12" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="X12" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.4</v>
+        <v>14.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>24</v>
+        <v>19.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="AB12" t="n">
         <v>980</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.6</v>
+        <v>13.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AE12" t="n">
         <v>42</v>
       </c>
       <c r="AF12" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="AG12" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AH12" t="n">
         <v>42</v>
       </c>
       <c r="AI12" t="n">
-        <v>980</v>
+        <v>170</v>
       </c>
       <c r="AJ12" t="n">
         <v>1000</v>
@@ -2113,7 +2113,7 @@
         <v>330</v>
       </c>
       <c r="AL12" t="n">
-        <v>330</v>
+        <v>200</v>
       </c>
       <c r="AM12" t="n">
         <v>580</v>
@@ -2152,61 +2152,61 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="G13" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="H13" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="I13" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="J13" t="n">
         <v>3.25</v>
       </c>
       <c r="K13" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L13" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="M13" t="n">
         <v>1.1</v>
       </c>
       <c r="N13" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O13" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P13" t="n">
         <v>1.73</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="R13" t="n">
         <v>1.26</v>
       </c>
       <c r="S13" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="T13" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="U13" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="V13" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="W13" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="X13" t="n">
-        <v>19.5</v>
+        <v>12</v>
       </c>
       <c r="Y13" t="n">
         <v>27</v>
@@ -2224,19 +2224,19 @@
         <v>8</v>
       </c>
       <c r="AD13" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AE13" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AG13" t="n">
         <v>10</v>
       </c>
       <c r="AH13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI13" t="n">
         <v>1000</v>
@@ -2245,7 +2245,7 @@
         <v>65</v>
       </c>
       <c r="AK13" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AL13" t="n">
         <v>1000</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="G14" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="H14" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I14" t="n">
         <v>4.5</v>
       </c>
-      <c r="I14" t="n">
-        <v>4.6</v>
-      </c>
       <c r="J14" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K14" t="n">
         <v>4</v>
-      </c>
-      <c r="K14" t="n">
-        <v>4.1</v>
       </c>
       <c r="L14" t="n">
         <v>1.33</v>
@@ -2311,19 +2311,19 @@
         <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="O14" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P14" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="R14" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="S14" t="n">
         <v>2.66</v>
@@ -2332,34 +2332,34 @@
         <v>1.65</v>
       </c>
       <c r="U14" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="V14" t="n">
         <v>1.28</v>
       </c>
       <c r="W14" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="X14" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="Y14" t="n">
         <v>21</v>
       </c>
       <c r="Z14" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA14" t="n">
         <v>85</v>
       </c>
       <c r="AB14" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD14" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AE14" t="n">
         <v>44</v>
@@ -2368,13 +2368,13 @@
         <v>13</v>
       </c>
       <c r="AG14" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH14" t="n">
         <v>15.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ14" t="n">
         <v>21</v>
@@ -2383,13 +2383,13 @@
         <v>17</v>
       </c>
       <c r="AL14" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM14" t="n">
         <v>65</v>
       </c>
       <c r="AN14" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AO14" t="n">
         <v>40</v>
@@ -2446,28 +2446,28 @@
         <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="O15" t="n">
         <v>1.22</v>
       </c>
       <c r="P15" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="R15" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="S15" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="T15" t="n">
         <v>1.6</v>
       </c>
       <c r="U15" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="V15" t="n">
         <v>1.72</v>
@@ -2476,10 +2476,10 @@
         <v>1.45</v>
       </c>
       <c r="X15" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Y15" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z15" t="n">
         <v>16.5</v>
@@ -2488,13 +2488,13 @@
         <v>32</v>
       </c>
       <c r="AB15" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AC15" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD15" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AE15" t="n">
         <v>21</v>
@@ -2503,13 +2503,13 @@
         <v>24</v>
       </c>
       <c r="AG15" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH15" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ15" t="n">
         <v>55</v>
@@ -2521,10 +2521,10 @@
         <v>34</v>
       </c>
       <c r="AM15" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AN15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO15" t="n">
         <v>13</v>
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="F16" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="G16" t="n">
         <v>2.3</v>
       </c>
-      <c r="G16" t="n">
-        <v>2.32</v>
-      </c>
       <c r="H16" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="I16" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="J16" t="n">
         <v>4</v>
@@ -2575,94 +2575,94 @@
         <v>4.1</v>
       </c>
       <c r="L16" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="M16" t="n">
         <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="O16" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="P16" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="U16" t="n">
         <v>3</v>
       </c>
-      <c r="Q16" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="S16" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="U16" t="n">
-        <v>3.1</v>
-      </c>
       <c r="V16" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="W16" t="n">
         <v>1.76</v>
       </c>
       <c r="X16" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Y16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z16" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AA16" t="n">
         <v>55</v>
       </c>
       <c r="AB16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC16" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE16" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AF16" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AG16" t="n">
         <v>11.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ16" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AK16" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AL16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM16" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AN16" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17">
@@ -2704,10 +2704,10 @@
         <v>12</v>
       </c>
       <c r="J17" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="K17" t="n">
         <v>7</v>
-      </c>
-      <c r="K17" t="n">
-        <v>7.2</v>
       </c>
       <c r="L17" t="n">
         <v>1.22</v>
@@ -2716,10 +2716,10 @@
         <v>1.02</v>
       </c>
       <c r="N17" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="O17" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="P17" t="n">
         <v>3.6</v>
@@ -2728,16 +2728,16 @@
         <v>1.37</v>
       </c>
       <c r="R17" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="S17" t="n">
         <v>1.92</v>
       </c>
       <c r="T17" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="U17" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="V17" t="n">
         <v>1.09</v>
@@ -2761,13 +2761,13 @@
         <v>15</v>
       </c>
       <c r="AC17" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AD17" t="n">
         <v>40</v>
       </c>
       <c r="AE17" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AF17" t="n">
         <v>11</v>
@@ -2776,13 +2776,13 @@
         <v>11</v>
       </c>
       <c r="AH17" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI17" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AJ17" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AK17" t="n">
         <v>12</v>
@@ -2791,13 +2791,13 @@
         <v>24</v>
       </c>
       <c r="AM17" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN17" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="AO17" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18">
@@ -2869,10 +2869,10 @@
         <v>2.34</v>
       </c>
       <c r="T18" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="U18" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="V18" t="n">
         <v>1.08</v>
@@ -2881,7 +2881,7 @@
         <v>4.3</v>
       </c>
       <c r="X18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Y18" t="n">
         <v>46</v>
@@ -2899,7 +2899,7 @@
         <v>15</v>
       </c>
       <c r="AD18" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AE18" t="n">
         <v>180</v>
@@ -2914,7 +2914,7 @@
         <v>29</v>
       </c>
       <c r="AI18" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AJ18" t="n">
         <v>10.5</v>
@@ -2968,10 +2968,10 @@
         <v>3.2</v>
       </c>
       <c r="H19" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="I19" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="J19" t="n">
         <v>3.55</v>
@@ -2980,7 +2980,7 @@
         <v>3.6</v>
       </c>
       <c r="L19" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M19" t="n">
         <v>1.06</v>
@@ -2992,19 +2992,19 @@
         <v>1.27</v>
       </c>
       <c r="P19" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="R19" t="n">
         <v>1.46</v>
       </c>
       <c r="S19" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="T19" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="U19" t="n">
         <v>2.4</v>
@@ -3013,10 +3013,10 @@
         <v>1.67</v>
       </c>
       <c r="W19" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="X19" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y19" t="n">
         <v>12</v>
@@ -3025,10 +3025,10 @@
         <v>16</v>
       </c>
       <c r="AA19" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AB19" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC19" t="n">
         <v>7.8</v>
@@ -3046,13 +3046,13 @@
         <v>13.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AI19" t="n">
         <v>32</v>
       </c>
       <c r="AJ19" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AK19" t="n">
         <v>32</v>
@@ -3061,10 +3061,10 @@
         <v>38</v>
       </c>
       <c r="AM19" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO19" t="n">
         <v>17</v>
@@ -3097,13 +3097,13 @@
         </is>
       </c>
       <c r="F20" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G20" t="n">
         <v>3.35</v>
       </c>
-      <c r="G20" t="n">
-        <v>3.4</v>
-      </c>
       <c r="H20" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="I20" t="n">
         <v>2.46</v>
@@ -3112,7 +3112,7 @@
         <v>3.4</v>
       </c>
       <c r="K20" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L20" t="n">
         <v>1.47</v>
@@ -3139,34 +3139,34 @@
         <v>3.9</v>
       </c>
       <c r="T20" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="U20" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V20" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="W20" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="X20" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Z20" t="n">
         <v>14.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AB20" t="n">
         <v>12</v>
       </c>
       <c r="AC20" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD20" t="n">
         <v>11.5</v>
@@ -3193,7 +3193,7 @@
         <v>40</v>
       </c>
       <c r="AL20" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM20" t="n">
         <v>100</v>
@@ -3202,7 +3202,7 @@
         <v>40</v>
       </c>
       <c r="AO20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21">
@@ -3232,13 +3232,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="G21" t="n">
         <v>2.38</v>
       </c>
       <c r="H21" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I21" t="n">
         <v>3.55</v>
@@ -3256,28 +3256,28 @@
         <v>1.09</v>
       </c>
       <c r="N21" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="O21" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P21" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="Q21" t="n">
         <v>2.2</v>
       </c>
       <c r="R21" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S21" t="n">
         <v>4.1</v>
       </c>
       <c r="T21" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="U21" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V21" t="n">
         <v>1.39</v>
@@ -3286,19 +3286,19 @@
         <v>1.72</v>
       </c>
       <c r="X21" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y21" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA21" t="n">
         <v>70</v>
       </c>
       <c r="AB21" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC21" t="n">
         <v>7.4</v>
@@ -3310,7 +3310,7 @@
         <v>44</v>
       </c>
       <c r="AF21" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG21" t="n">
         <v>11.5</v>
@@ -3319,7 +3319,7 @@
         <v>19</v>
       </c>
       <c r="AI21" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ21" t="n">
         <v>32</v>
@@ -3337,7 +3337,7 @@
         <v>23</v>
       </c>
       <c r="AO21" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
     </row>
     <row r="22">
@@ -3367,16 +3367,16 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="G22" t="n">
         <v>4.4</v>
       </c>
       <c r="H22" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="I22" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="J22" t="n">
         <v>3.5</v>
@@ -3394,10 +3394,10 @@
         <v>3.2</v>
       </c>
       <c r="O22" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="P22" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q22" t="n">
         <v>2.32</v>
@@ -3412,13 +3412,13 @@
         <v>2.02</v>
       </c>
       <c r="U22" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="V22" t="n">
         <v>1.92</v>
       </c>
       <c r="W22" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X22" t="n">
         <v>11</v>
@@ -3430,10 +3430,10 @@
         <v>11.5</v>
       </c>
       <c r="AA22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AB22" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC22" t="n">
         <v>7.6</v>
@@ -3448,13 +3448,13 @@
         <v>29</v>
       </c>
       <c r="AG22" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AH22" t="n">
         <v>22</v>
       </c>
       <c r="AI22" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ22" t="n">
         <v>95</v>
@@ -3466,13 +3466,13 @@
         <v>80</v>
       </c>
       <c r="AM22" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN22" t="n">
         <v>80</v>
       </c>
       <c r="AO22" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="23">
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="G23" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="H23" t="n">
         <v>3.6</v>
       </c>
       <c r="I23" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J23" t="n">
-        <v>2.86</v>
+        <v>3</v>
       </c>
       <c r="K23" t="n">
         <v>3.1</v>
@@ -3523,19 +3523,19 @@
         <v>1.48</v>
       </c>
       <c r="M23" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N23" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="O23" t="n">
         <v>1.41</v>
       </c>
       <c r="P23" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="R23" t="n">
         <v>1.27</v>
@@ -3550,13 +3550,13 @@
         <v>1.98</v>
       </c>
       <c r="V23" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="W23" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="X23" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="Y23" t="n">
         <v>16</v>
@@ -3568,10 +3568,10 @@
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AC23" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD23" t="n">
         <v>21</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO23"/>
+  <dimension ref="A1:AO21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Pyramids</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Al Mokawloon</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.11</v>
+        <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>1.13</v>
+        <v>10.5</v>
       </c>
       <c r="H2" t="n">
-        <v>65</v>
+        <v>1.41</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>1.42</v>
       </c>
       <c r="J2" t="n">
-        <v>10</v>
+        <v>5.1</v>
       </c>
       <c r="K2" t="n">
-        <v>12</v>
+        <v>5.3</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -691,94 +691,94 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="O2" t="n">
-        <v>1.29</v>
+        <v>1.09</v>
       </c>
       <c r="P2" t="n">
-        <v>1.66</v>
+        <v>3.15</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.46</v>
+        <v>1.45</v>
       </c>
       <c r="R2" t="n">
-        <v>1.18</v>
+        <v>1.7</v>
       </c>
       <c r="S2" t="n">
-        <v>6</v>
+        <v>2.4</v>
       </c>
       <c r="T2" t="n">
-        <v>1.29</v>
+        <v>1.53</v>
       </c>
       <c r="U2" t="n">
-        <v>1.32</v>
+        <v>2.74</v>
       </c>
       <c r="V2" t="n">
-        <v>1.01</v>
+        <v>3.4</v>
       </c>
       <c r="W2" t="n">
-        <v>9</v>
+        <v>1.11</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
       </c>
       <c r="Y2" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AB2" t="n">
         <v>1000</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AC2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>500</v>
+      </c>
+      <c r="AF2" t="n">
         <v>1000</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AG2" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>500</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>1000</v>
       </c>
-      <c r="AB2" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>120</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>4</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>90</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>8.6</v>
-      </c>
       <c r="AK2" t="n">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="AL2" t="n">
-        <v>170</v>
+        <v>500</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN2" t="n">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Naestved</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Holbaek</t>
+          <t>Union St Gilloise</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.84</v>
+        <v>2.06</v>
       </c>
       <c r="G3" t="n">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I3" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="K3" t="n">
-        <v>4.6</v>
+        <v>3.65</v>
       </c>
       <c r="L3" t="n">
-        <v>1.36</v>
+        <v>1.48</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
         <v>4.5</v>
       </c>
       <c r="O3" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="V3" t="n">
         <v>1.26</v>
       </c>
-      <c r="P3" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="S3" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.29</v>
-      </c>
       <c r="W3" t="n">
-        <v>2.04</v>
+        <v>2.14</v>
       </c>
       <c r="X3" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="Y3" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Z3" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AA3" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC3" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG3" t="n">
         <v>10</v>
       </c>
-      <c r="AD3" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AH3" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AK3" t="n">
         <v>20</v>
       </c>
       <c r="AL3" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AM3" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="AN3" t="n">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.6</v>
+        <v>1.53</v>
       </c>
       <c r="G4" t="n">
-        <v>3.65</v>
+        <v>1.57</v>
       </c>
       <c r="H4" t="n">
-        <v>2.18</v>
+        <v>5.7</v>
       </c>
       <c r="I4" t="n">
-        <v>2.2</v>
+        <v>6.2</v>
       </c>
       <c r="J4" t="n">
-        <v>3.75</v>
+        <v>5.2</v>
       </c>
       <c r="K4" t="n">
-        <v>3.8</v>
+        <v>5.7</v>
       </c>
       <c r="L4" t="n">
-        <v>1.43</v>
+        <v>1.19</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>4.9</v>
+        <v>10.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.24</v>
+        <v>1.09</v>
       </c>
       <c r="P4" t="n">
-        <v>2.34</v>
+        <v>4.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.73</v>
+        <v>1.3</v>
       </c>
       <c r="R4" t="n">
-        <v>1.53</v>
+        <v>2.26</v>
       </c>
       <c r="S4" t="n">
-        <v>2.82</v>
+        <v>1.74</v>
       </c>
       <c r="T4" t="n">
-        <v>1.64</v>
+        <v>1.42</v>
       </c>
       <c r="U4" t="n">
-        <v>2.5</v>
+        <v>3.15</v>
       </c>
       <c r="V4" t="n">
-        <v>1.83</v>
+        <v>1.19</v>
       </c>
       <c r="W4" t="n">
-        <v>1.37</v>
+        <v>2.76</v>
       </c>
       <c r="X4" t="n">
-        <v>18.5</v>
+        <v>55</v>
       </c>
       <c r="Y4" t="n">
-        <v>12.5</v>
+        <v>120</v>
       </c>
       <c r="Z4" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AA4" t="n">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="AB4" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF4" t="n">
         <v>16.5</v>
       </c>
-      <c r="AC4" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>20</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>27</v>
-      </c>
       <c r="AG4" t="n">
-        <v>14.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="AJ4" t="n">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="AK4" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="AL4" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="AM4" t="n">
-        <v>60</v>
+        <v>960</v>
       </c>
       <c r="AN4" t="n">
-        <v>32</v>
+        <v>3.95</v>
       </c>
       <c r="AO4" t="n">
-        <v>12.5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,126 +1058,126 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Vitesse Arnhem</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Union St Gilloise</t>
+          <t>Jong PSV Eindhoven</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.78</v>
+        <v>1.99</v>
       </c>
       <c r="G5" t="n">
-        <v>1.79</v>
+        <v>2.04</v>
       </c>
       <c r="H5" t="n">
-        <v>4.9</v>
+        <v>3.45</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="J5" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="K5" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="L5" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N5" t="n">
-        <v>5.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="O5" t="n">
-        <v>1.2</v>
+        <v>1.12</v>
       </c>
       <c r="P5" t="n">
-        <v>2.64</v>
+        <v>3.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.6</v>
+        <v>1.39</v>
       </c>
       <c r="R5" t="n">
-        <v>1.65</v>
+        <v>2.04</v>
       </c>
       <c r="S5" t="n">
-        <v>2.48</v>
+        <v>1.92</v>
       </c>
       <c r="T5" t="n">
-        <v>1.62</v>
+        <v>1.4</v>
       </c>
       <c r="U5" t="n">
-        <v>2.56</v>
+        <v>3.25</v>
       </c>
       <c r="V5" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="W5" t="n">
-        <v>2.26</v>
+        <v>1.96</v>
       </c>
       <c r="X5" t="n">
+        <v>42</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB5" t="n">
         <v>22</v>
       </c>
-      <c r="Y5" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z5" t="n">
+      <c r="AC5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM5" t="n">
         <v>40</v>
       </c>
-      <c r="AA5" t="n">
-        <v>110</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH5" t="n">
+      <c r="AN5" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AO5" t="n">
         <v>15.5</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>24</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>44</v>
       </c>
     </row>
     <row r="6">
@@ -1198,121 +1198,121 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>Roda JC</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>FC Dordrecht</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.53</v>
+        <v>1.72</v>
       </c>
       <c r="G6" t="n">
-        <v>1.56</v>
+        <v>1.75</v>
       </c>
       <c r="H6" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N6" t="n">
         <v>5.6</v>
       </c>
-      <c r="I6" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="J6" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="K6" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N6" t="n">
-        <v>10</v>
-      </c>
       <c r="O6" t="n">
-        <v>1.09</v>
+        <v>1.2</v>
       </c>
       <c r="P6" t="n">
-        <v>4</v>
+        <v>2.48</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.31</v>
+        <v>1.63</v>
       </c>
       <c r="R6" t="n">
-        <v>2.24</v>
+        <v>1.6</v>
       </c>
       <c r="S6" t="n">
-        <v>1.76</v>
+        <v>2.58</v>
       </c>
       <c r="T6" t="n">
-        <v>1.44</v>
+        <v>1.65</v>
       </c>
       <c r="U6" t="n">
-        <v>3.05</v>
+        <v>2.4</v>
       </c>
       <c r="V6" t="n">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="W6" t="n">
-        <v>2.78</v>
+        <v>2.32</v>
       </c>
       <c r="X6" t="n">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="Y6" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>95</v>
+      </c>
+      <c r="AA6" t="n">
         <v>120</v>
       </c>
-      <c r="Z6" t="n">
-        <v>75</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>150</v>
-      </c>
       <c r="AB6" t="n">
-        <v>23</v>
+        <v>12.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>16</v>
+        <v>9.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="AE6" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="AF6" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>9.6</v>
       </c>
       <c r="AH6" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="AJ6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK6" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AL6" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AM6" t="n">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.1</v>
+        <v>7.6</v>
       </c>
       <c r="AO6" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7">
@@ -1333,127 +1333,127 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Vitesse Arnhem</t>
+          <t>RKC Waalwijk</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Jong PSV Eindhoven</t>
+          <t>MVV Maastricht</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>1.32</v>
       </c>
       <c r="G7" t="n">
-        <v>2.06</v>
+        <v>1.35</v>
       </c>
       <c r="H7" t="n">
-        <v>3.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>3.55</v>
+        <v>11</v>
       </c>
       <c r="J7" t="n">
-        <v>4.4</v>
+        <v>6.2</v>
       </c>
       <c r="K7" t="n">
-        <v>4.8</v>
+        <v>7</v>
       </c>
       <c r="L7" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="M7" t="n">
         <v>1.02</v>
       </c>
       <c r="N7" t="n">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="P7" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="R7" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="S7" t="n">
         <v>2.02</v>
       </c>
-      <c r="S7" t="n">
-        <v>1.95</v>
-      </c>
       <c r="T7" t="n">
-        <v>1.4</v>
+        <v>1.74</v>
       </c>
       <c r="U7" t="n">
-        <v>3.2</v>
+        <v>2.24</v>
       </c>
       <c r="V7" t="n">
-        <v>1.39</v>
+        <v>1.1</v>
       </c>
       <c r="W7" t="n">
-        <v>1.94</v>
+        <v>3.9</v>
       </c>
       <c r="X7" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="Y7" t="n">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="Z7" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>70</v>
+        <v>350</v>
       </c>
       <c r="AB7" t="n">
-        <v>22</v>
+        <v>14.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AD7" t="n">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="AE7" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AG7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>12.5</v>
       </c>
-      <c r="AH7" t="n">
-        <v>14</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>29</v>
-      </c>
       <c r="AK7" t="n">
-        <v>17.5</v>
+        <v>13.5</v>
       </c>
       <c r="AL7" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AM7" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="AN7" t="n">
-        <v>6.8</v>
+        <v>3.8</v>
       </c>
       <c r="AO7" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1468,127 +1468,127 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Roda JC</t>
+          <t>Bastia</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>FC Dordrecht</t>
+          <t>Laval</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.75</v>
+        <v>2.34</v>
       </c>
       <c r="G8" t="n">
-        <v>1.8</v>
+        <v>2.36</v>
       </c>
       <c r="H8" t="n">
-        <v>4.7</v>
+        <v>3.8</v>
       </c>
       <c r="I8" t="n">
-        <v>5.1</v>
+        <v>3.95</v>
       </c>
       <c r="J8" t="n">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="K8" t="n">
-        <v>4.4</v>
+        <v>3.2</v>
       </c>
       <c r="L8" t="n">
-        <v>1.31</v>
+        <v>1.61</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.14</v>
       </c>
       <c r="N8" t="n">
-        <v>5.4</v>
+        <v>2.62</v>
       </c>
       <c r="O8" t="n">
-        <v>1.21</v>
+        <v>1.59</v>
       </c>
       <c r="P8" t="n">
-        <v>2.46</v>
+        <v>1.52</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.64</v>
+        <v>2.8</v>
       </c>
       <c r="R8" t="n">
-        <v>1.59</v>
+        <v>1.18</v>
       </c>
       <c r="S8" t="n">
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="T8" t="n">
-        <v>1.64</v>
+        <v>2.24</v>
       </c>
       <c r="U8" t="n">
-        <v>2.42</v>
+        <v>1.77</v>
       </c>
       <c r="V8" t="n">
-        <v>1.25</v>
+        <v>1.34</v>
       </c>
       <c r="W8" t="n">
-        <v>2.24</v>
+        <v>1.73</v>
       </c>
       <c r="X8" t="n">
-        <v>22</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y8" t="n">
-        <v>24</v>
+        <v>10.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AB8" t="n">
-        <v>12</v>
+        <v>7.2</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.800000000000001</v>
+        <v>7.2</v>
       </c>
       <c r="AD8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE8" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AF8" t="n">
         <v>12.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AH8" t="n">
-        <v>16.5</v>
+        <v>25</v>
       </c>
       <c r="AI8" t="n">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="AJ8" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="AK8" t="n">
-        <v>16.5</v>
+        <v>34</v>
       </c>
       <c r="AL8" t="n">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="AM8" t="n">
-        <v>75</v>
+        <v>210</v>
       </c>
       <c r="AN8" t="n">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="AO8" t="n">
-        <v>44</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Scottish League One</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>RKC Waalwijk</t>
+          <t>Alloa</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>MVV Maastricht</t>
+          <t>Inverness CT</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.32</v>
+        <v>5.1</v>
       </c>
       <c r="G9" t="n">
-        <v>1.35</v>
+        <v>5.2</v>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>1.77</v>
       </c>
       <c r="I9" t="n">
-        <v>10.5</v>
+        <v>1.8</v>
       </c>
       <c r="J9" t="n">
-        <v>6.4</v>
+        <v>3.95</v>
       </c>
       <c r="K9" t="n">
-        <v>7</v>
+        <v>4.1</v>
       </c>
       <c r="L9" t="n">
-        <v>1.21</v>
+        <v>1.41</v>
       </c>
       <c r="M9" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="X9" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y9" t="n">
         <v>8.6</v>
       </c>
-      <c r="O9" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="W9" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="X9" t="n">
-        <v>90</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>110</v>
-      </c>
       <c r="Z9" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>1000</v>
       </c>
-      <c r="AA9" t="n">
-        <v>300</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>25</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>85</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AK9" t="n">
-        <v>14.5</v>
+        <v>120</v>
       </c>
       <c r="AL9" t="n">
-        <v>34</v>
+        <v>200</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.55</v>
+        <v>140</v>
       </c>
       <c r="AO9" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Bastia</t>
+          <t>Motherwell</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Laval</t>
+          <t>Hibernian</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.3</v>
+        <v>2.72</v>
       </c>
       <c r="G10" t="n">
-        <v>2.36</v>
+        <v>2.82</v>
       </c>
       <c r="H10" t="n">
-        <v>3.85</v>
+        <v>2.74</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="J10" t="n">
-        <v>3.1</v>
+        <v>3.55</v>
       </c>
       <c r="K10" t="n">
-        <v>3.2</v>
+        <v>3.65</v>
       </c>
       <c r="L10" t="n">
-        <v>1.6</v>
+        <v>1.38</v>
       </c>
       <c r="M10" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>2.66</v>
+        <v>4.6</v>
       </c>
       <c r="O10" t="n">
-        <v>1.56</v>
+        <v>1.27</v>
       </c>
       <c r="P10" t="n">
-        <v>1.53</v>
+        <v>2.18</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.72</v>
+        <v>1.8</v>
       </c>
       <c r="R10" t="n">
-        <v>1.19</v>
+        <v>1.46</v>
       </c>
       <c r="S10" t="n">
-        <v>5.7</v>
+        <v>3</v>
       </c>
       <c r="T10" t="n">
-        <v>2.16</v>
+        <v>1.66</v>
       </c>
       <c r="U10" t="n">
-        <v>1.76</v>
+        <v>2.46</v>
       </c>
       <c r="V10" t="n">
-        <v>1.33</v>
+        <v>1.55</v>
       </c>
       <c r="W10" t="n">
-        <v>1.74</v>
+        <v>1.54</v>
       </c>
       <c r="X10" t="n">
-        <v>8.6</v>
+        <v>17</v>
       </c>
       <c r="Y10" t="n">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AA10" t="n">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="AB10" t="n">
-        <v>7.4</v>
+        <v>13.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="AD10" t="n">
-        <v>17</v>
+        <v>12.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="AF10" t="n">
-        <v>12.5</v>
+        <v>19.5</v>
       </c>
       <c r="AG10" t="n">
         <v>12</v>
       </c>
       <c r="AH10" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AI10" t="n">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="AJ10" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="AK10" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AL10" t="n">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="AM10" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="AN10" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="AO10" t="n">
-        <v>95</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,127 +1873,127 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Motherwell</t>
+          <t>Partick</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Hibernian</t>
+          <t>Dunfermline</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.66</v>
+        <v>1.97</v>
       </c>
       <c r="G11" t="n">
-        <v>2.74</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
-        <v>2.8</v>
+        <v>4.8</v>
       </c>
       <c r="I11" t="n">
-        <v>2.86</v>
+        <v>4.9</v>
       </c>
       <c r="J11" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="K11" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="L11" t="n">
-        <v>1.39</v>
+        <v>1.48</v>
       </c>
       <c r="M11" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="N11" t="n">
-        <v>4.3</v>
+        <v>3.15</v>
       </c>
       <c r="O11" t="n">
-        <v>1.29</v>
+        <v>1.43</v>
       </c>
       <c r="P11" t="n">
-        <v>2.14</v>
+        <v>1.73</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.84</v>
+        <v>2.22</v>
       </c>
       <c r="R11" t="n">
-        <v>1.45</v>
+        <v>1.27</v>
       </c>
       <c r="S11" t="n">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="T11" t="n">
-        <v>1.67</v>
+        <v>1.99</v>
       </c>
       <c r="U11" t="n">
-        <v>2.4</v>
+        <v>1.88</v>
       </c>
       <c r="V11" t="n">
-        <v>1.53</v>
+        <v>1.25</v>
       </c>
       <c r="W11" t="n">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="X11" t="n">
-        <v>17</v>
+        <v>11.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>19.5</v>
+        <v>40</v>
       </c>
       <c r="AA11" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>13</v>
+        <v>7.8</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>12.5</v>
+        <v>23</v>
       </c>
       <c r="AE11" t="n">
-        <v>28</v>
+        <v>240</v>
       </c>
       <c r="AF11" t="n">
-        <v>18.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AH11" t="n">
-        <v>15.5</v>
+        <v>22</v>
       </c>
       <c r="AI11" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AK11" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AL11" t="n">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="AM11" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO11" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Scottish League One</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Alloa</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Inverness CT</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>5</v>
+        <v>1.91</v>
       </c>
       <c r="G12" t="n">
-        <v>6</v>
+        <v>1.92</v>
       </c>
       <c r="H12" t="n">
-        <v>1.77</v>
+        <v>4.4</v>
       </c>
       <c r="I12" t="n">
-        <v>1.82</v>
+        <v>4.5</v>
       </c>
       <c r="J12" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="K12" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L12" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>3.6</v>
+        <v>5.1</v>
       </c>
       <c r="O12" t="n">
-        <v>1.32</v>
+        <v>1.23</v>
       </c>
       <c r="P12" t="n">
-        <v>1.96</v>
+        <v>2.42</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.92</v>
+        <v>1.69</v>
       </c>
       <c r="R12" t="n">
-        <v>1.39</v>
+        <v>1.57</v>
       </c>
       <c r="S12" t="n">
-        <v>3.35</v>
+        <v>2.68</v>
       </c>
       <c r="T12" t="n">
-        <v>1.87</v>
+        <v>1.66</v>
       </c>
       <c r="U12" t="n">
-        <v>1.92</v>
+        <v>2.46</v>
       </c>
       <c r="V12" t="n">
-        <v>2.2</v>
+        <v>1.28</v>
       </c>
       <c r="W12" t="n">
-        <v>1.22</v>
+        <v>2.08</v>
       </c>
       <c r="X12" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Y12" t="n">
-        <v>14.5</v>
+        <v>20</v>
       </c>
       <c r="Z12" t="n">
-        <v>19.5</v>
+        <v>34</v>
       </c>
       <c r="AA12" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AB12" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AC12" t="n">
-        <v>13.5</v>
+        <v>9</v>
       </c>
       <c r="AD12" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AE12" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AF12" t="n">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="AG12" t="n">
-        <v>38</v>
+        <v>10.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>42</v>
+        <v>15.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>170</v>
+        <v>46</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AK12" t="n">
-        <v>330</v>
+        <v>17</v>
       </c>
       <c r="AL12" t="n">
-        <v>200</v>
+        <v>28</v>
       </c>
       <c r="AM12" t="n">
-        <v>580</v>
+        <v>65</v>
       </c>
       <c r="AN12" t="n">
-        <v>140</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO12" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Scottish Championship</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,126 +2138,126 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Partick</t>
+          <t>Bodo Glimt</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Dunfermline</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.92</v>
+        <v>3.2</v>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="H13" t="n">
-        <v>4.8</v>
+        <v>2.36</v>
       </c>
       <c r="I13" t="n">
-        <v>5.5</v>
+        <v>2.38</v>
       </c>
       <c r="J13" t="n">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="K13" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L13" t="n">
-        <v>1.48</v>
+        <v>1.33</v>
       </c>
       <c r="M13" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>3.15</v>
+        <v>5.1</v>
       </c>
       <c r="O13" t="n">
-        <v>1.42</v>
+        <v>1.23</v>
       </c>
       <c r="P13" t="n">
-        <v>1.73</v>
+        <v>2.38</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.24</v>
+        <v>1.71</v>
       </c>
       <c r="R13" t="n">
-        <v>1.26</v>
+        <v>1.56</v>
       </c>
       <c r="S13" t="n">
-        <v>4.2</v>
+        <v>2.72</v>
       </c>
       <c r="T13" t="n">
-        <v>1.96</v>
+        <v>1.6</v>
       </c>
       <c r="U13" t="n">
-        <v>1.86</v>
+        <v>2.58</v>
       </c>
       <c r="V13" t="n">
-        <v>1.22</v>
+        <v>1.72</v>
       </c>
       <c r="W13" t="n">
-        <v>2</v>
+        <v>1.44</v>
       </c>
       <c r="X13" t="n">
-        <v>12</v>
+        <v>19.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>27</v>
+        <v>13.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>140</v>
+        <v>16.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AB13" t="n">
-        <v>7.6</v>
+        <v>16.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="AD13" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL13" t="n">
         <v>36</v>
       </c>
-      <c r="AE13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH13" t="n">
+      <c r="AM13" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN13" t="n">
         <v>22</v>
       </c>
-      <c r="AI13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>70</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>46</v>
-      </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="14">
@@ -2278,121 +2278,121 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.92</v>
+        <v>2.3</v>
       </c>
       <c r="G14" t="n">
-        <v>1.93</v>
+        <v>2.32</v>
       </c>
       <c r="H14" t="n">
-        <v>4.4</v>
+        <v>3.1</v>
       </c>
       <c r="I14" t="n">
-        <v>4.5</v>
+        <v>3.15</v>
       </c>
       <c r="J14" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K14" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L14" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>5.1</v>
+        <v>6.8</v>
       </c>
       <c r="O14" t="n">
-        <v>1.23</v>
+        <v>1.16</v>
       </c>
       <c r="P14" t="n">
-        <v>2.44</v>
+        <v>2.96</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.68</v>
+        <v>1.5</v>
       </c>
       <c r="R14" t="n">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="S14" t="n">
-        <v>2.66</v>
+        <v>2.2</v>
       </c>
       <c r="T14" t="n">
-        <v>1.65</v>
+        <v>1.46</v>
       </c>
       <c r="U14" t="n">
-        <v>2.46</v>
+        <v>3.05</v>
       </c>
       <c r="V14" t="n">
-        <v>1.28</v>
+        <v>1.46</v>
       </c>
       <c r="W14" t="n">
-        <v>2.08</v>
+        <v>1.76</v>
       </c>
       <c r="X14" t="n">
-        <v>18.5</v>
+        <v>27</v>
       </c>
       <c r="Y14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z14" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AA14" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="AB14" t="n">
-        <v>12</v>
+        <v>17.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>17.5</v>
+        <v>14</v>
       </c>
       <c r="AE14" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="AF14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH14" t="n">
         <v>13</v>
       </c>
-      <c r="AG14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AI14" t="n">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="AJ14" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="AK14" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AM14" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="AN14" t="n">
-        <v>9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO14" t="n">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
@@ -2413,121 +2413,121 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Bodo Glimt</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Leverkusen</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.15</v>
+        <v>1.3</v>
       </c>
       <c r="G15" t="n">
-        <v>3.2</v>
+        <v>1.31</v>
       </c>
       <c r="H15" t="n">
-        <v>2.36</v>
+        <v>11.5</v>
       </c>
       <c r="I15" t="n">
-        <v>2.38</v>
+        <v>12</v>
       </c>
       <c r="J15" t="n">
-        <v>3.75</v>
+        <v>6.6</v>
       </c>
       <c r="K15" t="n">
-        <v>3.8</v>
+        <v>6.8</v>
       </c>
       <c r="L15" t="n">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N15" t="n">
-        <v>5.2</v>
+        <v>8.6</v>
       </c>
       <c r="O15" t="n">
-        <v>1.22</v>
+        <v>1.12</v>
       </c>
       <c r="P15" t="n">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.7</v>
+        <v>1.38</v>
       </c>
       <c r="R15" t="n">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="S15" t="n">
-        <v>2.72</v>
+        <v>1.96</v>
       </c>
       <c r="T15" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="U15" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="V15" t="n">
-        <v>1.72</v>
+        <v>1.09</v>
       </c>
       <c r="W15" t="n">
-        <v>1.45</v>
+        <v>4.2</v>
       </c>
       <c r="X15" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="Y15" t="n">
-        <v>13.5</v>
+        <v>60</v>
       </c>
       <c r="Z15" t="n">
-        <v>16.5</v>
+        <v>120</v>
       </c>
       <c r="AA15" t="n">
-        <v>32</v>
+        <v>390</v>
       </c>
       <c r="AB15" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.800000000000001</v>
+        <v>16</v>
       </c>
       <c r="AD15" t="n">
-        <v>11.5</v>
+        <v>40</v>
       </c>
       <c r="AE15" t="n">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="AF15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH15" t="n">
         <v>24</v>
       </c>
-      <c r="AG15" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AI15" t="n">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="AJ15" t="n">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="AK15" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="AL15" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="AM15" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AN15" t="n">
-        <v>22</v>
+        <v>3.45</v>
       </c>
       <c r="AO15" t="n">
-        <v>13</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16">
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Qarabag FK</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.28</v>
+        <v>1.29</v>
       </c>
       <c r="G16" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="H16" t="n">
-        <v>3.15</v>
+        <v>12.5</v>
       </c>
       <c r="I16" t="n">
-        <v>3.2</v>
+        <v>13</v>
       </c>
       <c r="J16" t="n">
-        <v>4</v>
+        <v>6.6</v>
       </c>
       <c r="K16" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N16" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="W16" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="X16" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>44</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>120</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>520</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>42</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>180</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN16" t="n">
         <v>4.1</v>
       </c>
-      <c r="L16" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N16" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="S16" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="U16" t="n">
-        <v>3</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="W16" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="X16" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>30</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>28</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>28</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>42</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AO16" t="n">
-        <v>17</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17">
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Leverkusen</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.29</v>
+        <v>3.1</v>
       </c>
       <c r="G17" t="n">
-        <v>1.3</v>
+        <v>3.15</v>
       </c>
       <c r="H17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N17" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X17" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD17" t="n">
         <v>11.5</v>
       </c>
-      <c r="I17" t="n">
-        <v>12</v>
-      </c>
-      <c r="J17" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="K17" t="n">
-        <v>7</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N17" t="n">
-        <v>9</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="R17" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="W17" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="X17" t="n">
-        <v>44</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>60</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>130</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>470</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>40</v>
-      </c>
       <c r="AE17" t="n">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="AF17" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AG17" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>24</v>
+        <v>14.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="AJ17" t="n">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="AK17" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="AL17" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="AM17" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AN17" t="n">
-        <v>3.4</v>
+        <v>25</v>
       </c>
       <c r="AO17" t="n">
-        <v>120</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="18">
@@ -2818,127 +2818,127 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Slavia Prague</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Qarabag FK</t>
+          <t>Athletic Bilbao</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.29</v>
+        <v>3.35</v>
       </c>
       <c r="G18" t="n">
-        <v>1.3</v>
+        <v>3.4</v>
       </c>
       <c r="H18" t="n">
-        <v>13</v>
+        <v>2.42</v>
       </c>
       <c r="I18" t="n">
-        <v>13.5</v>
+        <v>2.44</v>
       </c>
       <c r="J18" t="n">
-        <v>6.6</v>
+        <v>3.4</v>
       </c>
       <c r="K18" t="n">
-        <v>6.8</v>
+        <v>3.45</v>
       </c>
       <c r="L18" t="n">
-        <v>1.28</v>
+        <v>1.47</v>
       </c>
       <c r="M18" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="N18" t="n">
-        <v>6.2</v>
+        <v>3.55</v>
       </c>
       <c r="O18" t="n">
-        <v>1.17</v>
+        <v>1.37</v>
       </c>
       <c r="P18" t="n">
-        <v>2.82</v>
+        <v>1.86</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.53</v>
+        <v>2.12</v>
       </c>
       <c r="R18" t="n">
-        <v>1.73</v>
+        <v>1.32</v>
       </c>
       <c r="S18" t="n">
-        <v>2.34</v>
+        <v>3.9</v>
       </c>
       <c r="T18" t="n">
-        <v>1.97</v>
+        <v>1.86</v>
       </c>
       <c r="U18" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="V18" t="n">
-        <v>1.08</v>
+        <v>1.69</v>
       </c>
       <c r="W18" t="n">
-        <v>4.3</v>
+        <v>1.41</v>
       </c>
       <c r="X18" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="Y18" t="n">
-        <v>46</v>
+        <v>9.6</v>
       </c>
       <c r="Z18" t="n">
-        <v>130</v>
+        <v>14.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>520</v>
+        <v>32</v>
       </c>
       <c r="AB18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC18" t="n">
-        <v>15</v>
+        <v>7.4</v>
       </c>
       <c r="AD18" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI18" t="n">
         <v>42</v>
       </c>
-      <c r="AE18" t="n">
-        <v>180</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>130</v>
-      </c>
       <c r="AJ18" t="n">
-        <v>10.5</v>
+        <v>60</v>
       </c>
       <c r="AK18" t="n">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="AL18" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="AM18" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="AN18" t="n">
-        <v>4.1</v>
+        <v>40</v>
       </c>
       <c r="AO18" t="n">
-        <v>180</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Atletico MG</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.15</v>
+        <v>4.4</v>
       </c>
       <c r="G19" t="n">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="H19" t="n">
-        <v>2.48</v>
+        <v>2.06</v>
       </c>
       <c r="I19" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="J19" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="K19" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="L19" t="n">
-        <v>1.38</v>
+        <v>1.55</v>
       </c>
       <c r="M19" t="n">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="N19" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="O19" t="n">
-        <v>1.27</v>
+        <v>1.48</v>
       </c>
       <c r="P19" t="n">
-        <v>2.16</v>
+        <v>1.68</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.85</v>
+        <v>2.44</v>
       </c>
       <c r="R19" t="n">
-        <v>1.46</v>
+        <v>1.24</v>
       </c>
       <c r="S19" t="n">
-        <v>3.05</v>
+        <v>4.9</v>
       </c>
       <c r="T19" t="n">
-        <v>1.67</v>
+        <v>2.1</v>
       </c>
       <c r="U19" t="n">
-        <v>2.4</v>
+        <v>1.87</v>
       </c>
       <c r="V19" t="n">
-        <v>1.67</v>
+        <v>1.91</v>
       </c>
       <c r="W19" t="n">
-        <v>1.46</v>
+        <v>1.28</v>
       </c>
       <c r="X19" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="Y19" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB19" t="n">
         <v>12</v>
       </c>
-      <c r="Z19" t="n">
-        <v>16</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>14</v>
-      </c>
       <c r="AC19" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE19" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH19" t="n">
         <v>23</v>
       </c>
-      <c r="AF19" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>15</v>
-      </c>
       <c r="AI19" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="AJ19" t="n">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="AK19" t="n">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="AL19" t="n">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="AM19" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="AN19" t="n">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="AO19" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Slavia Prague</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Athletic Bilbao</t>
+          <t>SE Palmeiras</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.3</v>
+        <v>2.36</v>
       </c>
       <c r="G20" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J20" t="n">
         <v>3.35</v>
       </c>
-      <c r="H20" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="J20" t="n">
+      <c r="K20" t="n">
         <v>3.4</v>
-      </c>
-      <c r="K20" t="n">
-        <v>3.45</v>
       </c>
       <c r="L20" t="n">
         <v>1.47</v>
       </c>
       <c r="M20" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N20" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="O20" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="P20" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="R20" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="S20" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="T20" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U20" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="V20" t="n">
-        <v>1.68</v>
+        <v>1.38</v>
       </c>
       <c r="W20" t="n">
-        <v>1.42</v>
+        <v>1.72</v>
       </c>
       <c r="X20" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y20" t="n">
-        <v>9.6</v>
+        <v>12</v>
       </c>
       <c r="Z20" t="n">
-        <v>14.5</v>
+        <v>23</v>
       </c>
       <c r="AA20" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="AB20" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AC20" t="n">
         <v>7.6</v>
       </c>
       <c r="AD20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG20" t="n">
         <v>11.5</v>
       </c>
-      <c r="AE20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AH20" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AI20" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="AJ20" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO20" t="n">
         <v>60</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>40</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>22</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3223,391 +3223,121 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>SE Palmeiras</t>
+          <t>Tolima</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="G21" t="n">
-        <v>2.38</v>
+        <v>2.52</v>
       </c>
       <c r="H21" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I21" t="n">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="J21" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="K21" t="n">
-        <v>3.45</v>
+        <v>3.1</v>
       </c>
       <c r="L21" t="n">
         <v>1.48</v>
       </c>
       <c r="M21" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N21" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="O21" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P21" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="R21" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="S21" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T21" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="U21" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="V21" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="W21" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="X21" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="Y21" t="n">
         <v>12</v>
       </c>
       <c r="Z21" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AA21" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI21" t="n">
         <v>70</v>
       </c>
-      <c r="AB21" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>44</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI21" t="n">
+      <c r="AJ21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>28</v>
+      </c>
+      <c r="AO21" t="n">
         <v>60</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>27</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>23</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Brazilian Serie A</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>2025-11-25</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>21:30:00</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Atletico MG</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Flamengo</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="G22" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="J22" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K22" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N22" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S22" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T22" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="W22" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="X22" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>24</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>95</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>80</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>80</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>19.5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2025-11-25</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>21:30:00</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Santa Fe</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Tolima</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="G23" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H23" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I23" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3</v>
-      </c>
-      <c r="K23" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N23" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S23" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="W23" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="X23" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO21"/>
+  <dimension ref="A1:AO19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>10</v>
+        <v>2.78</v>
       </c>
       <c r="G2" t="n">
-        <v>10.5</v>
+        <v>2.86</v>
       </c>
       <c r="H2" t="n">
-        <v>1.41</v>
+        <v>2.76</v>
       </c>
       <c r="I2" t="n">
-        <v>1.42</v>
+        <v>2.8</v>
       </c>
       <c r="J2" t="n">
-        <v>5.1</v>
+        <v>3.5</v>
       </c>
       <c r="K2" t="n">
-        <v>5.3</v>
+        <v>3.6</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -691,94 +691,94 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
         <v>11</v>
       </c>
-      <c r="O2" t="n">
+      <c r="S2" t="n">
         <v>1.09</v>
       </c>
-      <c r="P2" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2.4</v>
-      </c>
       <c r="T2" t="n">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>2.74</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>3.4</v>
+        <v>1.55</v>
       </c>
       <c r="W2" t="n">
-        <v>1.11</v>
+        <v>1.55</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
         <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>500</v>
+        <v>18.5</v>
       </c>
       <c r="AF2" t="n">
         <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>17</v>
+        <v>5.8</v>
       </c>
       <c r="AI2" t="n">
-        <v>500</v>
+        <v>9.6</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>500</v>
+        <v>6.6</v>
       </c>
       <c r="AM2" t="n">
-        <v>500</v>
+        <v>11.5</v>
       </c>
       <c r="AN2" t="n">
-        <v>130</v>
+        <v>5.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,126 +788,126 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Vitesse Arnhem</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Union St Gilloise</t>
+          <t>Jong PSV Eindhoven</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.06</v>
+        <v>1.27</v>
       </c>
       <c r="G3" t="n">
-        <v>2.08</v>
+        <v>1.29</v>
       </c>
       <c r="H3" t="n">
-        <v>4.2</v>
+        <v>17</v>
       </c>
       <c r="I3" t="n">
-        <v>4.3</v>
+        <v>19.5</v>
       </c>
       <c r="J3" t="n">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="K3" t="n">
-        <v>3.65</v>
+        <v>6.4</v>
       </c>
       <c r="L3" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.89</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.4</v>
+        <v>7</v>
       </c>
       <c r="S3" t="n">
-        <v>3.4</v>
+        <v>1.15</v>
       </c>
       <c r="T3" t="n">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1.26</v>
+        <v>1.05</v>
       </c>
       <c r="W3" t="n">
-        <v>2.14</v>
+        <v>4.4</v>
       </c>
       <c r="X3" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AH3" t="n">
-        <v>17.5</v>
+        <v>9.6</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AJ3" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>20</v>
+        <v>5.8</v>
       </c>
       <c r="AL3" t="n">
-        <v>32</v>
+        <v>7.8</v>
       </c>
       <c r="AM3" t="n">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="AN3" t="n">
-        <v>14.5</v>
+        <v>3.3</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
@@ -928,121 +928,121 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>Roda JC</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>FC Dordrecht</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.53</v>
+        <v>4.4</v>
       </c>
       <c r="G4" t="n">
-        <v>1.57</v>
+        <v>4.6</v>
       </c>
       <c r="H4" t="n">
-        <v>5.7</v>
+        <v>2.1</v>
       </c>
       <c r="I4" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
         <v>6.2</v>
       </c>
-      <c r="J4" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N4" t="n">
-        <v>10.5</v>
-      </c>
       <c r="O4" t="n">
-        <v>1.09</v>
+        <v>1.18</v>
       </c>
       <c r="P4" t="n">
-        <v>4.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.3</v>
+        <v>1.85</v>
       </c>
       <c r="R4" t="n">
-        <v>2.26</v>
+        <v>1.33</v>
       </c>
       <c r="S4" t="n">
-        <v>1.74</v>
+        <v>3.9</v>
       </c>
       <c r="T4" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="U4" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="V4" t="n">
-        <v>1.19</v>
+        <v>1.9</v>
       </c>
       <c r="W4" t="n">
-        <v>2.76</v>
+        <v>1.27</v>
       </c>
       <c r="X4" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>120</v>
+        <v>6.8</v>
       </c>
       <c r="Z4" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="AA4" t="n">
-        <v>160</v>
+        <v>34</v>
       </c>
       <c r="AB4" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>15.5</v>
+        <v>4.9</v>
       </c>
       <c r="AD4" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK4" t="n">
         <v>25</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AL4" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>190</v>
+      </c>
+      <c r="AN4" t="n">
         <v>60</v>
       </c>
-      <c r="AF4" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>960</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>3.95</v>
-      </c>
       <c r="AO4" t="n">
-        <v>28</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
@@ -1063,127 +1063,127 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Vitesse Arnhem</t>
+          <t>RKC Waalwijk</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Jong PSV Eindhoven</t>
+          <t>MVV Maastricht</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.99</v>
+        <v>1.14</v>
       </c>
       <c r="G5" t="n">
-        <v>2.04</v>
+        <v>1.15</v>
       </c>
       <c r="H5" t="n">
-        <v>3.45</v>
+        <v>38</v>
       </c>
       <c r="I5" t="n">
-        <v>3.6</v>
+        <v>44</v>
       </c>
       <c r="J5" t="n">
-        <v>4.4</v>
+        <v>9.4</v>
       </c>
       <c r="K5" t="n">
-        <v>4.6</v>
+        <v>10.5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="V5" t="n">
         <v>1.02</v>
       </c>
-      <c r="N5" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="U5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.38</v>
-      </c>
       <c r="W5" t="n">
-        <v>1.96</v>
+        <v>7.6</v>
       </c>
       <c r="X5" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>22</v>
+        <v>8.4</v>
       </c>
       <c r="AC5" t="n">
-        <v>12</v>
+        <v>15.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>16</v>
+        <v>880</v>
       </c>
       <c r="AE5" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>20</v>
+        <v>5.2</v>
       </c>
       <c r="AG5" t="n">
-        <v>11.5</v>
+        <v>9.6</v>
       </c>
       <c r="AH5" t="n">
+        <v>990</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AK5" t="n">
         <v>14</v>
       </c>
-      <c r="AI5" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AL5" t="n">
-        <v>21</v>
+        <v>500</v>
       </c>
       <c r="AM5" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>6.6</v>
+        <v>5.7</v>
       </c>
       <c r="AO5" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1198,127 +1198,127 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Roda JC</t>
+          <t>Bastia</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>FC Dordrecht</t>
+          <t>Laval</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.72</v>
+        <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>1.75</v>
+        <v>11</v>
       </c>
       <c r="H6" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="S6" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC6" t="n">
         <v>4.9</v>
       </c>
-      <c r="I6" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="J6" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K6" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N6" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="W6" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="X6" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>95</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>9.6</v>
-      </c>
       <c r="AD6" t="n">
-        <v>20</v>
+        <v>9.4</v>
       </c>
       <c r="AE6" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AF6" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>9.6</v>
+        <v>16</v>
       </c>
       <c r="AH6" t="n">
-        <v>16.5</v>
+        <v>32</v>
       </c>
       <c r="AI6" t="n">
         <v>120</v>
       </c>
       <c r="AJ6" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>16.5</v>
+        <v>95</v>
       </c>
       <c r="AL6" t="n">
-        <v>27</v>
+        <v>160</v>
       </c>
       <c r="AM6" t="n">
-        <v>70</v>
+        <v>650</v>
       </c>
       <c r="AN6" t="n">
-        <v>7.6</v>
+        <v>370</v>
       </c>
       <c r="AO6" t="n">
-        <v>42</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,123 +1328,123 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>RKC Waalwijk</t>
+          <t>Partick</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MVV Maastricht</t>
+          <t>Dunfermline</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.32</v>
+        <v>1.99</v>
       </c>
       <c r="G7" t="n">
-        <v>1.35</v>
+        <v>2.12</v>
       </c>
       <c r="H7" t="n">
-        <v>9.800000000000001</v>
+        <v>4.6</v>
       </c>
       <c r="I7" t="n">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="J7" t="n">
-        <v>6.2</v>
+        <v>3.25</v>
       </c>
       <c r="K7" t="n">
-        <v>7</v>
+        <v>3.45</v>
       </c>
       <c r="L7" t="n">
-        <v>1.23</v>
+        <v>1.78</v>
       </c>
       <c r="M7" t="n">
-        <v>1.02</v>
+        <v>1.12</v>
       </c>
       <c r="N7" t="n">
-        <v>7.8</v>
+        <v>2.8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.13</v>
+        <v>1.52</v>
       </c>
       <c r="P7" t="n">
-        <v>3.3</v>
+        <v>1.6</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.4</v>
+        <v>2.52</v>
       </c>
       <c r="R7" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="W7" t="n">
         <v>1.92</v>
       </c>
-      <c r="S7" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="W7" t="n">
-        <v>3.9</v>
-      </c>
       <c r="X7" t="n">
-        <v>50</v>
+        <v>8.6</v>
       </c>
       <c r="Y7" t="n">
-        <v>130</v>
+        <v>13.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AA7" t="n">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>14.5</v>
+        <v>7.4</v>
       </c>
       <c r="AC7" t="n">
-        <v>16</v>
+        <v>990</v>
       </c>
       <c r="AD7" t="n">
-        <v>80</v>
+        <v>990</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>990</v>
       </c>
       <c r="AH7" t="n">
-        <v>24</v>
+        <v>990</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>13.5</v>
+        <v>500</v>
       </c>
       <c r="AL7" t="n">
-        <v>28</v>
+        <v>500</v>
       </c>
       <c r="AM7" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.8</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1453,7 +1453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Scottish League One</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Bastia</t>
+          <t>Alloa</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Laval</t>
+          <t>Inverness CT</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.34</v>
+        <v>4.4</v>
       </c>
       <c r="G8" t="n">
-        <v>2.36</v>
+        <v>4.8</v>
       </c>
       <c r="H8" t="n">
-        <v>3.8</v>
+        <v>2.04</v>
       </c>
       <c r="I8" t="n">
-        <v>3.95</v>
+        <v>2.12</v>
       </c>
       <c r="J8" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K8" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="L8" t="n">
-        <v>1.61</v>
+        <v>1.81</v>
       </c>
       <c r="M8" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N8" t="n">
-        <v>2.62</v>
+        <v>2.72</v>
       </c>
       <c r="O8" t="n">
-        <v>1.59</v>
+        <v>1.54</v>
       </c>
       <c r="P8" t="n">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.8</v>
+        <v>2.68</v>
       </c>
       <c r="R8" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S8" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="T8" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="U8" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="V8" t="n">
-        <v>1.34</v>
+        <v>1.9</v>
       </c>
       <c r="W8" t="n">
-        <v>1.73</v>
+        <v>1.26</v>
       </c>
       <c r="X8" t="n">
-        <v>8.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="Y8" t="n">
-        <v>10.5</v>
+        <v>7.6</v>
       </c>
       <c r="Z8" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>38</v>
+      </c>
+      <c r="AG8" t="n">
         <v>25</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AH8" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>130</v>
+      </c>
+      <c r="AK8" t="n">
         <v>85</v>
       </c>
-      <c r="AB8" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>170</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>36</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>34</v>
-      </c>
       <c r="AL8" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="AM8" t="n">
-        <v>210</v>
+        <v>270</v>
       </c>
       <c r="AN8" t="n">
-        <v>36</v>
+        <v>160</v>
       </c>
       <c r="AO8" t="n">
-        <v>100</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Scottish League One</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1603,127 +1603,127 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Alloa</t>
+          <t>Motherwell</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Inverness CT</t>
+          <t>Hibernian</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>5.1</v>
+        <v>1.61</v>
       </c>
       <c r="G9" t="n">
-        <v>5.2</v>
+        <v>1.85</v>
       </c>
       <c r="H9" t="n">
-        <v>1.77</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>1.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J9" t="n">
-        <v>3.95</v>
+        <v>3.4</v>
       </c>
       <c r="K9" t="n">
-        <v>4.1</v>
+        <v>6.2</v>
       </c>
       <c r="L9" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="n">
         <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>3.75</v>
+        <v>9.6</v>
       </c>
       <c r="O9" t="n">
-        <v>1.31</v>
+        <v>1.11</v>
       </c>
       <c r="P9" t="n">
-        <v>1.96</v>
+        <v>2.9</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.9</v>
+        <v>1.49</v>
       </c>
       <c r="R9" t="n">
-        <v>1.37</v>
+        <v>1.61</v>
       </c>
       <c r="S9" t="n">
-        <v>3.3</v>
+        <v>2.44</v>
       </c>
       <c r="T9" t="n">
-        <v>1.9</v>
+        <v>1.04</v>
       </c>
       <c r="U9" t="n">
-        <v>1.96</v>
+        <v>1.84</v>
       </c>
       <c r="V9" t="n">
-        <v>2.24</v>
+        <v>1.01</v>
       </c>
       <c r="W9" t="n">
-        <v>1.23</v>
+        <v>1.01</v>
       </c>
       <c r="X9" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.6</v>
+        <v>990</v>
       </c>
       <c r="AD9" t="n">
-        <v>11</v>
+        <v>990</v>
       </c>
       <c r="AE9" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>990</v>
       </c>
       <c r="AH9" t="n">
-        <v>27</v>
+        <v>990</v>
       </c>
       <c r="AI9" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
         <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Motherwell</t>
+          <t>Slavia Prague</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Hibernian</t>
+          <t>Athletic Bilbao</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.72</v>
+        <v>3.35</v>
       </c>
       <c r="G10" t="n">
-        <v>2.82</v>
+        <v>3.4</v>
       </c>
       <c r="H10" t="n">
-        <v>2.74</v>
+        <v>2.6</v>
       </c>
       <c r="I10" t="n">
-        <v>2.8</v>
+        <v>2.64</v>
       </c>
       <c r="J10" t="n">
-        <v>3.55</v>
+        <v>3.1</v>
       </c>
       <c r="K10" t="n">
-        <v>3.65</v>
+        <v>3.15</v>
       </c>
       <c r="L10" t="n">
-        <v>1.38</v>
+        <v>1.6</v>
       </c>
       <c r="M10" t="n">
-        <v>1.06</v>
+        <v>1.13</v>
       </c>
       <c r="N10" t="n">
-        <v>4.6</v>
+        <v>2.86</v>
       </c>
       <c r="O10" t="n">
-        <v>1.27</v>
+        <v>1.51</v>
       </c>
       <c r="P10" t="n">
-        <v>2.18</v>
+        <v>1.63</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="R10" t="n">
-        <v>1.46</v>
+        <v>1.21</v>
       </c>
       <c r="S10" t="n">
-        <v>3</v>
+        <v>5.4</v>
       </c>
       <c r="T10" t="n">
-        <v>1.66</v>
+        <v>2.1</v>
       </c>
       <c r="U10" t="n">
-        <v>2.46</v>
+        <v>1.85</v>
       </c>
       <c r="V10" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="W10" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="X10" t="n">
-        <v>17</v>
+        <v>8.6</v>
       </c>
       <c r="Y10" t="n">
-        <v>13.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z10" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AA10" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AB10" t="n">
-        <v>13.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC10" t="n">
-        <v>8</v>
+        <v>6.8</v>
       </c>
       <c r="AD10" t="n">
         <v>12.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="AF10" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AH10" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AI10" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="AJ10" t="n">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="AK10" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="AL10" t="n">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="AM10" t="n">
-        <v>70</v>
+        <v>210</v>
       </c>
       <c r="AN10" t="n">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="AO10" t="n">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Scottish Championship</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,126 +1868,126 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Partick</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Dunfermline</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.97</v>
+        <v>3.45</v>
       </c>
       <c r="G11" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N11" t="n">
+        <v>12</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="Q11" t="n">
         <v>2</v>
       </c>
-      <c r="H11" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="I11" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N11" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Q11" t="n">
+      <c r="R11" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U11" t="n">
         <v>2.22</v>
       </c>
-      <c r="R11" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S11" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.88</v>
-      </c>
       <c r="V11" t="n">
-        <v>1.25</v>
+        <v>2.96</v>
       </c>
       <c r="W11" t="n">
-        <v>2</v>
+        <v>1.14</v>
       </c>
       <c r="X11" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="Z11" t="n">
-        <v>40</v>
+        <v>590</v>
       </c>
       <c r="AA11" t="n">
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.8</v>
+        <v>980</v>
       </c>
       <c r="AD11" t="n">
-        <v>23</v>
+        <v>990</v>
       </c>
       <c r="AE11" t="n">
-        <v>240</v>
+        <v>980</v>
       </c>
       <c r="AF11" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>790</v>
       </c>
       <c r="AH11" t="n">
-        <v>22</v>
+        <v>990</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AJ11" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>70</v>
+        <v>500</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN11" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -2008,121 +2008,121 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>Qarabag FK</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.91</v>
+        <v>1.25</v>
       </c>
       <c r="G12" t="n">
-        <v>1.92</v>
+        <v>1.26</v>
       </c>
       <c r="H12" t="n">
-        <v>4.4</v>
+        <v>16</v>
       </c>
       <c r="I12" t="n">
-        <v>4.5</v>
+        <v>16.5</v>
       </c>
       <c r="J12" t="n">
-        <v>3.95</v>
+        <v>7</v>
       </c>
       <c r="K12" t="n">
-        <v>4</v>
+        <v>7.2</v>
       </c>
       <c r="L12" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="O12" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P12" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="R12" t="n">
         <v>1.57</v>
       </c>
       <c r="S12" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="T12" t="n">
-        <v>1.66</v>
+        <v>2.38</v>
       </c>
       <c r="U12" t="n">
-        <v>2.46</v>
+        <v>1.69</v>
       </c>
       <c r="V12" t="n">
-        <v>1.28</v>
+        <v>1.07</v>
       </c>
       <c r="W12" t="n">
-        <v>2.08</v>
+        <v>4.7</v>
       </c>
       <c r="X12" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Y12" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="Z12" t="n">
-        <v>34</v>
+        <v>180</v>
       </c>
       <c r="AA12" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>60</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>360</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG12" t="n">
         <v>12</v>
       </c>
-      <c r="AC12" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>44</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AH12" t="n">
-        <v>15.5</v>
+        <v>42</v>
       </c>
       <c r="AI12" t="n">
-        <v>46</v>
+        <v>260</v>
       </c>
       <c r="AJ12" t="n">
-        <v>21</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AK12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL12" t="n">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="AM12" t="n">
-        <v>65</v>
+        <v>280</v>
       </c>
       <c r="AN12" t="n">
-        <v>9.199999999999999</v>
+        <v>4.7</v>
       </c>
       <c r="AO12" t="n">
-        <v>40</v>
+        <v>560</v>
       </c>
     </row>
     <row r="13">
@@ -2143,121 +2143,121 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Bodo Glimt</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.2</v>
+        <v>1.98</v>
       </c>
       <c r="G13" t="n">
-        <v>3.25</v>
+        <v>1.99</v>
       </c>
       <c r="H13" t="n">
-        <v>2.36</v>
+        <v>4.2</v>
       </c>
       <c r="I13" t="n">
-        <v>2.38</v>
+        <v>4.3</v>
       </c>
       <c r="J13" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K13" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="L13" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="P13" t="n">
-        <v>2.38</v>
+        <v>2.24</v>
       </c>
       <c r="Q13" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T13" t="n">
         <v>1.71</v>
       </c>
-      <c r="R13" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.6</v>
-      </c>
       <c r="U13" t="n">
-        <v>2.58</v>
+        <v>2.32</v>
       </c>
       <c r="V13" t="n">
-        <v>1.72</v>
+        <v>1.3</v>
       </c>
       <c r="W13" t="n">
-        <v>1.44</v>
+        <v>2</v>
       </c>
       <c r="X13" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.5</v>
+        <v>18</v>
       </c>
       <c r="Z13" t="n">
-        <v>16.5</v>
+        <v>34</v>
       </c>
       <c r="AA13" t="n">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="AB13" t="n">
-        <v>16.5</v>
+        <v>11</v>
       </c>
       <c r="AC13" t="n">
         <v>8.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>11.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="AF13" t="n">
-        <v>24</v>
+        <v>13.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="AJ13" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="AK13" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AL13" t="n">
         <v>32</v>
       </c>
-      <c r="AL13" t="n">
-        <v>36</v>
-      </c>
       <c r="AM13" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AN13" t="n">
-        <v>22</v>
+        <v>12.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>13.5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14">
@@ -2287,112 +2287,112 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.3</v>
+        <v>1.61</v>
       </c>
       <c r="G14" t="n">
-        <v>2.32</v>
+        <v>1.62</v>
       </c>
       <c r="H14" t="n">
-        <v>3.1</v>
+        <v>5.7</v>
       </c>
       <c r="I14" t="n">
-        <v>3.15</v>
+        <v>6.2</v>
       </c>
       <c r="J14" t="n">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="K14" t="n">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="L14" t="n">
-        <v>1.26</v>
+        <v>1.01</v>
       </c>
       <c r="M14" t="n">
         <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="O14" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="P14" t="n">
-        <v>2.96</v>
+        <v>2.74</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="R14" t="n">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="S14" t="n">
-        <v>2.2</v>
+        <v>2.36</v>
       </c>
       <c r="T14" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="U14" t="n">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="V14" t="n">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="W14" t="n">
-        <v>1.76</v>
+        <v>1.84</v>
       </c>
       <c r="X14" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Y14" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Z14" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AA14" t="n">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="AB14" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF14" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AG14" t="n">
         <v>11.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AJ14" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AM14" t="n">
         <v>40</v>
       </c>
       <c r="AN14" t="n">
-        <v>9.800000000000001</v>
+        <v>12</v>
       </c>
       <c r="AO14" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15">
@@ -2413,121 +2413,121 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Bodo Glimt</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Leverkusen</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.3</v>
+        <v>3.2</v>
       </c>
       <c r="G15" t="n">
-        <v>1.31</v>
+        <v>3.35</v>
       </c>
       <c r="H15" t="n">
-        <v>11.5</v>
+        <v>2.28</v>
       </c>
       <c r="I15" t="n">
-        <v>12</v>
+        <v>2.34</v>
       </c>
       <c r="J15" t="n">
-        <v>6.6</v>
+        <v>3.7</v>
       </c>
       <c r="K15" t="n">
-        <v>6.8</v>
+        <v>3.85</v>
       </c>
       <c r="L15" t="n">
-        <v>1.22</v>
+        <v>1.44</v>
       </c>
       <c r="M15" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>8.6</v>
+        <v>4.5</v>
       </c>
       <c r="O15" t="n">
-        <v>1.12</v>
+        <v>1.28</v>
       </c>
       <c r="P15" t="n">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.38</v>
+        <v>1.86</v>
       </c>
       <c r="R15" t="n">
-        <v>2</v>
+        <v>1.43</v>
       </c>
       <c r="S15" t="n">
-        <v>1.96</v>
+        <v>3.25</v>
       </c>
       <c r="T15" t="n">
         <v>1.73</v>
       </c>
       <c r="U15" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="V15" t="n">
-        <v>1.09</v>
+        <v>1.71</v>
       </c>
       <c r="W15" t="n">
-        <v>4.2</v>
+        <v>1.45</v>
       </c>
       <c r="X15" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="Y15" t="n">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="Z15" t="n">
-        <v>120</v>
+        <v>15.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>390</v>
+        <v>30</v>
       </c>
       <c r="AB15" t="n">
         <v>14.5</v>
       </c>
       <c r="AC15" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH15" t="n">
         <v>16</v>
       </c>
-      <c r="AD15" t="n">
-        <v>40</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>130</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>24</v>
-      </c>
       <c r="AI15" t="n">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="AJ15" t="n">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="AK15" t="n">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="AL15" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="AM15" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.45</v>
+        <v>30</v>
       </c>
       <c r="AO15" t="n">
-        <v>140</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
@@ -2548,109 +2548,109 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Qarabag FK</t>
+          <t>Leverkusen</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="G16" t="n">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="H16" t="n">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="I16" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="J16" t="n">
-        <v>6.6</v>
+        <v>5.6</v>
       </c>
       <c r="K16" t="n">
-        <v>6.8</v>
+        <v>5.7</v>
       </c>
       <c r="L16" t="n">
-        <v>1.28</v>
+        <v>1.4</v>
       </c>
       <c r="M16" t="n">
         <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
       <c r="O16" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="P16" t="n">
-        <v>2.8</v>
+        <v>2.36</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.53</v>
+        <v>1.72</v>
       </c>
       <c r="R16" t="n">
-        <v>1.73</v>
+        <v>1.52</v>
       </c>
       <c r="S16" t="n">
-        <v>2.32</v>
+        <v>2.88</v>
       </c>
       <c r="T16" t="n">
         <v>2</v>
       </c>
       <c r="U16" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="V16" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="W16" t="n">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="X16" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Y16" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="Z16" t="n">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="AA16" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="AB16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC16" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AE16" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AF16" t="n">
         <v>8.6</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH16" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI16" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AJ16" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AK16" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AL16" t="n">
         <v>32</v>
@@ -2659,16 +2659,16 @@
         <v>140</v>
       </c>
       <c r="AN16" t="n">
-        <v>4.1</v>
+        <v>5.3</v>
       </c>
       <c r="AO16" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Atletico MG</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.1</v>
+        <v>4.4</v>
       </c>
       <c r="G17" t="n">
-        <v>3.15</v>
+        <v>4.5</v>
       </c>
       <c r="H17" t="n">
-        <v>2.5</v>
+        <v>2.08</v>
       </c>
       <c r="I17" t="n">
-        <v>2.52</v>
+        <v>2.1</v>
       </c>
       <c r="J17" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="K17" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L17" t="n">
-        <v>1.38</v>
+        <v>1.57</v>
       </c>
       <c r="M17" t="n">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="N17" t="n">
-        <v>4.5</v>
+        <v>2.86</v>
       </c>
       <c r="O17" t="n">
-        <v>1.27</v>
+        <v>1.52</v>
       </c>
       <c r="P17" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="T17" t="n">
         <v>2.18</v>
       </c>
-      <c r="Q17" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="S17" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.67</v>
-      </c>
       <c r="U17" t="n">
-        <v>2.4</v>
+        <v>1.81</v>
       </c>
       <c r="V17" t="n">
-        <v>1.65</v>
+        <v>1.9</v>
       </c>
       <c r="W17" t="n">
-        <v>1.46</v>
+        <v>1.28</v>
       </c>
       <c r="X17" t="n">
-        <v>16</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y17" t="n">
-        <v>12.5</v>
+        <v>7.2</v>
       </c>
       <c r="Z17" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AA17" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="AB17" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AC17" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE17" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AF17" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AG17" t="n">
-        <v>13.5</v>
+        <v>18.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>14.5</v>
+        <v>24</v>
       </c>
       <c r="AI17" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="AJ17" t="n">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="AK17" t="n">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="AL17" t="n">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="AM17" t="n">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="AN17" t="n">
+        <v>110</v>
+      </c>
+      <c r="AO17" t="n">
         <v>25</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>17.5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Slavia Prague</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Athletic Bilbao</t>
+          <t>SE Palmeiras</t>
         </is>
       </c>
       <c r="F18" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="J18" t="n">
         <v>3.35</v>
       </c>
-      <c r="G18" t="n">
+      <c r="K18" t="n">
         <v>3.4</v>
       </c>
-      <c r="H18" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N18" t="n">
         <v>3.4</v>
       </c>
-      <c r="K18" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N18" t="n">
-        <v>3.55</v>
-      </c>
       <c r="O18" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="P18" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="R18" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="S18" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="T18" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="U18" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="V18" t="n">
-        <v>1.69</v>
+        <v>1.39</v>
       </c>
       <c r="W18" t="n">
-        <v>1.41</v>
+        <v>1.71</v>
       </c>
       <c r="X18" t="n">
         <v>12</v>
       </c>
       <c r="Y18" t="n">
-        <v>9.6</v>
+        <v>12</v>
       </c>
       <c r="Z18" t="n">
-        <v>14.5</v>
+        <v>23</v>
       </c>
       <c r="AA18" t="n">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="AB18" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AC18" t="n">
         <v>7.4</v>
       </c>
       <c r="AD18" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG18" t="n">
         <v>11.5</v>
       </c>
-      <c r="AE18" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AH18" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI18" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="AJ18" t="n">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="AK18" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AL18" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO18" t="n">
         <v>55</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>40</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>22</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2953,391 +2953,121 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Atletico MG</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Tolima</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>4.4</v>
+        <v>2.38</v>
       </c>
       <c r="G19" t="n">
-        <v>4.5</v>
+        <v>2.48</v>
       </c>
       <c r="H19" t="n">
-        <v>2.06</v>
+        <v>3.5</v>
       </c>
       <c r="I19" t="n">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="J19" t="n">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="K19" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="L19" t="n">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="M19" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N19" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="O19" t="n">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="P19" t="n">
-        <v>1.68</v>
+        <v>1.74</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.44</v>
+        <v>2.24</v>
       </c>
       <c r="R19" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="S19" t="n">
-        <v>4.9</v>
+        <v>4.2</v>
       </c>
       <c r="T19" t="n">
-        <v>2.1</v>
+        <v>1.86</v>
       </c>
       <c r="U19" t="n">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="V19" t="n">
-        <v>1.91</v>
+        <v>1.36</v>
       </c>
       <c r="W19" t="n">
-        <v>1.28</v>
+        <v>1.67</v>
       </c>
       <c r="X19" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Y19" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC19" t="n">
         <v>7.2</v>
       </c>
-      <c r="Z19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>24</v>
-      </c>
-      <c r="AB19" t="n">
+      <c r="AD19" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG19" t="n">
         <v>12</v>
       </c>
-      <c r="AC19" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>18</v>
-      </c>
       <c r="AH19" t="n">
-        <v>23</v>
+        <v>18.5</v>
       </c>
       <c r="AI19" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>28</v>
+      </c>
+      <c r="AO19" t="n">
         <v>55</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>110</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>70</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>90</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>170</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>100</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Brazilian Serie A</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2025-11-25</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>21:30:00</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Gremio</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>SE Palmeiras</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="G20" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="H20" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="I20" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K20" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N20" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S20" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="U20" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="W20" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="X20" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>65</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>44</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>27</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>2025-11-25</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>21:30:00</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Santa Fe</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Tolima</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="G21" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="H21" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I21" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J21" t="n">
-        <v>3</v>
-      </c>
-      <c r="K21" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N21" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S21" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="W21" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="X21" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>80</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>28</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO6"/>
+  <dimension ref="A1:AO4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Qarabag FK</t>
+          <t>SE Palmeiras</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Slavia Prague</t>
+          <t>Atletico MG</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Athletic Bilbao</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -928,391 +928,121 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>SE Palmeiras</t>
+          <t>Tolima</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>2.48</v>
       </c>
       <c r="G4" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="H4" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="I4" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="J4" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="K4" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="L4" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="O4" t="n">
         <v>1.48</v>
       </c>
-      <c r="M4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N4" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.41</v>
-      </c>
       <c r="P4" t="n">
-        <v>1.77</v>
+        <v>1.62</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.24</v>
+        <v>2.48</v>
       </c>
       <c r="R4" t="n">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="S4" t="n">
-        <v>4.2</v>
+        <v>4.9</v>
       </c>
       <c r="T4" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="U4" t="n">
-        <v>2.06</v>
+        <v>1.92</v>
       </c>
       <c r="V4" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="W4" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="X4" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Y4" t="n">
         <v>11</v>
       </c>
-      <c r="Y4" t="n">
-        <v>11.5</v>
-      </c>
       <c r="Z4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AA4" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AB4" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD4" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AE4" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="AF4" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG4" t="n">
         <v>11.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AJ4" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AK4" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AL4" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>550</v>
+      </c>
+      <c r="AN4" t="n">
         <v>46</v>
       </c>
-      <c r="AM4" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>34</v>
-      </c>
       <c r="AO4" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Brazilian Serie A</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2025-11-25</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>21:30:00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Atletico MG</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Flamengo</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="G5" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="S5" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="X5" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>110</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>75</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>95</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>180</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>110</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2025-11-25</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>21:30:00</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Santa Fe</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Tolima</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N6" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S6" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="X6" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z6" t="n">
         <v>980</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>970</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>180</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>27</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="A1:AO3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,118 +667,118 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.48</v>
+        <v>1.04</v>
       </c>
       <c r="G2" t="n">
-        <v>2.5</v>
+        <v>1.06</v>
       </c>
       <c r="H2" t="n">
-        <v>3.35</v>
+        <v>200</v>
       </c>
       <c r="I2" t="n">
-        <v>3.4</v>
+        <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>3.25</v>
+        <v>1.8</v>
       </c>
       <c r="K2" t="n">
-        <v>3.3</v>
+        <v>1000</v>
       </c>
       <c r="L2" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>1.67</v>
+        <v>230</v>
       </c>
       <c r="X2" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN2" t="n">
         <v>18.5</v>
       </c>
-      <c r="AI2" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>32</v>
-      </c>
       <c r="AO2" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -793,256 +793,121 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Atletico MG</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Tolima</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4.4</v>
+        <v>200</v>
       </c>
       <c r="G3" t="n">
-        <v>4.5</v>
+        <v>1000</v>
       </c>
       <c r="H3" t="n">
-        <v>2.08</v>
+        <v>1.08</v>
       </c>
       <c r="I3" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="J3" t="n">
-        <v>3.3</v>
+        <v>10</v>
       </c>
       <c r="K3" t="n">
-        <v>3.35</v>
+        <v>13.5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.92</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.56</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.23</v>
+        <v>1.16</v>
       </c>
       <c r="S3" t="n">
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="T3" t="n">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1.9</v>
+        <v>10</v>
       </c>
       <c r="W3" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="X3" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>11</v>
+        <v>1.25</v>
       </c>
       <c r="AE3" t="n">
-        <v>26</v>
+        <v>550</v>
       </c>
       <c r="AF3" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>23</v>
+        <v>550</v>
       </c>
       <c r="AI3" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2025-11-25</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>21:30:00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Santa Fe</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Tolima</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S4" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="X4" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>100</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>36</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>550</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>46</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
